--- a/testcases/timeseries/EVDay01_mix17.xlsx
+++ b/testcases/timeseries/EVDay01_mix17.xlsx
@@ -1792,7 +1792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014001310</v>
+        <v>2012007719</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1901,424 +1901,6 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2012007130</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>75</v>
-      </c>
-      <c r="G3" t="n">
-        <v>250</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2015008295</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>40</v>
-      </c>
-      <c r="G4" t="n">
-        <v>250</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2012006767</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G5" t="n">
-        <v>250</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2012007209</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>24</v>
-      </c>
-      <c r="G6" t="n">
-        <v>250</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2012007432</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40</v>
-      </c>
-      <c r="G7" t="n">
-        <v>250</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2012007421</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" t="n">
-        <v>250</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2012006438</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>30</v>
-      </c>
-      <c r="G9" t="n">
-        <v>250</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2016004218</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>30</v>
-      </c>
-      <c r="G10" t="n">
-        <v>250</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2016007009</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>24</v>
-      </c>
-      <c r="G11" t="n">
-        <v>250</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2014002037</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>30</v>
-      </c>
-      <c r="G12" t="n">
-        <v>250</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2016007173</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>40</v>
-      </c>
-      <c r="G13" t="n">
-        <v>250</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2373,309 +1955,85 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2014001310</v>
+        <v>2012007719</v>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>67.12067136</v>
+        <v>56.298518</v>
       </c>
       <c r="E2" t="n">
-        <v>69.38373078301518</v>
+        <v>57.72780596551052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2014001310</v>
+        <v>2012007719</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="D3" t="n">
-        <v>73.30053696</v>
+        <v>55.5582216</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
-        <v>2014001310</v>
-      </c>
-      <c r="B4" t="n">
-        <v>63</v>
-      </c>
-      <c r="C4" t="n">
-        <v>121</v>
-      </c>
-      <c r="D4" t="n">
-        <v>71.13758399999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>75</v>
-      </c>
+      <c r="A4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n">
-        <v>2012007130</v>
-      </c>
-      <c r="B5" t="n">
-        <v>33</v>
-      </c>
-      <c r="C5" t="n">
-        <v>112</v>
-      </c>
-      <c r="D5" t="n">
-        <v>49.08962598327788</v>
-      </c>
-      <c r="E5" t="n">
-        <v>74.91218634606045</v>
-      </c>
+      <c r="A5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n">
-        <v>2015008295</v>
-      </c>
-      <c r="B6" t="n">
-        <v>31</v>
-      </c>
-      <c r="C6" t="n">
-        <v>143</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38.90564879999999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40</v>
-      </c>
+      <c r="A6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n">
-        <v>2012006767</v>
-      </c>
-      <c r="B7" t="n">
-        <v>32</v>
-      </c>
-      <c r="C7" t="n">
-        <v>118</v>
-      </c>
-      <c r="D7" t="n">
-        <v>38.3584726605412</v>
-      </c>
-      <c r="E7" t="n">
-        <v>40</v>
-      </c>
+      <c r="A7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n">
-        <v>2012007209</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>106</v>
-      </c>
-      <c r="D8" t="n">
-        <v>23.17923659824407</v>
-      </c>
-      <c r="E8" t="n">
-        <v>24</v>
-      </c>
+      <c r="A8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n">
-        <v>2012007432</v>
-      </c>
-      <c r="B9" t="n">
-        <v>34</v>
-      </c>
-      <c r="C9" t="n">
-        <v>122</v>
-      </c>
-      <c r="D9" t="n">
-        <v>37.74290011054119</v>
-      </c>
-      <c r="E9" t="n">
-        <v>40</v>
-      </c>
+      <c r="A9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n">
-        <v>2012007421</v>
-      </c>
-      <c r="B10" t="n">
-        <v>26</v>
-      </c>
-      <c r="C10" t="n">
-        <v>134</v>
-      </c>
-      <c r="D10" t="n">
-        <v>63.41275198327789</v>
-      </c>
-      <c r="E10" t="n">
-        <v>74.93543562379787</v>
-      </c>
+      <c r="A10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n">
-        <v>2012006438</v>
-      </c>
-      <c r="B11" t="n">
-        <v>31</v>
-      </c>
-      <c r="C11" t="n">
-        <v>42</v>
-      </c>
-      <c r="D11" t="n">
-        <v>29.16958055446736</v>
-      </c>
-      <c r="E11" t="n">
-        <v>30</v>
-      </c>
+      <c r="A11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n">
-        <v>2012006438</v>
-      </c>
-      <c r="B12" t="n">
-        <v>56</v>
-      </c>
-      <c r="C12" t="n">
-        <v>109</v>
-      </c>
-      <c r="D12" t="n">
-        <v>28.6159676</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30</v>
-      </c>
+      <c r="A12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n">
-        <v>2016004218</v>
-      </c>
-      <c r="B13" t="n">
-        <v>43</v>
-      </c>
-      <c r="C13" t="n">
-        <v>120</v>
-      </c>
-      <c r="D13" t="n">
-        <v>27.64714491446735</v>
-      </c>
-      <c r="E13" t="n">
-        <v>30</v>
-      </c>
+      <c r="A13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
-        <v>2016007009</v>
-      </c>
-      <c r="B14" t="n">
-        <v>32</v>
-      </c>
-      <c r="C14" t="n">
-        <v>57</v>
-      </c>
-      <c r="D14" t="n">
-        <v>20.7169464</v>
-      </c>
-      <c r="E14" t="n">
-        <v>24</v>
-      </c>
+      <c r="A14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n">
-        <v>2016007009</v>
-      </c>
-      <c r="B15" t="n">
-        <v>116</v>
-      </c>
-      <c r="C15" t="n">
-        <v>120</v>
-      </c>
-      <c r="D15" t="n">
-        <v>21.012421224</v>
-      </c>
-      <c r="E15" t="n">
-        <v>22.76317497686962</v>
-      </c>
+      <c r="A15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n">
-        <v>2016007009</v>
-      </c>
-      <c r="B16" t="n">
-        <v>122</v>
-      </c>
-      <c r="C16" t="n">
-        <v>143</v>
-      </c>
-      <c r="D16" t="n">
-        <v>22.9056488</v>
-      </c>
-      <c r="E16" t="n">
-        <v>24</v>
-      </c>
+      <c r="A16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n">
-        <v>2014002037</v>
-      </c>
-      <c r="B17" t="n">
-        <v>14</v>
-      </c>
-      <c r="C17" t="n">
-        <v>105</v>
-      </c>
-      <c r="D17" t="n">
-        <v>28.33916111446736</v>
-      </c>
-      <c r="E17" t="n">
-        <v>30</v>
-      </c>
+      <c r="A17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n">
-        <v>2016007173</v>
-      </c>
-      <c r="B18" t="n">
-        <v>26</v>
-      </c>
-      <c r="C18" t="n">
-        <v>30</v>
-      </c>
-      <c r="D18" t="n">
-        <v>38.90564879999999</v>
-      </c>
-      <c r="E18" t="n">
-        <v>40</v>
-      </c>
+      <c r="A18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n">
-        <v>2016007173</v>
-      </c>
-      <c r="B19" t="n">
-        <v>42</v>
-      </c>
-      <c r="C19" t="n">
-        <v>120</v>
-      </c>
-      <c r="D19" t="n">
-        <v>38.0848854</v>
-      </c>
-      <c r="E19" t="n">
-        <v>40</v>
-      </c>
+      <c r="A19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n"/>

--- a/testcases/timeseries/EVDay01_mix17.xlsx
+++ b/testcases/timeseries/EVDay01_mix17.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="0.0" numFmtId="164"/>
-    <numFmt formatCode="0.000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,101 +125,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -599,7 +531,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1782,7 +1714,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1792,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1732,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="5" width="12.85546875"/>
+    <col width="12.85546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1868,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012007719</v>
+        <v>2014004709</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1904,8 +1836,1908 @@
         <v>150</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2015000871</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>60</v>
+      </c>
+      <c r="G3" t="n">
+        <v>250</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2014007401</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G4" t="n">
+        <v>250</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2016007173</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" t="n">
+        <v>250</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2015000617</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" t="n">
+        <v>250</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2015001582</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" t="n">
+        <v>250</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2015001117</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24</v>
+      </c>
+      <c r="G8" t="n">
+        <v>250</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2013004822</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>250</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2015000889</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G10" t="n">
+        <v>250</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2012005170</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24</v>
+      </c>
+      <c r="G11" t="n">
+        <v>250</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2015000840</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>30</v>
+      </c>
+      <c r="G12" t="n">
+        <v>250</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2013004855</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>40</v>
+      </c>
+      <c r="G13" t="n">
+        <v>250</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2016008228</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>250</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2016006315</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" t="n">
+        <v>250</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2013009094</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>250</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2016006533</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>40</v>
+      </c>
+      <c r="G17" t="n">
+        <v>250</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2012007208</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>75</v>
+      </c>
+      <c r="G18" t="n">
+        <v>250</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2014002012</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>75</v>
+      </c>
+      <c r="G19" t="n">
+        <v>250</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2016000913</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30</v>
+      </c>
+      <c r="G20" t="n">
+        <v>250</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2012001394</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>75</v>
+      </c>
+      <c r="G21" t="n">
+        <v>250</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2013009134</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>75</v>
+      </c>
+      <c r="G22" t="n">
+        <v>250</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2015002849</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>24</v>
+      </c>
+      <c r="G23" t="n">
+        <v>250</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2016002937</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>40</v>
+      </c>
+      <c r="G24" t="n">
+        <v>250</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2013008540</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>250</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2014006068</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>40</v>
+      </c>
+      <c r="G26" t="n">
+        <v>250</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2016001084</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>75</v>
+      </c>
+      <c r="G27" t="n">
+        <v>250</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2013000030</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>30</v>
+      </c>
+      <c r="G28" t="n">
+        <v>250</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2014002384</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>60</v>
+      </c>
+      <c r="G29" t="n">
+        <v>250</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2014002558</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>30</v>
+      </c>
+      <c r="G30" t="n">
+        <v>250</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2016004033</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>30</v>
+      </c>
+      <c r="G31" t="n">
+        <v>250</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2012005342</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>24</v>
+      </c>
+      <c r="G32" t="n">
+        <v>250</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2012009975</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>30</v>
+      </c>
+      <c r="G33" t="n">
+        <v>250</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2013007912</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>60</v>
+      </c>
+      <c r="G34" t="n">
+        <v>250</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2013005153</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>75</v>
+      </c>
+      <c r="G35" t="n">
+        <v>250</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2013005763</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>40</v>
+      </c>
+      <c r="G36" t="n">
+        <v>250</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2016000041</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>24</v>
+      </c>
+      <c r="G37" t="n">
+        <v>250</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2015004251</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>30</v>
+      </c>
+      <c r="G38" t="n">
+        <v>250</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2016004339</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>30</v>
+      </c>
+      <c r="G39" t="n">
+        <v>250</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2016008881</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>30</v>
+      </c>
+      <c r="G40" t="n">
+        <v>250</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2016002024</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>40</v>
+      </c>
+      <c r="G41" t="n">
+        <v>250</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2016007331</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>75</v>
+      </c>
+      <c r="G42" t="n">
+        <v>250</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2012001817</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>30</v>
+      </c>
+      <c r="G43" t="n">
+        <v>250</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2013005634</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>75</v>
+      </c>
+      <c r="G44" t="n">
+        <v>250</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2015005982</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>75</v>
+      </c>
+      <c r="G45" t="n">
+        <v>250</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2015009264</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>30</v>
+      </c>
+      <c r="G46" t="n">
+        <v>250</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2014007247</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>40</v>
+      </c>
+      <c r="G47" t="n">
+        <v>250</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2016008917</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F48" t="n">
+        <v>75</v>
+      </c>
+      <c r="G48" t="n">
+        <v>250</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2015006509</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>40</v>
+      </c>
+      <c r="G49" t="n">
+        <v>250</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2016005887</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>40</v>
+      </c>
+      <c r="G50" t="n">
+        <v>250</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2012003405</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>75</v>
+      </c>
+      <c r="G51" t="n">
+        <v>250</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2014000643</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>24</v>
+      </c>
+      <c r="G52" t="n">
+        <v>250</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1915,7 +3747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="A2:E29"/>
@@ -1923,7 +3755,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.85546875"/>
+    <col width="15.85546875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1955,118 +3787,1196 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012007719</v>
+        <v>2014004709</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="D2" t="n">
-        <v>56.298518</v>
+        <v>59.07462949566242</v>
       </c>
       <c r="E2" t="n">
-        <v>57.72780596551052</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2012007719</v>
+        <v>2015000871</v>
       </c>
       <c r="B3" t="n">
+        <v>27</v>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.664160048</v>
+      </c>
+      <c r="E3" t="n">
+        <v>57.15959865811499</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>2015000871</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31</v>
+      </c>
+      <c r="C4" t="n">
         <v>38</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D4" t="n">
+        <v>56.298518</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59.12016095167926</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>2015000871</v>
+      </c>
+      <c r="B5" t="n">
+        <v>63</v>
+      </c>
+      <c r="C5" t="n">
+        <v>112</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.930579</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>2015000871</v>
+      </c>
+      <c r="B6" t="n">
+        <v>114</v>
+      </c>
+      <c r="C6" t="n">
+        <v>122</v>
+      </c>
+      <c r="D6" t="n">
+        <v>56.298518</v>
+      </c>
+      <c r="E6" t="n">
+        <v>59.31361234384666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>2014007401</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>133</v>
+      </c>
+      <c r="D7" t="n">
+        <v>33.0476506605412</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>2016007173</v>
+      </c>
+      <c r="B8" t="n">
+        <v>26</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>38.90564879999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
+        <v>2016007173</v>
+      </c>
+      <c r="B9" t="n">
+        <v>42</v>
+      </c>
+      <c r="C9" t="n">
         <v>120</v>
       </c>
-      <c r="D3" t="n">
-        <v>55.5582216</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D9" t="n">
+        <v>38.0848854</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>2015000617</v>
+      </c>
+      <c r="B10" t="n">
+        <v>30</v>
+      </c>
+      <c r="C10" t="n">
+        <v>42</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25.29428983446736</v>
+      </c>
+      <c r="E10" t="n">
+        <v>29.58232176898589</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>2015000617</v>
+      </c>
+      <c r="B11" t="n">
+        <v>59</v>
+      </c>
+      <c r="C11" t="n">
+        <v>116</v>
+      </c>
+      <c r="D11" t="n">
+        <v>27.78554816</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
+        <v>2015001582</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>28.89277407446735</v>
+      </c>
+      <c r="E12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>2015001582</v>
+      </c>
+      <c r="B13" t="n">
+        <v>34</v>
+      </c>
+      <c r="C13" t="n">
+        <v>121</v>
+      </c>
+      <c r="D13" t="n">
+        <v>28.89277408</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
+        <v>2015001117</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>113</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23.0424427</v>
+      </c>
+      <c r="E14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>2015001117</v>
+      </c>
+      <c r="B15" t="n">
+        <v>117</v>
+      </c>
+      <c r="C15" t="n">
+        <v>131</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23.06980148</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
+        <v>2013004822</v>
+      </c>
+      <c r="B16" t="n">
+        <v>53</v>
+      </c>
+      <c r="C16" t="n">
+        <v>143</v>
+      </c>
+      <c r="D16" t="n">
+        <v>73.84127518327789</v>
+      </c>
+      <c r="E16" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v>2015000889</v>
+      </c>
+      <c r="B17" t="n">
+        <v>40</v>
+      </c>
+      <c r="C17" t="n">
+        <v>120</v>
+      </c>
+      <c r="D17" t="n">
+        <v>36.71694586054119</v>
+      </c>
+      <c r="E17" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n">
+        <v>2015000889</v>
+      </c>
+      <c r="B18" t="n">
+        <v>125</v>
+      </c>
+      <c r="C18" t="n">
+        <v>143</v>
+      </c>
+      <c r="D18" t="n">
+        <v>36.7169464</v>
+      </c>
+      <c r="E18" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n">
+        <v>2012005170</v>
+      </c>
+      <c r="B19" t="n">
+        <v>52</v>
+      </c>
+      <c r="C19" t="n">
+        <v>143</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.763968598244064</v>
+      </c>
+      <c r="E19" t="n">
+        <v>23.99999999824409</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
+        <v>2015000840</v>
+      </c>
+      <c r="B20" t="n">
+        <v>28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>111</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6.632383194467362</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29.45733332780071</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n">
+        <v>2013004855</v>
+      </c>
+      <c r="B21" t="n">
+        <v>39</v>
+      </c>
+      <c r="C21" t="n">
+        <v>117</v>
+      </c>
+      <c r="D21" t="n">
+        <v>38.3584726605412</v>
+      </c>
+      <c r="E21" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="n">
+        <v>2016008228</v>
+      </c>
+      <c r="B22" t="n">
+        <v>33</v>
+      </c>
+      <c r="C22" t="n">
+        <v>117</v>
+      </c>
+      <c r="D22" t="n">
+        <v>73.06879198327789</v>
+      </c>
+      <c r="E22" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="n">
+        <v>2016006315</v>
+      </c>
+      <c r="B23" t="n">
+        <v>30</v>
+      </c>
+      <c r="C23" t="n">
+        <v>120</v>
+      </c>
+      <c r="D23" t="n">
+        <v>28.89277407446736</v>
+      </c>
+      <c r="E23" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n">
+        <v>2013009094</v>
+      </c>
+      <c r="B24" t="n">
+        <v>26</v>
+      </c>
+      <c r="C24" t="n">
+        <v>32</v>
+      </c>
+      <c r="D24" t="n">
+        <v>74.22751679999998</v>
+      </c>
+      <c r="E24" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="n">
+        <v>2013009094</v>
+      </c>
+      <c r="B25" t="n">
+        <v>55</v>
+      </c>
+      <c r="C25" t="n">
+        <v>143</v>
+      </c>
+      <c r="D25" t="n">
+        <v>73.91852352000002</v>
+      </c>
+      <c r="E25" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="n">
+        <v>2016006533</v>
+      </c>
+      <c r="B26" t="n">
+        <v>114</v>
+      </c>
+      <c r="C26" t="n">
+        <v>143</v>
+      </c>
+      <c r="D26" t="n">
+        <v>38.90564826054121</v>
+      </c>
+      <c r="E26" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="n">
+        <v>2012007208</v>
+      </c>
+      <c r="B27" t="n">
+        <v>38</v>
+      </c>
+      <c r="C27" t="n">
+        <v>116</v>
+      </c>
+      <c r="D27" t="n">
+        <v>69.55399342327789</v>
+      </c>
+      <c r="E27" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="n">
+        <v>2014002012</v>
+      </c>
+      <c r="B28" t="n">
+        <v>45</v>
+      </c>
+      <c r="C28" t="n">
+        <v>120</v>
+      </c>
+      <c r="D28" t="n">
+        <v>69.97885918327789</v>
+      </c>
+      <c r="E28" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="n">
+        <v>2016000913</v>
+      </c>
+      <c r="B29" t="n">
+        <v>38</v>
+      </c>
+      <c r="C29" t="n">
+        <v>47</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10.75776535046734</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20.52576535046734</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2016000913</v>
+      </c>
+      <c r="B30" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="n"/>
+      <c r="C30" t="n">
+        <v>122</v>
+      </c>
+      <c r="D30" t="n">
+        <v>19.83374915046735</v>
+      </c>
+      <c r="E30" t="n">
+        <v>29.99999999446738</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2012001394</v>
+      </c>
+      <c r="B31" t="n">
+        <v>40</v>
+      </c>
+      <c r="C31" t="n">
+        <v>122</v>
+      </c>
+      <c r="D31" t="n">
+        <v>67.27516798327788</v>
+      </c>
+      <c r="E31" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2013009134</v>
+      </c>
+      <c r="B32" t="n">
+        <v>16</v>
+      </c>
+      <c r="C32" t="n">
+        <v>141</v>
+      </c>
+      <c r="D32" t="n">
+        <v>57.23288638327787</v>
+      </c>
+      <c r="E32" t="n">
+        <v>74.4573333166112</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2015002849</v>
+      </c>
+      <c r="B33" t="n">
+        <v>45</v>
+      </c>
+      <c r="C33" t="n">
+        <v>143</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12.56402995824406</v>
+      </c>
+      <c r="E33" t="n">
+        <v>23.99999999824407</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2016002937</v>
+      </c>
+      <c r="B34" t="n">
+        <v>28</v>
+      </c>
+      <c r="C34" t="n">
+        <v>122</v>
+      </c>
+      <c r="D34" t="n">
+        <v>38.90564879999999</v>
+      </c>
+      <c r="E34" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2016002937</v>
+      </c>
+      <c r="B35" t="n">
+        <v>124</v>
+      </c>
+      <c r="C35" t="n">
+        <v>143</v>
+      </c>
+      <c r="D35" t="n">
+        <v>38.3584732</v>
+      </c>
+      <c r="E35" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2013008540</v>
+      </c>
+      <c r="B36" t="n">
+        <v>36</v>
+      </c>
+      <c r="C36" t="n">
+        <v>119</v>
+      </c>
+      <c r="D36" t="n">
+        <v>70.36510078327787</v>
+      </c>
+      <c r="E36" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2014006068</v>
+      </c>
+      <c r="B37" t="n">
+        <v>48</v>
+      </c>
+      <c r="C37" t="n">
+        <v>143</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E37" t="n">
+        <v>39.99942560538087</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2016001084</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>14</v>
+      </c>
+      <c r="D38" t="n">
+        <v>74.22751679999998</v>
+      </c>
+      <c r="E38" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2016001084</v>
+      </c>
+      <c r="B39" t="n">
+        <v>25</v>
+      </c>
+      <c r="C39" t="n">
+        <v>122</v>
+      </c>
+      <c r="D39" t="n">
+        <v>72.48942960000002</v>
+      </c>
+      <c r="E39" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2013000030</v>
+      </c>
+      <c r="B40" t="n">
+        <v>32</v>
+      </c>
+      <c r="C40" t="n">
+        <v>107</v>
+      </c>
+      <c r="D40" t="n">
+        <v>27.78554815446735</v>
+      </c>
+      <c r="E40" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2014002384</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="n">
+        <v>117</v>
+      </c>
+      <c r="D41" t="n">
+        <v>47.7851093956624</v>
+      </c>
+      <c r="E41" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2014002558</v>
+      </c>
+      <c r="B42" t="n">
+        <v>34</v>
+      </c>
+      <c r="C42" t="n">
+        <v>98</v>
+      </c>
+      <c r="D42" t="n">
+        <v>17.70464239446736</v>
+      </c>
+      <c r="E42" t="n">
+        <v>29.45733332780071</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2016004033</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>143</v>
+      </c>
+      <c r="D43" t="n">
+        <v>27.78554816</v>
+      </c>
+      <c r="E43" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2012005342</v>
+      </c>
+      <c r="B44" t="n">
+        <v>36</v>
+      </c>
+      <c r="C44" t="n">
+        <v>113</v>
+      </c>
+      <c r="D44" t="n">
+        <v>13.87725139824407</v>
+      </c>
+      <c r="E44" t="n">
+        <v>23.45733333157738</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2012009975</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18</v>
+      </c>
+      <c r="C45" t="n">
+        <v>120</v>
+      </c>
+      <c r="D45" t="n">
+        <v>28.33916112</v>
+      </c>
+      <c r="E45" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2012009975</v>
+      </c>
+      <c r="B46" t="n">
+        <v>122</v>
+      </c>
+      <c r="C46" t="n">
+        <v>143</v>
+      </c>
+      <c r="D46" t="n">
+        <v>29.44638704</v>
+      </c>
+      <c r="E46" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2013007912</v>
+      </c>
+      <c r="B47" t="n">
+        <v>31</v>
+      </c>
+      <c r="C47" t="n">
+        <v>120</v>
+      </c>
+      <c r="D47" t="n">
+        <v>52.5970359956624</v>
+      </c>
+      <c r="E47" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2013005153</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6</v>
+      </c>
+      <c r="C48" t="n">
+        <v>24</v>
+      </c>
+      <c r="D48" t="n">
+        <v>58.46885950327788</v>
+      </c>
+      <c r="E48" t="n">
+        <v>70.48861439131603</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2013005153</v>
+      </c>
+      <c r="B49" t="n">
+        <v>32</v>
+      </c>
+      <c r="C49" t="n">
+        <v>116</v>
+      </c>
+      <c r="D49" t="n">
+        <v>74.15026846327787</v>
+      </c>
+      <c r="E49" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2013005763</v>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16</v>
+      </c>
+      <c r="D50" t="n">
+        <v>37.5377098</v>
+      </c>
+      <c r="E50" t="n">
+        <v>39.92397114866162</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2013005763</v>
+      </c>
+      <c r="B51" t="n">
+        <v>22</v>
+      </c>
+      <c r="C51" t="n">
+        <v>118</v>
+      </c>
+      <c r="D51" t="n">
+        <v>32.70003376</v>
+      </c>
+      <c r="E51" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2016000041</v>
+      </c>
+      <c r="B52" t="n">
+        <v>30</v>
+      </c>
+      <c r="C52" t="n">
+        <v>120</v>
+      </c>
+      <c r="D52" t="n">
+        <v>16.2027477</v>
+      </c>
+      <c r="E52" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2016000041</v>
+      </c>
+      <c r="B53" t="n">
+        <v>122</v>
+      </c>
+      <c r="C53" t="n">
+        <v>123</v>
+      </c>
+      <c r="D53" t="n">
+        <v>22.08488539824406</v>
+      </c>
+      <c r="E53" t="n">
+        <v>22.64245384097102</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2016000041</v>
+      </c>
+      <c r="B54" t="n">
+        <v>126</v>
+      </c>
+      <c r="C54" t="n">
+        <v>128</v>
+      </c>
+      <c r="D54" t="n">
+        <v>21.9480915</v>
+      </c>
+      <c r="E54" t="n">
+        <v>23.05175476211282</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2016000041</v>
+      </c>
+      <c r="B55" t="n">
+        <v>142</v>
+      </c>
+      <c r="C55" t="n">
+        <v>143</v>
+      </c>
+      <c r="D55" t="n">
+        <v>23.4528244</v>
+      </c>
+      <c r="E55" t="n">
+        <v>23.81090691842736</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2015004251</v>
+      </c>
+      <c r="B56" t="n">
+        <v>16</v>
+      </c>
+      <c r="C56" t="n">
+        <v>133</v>
+      </c>
+      <c r="D56" t="n">
+        <v>25.43269307446736</v>
+      </c>
+      <c r="E56" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2016004339</v>
+      </c>
+      <c r="B57" t="n">
+        <v>62</v>
+      </c>
+      <c r="C57" t="n">
+        <v>143</v>
+      </c>
+      <c r="D57" t="n">
+        <v>25.57109632</v>
+      </c>
+      <c r="E57" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2016008881</v>
+      </c>
+      <c r="B58" t="n">
+        <v>38</v>
+      </c>
+      <c r="C58" t="n">
+        <v>108</v>
+      </c>
+      <c r="D58" t="n">
+        <v>21.69580559446736</v>
+      </c>
+      <c r="E58" t="n">
+        <v>29.45733332780069</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2016002024</v>
+      </c>
+      <c r="B59" t="n">
+        <v>45</v>
+      </c>
+      <c r="C59" t="n">
+        <v>114</v>
+      </c>
+      <c r="D59" t="n">
+        <v>17.53361306054121</v>
+      </c>
+      <c r="E59" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2016007331</v>
+      </c>
+      <c r="B60" t="n">
+        <v>25</v>
+      </c>
+      <c r="C60" t="n">
+        <v>117</v>
+      </c>
+      <c r="D60" t="n">
+        <v>69.5926175832779</v>
+      </c>
+      <c r="E60" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2012001817</v>
+      </c>
+      <c r="B61" t="n">
+        <v>34</v>
+      </c>
+      <c r="C61" t="n">
+        <v>116</v>
+      </c>
+      <c r="D61" t="n">
+        <v>27.23193519446737</v>
+      </c>
+      <c r="E61" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2013005634</v>
+      </c>
+      <c r="B62" t="n">
+        <v>31</v>
+      </c>
+      <c r="C62" t="n">
+        <v>118</v>
+      </c>
+      <c r="D62" t="n">
+        <v>70.36510078327788</v>
+      </c>
+      <c r="E62" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2015005982</v>
+      </c>
+      <c r="B63" t="n">
+        <v>32</v>
+      </c>
+      <c r="C63" t="n">
+        <v>120</v>
+      </c>
+      <c r="D63" t="n">
+        <v>72.9142953432779</v>
+      </c>
+      <c r="E63" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2015009264</v>
+      </c>
+      <c r="B64" t="n">
+        <v>48</v>
+      </c>
+      <c r="C64" t="n">
+        <v>112</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.775</v>
+      </c>
+      <c r="E64" t="n">
+        <v>29.99999999446736</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2014007247</v>
+      </c>
+      <c r="B65" t="n">
+        <v>24</v>
+      </c>
+      <c r="C65" t="n">
+        <v>117</v>
+      </c>
+      <c r="D65" t="n">
+        <v>36.99053366054122</v>
+      </c>
+      <c r="E65" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2016008917</v>
+      </c>
+      <c r="B66" t="n">
+        <v>20</v>
+      </c>
+      <c r="C66" t="n">
+        <v>30</v>
+      </c>
+      <c r="D66" t="n">
+        <v>57.6030345832779</v>
+      </c>
+      <c r="E66" t="n">
+        <v>66.46565354462271</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2016008917</v>
+      </c>
+      <c r="B67" t="n">
+        <v>58</v>
+      </c>
+      <c r="C67" t="n">
+        <v>99</v>
+      </c>
+      <c r="D67" t="n">
+        <v>59.03534718327786</v>
+      </c>
+      <c r="E67" t="n">
+        <v>74.70055796509317</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2015006509</v>
+      </c>
+      <c r="B68" t="n">
+        <v>26</v>
+      </c>
+      <c r="C68" t="n">
+        <v>119</v>
+      </c>
+      <c r="D68" t="n">
+        <v>36.49807562054121</v>
+      </c>
+      <c r="E68" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2016005887</v>
+      </c>
+      <c r="B69" t="n">
+        <v>33</v>
+      </c>
+      <c r="C69" t="n">
+        <v>143</v>
+      </c>
+      <c r="D69" t="n">
+        <v>38.08488486054121</v>
+      </c>
+      <c r="E69" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2012003405</v>
+      </c>
+      <c r="B70" t="n">
+        <v>14</v>
+      </c>
+      <c r="C70" t="n">
+        <v>105</v>
+      </c>
+      <c r="D70" t="n">
+        <v>73.45503360000002</v>
+      </c>
+      <c r="E70" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2014000643</v>
+      </c>
+      <c r="B71" t="n">
+        <v>57</v>
+      </c>
+      <c r="C71" t="n">
+        <v>143</v>
+      </c>
+      <c r="D71" t="n">
+        <v>15.792366</v>
+      </c>
+      <c r="E71" t="n">
+        <v>23.99999999824407</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2084,8 +4994,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
+    <col width="11.7109375" customWidth="1" min="2" max="2"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2540,7 +5450,7 @@
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="4" t="n"/>
@@ -2557,7 +5467,7 @@
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D28" s="4" t="n"/>
       <c r="E28" s="4" t="n"/>
@@ -2574,7 +5484,7 @@
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D29" s="4" t="n"/>
       <c r="E29" s="4" t="n"/>
@@ -2591,7 +5501,7 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -2608,7 +5518,7 @@
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -2625,7 +5535,7 @@
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -2642,7 +5552,7 @@
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
@@ -2659,7 +5569,7 @@
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -2676,7 +5586,7 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -2693,7 +5603,7 @@
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="4" t="n"/>
@@ -2710,7 +5620,7 @@
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D37" s="4" t="n"/>
       <c r="E37" s="4" t="n"/>
@@ -2727,7 +5637,7 @@
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="4" t="n"/>
@@ -2744,7 +5654,7 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
@@ -2761,7 +5671,7 @@
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
@@ -2778,7 +5688,7 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -2795,7 +5705,7 @@
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D42" s="4" t="n"/>
       <c r="E42" s="4" t="n"/>
@@ -2812,7 +5722,7 @@
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n"/>
@@ -2829,7 +5739,7 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
@@ -2846,7 +5756,7 @@
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D45" s="4" t="n"/>
       <c r="E45" s="4" t="n"/>
@@ -2863,7 +5773,7 @@
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D46" s="4" t="n"/>
       <c r="E46" s="4" t="n"/>
@@ -2880,7 +5790,7 @@
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="4" t="n"/>
@@ -2897,7 +5807,7 @@
         </is>
       </c>
       <c r="C48" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D48" s="4" t="n"/>
       <c r="E48" s="4" t="n"/>
@@ -2914,7 +5824,7 @@
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D49" s="4" t="n"/>
       <c r="E49" s="4" t="n"/>
@@ -2931,7 +5841,7 @@
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D50" s="4" t="n"/>
       <c r="E50" s="4" t="n"/>
@@ -2948,7 +5858,7 @@
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D51" s="4" t="n"/>
       <c r="E51" s="4" t="n"/>
@@ -2965,7 +5875,7 @@
         </is>
       </c>
       <c r="C52" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D52" s="4" t="n"/>
       <c r="E52" s="4" t="n"/>
@@ -2982,7 +5892,7 @@
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D53" s="4" t="n"/>
       <c r="E53" s="4" t="n"/>
@@ -2999,7 +5909,7 @@
         </is>
       </c>
       <c r="C54" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D54" s="4" t="n"/>
       <c r="E54" s="4" t="n"/>
@@ -3016,7 +5926,7 @@
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D55" s="4" t="n"/>
       <c r="E55" s="4" t="n"/>
@@ -3033,7 +5943,7 @@
         </is>
       </c>
       <c r="C56" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D56" s="4" t="n"/>
       <c r="E56" s="4" t="n"/>
@@ -3050,7 +5960,7 @@
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D57" s="4" t="n"/>
       <c r="E57" s="4" t="n"/>
@@ -4986,7 +7896,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5061,7 +7971,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5147,7 +8057,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5258,7 +8168,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5304,7 +8214,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5623,7 +8533,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5641,10 +8551,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5665,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>7.564983684972773</v>
+        <v>22.9764456924774</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5674,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>7.226846113686933</v>
+        <v>22.3216174821972</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5683,7 +8593,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>6.128957414314778</v>
+        <v>22.3216174821972</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5692,7 +8602,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>6.81023763560594</v>
+        <v>22.3216174821972</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5701,7 +8611,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>6.896354571881703</v>
+        <v>21.4536850350017</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5710,7 +8620,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>3.661627241636065</v>
+        <v>21.4536850350017</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5719,7 +8629,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>5.699464741925559</v>
+        <v>21.4536850350017</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5728,7 +8638,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>7.267618855652298</v>
+        <v>23.64842876111989</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5737,7 +8647,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>3.660289318081916</v>
+        <v>23.64842876111989</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5746,7 +8656,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>3.957488122386557</v>
+        <v>23.64842876111989</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5755,7 +8665,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>4.113046754682735</v>
+        <v>24.37350361083467</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5764,7 +8674,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>3.469141140652222</v>
+        <v>24.37350361083467</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5773,7 +8683,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>3.632278600909032</v>
+        <v>24.37350361083467</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -5782,7 +8692,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>3.367752779807519</v>
+        <v>22.0832324809823</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -5791,7 +8701,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2.932518666115481</v>
+        <v>22.0832324809823</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -5800,7 +8710,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.96397563192434</v>
+        <v>22.0832324809823</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -5809,7 +8719,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2.775536859265898</v>
+        <v>22.98245164087446</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -5818,7 +8728,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2.087700031761603</v>
+        <v>22.98245164087446</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -5827,7 +8737,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.693009327591697</v>
+        <v>22.98245164087446</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -5836,7 +8746,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>2.004270006036942</v>
+        <v>21.32506808640272</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -5845,7 +8755,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>3.022385879674479</v>
+        <v>21.32506808640272</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -5854,7 +8764,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.394524349053731</v>
+        <v>21.32506808640272</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -5863,7 +8773,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2.122952015447487</v>
+        <v>20.46931367295369</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -5872,7 +8782,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1.076357337933155</v>
+        <v>20.46931367295369</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -5881,7 +8791,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0.6575962509333728</v>
+        <v>20.46931367295369</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -5890,7 +8800,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0</v>
+        <v>17.79508069857867</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -5899,7 +8809,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0</v>
+        <v>17.79508069857867</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -5908,7 +8818,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0</v>
+        <v>17.79508069857867</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -5917,7 +8827,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0</v>
+        <v>12.7446849350971</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -5926,7 +8836,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0</v>
+        <v>12.7446849350971</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -5935,7 +8845,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0</v>
+        <v>12.7446849350971</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -5944,7 +8854,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0</v>
+        <v>9.212358981906302</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -5953,7 +8863,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0</v>
+        <v>9.212358981906302</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -5962,7 +8872,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0</v>
+        <v>9.212358981906302</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -5971,7 +8881,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0</v>
+        <v>6.344802775414728</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -5980,7 +8890,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0</v>
+        <v>6.344802775414728</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -5989,7 +8899,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0</v>
+        <v>6.344802775414728</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -5998,7 +8908,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0</v>
+        <v>7.772108340472791</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6007,7 +8917,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0</v>
+        <v>7.772108340472791</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6016,7 +8926,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0</v>
+        <v>7.772108340472791</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6025,7 +8935,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0</v>
+        <v>8.170492894597761</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6034,7 +8944,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0</v>
+        <v>8.170492894597761</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6043,7 +8953,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0</v>
+        <v>8.170492894597761</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6052,7 +8962,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0</v>
+        <v>10.09414162695727</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6061,7 +8971,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0</v>
+        <v>10.09414162695727</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6070,7 +8980,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0</v>
+        <v>10.09414162695727</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6079,7 +8989,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0</v>
+        <v>12.73688692670945</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6088,7 +8998,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0</v>
+        <v>12.73688692670945</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6097,7 +9007,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0</v>
+        <v>12.73688692670945</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6106,7 +9016,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0</v>
+        <v>15.90836165448917</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6115,7 +9025,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0</v>
+        <v>15.90836165448917</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6124,7 +9034,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0</v>
+        <v>15.90836165448917</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6133,7 +9043,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0</v>
+        <v>19.68982481178589</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6142,7 +9052,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0</v>
+        <v>19.68982481178589</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6151,7 +9061,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0</v>
+        <v>19.68982481178589</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6160,7 +9070,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0</v>
+        <v>21.50494057509509</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6169,7 +9079,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0.3689194469954742</v>
+        <v>21.50494057509509</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6178,7 +9088,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1.157443315944257</v>
+        <v>21.50494057509509</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6187,7 +9097,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>2.552988740351279</v>
+        <v>26.87814499812886</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6196,7 +9106,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>2.951191645231845</v>
+        <v>26.87814499812886</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6205,7 +9115,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>5.200140577932968</v>
+        <v>26.87814499812886</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6214,7 +9124,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>8.147614477459463</v>
+        <v>28.50545037019196</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6223,7 +9133,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>8.378686413164134</v>
+        <v>28.50545037019196</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6232,7 +9142,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>10.21078061596047</v>
+        <v>28.50545037019196</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6241,7 +9151,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>12.7042267556799</v>
+        <v>34.01594961473461</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6250,7 +9160,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>11.8434182152143</v>
+        <v>34.01594961473461</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6259,7 +9169,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>12.5974580796359</v>
+        <v>34.01594961473461</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6268,7 +9178,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>14.67074025495403</v>
+        <v>37.55701693321637</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6277,7 +9187,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>14.47673121624168</v>
+        <v>37.55701693321637</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6286,7 +9196,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>14.04262947271577</v>
+        <v>37.55701693321637</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6295,7 +9205,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>14.06035233637809</v>
+        <v>36.95296201865219</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6304,7 +9214,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>15.85938696344521</v>
+        <v>36.95296201865219</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6313,7 +9223,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>14.82660736561559</v>
+        <v>36.95296201865219</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6322,7 +9232,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>11.82304933926601</v>
+        <v>38.42937425414802</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6331,7 +9241,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>9.358848235305953</v>
+        <v>38.42937425414802</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6340,7 +9250,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>12.6695796866099</v>
+        <v>38.42937425414802</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6349,7 +9259,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>17.28626317969042</v>
+        <v>43.2132847897675</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6358,7 +9268,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>18.14482447901964</v>
+        <v>43.2132847897675</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6367,7 +9277,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>18.36069880808594</v>
+        <v>43.2132847897675</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6376,7 +9286,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>17.52931499370258</v>
+        <v>47.47759616329522</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6385,7 +9295,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>18.36260662800471</v>
+        <v>47.47759616329522</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6394,7 +9304,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>17.9718962573379</v>
+        <v>47.47759616329522</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6403,7 +9313,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>18.65202024993131</v>
+        <v>51.27321937956054</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6412,7 +9322,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>16.47019349419928</v>
+        <v>51.27321937956054</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6421,7 +9331,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>16.4689417892614</v>
+        <v>51.27321937956054</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6430,7 +9340,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>16.2825532077947</v>
+        <v>52.4292829237128</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6439,7 +9349,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>17.17094941401852</v>
+        <v>52.4292829237128</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6448,7 +9358,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>17.37690517253744</v>
+        <v>52.4292829237128</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6457,7 +9367,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>14.0754018503114</v>
+        <v>52.95124579822775</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6466,7 +9376,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>11.25364507458722</v>
+        <v>52.95124579822775</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6475,7 +9385,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>11.09281684035736</v>
+        <v>52.95124579822775</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6484,7 +9394,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>12.72290039287162</v>
+        <v>53.042418571879</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6493,7 +9403,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>15.77389211429943</v>
+        <v>53.042418571879</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6502,7 +9412,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>17.1279279180489</v>
+        <v>53.042418571879</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6511,7 +9421,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>13.47113774818399</v>
+        <v>53.69380053660271</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6520,7 +9430,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>12.77676288234963</v>
+        <v>53.69380053660271</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6529,7 +9439,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>11.54427138285164</v>
+        <v>53.69380053660271</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6538,7 +9448,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>12.92655752289781</v>
+        <v>53.13390523635842</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6547,7 +9457,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>14.42849791949617</v>
+        <v>53.13390523635842</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6556,7 +9466,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>16.66828624301768</v>
+        <v>53.13390523635842</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6565,7 +9475,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>15.83726543028391</v>
+        <v>53.95596338206533</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6574,7 +9484,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>16.53262032639457</v>
+        <v>53.95596338206533</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6583,7 +9493,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>15.02469707705921</v>
+        <v>53.95596338206533</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6592,7 +9502,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>15.82487197243927</v>
+        <v>53.57530826011626</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6601,7 +9511,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>16.23677673723279</v>
+        <v>53.57530826011626</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6610,7 +9520,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>15.6674547754879</v>
+        <v>53.57530826011626</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6619,7 +9529,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>13.20561624020149</v>
+        <v>51.93405444538568</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6628,7 +9538,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>11.47659092243437</v>
+        <v>51.93405444538568</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6637,7 +9547,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>10.49888229269963</v>
+        <v>51.93405444538568</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6646,7 +9556,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>10.06140340081256</v>
+        <v>46.74204613910528</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6655,7 +9565,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>8.378171521826015</v>
+        <v>46.74204613910528</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6664,7 +9574,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>7.212155594717835</v>
+        <v>46.74204613910528</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6673,7 +9583,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>5.822115751855641</v>
+        <v>40.86439349163974</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6682,7 +9592,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>6.762008937733752</v>
+        <v>40.86439349163974</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6691,7 +9601,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>7.424965024178313</v>
+        <v>40.86439349163974</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6700,7 +9610,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>5.185722179667103</v>
+        <v>32.48240145509796</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6709,7 +9619,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>6.542477496157026</v>
+        <v>32.48240145509796</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6718,7 +9628,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>4.745822475827483</v>
+        <v>32.48240145509796</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6727,7 +9637,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>3.082490702697765</v>
+        <v>31.85602296594192</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6736,7 +9646,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>4.088613521390785</v>
+        <v>31.85602296594192</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6745,7 +9655,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>4.61058890201466</v>
+        <v>31.85602296594192</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6754,7 +9664,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>5.419916107426596</v>
+        <v>30.81233779310158</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6763,7 +9673,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>4.989713213884187</v>
+        <v>30.81233779310158</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6772,7 +9682,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>4.763323391518569</v>
+        <v>30.81233779310158</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -6781,7 +9691,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>6.641112756459913</v>
+        <v>30.22862086165373</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -6790,7 +9700,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>8.735955593237289</v>
+        <v>30.22862086165373</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -6799,7 +9709,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>9.093456666949512</v>
+        <v>30.22862086165373</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -6808,7 +9718,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>7.268041210914664</v>
+        <v>28.22962207615193</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -6817,7 +9727,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>8.122187540005637</v>
+        <v>28.22962207615193</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -6826,7 +9736,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>6.210136711197315</v>
+        <v>28.22962207615193</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -6835,7 +9745,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>7.042300336269416</v>
+        <v>28.02306563952391</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -6844,7 +9754,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>7.73904000953786</v>
+        <v>28.02306563952391</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -6853,7 +9763,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>7.057495010087493</v>
+        <v>28.02306563952391</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -6862,7 +9772,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>6.214575941157882</v>
+        <v>27.40563040535225</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -6871,7 +9781,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>7.07282187833445</v>
+        <v>27.40563040535225</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -6880,7 +9790,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>8.306864758251058</v>
+        <v>27.40563040535225</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -6889,7 +9799,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>8.170211878502331</v>
+        <v>27.40844962579736</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -6898,7 +9808,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>6.959878167623867</v>
+        <v>27.40844962579736</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -6907,7 +9817,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>8.844677360042885</v>
+        <v>27.40844962579736</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -6916,7 +9826,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>7.83295401142053</v>
+        <v>22.79633742771298</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -6925,7 +9835,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>7.305994299197543</v>
+        <v>22.79633742771298</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -6934,7 +9844,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>6.447031661420748</v>
+        <v>22.79633742771298</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -6943,7 +9853,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>7.851088415895632</v>
+        <v>22.9764456924774</v>
       </c>
     </row>
     <row r="145">
@@ -6951,14 +9861,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>8.028979518447152</v>
+        <v>22.9764456924774</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6976,8 +9886,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6998,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-47.27294192198065</v>
+        <v>-100.8162151359653</v>
       </c>
     </row>
     <row r="3">
@@ -7006,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-47.17277384255586</v>
+        <v>-102.6538263402603</v>
       </c>
     </row>
     <row r="4">
@@ -7014,7 +9924,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-48.16232342233501</v>
+        <v>-102.6538263402603</v>
       </c>
     </row>
     <row r="5">
@@ -7022,7 +9932,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-47.4220724098455</v>
+        <v>-102.6538263402603</v>
       </c>
     </row>
     <row r="6">
@@ -7030,7 +9940,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-49.02743060548873</v>
+        <v>-100.9883861575692</v>
       </c>
     </row>
     <row r="7">
@@ -7038,7 +9948,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-48.26429584639195</v>
+        <v>-100.9883861575692</v>
       </c>
     </row>
     <row r="8">
@@ -7046,7 +9956,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-48.25777714366163</v>
+        <v>-100.9883861575692</v>
       </c>
     </row>
     <row r="9">
@@ -7054,7 +9964,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-48.88286131331677</v>
+        <v>-100.3702004231391</v>
       </c>
     </row>
     <row r="10">
@@ -7062,7 +9972,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-49.43674225692412</v>
+        <v>-100.3702004231391</v>
       </c>
     </row>
     <row r="11">
@@ -7070,7 +9980,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-51.61421736994734</v>
+        <v>-100.3702004231391</v>
       </c>
     </row>
     <row r="12">
@@ -7078,7 +9988,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-51.01828159683132</v>
+        <v>-100.7960332261718</v>
       </c>
     </row>
     <row r="13">
@@ -7086,7 +9996,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-50.51546776990698</v>
+        <v>-100.7960332261718</v>
       </c>
     </row>
     <row r="14">
@@ -7094,7 +10004,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-49.52344089751747</v>
+        <v>-100.7960332261718</v>
       </c>
     </row>
     <row r="15">
@@ -7102,7 +10012,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-50.73570951832547</v>
+        <v>-100.4414037825633</v>
       </c>
     </row>
     <row r="16">
@@ -7110,7 +10020,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-51.88446698372314</v>
+        <v>-100.4414037825633</v>
       </c>
     </row>
     <row r="17">
@@ -7118,7 +10028,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-50.69774272324958</v>
+        <v>-100.4414037825633</v>
       </c>
     </row>
     <row r="18">
@@ -7126,7 +10036,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-52.4464156247411</v>
+        <v>-100.9801003366578</v>
       </c>
     </row>
     <row r="19">
@@ -7134,7 +10044,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-52.91112439412997</v>
+        <v>-100.9801003366578</v>
       </c>
     </row>
     <row r="20">
@@ -7142,7 +10052,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-52.5568244439079</v>
+        <v>-100.9801003366578</v>
       </c>
     </row>
     <row r="21">
@@ -7150,7 +10060,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-50.75472079197722</v>
+        <v>-101.0845754279974</v>
       </c>
     </row>
     <row r="22">
@@ -7158,7 +10068,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-50.9374899406384</v>
+        <v>-101.0845754279974</v>
       </c>
     </row>
     <row r="23">
@@ -7166,7 +10076,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-51.24854973466569</v>
+        <v>-101.0845754279974</v>
       </c>
     </row>
     <row r="24">
@@ -7174,7 +10084,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-52.55496822867744</v>
+        <v>-102.5987390738508</v>
       </c>
     </row>
     <row r="25">
@@ -7182,7 +10092,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-52.01470012376869</v>
+        <v>-102.5987390738508</v>
       </c>
     </row>
     <row r="26">
@@ -7190,7 +10100,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-50.88438016220907</v>
+        <v>-102.5987390738508</v>
       </c>
     </row>
     <row r="27">
@@ -7198,7 +10108,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-52.67716223045429</v>
+        <v>-106.0405728458779</v>
       </c>
     </row>
     <row r="28">
@@ -7206,7 +10116,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-55.13244433433258</v>
+        <v>-106.0405728458779</v>
       </c>
     </row>
     <row r="29">
@@ -7214,7 +10124,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-54.59971569923407</v>
+        <v>-106.0405728458779</v>
       </c>
     </row>
     <row r="30">
@@ -7222,7 +10132,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-54.86832305323486</v>
+        <v>-108.3166206094313</v>
       </c>
     </row>
     <row r="31">
@@ -7230,7 +10140,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-55.45932659383452</v>
+        <v>-108.3166206094313</v>
       </c>
     </row>
     <row r="32">
@@ -7238,7 +10148,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-56.83451696168407</v>
+        <v>-108.3166206094313</v>
       </c>
     </row>
     <row r="33">
@@ -7246,7 +10156,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-56.86778377872668</v>
+        <v>-117.5299868655632</v>
       </c>
     </row>
     <row r="34">
@@ -7254,7 +10164,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-57.41646274179708</v>
+        <v>-117.5299868655632</v>
       </c>
     </row>
     <row r="35">
@@ -7262,7 +10172,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-57.5018748537195</v>
+        <v>-117.5299868655632</v>
       </c>
     </row>
     <row r="36">
@@ -7270,7 +10180,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-58.78428795208204</v>
+        <v>-122.1406355423576</v>
       </c>
     </row>
     <row r="37">
@@ -7278,7 +10188,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-56.10913778449228</v>
+        <v>-122.1406355423576</v>
       </c>
     </row>
     <row r="38">
@@ -7286,7 +10196,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-57.66747952839195</v>
+        <v>-122.1406355423576</v>
       </c>
     </row>
     <row r="39">
@@ -7294,7 +10204,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-59.32891299851269</v>
+        <v>-124.834353279414</v>
       </c>
     </row>
     <row r="40">
@@ -7302,7 +10212,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-59.04224867160028</v>
+        <v>-124.834353279414</v>
       </c>
     </row>
     <row r="41">
@@ -7310,7 +10220,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-58.37917835447802</v>
+        <v>-124.834353279414</v>
       </c>
     </row>
     <row r="42">
@@ -7318,7 +10228,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-58.49040095814514</v>
+        <v>-123.9973416316789</v>
       </c>
     </row>
     <row r="43">
@@ -7326,7 +10236,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-59.75311886302794</v>
+        <v>-123.9973416316789</v>
       </c>
     </row>
     <row r="44">
@@ -7334,7 +10244,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-59.87792301285627</v>
+        <v>-123.9973416316789</v>
       </c>
     </row>
     <row r="45">
@@ -7342,7 +10252,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-58.37570699574571</v>
+        <v>-122.1272145405057</v>
       </c>
     </row>
     <row r="46">
@@ -7350,7 +10260,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-58.67657942645981</v>
+        <v>-122.1272145405057</v>
       </c>
     </row>
     <row r="47">
@@ -7358,7 +10268,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-58.27150674169184</v>
+        <v>-122.1272145405057</v>
       </c>
     </row>
     <row r="48">
@@ -7366,7 +10276,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-58.43781595079614</v>
+        <v>-120.7126252329652</v>
       </c>
     </row>
     <row r="49">
@@ -7374,7 +10284,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-57.62965375032998</v>
+        <v>-120.7126252329652</v>
       </c>
     </row>
     <row r="50">
@@ -7382,7 +10292,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-57.4282443277403</v>
+        <v>-120.7126252329652</v>
       </c>
     </row>
     <row r="51">
@@ -7390,7 +10300,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-57.46865423500169</v>
+        <v>-120.0222448216419</v>
       </c>
     </row>
     <row r="52">
@@ -7398,7 +10308,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-58.22075948338671</v>
+        <v>-120.0222448216419</v>
       </c>
     </row>
     <row r="53">
@@ -7406,7 +10316,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-57.48775290543486</v>
+        <v>-120.0222448216419</v>
       </c>
     </row>
     <row r="54">
@@ -7414,7 +10324,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-55.3528301522174</v>
+        <v>-116.4960922133104</v>
       </c>
     </row>
     <row r="55">
@@ -7422,7 +10332,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-55.27946250545885</v>
+        <v>-116.4960922133104</v>
       </c>
     </row>
     <row r="56">
@@ -7430,7 +10340,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-56.94279380642223</v>
+        <v>-116.4960922133104</v>
       </c>
     </row>
     <row r="57">
@@ -7438,7 +10348,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-54.91853991561342</v>
+        <v>-113.4656366653869</v>
       </c>
     </row>
     <row r="58">
@@ -7446,7 +10356,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-54.44814167596047</v>
+        <v>-113.4656366653869</v>
       </c>
     </row>
     <row r="59">
@@ -7454,7 +10364,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-54.22981458219073</v>
+        <v>-113.4656366653869</v>
       </c>
     </row>
     <row r="60">
@@ -7462,7 +10372,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-52.65210771161837</v>
+        <v>-110.9855046163955</v>
       </c>
     </row>
     <row r="61">
@@ -7470,7 +10380,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-51.29840151218957</v>
+        <v>-110.9855046163955</v>
       </c>
     </row>
     <row r="62">
@@ -7478,7 +10388,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-51.0822513597608</v>
+        <v>-110.9855046163955</v>
       </c>
     </row>
     <row r="63">
@@ -7486,7 +10396,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-49.73296983307414</v>
+        <v>-107.2016859549872</v>
       </c>
     </row>
     <row r="64">
@@ -7494,7 +10404,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-49.00056121047632</v>
+        <v>-107.2016859549872</v>
       </c>
     </row>
     <row r="65">
@@ -7502,7 +10412,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-48.77823227442046</v>
+        <v>-107.2016859549872</v>
       </c>
     </row>
     <row r="66">
@@ -7510,7 +10420,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-46.85833314096697</v>
+        <v>-102.1546756350901</v>
       </c>
     </row>
     <row r="67">
@@ -7518,7 +10428,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-47.07434053122729</v>
+        <v>-102.1546756350901</v>
       </c>
     </row>
     <row r="68">
@@ -7526,7 +10436,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-46.82496690902927</v>
+        <v>-102.1546756350901</v>
       </c>
     </row>
     <row r="69">
@@ -7534,7 +10444,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-44.96704794793107</v>
+        <v>-97.04857989126459</v>
       </c>
     </row>
     <row r="70">
@@ -7542,7 +10452,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-45.2976554127954</v>
+        <v>-97.04857989126459</v>
       </c>
     </row>
     <row r="71">
@@ -7550,7 +10460,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-45.55752855883827</v>
+        <v>-97.04857989126459</v>
       </c>
     </row>
     <row r="72">
@@ -7558,7 +10468,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-44.52307159397003</v>
+        <v>-99.2283375768605</v>
       </c>
     </row>
     <row r="73">
@@ -7566,7 +10476,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-44.09919527365609</v>
+        <v>-99.2283375768605</v>
       </c>
     </row>
     <row r="74">
@@ -7574,7 +10484,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-44.56452166597097</v>
+        <v>-99.2283375768605</v>
       </c>
     </row>
     <row r="75">
@@ -7582,7 +10492,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-42.59734229982234</v>
+        <v>-97.84821051210906</v>
       </c>
     </row>
     <row r="76">
@@ -7590,7 +10500,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-42.84069151110991</v>
+        <v>-97.84821051210906</v>
       </c>
     </row>
     <row r="77">
@@ -7598,7 +10508,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-43.06507779337186</v>
+        <v>-97.84821051210906</v>
       </c>
     </row>
     <row r="78">
@@ -7606,7 +10516,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-42.09557711024227</v>
+        <v>-94.95609266320446</v>
       </c>
     </row>
     <row r="79">
@@ -7614,7 +10524,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-42.80353853762472</v>
+        <v>-94.95609266320446</v>
       </c>
     </row>
     <row r="80">
@@ -7622,7 +10532,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-42.79732263076746</v>
+        <v>-94.95609266320446</v>
       </c>
     </row>
     <row r="81">
@@ -7630,7 +10540,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-42.21250162058473</v>
+        <v>-91.28781444002345</v>
       </c>
     </row>
     <row r="82">
@@ -7638,7 +10548,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-42.12941102375081</v>
+        <v>-91.28781444002345</v>
       </c>
     </row>
     <row r="83">
@@ -7646,7 +10556,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-42.20484188592707</v>
+        <v>-91.28781444002345</v>
       </c>
     </row>
     <row r="84">
@@ -7654,7 +10564,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-42.11492754085115</v>
+        <v>-89.9703428260986</v>
       </c>
     </row>
     <row r="85">
@@ -7662,7 +10572,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-43.14649458892053</v>
+        <v>-89.9703428260986</v>
       </c>
     </row>
     <row r="86">
@@ -7670,7 +10580,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-43.17042299326224</v>
+        <v>-89.9703428260986</v>
       </c>
     </row>
     <row r="87">
@@ -7678,7 +10588,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-43.77828456762774</v>
+        <v>-89.86744284762383</v>
       </c>
     </row>
     <row r="88">
@@ -7686,7 +10596,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-42.8217045521455</v>
+        <v>-89.86744284762383</v>
       </c>
     </row>
     <row r="89">
@@ -7694,7 +10604,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-42.19109003242681</v>
+        <v>-89.86744284762383</v>
       </c>
     </row>
     <row r="90">
@@ -7702,7 +10612,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-44.3362502992542</v>
+        <v>-88.99667717569402</v>
       </c>
     </row>
     <row r="91">
@@ -7710,7 +10620,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-45.25112627557978</v>
+        <v>-88.99667717569402</v>
       </c>
     </row>
     <row r="92">
@@ -7718,7 +10628,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-44.81994283269553</v>
+        <v>-88.99667717569402</v>
       </c>
     </row>
     <row r="93">
@@ -7726,7 +10636,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-42.94447326828524</v>
+        <v>-88.06255461437968</v>
       </c>
     </row>
     <row r="94">
@@ -7734,7 +10644,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-41.79205490970086</v>
+        <v>-88.06255461437968</v>
       </c>
     </row>
     <row r="95">
@@ -7742,7 +10652,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-41.59457867508152</v>
+        <v>-88.06255461437968</v>
       </c>
     </row>
     <row r="96">
@@ -7750,7 +10660,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-43.62286478159248</v>
+        <v>-87.4490381501642</v>
       </c>
     </row>
     <row r="97">
@@ -7758,7 +10668,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-45.11264219446139</v>
+        <v>-87.4490381501642</v>
       </c>
     </row>
     <row r="98">
@@ -7766,7 +10676,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-46.37148997921265</v>
+        <v>-87.4490381501642</v>
       </c>
     </row>
     <row r="99">
@@ -7774,7 +10684,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-44.33200132896962</v>
+        <v>-87.56973765511628</v>
       </c>
     </row>
     <row r="100">
@@ -7782,7 +10692,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-43.30444094224107</v>
+        <v>-87.56973765511628</v>
       </c>
     </row>
     <row r="101">
@@ -7790,7 +10700,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-42.42430068877057</v>
+        <v>-87.56973765511628</v>
       </c>
     </row>
     <row r="102">
@@ -7798,7 +10708,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-43.27602490647767</v>
+        <v>-87.70235102655653</v>
       </c>
     </row>
     <row r="103">
@@ -7806,7 +10716,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-43.96264790724047</v>
+        <v>-87.70235102655653</v>
       </c>
     </row>
     <row r="104">
@@ -7814,7 +10724,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-42.89500186735057</v>
+        <v>-87.70235102655653</v>
       </c>
     </row>
     <row r="105">
@@ -7822,7 +10732,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-44.04090722502679</v>
+        <v>-87.75788362591007</v>
       </c>
     </row>
     <row r="106">
@@ -7830,7 +10740,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-42.79186955843956</v>
+        <v>-87.75788362591007</v>
       </c>
     </row>
     <row r="107">
@@ -7838,7 +10748,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-42.99654222433447</v>
+        <v>-87.75788362591007</v>
       </c>
     </row>
     <row r="108">
@@ -7846,7 +10756,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-45.41017041361086</v>
+        <v>-88.71262428451104</v>
       </c>
     </row>
     <row r="109">
@@ -7854,7 +10764,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-48.19049762424571</v>
+        <v>-88.71262428451104</v>
       </c>
     </row>
     <row r="110">
@@ -7862,7 +10772,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-47.21916762902524</v>
+        <v>-88.71262428451104</v>
       </c>
     </row>
     <row r="111">
@@ -7870,7 +10780,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-47.42687535469016</v>
+        <v>-91.42189606977288</v>
       </c>
     </row>
     <row r="112">
@@ -7878,7 +10788,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-49.40439205216239</v>
+        <v>-91.42189606977288</v>
       </c>
     </row>
     <row r="113">
@@ -7886,7 +10796,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-50.36367634936074</v>
+        <v>-91.42189606977288</v>
       </c>
     </row>
     <row r="114">
@@ -7894,7 +10804,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-48.87117900148635</v>
+        <v>-92.25621490645744</v>
       </c>
     </row>
     <row r="115">
@@ -7902,7 +10812,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-50.15915066004796</v>
+        <v>-92.25621490645744</v>
       </c>
     </row>
     <row r="116">
@@ -7910,7 +10820,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-50.32182953770844</v>
+        <v>-92.25621490645744</v>
       </c>
     </row>
     <row r="117">
@@ -7918,7 +10828,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-50.03262074885326</v>
+        <v>-95.55704044910095</v>
       </c>
     </row>
     <row r="118">
@@ -7926,7 +10836,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-49.7000721568058</v>
+        <v>-95.55704044910095</v>
       </c>
     </row>
     <row r="119">
@@ -7934,7 +10844,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-49.54877282642168</v>
+        <v>-95.55704044910095</v>
       </c>
     </row>
     <row r="120">
@@ -7942,7 +10852,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-51.50682431192968</v>
+        <v>-99.51977807899937</v>
       </c>
     </row>
     <row r="121">
@@ -7950,7 +10860,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-50.24976015681776</v>
+        <v>-99.51977807899937</v>
       </c>
     </row>
     <row r="122">
@@ -7958,7 +10868,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-49.56694092308157</v>
+        <v>-99.51977807899937</v>
       </c>
     </row>
     <row r="123">
@@ -7966,7 +10876,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-50.35354733723371</v>
+        <v>-101.2639364142952</v>
       </c>
     </row>
     <row r="124">
@@ -7974,7 +10884,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-51.92020570558618</v>
+        <v>-101.2639364142952</v>
       </c>
     </row>
     <row r="125">
@@ -7982,7 +10892,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-49.23244407185707</v>
+        <v>-101.2639364142952</v>
       </c>
     </row>
     <row r="126">
@@ -7990,7 +10900,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-48.74768442878737</v>
+        <v>-103.9176116604597</v>
       </c>
     </row>
     <row r="127">
@@ -7998,7 +10908,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-49.69856484355878</v>
+        <v>-103.9176116604597</v>
       </c>
     </row>
     <row r="128">
@@ -8006,7 +10916,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-50.26960797840028</v>
+        <v>-103.9176116604597</v>
       </c>
     </row>
     <row r="129">
@@ -8014,7 +10924,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-48.49285650536226</v>
+        <v>-105.2728194120568</v>
       </c>
     </row>
     <row r="130">
@@ -8022,7 +10932,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-49.66811305034803</v>
+        <v>-105.2728194120568</v>
       </c>
     </row>
     <row r="131">
@@ -8030,7 +10940,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-49.17623225639923</v>
+        <v>-105.2728194120568</v>
       </c>
     </row>
     <row r="132">
@@ -8038,7 +10948,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-48.77601199540587</v>
+        <v>-103.1554292158641</v>
       </c>
     </row>
     <row r="133">
@@ -8046,7 +10956,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-48.88945922104597</v>
+        <v>-103.1554292158641</v>
       </c>
     </row>
     <row r="134">
@@ -8054,7 +10964,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-47.39772977825464</v>
+        <v>-103.1554292158641</v>
       </c>
     </row>
     <row r="135">
@@ -8062,7 +10972,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-48.10152074249775</v>
+        <v>-102.7389935298722</v>
       </c>
     </row>
     <row r="136">
@@ -8070,7 +10980,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-48.16680968840504</v>
+        <v>-102.7389935298722</v>
       </c>
     </row>
     <row r="137">
@@ -8078,7 +10988,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-48.5486290313028</v>
+        <v>-102.7389935298722</v>
       </c>
     </row>
     <row r="138">
@@ -8086,7 +10996,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-48.49268583894555</v>
+        <v>-102.8741417162594</v>
       </c>
     </row>
     <row r="139">
@@ -8094,7 +11004,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-47.22618560987952</v>
+        <v>-102.8741417162594</v>
       </c>
     </row>
     <row r="140">
@@ -8102,7 +11012,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-48.33423972888297</v>
+        <v>-102.8741417162594</v>
       </c>
     </row>
     <row r="141">
@@ -8110,7 +11020,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-47.09500044963387</v>
+        <v>-101.9313364295543</v>
       </c>
     </row>
     <row r="142">
@@ -8118,7 +11028,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-47.48026575571321</v>
+        <v>-101.9313364295543</v>
       </c>
     </row>
     <row r="143">
@@ -8126,7 +11036,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-47.83924709308162</v>
+        <v>-101.9313364295543</v>
       </c>
     </row>
     <row r="144">
@@ -8134,7 +11044,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-48.03923815442522</v>
+        <v>-100.8162151359653</v>
       </c>
     </row>
     <row r="145">
@@ -8142,14 +11052,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-47.18246325628722</v>
+        <v>-100.8162151359653</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8180,6 +11090,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix17.xlsx
+++ b/testcases/timeseries/EVDay01_mix17.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014004709</v>
+        <v>2014005761</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2015000871</v>
+        <v>2012008974</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2014007401</v>
+        <v>2016000195</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2016007173</v>
+        <v>2015000350</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2015000617</v>
+        <v>2012003297</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2015001582</v>
+        <v>2012006975</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2015001117</v>
+        <v>2016009191</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2013004822</v>
+        <v>2015005052</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2015000889</v>
+        <v>2013000074</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2012005170</v>
+        <v>2014006289</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2157,7 +2157,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2015000840</v>
+        <v>2012007425</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>7.4</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>250</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2013004855</v>
+        <v>2016008406</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2016008228</v>
+        <v>2012005271</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2016006315</v>
+        <v>2015005209</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>7.4</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G15" t="n">
         <v>250</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2013009094</v>
+        <v>2016003834</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -2347,7 +2347,7 @@
         <v>7.4</v>
       </c>
       <c r="F16" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G16" t="n">
         <v>250</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2016006533</v>
+        <v>2014006328</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -2385,7 +2385,7 @@
         <v>7.4</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G17" t="n">
         <v>250</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2012007208</v>
+        <v>2013000010</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -2423,7 +2423,7 @@
         <v>7.4</v>
       </c>
       <c r="F18" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
         <v>250</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2014002012</v>
+        <v>2012002876</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -2461,7 +2461,7 @@
         <v>7.4</v>
       </c>
       <c r="F19" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G19" t="n">
         <v>250</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2016000913</v>
+        <v>2016002506</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -2517,1222 +2517,6 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2012001394</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>75</v>
-      </c>
-      <c r="G21" t="n">
-        <v>250</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2013009134</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>75</v>
-      </c>
-      <c r="G22" t="n">
-        <v>250</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2015002849</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>24</v>
-      </c>
-      <c r="G23" t="n">
-        <v>250</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2016002937</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>40</v>
-      </c>
-      <c r="G24" t="n">
-        <v>250</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2013008540</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>75</v>
-      </c>
-      <c r="G25" t="n">
-        <v>250</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>2014006068</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F26" t="n">
-        <v>40</v>
-      </c>
-      <c r="G26" t="n">
-        <v>250</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2016001084</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F27" t="n">
-        <v>75</v>
-      </c>
-      <c r="G27" t="n">
-        <v>250</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2013000030</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F28" t="n">
-        <v>30</v>
-      </c>
-      <c r="G28" t="n">
-        <v>250</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>2014002384</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F29" t="n">
-        <v>60</v>
-      </c>
-      <c r="G29" t="n">
-        <v>250</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2014002558</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F30" t="n">
-        <v>30</v>
-      </c>
-      <c r="G30" t="n">
-        <v>250</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2016004033</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F31" t="n">
-        <v>30</v>
-      </c>
-      <c r="G31" t="n">
-        <v>250</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2012005342</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F32" t="n">
-        <v>24</v>
-      </c>
-      <c r="G32" t="n">
-        <v>250</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2012009975</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F33" t="n">
-        <v>30</v>
-      </c>
-      <c r="G33" t="n">
-        <v>250</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2013007912</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>60</v>
-      </c>
-      <c r="G34" t="n">
-        <v>250</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2013005153</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>75</v>
-      </c>
-      <c r="G35" t="n">
-        <v>250</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2013005763</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>40</v>
-      </c>
-      <c r="G36" t="n">
-        <v>250</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>2016000041</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>24</v>
-      </c>
-      <c r="G37" t="n">
-        <v>250</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>2015004251</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F38" t="n">
-        <v>30</v>
-      </c>
-      <c r="G38" t="n">
-        <v>250</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>2016004339</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F39" t="n">
-        <v>30</v>
-      </c>
-      <c r="G39" t="n">
-        <v>250</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2016008881</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F40" t="n">
-        <v>30</v>
-      </c>
-      <c r="G40" t="n">
-        <v>250</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2016002024</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G41" t="n">
-        <v>250</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2016007331</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>75</v>
-      </c>
-      <c r="G42" t="n">
-        <v>250</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2012001817</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F43" t="n">
-        <v>30</v>
-      </c>
-      <c r="G43" t="n">
-        <v>250</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2013005634</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F44" t="n">
-        <v>75</v>
-      </c>
-      <c r="G44" t="n">
-        <v>250</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>2015005982</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>75</v>
-      </c>
-      <c r="G45" t="n">
-        <v>250</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>2015009264</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F46" t="n">
-        <v>30</v>
-      </c>
-      <c r="G46" t="n">
-        <v>250</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>2014007247</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F47" t="n">
-        <v>40</v>
-      </c>
-      <c r="G47" t="n">
-        <v>250</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>2016008917</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F48" t="n">
-        <v>75</v>
-      </c>
-      <c r="G48" t="n">
-        <v>250</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2015006509</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F49" t="n">
-        <v>40</v>
-      </c>
-      <c r="G49" t="n">
-        <v>250</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>2016005887</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F50" t="n">
-        <v>40</v>
-      </c>
-      <c r="G50" t="n">
-        <v>250</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>2012003405</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F51" t="n">
-        <v>75</v>
-      </c>
-      <c r="G51" t="n">
-        <v>250</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>2014000643</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F52" t="n">
-        <v>24</v>
-      </c>
-      <c r="G52" t="n">
-        <v>250</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
         <v>150</v>
       </c>
     </row>
@@ -3747,7 +2531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="A2:E29"/>
@@ -3787,101 +2571,101 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2014004709</v>
+        <v>2014005761</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D2" t="n">
-        <v>59.07462949566242</v>
+        <v>66.42543646327789</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2015000871</v>
+        <v>2012008974</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>56.664160048</v>
+        <v>35.1076064</v>
       </c>
       <c r="E3" t="n">
-        <v>57.15959865811499</v>
+        <v>36.9214420314315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2015000871</v>
+        <v>2012008974</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="D4" t="n">
-        <v>56.298518</v>
+        <v>39.72641220000001</v>
       </c>
       <c r="E4" t="n">
-        <v>59.12016095167926</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2015000871</v>
+        <v>2016000195</v>
       </c>
       <c r="B5" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D5" t="n">
-        <v>54.930579</v>
+        <v>48.6702463956624</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>59.50912098658586</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2015000871</v>
+        <v>2015000350</v>
       </c>
       <c r="B6" t="n">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>56.298518</v>
+        <v>38.90564826054121</v>
       </c>
       <c r="E6" t="n">
-        <v>59.31361234384666</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2014007401</v>
+        <v>2015000350</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C7" t="n">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D7" t="n">
-        <v>33.0476506605412</v>
+        <v>38.90564879999999</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
@@ -3889,169 +2673,169 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2016007173</v>
+        <v>2012003297</v>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="D8" t="n">
-        <v>38.90564879999999</v>
+        <v>22.24941855446736</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>29.99999999446737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2016007173</v>
+        <v>2012006975</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D9" t="n">
-        <v>38.0848854</v>
+        <v>27.76901546054119</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>39.99993369033368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2015000617</v>
+        <v>2016009191</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="D10" t="n">
-        <v>25.29428983446736</v>
+        <v>36.03297636054121</v>
       </c>
       <c r="E10" t="n">
-        <v>29.58232176898589</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2015000617</v>
+        <v>2015005052</v>
       </c>
       <c r="B11" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D11" t="n">
-        <v>27.78554816</v>
+        <v>18.65093431446735</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>29.99999999446736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2015001582</v>
+        <v>2013000074</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="D12" t="n">
-        <v>28.89277407446735</v>
+        <v>30.9675063956624</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>59.44063054551647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2015001582</v>
+        <v>2014006289</v>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" t="n">
-        <v>28.89277408</v>
+        <v>72.29630878327788</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2015001117</v>
+        <v>2014006289</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C14" t="n">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D14" t="n">
-        <v>23.0424427</v>
+        <v>72.29630879999998</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2015001117</v>
+        <v>2012007425</v>
       </c>
       <c r="B15" t="n">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D15" t="n">
-        <v>23.06980148</v>
+        <v>4.675</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>23.99999999824409</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2013004822</v>
+        <v>2016008406</v>
       </c>
       <c r="B16" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="D16" t="n">
-        <v>73.84127518327789</v>
+        <v>36.1697708</v>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>36.77243316922026</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2015000889</v>
+        <v>2016008406</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C17" t="n">
         <v>120</v>
       </c>
       <c r="D17" t="n">
-        <v>36.71694586054119</v>
+        <v>37.264122</v>
       </c>
       <c r="E17" t="n">
         <v>40</v>
@@ -4059,921 +2843,193 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>2015000889</v>
+        <v>2012005271</v>
       </c>
       <c r="B18" t="n">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>36.7169464</v>
+        <v>71.7169463832779</v>
       </c>
       <c r="E18" t="n">
-        <v>40</v>
+        <v>72.61021456188109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>2012005170</v>
+        <v>2012005271</v>
       </c>
       <c r="B19" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D19" t="n">
-        <v>6.763968598244064</v>
+        <v>72.68255040000001</v>
       </c>
       <c r="E19" t="n">
-        <v>23.99999999824409</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>2015000840</v>
+        <v>2015005209</v>
       </c>
       <c r="B20" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D20" t="n">
-        <v>6.632383194467362</v>
+        <v>65.73020158327789</v>
       </c>
       <c r="E20" t="n">
-        <v>29.45733332780071</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>2013004855</v>
+        <v>2016003834</v>
       </c>
       <c r="B21" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D21" t="n">
-        <v>38.3584726605412</v>
+        <v>57.7791108</v>
       </c>
       <c r="E21" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>2016008228</v>
+        <v>2016003834</v>
       </c>
       <c r="B22" t="n">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="C22" t="n">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D22" t="n">
-        <v>73.06879198327789</v>
+        <v>57.7791108</v>
       </c>
       <c r="E22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>2016006315</v>
+        <v>2014006328</v>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C23" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D23" t="n">
-        <v>28.89277407446736</v>
+        <v>55.5582215956624</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>2013009094</v>
+        <v>2014006328</v>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="D24" t="n">
-        <v>74.22751679999998</v>
+        <v>58.7044813</v>
       </c>
       <c r="E24" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>2013009094</v>
+        <v>2013000010</v>
       </c>
       <c r="B25" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D25" t="n">
-        <v>73.91852352000002</v>
+        <v>28.33916111446736</v>
       </c>
       <c r="E25" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
-        <v>2016006533</v>
+        <v>2012002876</v>
       </c>
       <c r="B26" t="n">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
-        <v>38.90564826054121</v>
+        <v>54.8179251956624</v>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
-        <v>2012007208</v>
+        <v>2012002876</v>
       </c>
       <c r="B27" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D27" t="n">
-        <v>69.55399342327789</v>
+        <v>52.597036</v>
       </c>
       <c r="E27" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="n">
-        <v>2014002012</v>
+        <v>2016002506</v>
       </c>
       <c r="B28" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D28" t="n">
-        <v>69.97885918327789</v>
+        <v>20.65295327446736</v>
       </c>
       <c r="E28" t="n">
-        <v>75</v>
+        <v>29.7829333278007</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="n">
-        <v>2016000913</v>
-      </c>
-      <c r="B29" t="n">
-        <v>38</v>
-      </c>
-      <c r="C29" t="n">
-        <v>47</v>
-      </c>
-      <c r="D29" t="n">
-        <v>10.75776535046734</v>
-      </c>
-      <c r="E29" t="n">
-        <v>20.52576535046734</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2016000913</v>
-      </c>
-      <c r="B30" t="n">
-        <v>60</v>
-      </c>
-      <c r="C30" t="n">
-        <v>122</v>
-      </c>
-      <c r="D30" t="n">
-        <v>19.83374915046735</v>
-      </c>
-      <c r="E30" t="n">
-        <v>29.99999999446738</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2012001394</v>
-      </c>
-      <c r="B31" t="n">
-        <v>40</v>
-      </c>
-      <c r="C31" t="n">
-        <v>122</v>
-      </c>
-      <c r="D31" t="n">
-        <v>67.27516798327788</v>
-      </c>
-      <c r="E31" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2013009134</v>
-      </c>
-      <c r="B32" t="n">
-        <v>16</v>
-      </c>
-      <c r="C32" t="n">
-        <v>141</v>
-      </c>
-      <c r="D32" t="n">
-        <v>57.23288638327787</v>
-      </c>
-      <c r="E32" t="n">
-        <v>74.4573333166112</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2015002849</v>
-      </c>
-      <c r="B33" t="n">
-        <v>45</v>
-      </c>
-      <c r="C33" t="n">
-        <v>143</v>
-      </c>
-      <c r="D33" t="n">
-        <v>12.56402995824406</v>
-      </c>
-      <c r="E33" t="n">
-        <v>23.99999999824407</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2016002937</v>
-      </c>
-      <c r="B34" t="n">
-        <v>28</v>
-      </c>
-      <c r="C34" t="n">
-        <v>122</v>
-      </c>
-      <c r="D34" t="n">
-        <v>38.90564879999999</v>
-      </c>
-      <c r="E34" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2016002937</v>
-      </c>
-      <c r="B35" t="n">
-        <v>124</v>
-      </c>
-      <c r="C35" t="n">
-        <v>143</v>
-      </c>
-      <c r="D35" t="n">
-        <v>38.3584732</v>
-      </c>
-      <c r="E35" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2013008540</v>
-      </c>
-      <c r="B36" t="n">
-        <v>36</v>
-      </c>
-      <c r="C36" t="n">
-        <v>119</v>
-      </c>
-      <c r="D36" t="n">
-        <v>70.36510078327787</v>
-      </c>
-      <c r="E36" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>2014006068</v>
-      </c>
-      <c r="B37" t="n">
-        <v>48</v>
-      </c>
-      <c r="C37" t="n">
-        <v>143</v>
-      </c>
-      <c r="D37" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E37" t="n">
-        <v>39.99942560538087</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>2016001084</v>
-      </c>
-      <c r="B38" t="n">
-        <v>2</v>
-      </c>
-      <c r="C38" t="n">
-        <v>14</v>
-      </c>
-      <c r="D38" t="n">
-        <v>74.22751679999998</v>
-      </c>
-      <c r="E38" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>2016001084</v>
-      </c>
-      <c r="B39" t="n">
-        <v>25</v>
-      </c>
-      <c r="C39" t="n">
-        <v>122</v>
-      </c>
-      <c r="D39" t="n">
-        <v>72.48942960000002</v>
-      </c>
-      <c r="E39" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2013000030</v>
-      </c>
-      <c r="B40" t="n">
-        <v>32</v>
-      </c>
-      <c r="C40" t="n">
-        <v>107</v>
-      </c>
-      <c r="D40" t="n">
-        <v>27.78554815446735</v>
-      </c>
-      <c r="E40" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2014002384</v>
-      </c>
-      <c r="B41" t="n">
-        <v>40</v>
-      </c>
-      <c r="C41" t="n">
-        <v>117</v>
-      </c>
-      <c r="D41" t="n">
-        <v>47.7851093956624</v>
-      </c>
-      <c r="E41" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2014002558</v>
-      </c>
-      <c r="B42" t="n">
-        <v>34</v>
-      </c>
-      <c r="C42" t="n">
-        <v>98</v>
-      </c>
-      <c r="D42" t="n">
-        <v>17.70464239446736</v>
-      </c>
-      <c r="E42" t="n">
-        <v>29.45733332780071</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2016004033</v>
-      </c>
-      <c r="B43" t="n">
-        <v>9</v>
-      </c>
-      <c r="C43" t="n">
-        <v>143</v>
-      </c>
-      <c r="D43" t="n">
-        <v>27.78554816</v>
-      </c>
-      <c r="E43" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2012005342</v>
-      </c>
-      <c r="B44" t="n">
-        <v>36</v>
-      </c>
-      <c r="C44" t="n">
-        <v>113</v>
-      </c>
-      <c r="D44" t="n">
-        <v>13.87725139824407</v>
-      </c>
-      <c r="E44" t="n">
-        <v>23.45733333157738</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>2012009975</v>
-      </c>
-      <c r="B45" t="n">
-        <v>18</v>
-      </c>
-      <c r="C45" t="n">
-        <v>120</v>
-      </c>
-      <c r="D45" t="n">
-        <v>28.33916112</v>
-      </c>
-      <c r="E45" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>2012009975</v>
-      </c>
-      <c r="B46" t="n">
-        <v>122</v>
-      </c>
-      <c r="C46" t="n">
-        <v>143</v>
-      </c>
-      <c r="D46" t="n">
-        <v>29.44638704</v>
-      </c>
-      <c r="E46" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>2013007912</v>
-      </c>
-      <c r="B47" t="n">
-        <v>31</v>
-      </c>
-      <c r="C47" t="n">
-        <v>120</v>
-      </c>
-      <c r="D47" t="n">
-        <v>52.5970359956624</v>
-      </c>
-      <c r="E47" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>2013005153</v>
-      </c>
-      <c r="B48" t="n">
-        <v>6</v>
-      </c>
-      <c r="C48" t="n">
-        <v>24</v>
-      </c>
-      <c r="D48" t="n">
-        <v>58.46885950327788</v>
-      </c>
-      <c r="E48" t="n">
-        <v>70.48861439131603</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2013005153</v>
-      </c>
-      <c r="B49" t="n">
-        <v>32</v>
-      </c>
-      <c r="C49" t="n">
-        <v>116</v>
-      </c>
-      <c r="D49" t="n">
-        <v>74.15026846327787</v>
-      </c>
-      <c r="E49" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>2013005763</v>
-      </c>
-      <c r="B50" t="n">
-        <v>10</v>
-      </c>
-      <c r="C50" t="n">
-        <v>16</v>
-      </c>
-      <c r="D50" t="n">
-        <v>37.5377098</v>
-      </c>
-      <c r="E50" t="n">
-        <v>39.92397114866162</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>2013005763</v>
-      </c>
-      <c r="B51" t="n">
-        <v>22</v>
-      </c>
-      <c r="C51" t="n">
-        <v>118</v>
-      </c>
-      <c r="D51" t="n">
-        <v>32.70003376</v>
-      </c>
-      <c r="E51" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>2016000041</v>
-      </c>
-      <c r="B52" t="n">
-        <v>30</v>
-      </c>
-      <c r="C52" t="n">
-        <v>120</v>
-      </c>
-      <c r="D52" t="n">
-        <v>16.2027477</v>
-      </c>
-      <c r="E52" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>2016000041</v>
-      </c>
-      <c r="B53" t="n">
-        <v>122</v>
-      </c>
-      <c r="C53" t="n">
-        <v>123</v>
-      </c>
-      <c r="D53" t="n">
-        <v>22.08488539824406</v>
-      </c>
-      <c r="E53" t="n">
-        <v>22.64245384097102</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>2016000041</v>
-      </c>
-      <c r="B54" t="n">
-        <v>126</v>
-      </c>
-      <c r="C54" t="n">
-        <v>128</v>
-      </c>
-      <c r="D54" t="n">
-        <v>21.9480915</v>
-      </c>
-      <c r="E54" t="n">
-        <v>23.05175476211282</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>2016000041</v>
-      </c>
-      <c r="B55" t="n">
-        <v>142</v>
-      </c>
-      <c r="C55" t="n">
-        <v>143</v>
-      </c>
-      <c r="D55" t="n">
-        <v>23.4528244</v>
-      </c>
-      <c r="E55" t="n">
-        <v>23.81090691842736</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>2015004251</v>
-      </c>
-      <c r="B56" t="n">
-        <v>16</v>
-      </c>
-      <c r="C56" t="n">
-        <v>133</v>
-      </c>
-      <c r="D56" t="n">
-        <v>25.43269307446736</v>
-      </c>
-      <c r="E56" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>2016004339</v>
-      </c>
-      <c r="B57" t="n">
-        <v>62</v>
-      </c>
-      <c r="C57" t="n">
-        <v>143</v>
-      </c>
-      <c r="D57" t="n">
-        <v>25.57109632</v>
-      </c>
-      <c r="E57" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>2016008881</v>
-      </c>
-      <c r="B58" t="n">
-        <v>38</v>
-      </c>
-      <c r="C58" t="n">
-        <v>108</v>
-      </c>
-      <c r="D58" t="n">
-        <v>21.69580559446736</v>
-      </c>
-      <c r="E58" t="n">
-        <v>29.45733332780069</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>2016002024</v>
-      </c>
-      <c r="B59" t="n">
-        <v>45</v>
-      </c>
-      <c r="C59" t="n">
-        <v>114</v>
-      </c>
-      <c r="D59" t="n">
-        <v>17.53361306054121</v>
-      </c>
-      <c r="E59" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>2016007331</v>
-      </c>
-      <c r="B60" t="n">
-        <v>25</v>
-      </c>
-      <c r="C60" t="n">
-        <v>117</v>
-      </c>
-      <c r="D60" t="n">
-        <v>69.5926175832779</v>
-      </c>
-      <c r="E60" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>2012001817</v>
-      </c>
-      <c r="B61" t="n">
-        <v>34</v>
-      </c>
-      <c r="C61" t="n">
-        <v>116</v>
-      </c>
-      <c r="D61" t="n">
-        <v>27.23193519446737</v>
-      </c>
-      <c r="E61" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>2013005634</v>
-      </c>
-      <c r="B62" t="n">
-        <v>31</v>
-      </c>
-      <c r="C62" t="n">
-        <v>118</v>
-      </c>
-      <c r="D62" t="n">
-        <v>70.36510078327788</v>
-      </c>
-      <c r="E62" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>2015005982</v>
-      </c>
-      <c r="B63" t="n">
-        <v>32</v>
-      </c>
-      <c r="C63" t="n">
-        <v>120</v>
-      </c>
-      <c r="D63" t="n">
-        <v>72.9142953432779</v>
-      </c>
-      <c r="E63" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>2015009264</v>
-      </c>
-      <c r="B64" t="n">
-        <v>48</v>
-      </c>
-      <c r="C64" t="n">
-        <v>112</v>
-      </c>
-      <c r="D64" t="n">
-        <v>4.775</v>
-      </c>
-      <c r="E64" t="n">
-        <v>29.99999999446736</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>2014007247</v>
-      </c>
-      <c r="B65" t="n">
-        <v>24</v>
-      </c>
-      <c r="C65" t="n">
-        <v>117</v>
-      </c>
-      <c r="D65" t="n">
-        <v>36.99053366054122</v>
-      </c>
-      <c r="E65" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>2016008917</v>
-      </c>
-      <c r="B66" t="n">
-        <v>20</v>
-      </c>
-      <c r="C66" t="n">
-        <v>30</v>
-      </c>
-      <c r="D66" t="n">
-        <v>57.6030345832779</v>
-      </c>
-      <c r="E66" t="n">
-        <v>66.46565354462271</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>2016008917</v>
-      </c>
-      <c r="B67" t="n">
-        <v>58</v>
-      </c>
-      <c r="C67" t="n">
-        <v>99</v>
-      </c>
-      <c r="D67" t="n">
-        <v>59.03534718327786</v>
-      </c>
-      <c r="E67" t="n">
-        <v>74.70055796509317</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>2015006509</v>
-      </c>
-      <c r="B68" t="n">
-        <v>26</v>
-      </c>
-      <c r="C68" t="n">
-        <v>119</v>
-      </c>
-      <c r="D68" t="n">
-        <v>36.49807562054121</v>
-      </c>
-      <c r="E68" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>2016005887</v>
-      </c>
-      <c r="B69" t="n">
-        <v>33</v>
-      </c>
-      <c r="C69" t="n">
-        <v>143</v>
-      </c>
-      <c r="D69" t="n">
-        <v>38.08488486054121</v>
-      </c>
-      <c r="E69" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>2012003405</v>
-      </c>
-      <c r="B70" t="n">
-        <v>14</v>
-      </c>
-      <c r="C70" t="n">
-        <v>105</v>
-      </c>
-      <c r="D70" t="n">
-        <v>73.45503360000002</v>
-      </c>
-      <c r="E70" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>2014000643</v>
-      </c>
-      <c r="B71" t="n">
-        <v>57</v>
-      </c>
-      <c r="C71" t="n">
-        <v>143</v>
-      </c>
-      <c r="D71" t="n">
-        <v>15.792366</v>
-      </c>
-      <c r="E71" t="n">
-        <v>23.99999999824407</v>
-      </c>
+      <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5552,7 +3608,7 @@
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
@@ -5569,7 +3625,7 @@
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -5586,7 +3642,7 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -5603,7 +3659,7 @@
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="4" t="n"/>
@@ -5620,7 +3676,7 @@
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D37" s="4" t="n"/>
       <c r="E37" s="4" t="n"/>
@@ -5637,7 +3693,7 @@
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="4" t="n"/>
@@ -5654,7 +3710,7 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
@@ -5671,7 +3727,7 @@
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
@@ -5688,7 +3744,7 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -5705,7 +3761,7 @@
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D42" s="4" t="n"/>
       <c r="E42" s="4" t="n"/>
@@ -5722,7 +3778,7 @@
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n"/>
@@ -5739,7 +3795,7 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
@@ -5756,7 +3812,7 @@
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D45" s="4" t="n"/>
       <c r="E45" s="4" t="n"/>
@@ -5773,7 +3829,7 @@
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D46" s="4" t="n"/>
       <c r="E46" s="4" t="n"/>
@@ -5790,7 +3846,7 @@
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="4" t="n"/>
@@ -8575,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>22.9764456924774</v>
+        <v>10.63212806895766</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -8584,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>22.3216174821972</v>
+        <v>9.392610301686613</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -8593,7 +6649,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>22.3216174821972</v>
+        <v>9.392610301686613</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -8602,7 +6658,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>22.3216174821972</v>
+        <v>9.392610301686613</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -8611,7 +6667,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>21.4536850350017</v>
+        <v>8.09382079811007</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -8620,7 +6676,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>21.4536850350017</v>
+        <v>8.09382079811007</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -8629,7 +6685,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>21.4536850350017</v>
+        <v>8.09382079811007</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -8638,7 +6694,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>23.64842876111989</v>
+        <v>8.891657803120207</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -8647,7 +6703,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>23.64842876111989</v>
+        <v>8.891657803120207</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -8656,7 +6712,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>23.64842876111989</v>
+        <v>8.891657803120207</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -8665,7 +6721,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>24.37350361083467</v>
+        <v>10.01519042939449</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -8674,7 +6730,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>24.37350361083467</v>
+        <v>10.01519042939449</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -8683,7 +6739,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>24.37350361083467</v>
+        <v>10.01519042939449</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -8692,7 +6748,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>22.0832324809823</v>
+        <v>8.31488392785938</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -8701,7 +6757,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>22.0832324809823</v>
+        <v>8.31488392785938</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -8710,7 +6766,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>22.0832324809823</v>
+        <v>8.31488392785938</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -8719,7 +6775,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>22.98245164087446</v>
+        <v>9.856320286741136</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -8728,7 +6784,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>22.98245164087446</v>
+        <v>9.856320286741136</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -8737,7 +6793,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>22.98245164087446</v>
+        <v>9.856320286741136</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -8746,7 +6802,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>21.32506808640272</v>
+        <v>9.018237821286069</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -8755,7 +6811,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>21.32506808640272</v>
+        <v>9.018237821286069</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -8764,7 +6820,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>21.32506808640272</v>
+        <v>9.018237821286069</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -8773,7 +6829,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>20.46931367295369</v>
+        <v>7.122247900155165</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -8782,7 +6838,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>20.46931367295369</v>
+        <v>7.122247900155165</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -8791,7 +6847,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>20.46931367295369</v>
+        <v>7.122247900155165</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -8800,7 +6856,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>17.79508069857867</v>
+        <v>2.679621129559724</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -8809,7 +6865,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>17.79508069857867</v>
+        <v>2.679621129559724</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -8818,7 +6874,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>17.79508069857867</v>
+        <v>2.679621129559724</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -8827,7 +6883,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>12.7446849350971</v>
+        <v>0.3047288806743002</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -8836,7 +6892,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>12.7446849350971</v>
+        <v>0.3047288806743002</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -8845,7 +6901,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>12.7446849350971</v>
+        <v>0.3047288806743002</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -8854,7 +6910,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>9.212358981906302</v>
+        <v>0</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -8863,7 +6919,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>9.212358981906302</v>
+        <v>0</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -8872,7 +6928,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>9.212358981906302</v>
+        <v>0</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -8881,7 +6937,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>6.344802775414728</v>
+        <v>0</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -8890,7 +6946,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>6.344802775414728</v>
+        <v>0</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -8899,7 +6955,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>6.344802775414728</v>
+        <v>0</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -8908,7 +6964,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>7.772108340472791</v>
+        <v>0</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -8917,7 +6973,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>7.772108340472791</v>
+        <v>0</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -8926,7 +6982,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>7.772108340472791</v>
+        <v>0</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -8935,7 +6991,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>8.170492894597761</v>
+        <v>0</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -8944,7 +7000,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>8.170492894597761</v>
+        <v>0</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -8953,7 +7009,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>8.170492894597761</v>
+        <v>0</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -8962,7 +7018,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>10.09414162695727</v>
+        <v>0</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -8971,7 +7027,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>10.09414162695727</v>
+        <v>0</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -8980,7 +7036,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>10.09414162695727</v>
+        <v>0</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -8989,7 +7045,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>12.73688692670945</v>
+        <v>0.8128061360928286</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -8998,7 +7054,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>12.73688692670945</v>
+        <v>0.8128061360928286</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -9007,7 +7063,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>12.73688692670945</v>
+        <v>0.8128061360928286</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -9016,7 +7072,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>15.90836165448917</v>
+        <v>1.647820387936415</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -9025,7 +7081,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>15.90836165448917</v>
+        <v>1.647820387936415</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -9034,7 +7090,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>15.90836165448917</v>
+        <v>1.647820387936415</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -9043,7 +7099,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>19.68982481178589</v>
+        <v>0.5397261730326982</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -9052,7 +7108,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>19.68982481178589</v>
+        <v>0.5397261730326982</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -9061,7 +7117,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>19.68982481178589</v>
+        <v>0.5397261730326982</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -9070,7 +7126,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>21.50494057509509</v>
+        <v>2.271180696589693</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -9079,7 +7135,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>21.50494057509509</v>
+        <v>2.271180696589693</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -9088,7 +7144,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>21.50494057509509</v>
+        <v>2.271180696589693</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -9097,7 +7153,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>26.87814499812886</v>
+        <v>3.887339230348635</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -9106,7 +7162,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>26.87814499812886</v>
+        <v>3.887339230348635</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -9115,7 +7171,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>26.87814499812886</v>
+        <v>3.887339230348635</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -9124,7 +7180,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>28.50545037019196</v>
+        <v>6.994422552347952</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -9133,7 +7189,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>28.50545037019196</v>
+        <v>6.994422552347952</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -9142,7 +7198,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>28.50545037019196</v>
+        <v>6.994422552347952</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -9151,7 +7207,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>34.01594961473461</v>
+        <v>10.06908302463281</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -9160,7 +7216,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>34.01594961473461</v>
+        <v>10.06908302463281</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -9169,7 +7225,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>34.01594961473461</v>
+        <v>10.06908302463281</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -9178,7 +7234,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>37.55701693321637</v>
+        <v>10.32331173702768</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -9187,7 +7243,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>37.55701693321637</v>
+        <v>10.32331173702768</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -9196,7 +7252,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>37.55701693321637</v>
+        <v>10.32331173702768</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -9205,7 +7261,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>36.95296201865219</v>
+        <v>14.43442574132795</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -9214,7 +7270,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>36.95296201865219</v>
+        <v>14.43442574132795</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -9223,7 +7279,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>36.95296201865219</v>
+        <v>14.43442574132795</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -9232,7 +7288,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>38.42937425414802</v>
+        <v>19.42652420368946</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -9241,7 +7297,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>38.42937425414802</v>
+        <v>19.42652420368946</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -9250,7 +7306,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>38.42937425414802</v>
+        <v>19.42652420368946</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -9259,7 +7315,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>43.2132847897675</v>
+        <v>21.38201296877658</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -9268,7 +7324,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>43.2132847897675</v>
+        <v>21.38201296877658</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -9277,7 +7333,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>43.2132847897675</v>
+        <v>21.38201296877658</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -9286,7 +7342,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>47.47759616329522</v>
+        <v>22.49331737646876</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -9295,7 +7351,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>47.47759616329522</v>
+        <v>22.49331737646876</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -9304,7 +7360,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>47.47759616329522</v>
+        <v>22.49331737646876</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -9313,7 +7369,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>51.27321937956054</v>
+        <v>23.51868843655521</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -9322,7 +7378,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>51.27321937956054</v>
+        <v>23.51868843655521</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -9331,7 +7387,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>51.27321937956054</v>
+        <v>23.51868843655521</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -9340,7 +7396,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>52.4292829237128</v>
+        <v>23.72119574695472</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -9349,7 +7405,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>52.4292829237128</v>
+        <v>23.72119574695472</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -9358,7 +7414,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>52.4292829237128</v>
+        <v>23.72119574695472</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -9367,7 +7423,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>52.95124579822775</v>
+        <v>25.04197107477173</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -9376,7 +7432,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>52.95124579822775</v>
+        <v>25.04197107477173</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -9385,7 +7441,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>52.95124579822775</v>
+        <v>25.04197107477173</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -9394,7 +7450,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>53.042418571879</v>
+        <v>25.77129371032068</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -9403,7 +7459,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>53.042418571879</v>
+        <v>25.77129371032068</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -9412,7 +7468,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>53.042418571879</v>
+        <v>25.77129371032068</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -9421,7 +7477,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>53.69380053660271</v>
+        <v>26.17697161667751</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -9430,7 +7486,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>53.69380053660271</v>
+        <v>26.17697161667751</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -9439,7 +7495,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>53.69380053660271</v>
+        <v>26.17697161667751</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -9448,7 +7504,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>53.13390523635842</v>
+        <v>26.05255440307466</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -9457,7 +7513,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>53.13390523635842</v>
+        <v>26.05255440307466</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -9466,7 +7522,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>53.13390523635842</v>
+        <v>26.05255440307466</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -9475,7 +7531,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>53.95596338206533</v>
+        <v>26.04471765969777</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -9484,7 +7540,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>53.95596338206533</v>
+        <v>26.04471765969777</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -9493,7 +7549,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>53.95596338206533</v>
+        <v>26.04471765969777</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -9502,7 +7558,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>53.57530826011626</v>
+        <v>25.22166881496272</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -9511,7 +7567,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>53.57530826011626</v>
+        <v>25.22166881496272</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -9520,7 +7576,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>53.57530826011626</v>
+        <v>25.22166881496272</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -9529,7 +7585,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>51.93405444538568</v>
+        <v>23.45637350649704</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -9538,7 +7594,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>51.93405444538568</v>
+        <v>23.45637350649704</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -9547,7 +7603,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>51.93405444538568</v>
+        <v>23.45637350649704</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -9556,7 +7612,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>46.74204613910528</v>
+        <v>20.2069811738407</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -9565,7 +7621,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>46.74204613910528</v>
+        <v>20.2069811738407</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -9574,7 +7630,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>46.74204613910528</v>
+        <v>20.2069811738407</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -9583,7 +7639,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>40.86439349163974</v>
+        <v>17.91453529631595</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -9592,7 +7648,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>40.86439349163974</v>
+        <v>17.91453529631595</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -9601,7 +7657,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>40.86439349163974</v>
+        <v>17.91453529631595</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -9610,7 +7666,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>32.48240145509796</v>
+        <v>14.5669664697663</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -9619,7 +7675,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>32.48240145509796</v>
+        <v>14.5669664697663</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -9628,7 +7684,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>32.48240145509796</v>
+        <v>14.5669664697663</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -9637,7 +7693,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>31.85602296594192</v>
+        <v>13.53079897187554</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -9646,7 +7702,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>31.85602296594192</v>
+        <v>13.53079897187554</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -9655,7 +7711,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>31.85602296594192</v>
+        <v>13.53079897187554</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -9664,7 +7720,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>30.81233779310158</v>
+        <v>13.92996089684815</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -9673,7 +7729,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>30.81233779310158</v>
+        <v>13.92996089684815</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -9682,7 +7738,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>30.81233779310158</v>
+        <v>13.92996089684815</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -9691,7 +7747,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>30.22862086165373</v>
+        <v>12.76634111922189</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -9700,7 +7756,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>30.22862086165373</v>
+        <v>12.76634111922189</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -9709,7 +7765,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>30.22862086165373</v>
+        <v>12.76634111922189</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -9718,7 +7774,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>28.22962207615193</v>
+        <v>11.40938426487295</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -9727,7 +7783,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>28.22962207615193</v>
+        <v>11.40938426487295</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -9736,7 +7792,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>28.22962207615193</v>
+        <v>11.40938426487295</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -9745,7 +7801,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>28.02306563952391</v>
+        <v>10.22938213123373</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -9754,7 +7810,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>28.02306563952391</v>
+        <v>10.22938213123373</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -9763,7 +7819,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>28.02306563952391</v>
+        <v>10.22938213123373</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -9772,7 +7828,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>27.40563040535225</v>
+        <v>10.12887945640829</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -9781,7 +7837,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>27.40563040535225</v>
+        <v>10.12887945640829</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -9790,7 +7846,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>27.40563040535225</v>
+        <v>10.12887945640829</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -9799,7 +7855,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>27.40844962579736</v>
+        <v>7.31394217769436</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -9808,7 +7864,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>27.40844962579736</v>
+        <v>7.31394217769436</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -9817,7 +7873,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>27.40844962579736</v>
+        <v>7.31394217769436</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -9826,7 +7882,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>22.79633742771298</v>
+        <v>9.700293459084643</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -9835,7 +7891,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>22.79633742771298</v>
+        <v>9.700293459084643</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -9844,7 +7900,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>22.79633742771298</v>
+        <v>9.700293459084643</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -9853,7 +7909,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>22.9764456924774</v>
+        <v>10.63212806895766</v>
       </c>
     </row>
     <row r="145">
@@ -9861,7 +7917,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>22.9764456924774</v>
+        <v>10.63212806895766</v>
       </c>
     </row>
     <row r="146">
@@ -9908,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-100.8162151359653</v>
+        <v>-50.88998624075326</v>
       </c>
     </row>
     <row r="3">
@@ -9916,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-102.6538263402603</v>
+        <v>-51.18020143575259</v>
       </c>
     </row>
     <row r="4">
@@ -9924,7 +7980,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-102.6538263402603</v>
+        <v>-51.18020143575259</v>
       </c>
     </row>
     <row r="5">
@@ -9932,7 +7988,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-102.6538263402603</v>
+        <v>-51.18020143575259</v>
       </c>
     </row>
     <row r="6">
@@ -9940,7 +7996,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-100.9883861575692</v>
+        <v>-51.09290427875229</v>
       </c>
     </row>
     <row r="7">
@@ -9948,7 +8004,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-100.9883861575692</v>
+        <v>-51.09290427875229</v>
       </c>
     </row>
     <row r="8">
@@ -9956,7 +8012,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-100.9883861575692</v>
+        <v>-51.09290427875229</v>
       </c>
     </row>
     <row r="9">
@@ -9964,7 +8020,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-100.3702004231391</v>
+        <v>-52.2186841496156</v>
       </c>
     </row>
     <row r="10">
@@ -9972,7 +8028,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-100.3702004231391</v>
+        <v>-52.2186841496156</v>
       </c>
     </row>
     <row r="11">
@@ -9980,7 +8036,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-100.3702004231391</v>
+        <v>-52.2186841496156</v>
       </c>
     </row>
     <row r="12">
@@ -9988,7 +8044,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-100.7960332261718</v>
+        <v>-52.23613429624356</v>
       </c>
     </row>
     <row r="13">
@@ -9996,7 +8052,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-100.7960332261718</v>
+        <v>-52.23613429624356</v>
       </c>
     </row>
     <row r="14">
@@ -10004,7 +8060,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-100.7960332261718</v>
+        <v>-52.23613429624356</v>
       </c>
     </row>
     <row r="15">
@@ -10012,7 +8068,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-100.4414037825633</v>
+        <v>-51.69670292838438</v>
       </c>
     </row>
     <row r="16">
@@ -10020,7 +8076,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-100.4414037825633</v>
+        <v>-51.69670292838438</v>
       </c>
     </row>
     <row r="17">
@@ -10028,7 +8084,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-100.4414037825633</v>
+        <v>-51.69670292838438</v>
       </c>
     </row>
     <row r="18">
@@ -10036,7 +8092,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-100.9801003366578</v>
+        <v>-51.93797275364668</v>
       </c>
     </row>
     <row r="19">
@@ -10044,7 +8100,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-100.9801003366578</v>
+        <v>-51.93797275364668</v>
       </c>
     </row>
     <row r="20">
@@ -10052,7 +8108,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-100.9801003366578</v>
+        <v>-51.93797275364668</v>
       </c>
     </row>
     <row r="21">
@@ -10060,7 +8116,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-101.0845754279974</v>
+        <v>-51.79247480946051</v>
       </c>
     </row>
     <row r="22">
@@ -10068,7 +8124,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-101.0845754279974</v>
+        <v>-51.79247480946051</v>
       </c>
     </row>
     <row r="23">
@@ -10076,7 +8132,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-101.0845754279974</v>
+        <v>-51.79247480946051</v>
       </c>
     </row>
     <row r="24">
@@ -10084,7 +8140,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-102.5987390738508</v>
+        <v>-54.08698037077845</v>
       </c>
     </row>
     <row r="25">
@@ -10092,7 +8148,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-102.5987390738508</v>
+        <v>-54.08698037077845</v>
       </c>
     </row>
     <row r="26">
@@ -10100,7 +8156,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-102.5987390738508</v>
+        <v>-54.08698037077845</v>
       </c>
     </row>
     <row r="27">
@@ -10108,7 +8164,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-106.0405728458779</v>
+        <v>-58.28840324421669</v>
       </c>
     </row>
     <row r="28">
@@ -10116,7 +8172,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-106.0405728458779</v>
+        <v>-58.28840324421669</v>
       </c>
     </row>
     <row r="29">
@@ -10124,7 +8180,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-106.0405728458779</v>
+        <v>-58.28840324421669</v>
       </c>
     </row>
     <row r="30">
@@ -10132,7 +8188,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-108.3166206094313</v>
+        <v>-59.77400426347586</v>
       </c>
     </row>
     <row r="31">
@@ -10140,7 +8196,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-108.3166206094313</v>
+        <v>-59.77400426347586</v>
       </c>
     </row>
     <row r="32">
@@ -10148,7 +8204,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-108.3166206094313</v>
+        <v>-59.77400426347586</v>
       </c>
     </row>
     <row r="33">
@@ -10156,7 +8212,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-117.5299868655632</v>
+        <v>-62.57631088522449</v>
       </c>
     </row>
     <row r="34">
@@ -10164,7 +8220,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-117.5299868655632</v>
+        <v>-62.57631088522449</v>
       </c>
     </row>
     <row r="35">
@@ -10172,7 +8228,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-117.5299868655632</v>
+        <v>-62.57631088522449</v>
       </c>
     </row>
     <row r="36">
@@ -10180,7 +8236,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-122.1406355423576</v>
+        <v>-64.14256395159254</v>
       </c>
     </row>
     <row r="37">
@@ -10188,7 +8244,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-122.1406355423576</v>
+        <v>-64.14256395159254</v>
       </c>
     </row>
     <row r="38">
@@ -10196,7 +8252,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-122.1406355423576</v>
+        <v>-64.14256395159254</v>
       </c>
     </row>
     <row r="39">
@@ -10204,7 +8260,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-124.834353279414</v>
+        <v>-65.40936398147684</v>
       </c>
     </row>
     <row r="40">
@@ -10212,7 +8268,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-124.834353279414</v>
+        <v>-65.40936398147684</v>
       </c>
     </row>
     <row r="41">
@@ -10220,7 +8276,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-124.834353279414</v>
+        <v>-65.40936398147684</v>
       </c>
     </row>
     <row r="42">
@@ -10228,7 +8284,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-123.9973416316789</v>
+        <v>-65.60727786808964</v>
       </c>
     </row>
     <row r="43">
@@ -10236,7 +8292,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-123.9973416316789</v>
+        <v>-65.60727786808964</v>
       </c>
     </row>
     <row r="44">
@@ -10244,7 +8300,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-123.9973416316789</v>
+        <v>-65.60727786808964</v>
       </c>
     </row>
     <row r="45">
@@ -10252,7 +8308,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-122.1272145405057</v>
+        <v>-65.21806547639167</v>
       </c>
     </row>
     <row r="46">
@@ -10260,7 +8316,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-122.1272145405057</v>
+        <v>-65.21806547639167</v>
       </c>
     </row>
     <row r="47">
@@ -10268,7 +8324,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-122.1272145405057</v>
+        <v>-65.21806547639167</v>
       </c>
     </row>
     <row r="48">
@@ -10276,7 +8332,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-120.7126252329652</v>
+        <v>-64.80905243217086</v>
       </c>
     </row>
     <row r="49">
@@ -10284,7 +8340,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-120.7126252329652</v>
+        <v>-64.80905243217086</v>
       </c>
     </row>
     <row r="50">
@@ -10292,7 +8348,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-120.7126252329652</v>
+        <v>-64.80905243217086</v>
       </c>
     </row>
     <row r="51">
@@ -10300,7 +8356,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-120.0222448216419</v>
+        <v>-63.97582552072866</v>
       </c>
     </row>
     <row r="52">
@@ -10308,7 +8364,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-120.0222448216419</v>
+        <v>-63.97582552072866</v>
       </c>
     </row>
     <row r="53">
@@ -10316,7 +8372,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-120.0222448216419</v>
+        <v>-63.97582552072866</v>
       </c>
     </row>
     <row r="54">
@@ -10324,7 +8380,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-116.4960922133104</v>
+        <v>-63.39406634369166</v>
       </c>
     </row>
     <row r="55">
@@ -10332,7 +8388,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-116.4960922133104</v>
+        <v>-63.39406634369166</v>
       </c>
     </row>
     <row r="56">
@@ -10340,7 +8396,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-116.4960922133104</v>
+        <v>-63.39406634369166</v>
       </c>
     </row>
     <row r="57">
@@ -10348,7 +8404,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-113.4656366653869</v>
+        <v>-62.52641782833749</v>
       </c>
     </row>
     <row r="58">
@@ -10356,7 +8412,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-113.4656366653869</v>
+        <v>-62.52641782833749</v>
       </c>
     </row>
     <row r="59">
@@ -10364,7 +8420,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-113.4656366653869</v>
+        <v>-62.52641782833749</v>
       </c>
     </row>
     <row r="60">
@@ -10372,7 +8428,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-110.9855046163955</v>
+        <v>-61.66031752472311</v>
       </c>
     </row>
     <row r="61">
@@ -10380,7 +8436,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-110.9855046163955</v>
+        <v>-61.66031752472311</v>
       </c>
     </row>
     <row r="62">
@@ -10388,7 +8444,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-110.9855046163955</v>
+        <v>-61.66031752472311</v>
       </c>
     </row>
     <row r="63">
@@ -10396,7 +8452,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-107.2016859549872</v>
+        <v>-58.4478028432317</v>
       </c>
     </row>
     <row r="64">
@@ -10404,7 +8460,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-107.2016859549872</v>
+        <v>-58.4478028432317</v>
       </c>
     </row>
     <row r="65">
@@ -10412,7 +8468,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-107.2016859549872</v>
+        <v>-58.4478028432317</v>
       </c>
     </row>
     <row r="66">
@@ -10420,7 +8476,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-102.1546756350901</v>
+        <v>-57.08196597645496</v>
       </c>
     </row>
     <row r="67">
@@ -10428,7 +8484,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-102.1546756350901</v>
+        <v>-57.08196597645496</v>
       </c>
     </row>
     <row r="68">
@@ -10436,7 +8492,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-102.1546756350901</v>
+        <v>-57.08196597645496</v>
       </c>
     </row>
     <row r="69">
@@ -10444,7 +8500,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-97.04857989126459</v>
+        <v>-55.97083599365554</v>
       </c>
     </row>
     <row r="70">
@@ -10452,7 +8508,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-97.04857989126459</v>
+        <v>-55.97083599365554</v>
       </c>
     </row>
     <row r="71">
@@ -10460,7 +8516,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-97.04857989126459</v>
+        <v>-55.97083599365554</v>
       </c>
     </row>
     <row r="72">
@@ -10468,7 +8524,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-99.2283375768605</v>
+        <v>-52.47258034932041</v>
       </c>
     </row>
     <row r="73">
@@ -10476,7 +8532,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-99.2283375768605</v>
+        <v>-52.47258034932041</v>
       </c>
     </row>
     <row r="74">
@@ -10484,7 +8540,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-99.2283375768605</v>
+        <v>-52.47258034932041</v>
       </c>
     </row>
     <row r="75">
@@ -10492,7 +8548,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-97.84821051210906</v>
+        <v>-49.32395944181027</v>
       </c>
     </row>
     <row r="76">
@@ -10500,7 +8556,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-97.84821051210906</v>
+        <v>-49.32395944181027</v>
       </c>
     </row>
     <row r="77">
@@ -10508,7 +8564,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-97.84821051210906</v>
+        <v>-49.32395944181027</v>
       </c>
     </row>
     <row r="78">
@@ -10516,7 +8572,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-94.95609266320446</v>
+        <v>-47.93922558626052</v>
       </c>
     </row>
     <row r="79">
@@ -10524,7 +8580,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-94.95609266320446</v>
+        <v>-47.93922558626052</v>
       </c>
     </row>
     <row r="80">
@@ -10532,7 +8588,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-94.95609266320446</v>
+        <v>-47.93922558626052</v>
       </c>
     </row>
     <row r="81">
@@ -10540,7 +8596,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-91.28781444002345</v>
+        <v>-47.58884346662475</v>
       </c>
     </row>
     <row r="82">
@@ -10548,7 +8604,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-91.28781444002345</v>
+        <v>-47.58884346662475</v>
       </c>
     </row>
     <row r="83">
@@ -10556,7 +8612,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-91.28781444002345</v>
+        <v>-47.58884346662475</v>
       </c>
     </row>
     <row r="84">
@@ -10564,7 +8620,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-89.9703428260986</v>
+        <v>-47.02154806152321</v>
       </c>
     </row>
     <row r="85">
@@ -10572,7 +8628,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-89.9703428260986</v>
+        <v>-47.02154806152321</v>
       </c>
     </row>
     <row r="86">
@@ -10580,7 +8636,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-89.9703428260986</v>
+        <v>-47.02154806152321</v>
       </c>
     </row>
     <row r="87">
@@ -10588,7 +8644,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-89.86744284762383</v>
+        <v>-46.57927758700251</v>
       </c>
     </row>
     <row r="88">
@@ -10596,7 +8652,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-89.86744284762383</v>
+        <v>-46.57927758700251</v>
       </c>
     </row>
     <row r="89">
@@ -10604,7 +8660,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-89.86744284762383</v>
+        <v>-46.57927758700251</v>
       </c>
     </row>
     <row r="90">
@@ -10612,7 +8668,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-88.99667717569402</v>
+        <v>-46.31754200221309</v>
       </c>
     </row>
     <row r="91">
@@ -10620,7 +8676,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-88.99667717569402</v>
+        <v>-46.31754200221309</v>
       </c>
     </row>
     <row r="92">
@@ -10628,7 +8684,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-88.99667717569402</v>
+        <v>-46.31754200221309</v>
       </c>
     </row>
     <row r="93">
@@ -10636,7 +8692,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-88.06255461437968</v>
+        <v>-46.1696217696196</v>
       </c>
     </row>
     <row r="94">
@@ -10644,7 +8700,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-88.06255461437968</v>
+        <v>-46.1696217696196</v>
       </c>
     </row>
     <row r="95">
@@ -10652,7 +8708,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-88.06255461437968</v>
+        <v>-46.1696217696196</v>
       </c>
     </row>
     <row r="96">
@@ -10660,7 +8716,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-87.4490381501642</v>
+        <v>-45.7603465377991</v>
       </c>
     </row>
     <row r="97">
@@ -10668,7 +8724,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-87.4490381501642</v>
+        <v>-45.7603465377991</v>
       </c>
     </row>
     <row r="98">
@@ -10676,7 +8732,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-87.4490381501642</v>
+        <v>-45.7603465377991</v>
       </c>
     </row>
     <row r="99">
@@ -10684,7 +8740,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-87.56973765511628</v>
+        <v>-45.84404465367358</v>
       </c>
     </row>
     <row r="100">
@@ -10692,7 +8748,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-87.56973765511628</v>
+        <v>-45.84404465367358</v>
       </c>
     </row>
     <row r="101">
@@ -10700,7 +8756,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-87.56973765511628</v>
+        <v>-45.84404465367358</v>
       </c>
     </row>
     <row r="102">
@@ -10708,7 +8764,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-87.70235102655653</v>
+        <v>-45.95922591353748</v>
       </c>
     </row>
     <row r="103">
@@ -10716,7 +8772,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-87.70235102655653</v>
+        <v>-45.95922591353748</v>
       </c>
     </row>
     <row r="104">
@@ -10724,7 +8780,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-87.70235102655653</v>
+        <v>-45.95922591353748</v>
       </c>
     </row>
     <row r="105">
@@ -10732,7 +8788,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-87.75788362591007</v>
+        <v>-46.03814546080437</v>
       </c>
     </row>
     <row r="106">
@@ -10740,7 +8796,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-87.75788362591007</v>
+        <v>-46.03814546080437</v>
       </c>
     </row>
     <row r="107">
@@ -10748,7 +8804,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-87.75788362591007</v>
+        <v>-46.03814546080437</v>
       </c>
     </row>
     <row r="108">
@@ -10756,7 +8812,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-88.71262428451104</v>
+        <v>-46.81749618529572</v>
       </c>
     </row>
     <row r="109">
@@ -10764,7 +8820,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-88.71262428451104</v>
+        <v>-46.81749618529572</v>
       </c>
     </row>
     <row r="110">
@@ -10772,7 +8828,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-88.71262428451104</v>
+        <v>-46.81749618529572</v>
       </c>
     </row>
     <row r="111">
@@ -10780,7 +8836,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-91.42189606977288</v>
+        <v>-47.57321414421867</v>
       </c>
     </row>
     <row r="112">
@@ -10788,7 +8844,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-91.42189606977288</v>
+        <v>-47.57321414421867</v>
       </c>
     </row>
     <row r="113">
@@ -10796,7 +8852,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-91.42189606977288</v>
+        <v>-47.57321414421867</v>
       </c>
     </row>
     <row r="114">
@@ -10804,7 +8860,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-92.25621490645744</v>
+        <v>-48.53170445247343</v>
       </c>
     </row>
     <row r="115">
@@ -10812,7 +8868,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-92.25621490645744</v>
+        <v>-48.53170445247343</v>
       </c>
     </row>
     <row r="116">
@@ -10820,7 +8876,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-92.25621490645744</v>
+        <v>-48.53170445247343</v>
       </c>
     </row>
     <row r="117">
@@ -10828,7 +8884,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-95.55704044910095</v>
+        <v>-50.66189587348153</v>
       </c>
     </row>
     <row r="118">
@@ -10836,7 +8892,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-95.55704044910095</v>
+        <v>-50.66189587348153</v>
       </c>
     </row>
     <row r="119">
@@ -10844,7 +8900,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-95.55704044910095</v>
+        <v>-50.66189587348153</v>
       </c>
     </row>
     <row r="120">
@@ -10852,7 +8908,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-99.51977807899937</v>
+        <v>-51.43769422800482</v>
       </c>
     </row>
     <row r="121">
@@ -10860,7 +8916,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-99.51977807899937</v>
+        <v>-51.43769422800482</v>
       </c>
     </row>
     <row r="122">
@@ -10868,7 +8924,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-99.51977807899937</v>
+        <v>-51.43769422800482</v>
       </c>
     </row>
     <row r="123">
@@ -10876,7 +8932,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-101.2639364142952</v>
+        <v>-53.7218617316969</v>
       </c>
     </row>
     <row r="124">
@@ -10884,7 +8940,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-101.2639364142952</v>
+        <v>-53.7218617316969</v>
       </c>
     </row>
     <row r="125">
@@ -10892,7 +8948,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-101.2639364142952</v>
+        <v>-53.7218617316969</v>
       </c>
     </row>
     <row r="126">
@@ -10900,7 +8956,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-103.9176116604597</v>
+        <v>-53.14574237782722</v>
       </c>
     </row>
     <row r="127">
@@ -10908,7 +8964,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-103.9176116604597</v>
+        <v>-53.14574237782722</v>
       </c>
     </row>
     <row r="128">
@@ -10916,7 +8972,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-103.9176116604597</v>
+        <v>-53.14574237782722</v>
       </c>
     </row>
     <row r="129">
@@ -10924,7 +8980,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-105.2728194120568</v>
+        <v>-52.68549057236487</v>
       </c>
     </row>
     <row r="130">
@@ -10932,7 +8988,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-105.2728194120568</v>
+        <v>-52.68549057236487</v>
       </c>
     </row>
     <row r="131">
@@ -10940,7 +8996,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-105.2728194120568</v>
+        <v>-52.68549057236487</v>
       </c>
     </row>
     <row r="132">
@@ -10948,7 +9004,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-103.1554292158641</v>
+        <v>-54.30883072819395</v>
       </c>
     </row>
     <row r="133">
@@ -10956,7 +9012,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-103.1554292158641</v>
+        <v>-54.30883072819395</v>
       </c>
     </row>
     <row r="134">
@@ -10964,7 +9020,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-103.1554292158641</v>
+        <v>-54.30883072819395</v>
       </c>
     </row>
     <row r="135">
@@ -10972,7 +9028,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-102.7389935298722</v>
+        <v>-52.50587530144271</v>
       </c>
     </row>
     <row r="136">
@@ -10980,7 +9036,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-102.7389935298722</v>
+        <v>-52.50587530144271</v>
       </c>
     </row>
     <row r="137">
@@ -10988,7 +9044,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-102.7389935298722</v>
+        <v>-52.50587530144271</v>
       </c>
     </row>
     <row r="138">
@@ -10996,7 +9052,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-102.8741417162594</v>
+        <v>-51.41190990681683</v>
       </c>
     </row>
     <row r="139">
@@ -11004,7 +9060,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-102.8741417162594</v>
+        <v>-51.41190990681683</v>
       </c>
     </row>
     <row r="140">
@@ -11012,7 +9068,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-102.8741417162594</v>
+        <v>-51.41190990681683</v>
       </c>
     </row>
     <row r="141">
@@ -11020,7 +9076,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-101.9313364295543</v>
+        <v>-50.65731607407216</v>
       </c>
     </row>
     <row r="142">
@@ -11028,7 +9084,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-101.9313364295543</v>
+        <v>-50.65731607407216</v>
       </c>
     </row>
     <row r="143">
@@ -11036,7 +9092,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-101.9313364295543</v>
+        <v>-50.65731607407216</v>
       </c>
     </row>
     <row r="144">
@@ -11044,7 +9100,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-100.8162151359653</v>
+        <v>-50.88998624075326</v>
       </c>
     </row>
     <row r="145">
@@ -11052,7 +9108,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-100.8162151359653</v>
+        <v>-50.88998624075326</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix17.xlsx
+++ b/testcases/timeseries/EVDay01_mix17.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt formatCode="0.0" numFmtId="164"/>
+    <numFmt formatCode="0.000" numFmtId="165"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,33 +125,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -531,7 +599,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1714,7 +1782,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1724,7 +1792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1732,7 +1800,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="12.85546875" customWidth="1" min="5" max="5"/>
+    <col customWidth="1" max="5" min="5" width="12.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1800,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014005761</v>
+        <v>2012006939</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1906,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012008974</v>
+        <v>2015005585</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1876,7 +1944,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2016000195</v>
+        <v>2012003649</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1959,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1982,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2015000350</v>
+        <v>2013004899</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1997,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +2020,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2012003297</v>
+        <v>2015002062</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1990,7 +2058,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2012006975</v>
+        <v>2012000769</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2028,7 +2096,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2016009191</v>
+        <v>2014002887</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2066,7 +2134,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2015005052</v>
+        <v>2012004025</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2081,7 +2149,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2104,7 +2172,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2013000074</v>
+        <v>2015007423</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2119,7 +2187,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2142,7 +2210,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2014006289</v>
+        <v>2012004647</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2157,7 +2225,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2180,7 +2248,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2012007425</v>
+        <v>2016006566</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2218,7 +2286,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2016008406</v>
+        <v>2015001190</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2256,7 +2324,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2012005271</v>
+        <v>2012007340</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2271,7 +2339,7 @@
         <v>7.4</v>
       </c>
       <c r="F14" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G14" t="n">
         <v>250</v>
@@ -2294,7 +2362,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2015005209</v>
+        <v>2016003715</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2309,7 +2377,7 @@
         <v>7.4</v>
       </c>
       <c r="F15" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G15" t="n">
         <v>250</v>
@@ -2332,7 +2400,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2016003834</v>
+        <v>2015002125</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -2347,7 +2415,7 @@
         <v>7.4</v>
       </c>
       <c r="F16" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
         <v>250</v>
@@ -2370,7 +2438,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2014006328</v>
+        <v>2012007558</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -2385,7 +2453,7 @@
         <v>7.4</v>
       </c>
       <c r="F17" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
         <v>250</v>
@@ -2408,7 +2476,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2013000010</v>
+        <v>2014005760</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -2423,7 +2491,7 @@
         <v>7.4</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
         <v>250</v>
@@ -2444,84 +2512,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2012002876</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>60</v>
-      </c>
-      <c r="G19" t="n">
-        <v>250</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2016002506</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>30</v>
-      </c>
-      <c r="G20" t="n">
-        <v>250</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>150</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2539,7 +2531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="15.85546875" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2571,118 +2563,118 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2014005761</v>
+        <v>2012006939</v>
       </c>
       <c r="B2" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D2" t="n">
-        <v>66.42543646327789</v>
+        <v>52.59703599566242</v>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2012008974</v>
+        <v>2015005585</v>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="D3" t="n">
-        <v>35.1076064</v>
+        <v>32.8867166605412</v>
       </c>
       <c r="E3" t="n">
-        <v>36.9214420314315</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2012008974</v>
+        <v>2012003649</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D4" t="n">
-        <v>39.72641220000001</v>
+        <v>23.45282439824406</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2016000195</v>
+        <v>2013004899</v>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>48.6702463956624</v>
+        <v>51.11644319566241</v>
       </c>
       <c r="E5" t="n">
-        <v>59.50912098658586</v>
+        <v>52.64847788568937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2015000350</v>
+        <v>2013004899</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="D6" t="n">
-        <v>38.90564826054121</v>
+        <v>50.79457519999999</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2015000350</v>
+        <v>2013004899</v>
       </c>
       <c r="B7" t="n">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C7" t="n">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D7" t="n">
-        <v>38.90564879999999</v>
+        <v>45.033138</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>56.30576814702941</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2012003297</v>
+        <v>2015002062</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n">
-        <v>22.24941855446736</v>
+        <v>13.41929184800001</v>
       </c>
       <c r="E8" t="n">
         <v>29.99999999446737</v>
@@ -2690,349 +2682,363 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2012006975</v>
+        <v>2012000769</v>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>27.76901546054119</v>
+        <v>13.78385086054119</v>
       </c>
       <c r="E9" t="n">
-        <v>39.99993369033368</v>
+        <v>14.86918419387452</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2016009191</v>
+        <v>2012000769</v>
       </c>
       <c r="B10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="D10" t="n">
-        <v>36.03297636054121</v>
+        <v>13.22765739387452</v>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>39.99998776623593</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2015005052</v>
+        <v>2014002887</v>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D11" t="n">
-        <v>18.65093431446735</v>
+        <v>34.5282434605412</v>
       </c>
       <c r="E11" t="n">
-        <v>29.99999999446736</v>
+        <v>39.97796512350877</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2013000074</v>
+        <v>2012004025</v>
       </c>
       <c r="B12" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>30.9675063956624</v>
+        <v>39.72641220000001</v>
       </c>
       <c r="E12" t="n">
-        <v>59.44063054551647</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2014006289</v>
+        <v>2012004025</v>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>72.29630878327788</v>
+        <v>39.72641220000001</v>
       </c>
       <c r="E13" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2014006289</v>
+        <v>2012004025</v>
       </c>
       <c r="B14" t="n">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
-        <v>72.29630879999998</v>
+        <v>38.0848854</v>
       </c>
       <c r="E14" t="n">
-        <v>75</v>
+        <v>39.54811967808987</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2012007425</v>
+        <v>2012004025</v>
       </c>
       <c r="B15" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C15" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D15" t="n">
-        <v>4.675</v>
+        <v>36.9905342</v>
       </c>
       <c r="E15" t="n">
-        <v>23.99999999824409</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2016008406</v>
+        <v>2012004025</v>
       </c>
       <c r="B16" t="n">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C16" t="n">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="D16" t="n">
-        <v>36.1697708</v>
+        <v>38.0848854</v>
       </c>
       <c r="E16" t="n">
-        <v>36.77243316922026</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2016008406</v>
+        <v>2015007423</v>
       </c>
       <c r="B17" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
         <v>120</v>
       </c>
       <c r="D17" t="n">
-        <v>37.264122</v>
+        <v>21.59242736</v>
       </c>
       <c r="E17" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>2012005271</v>
+        <v>2012004647</v>
       </c>
       <c r="B18" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D18" t="n">
-        <v>71.7169463832779</v>
+        <v>30.7302010605412</v>
       </c>
       <c r="E18" t="n">
-        <v>72.61021456188109</v>
+        <v>36.83285537341142</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>2012005271</v>
+        <v>2012004647</v>
       </c>
       <c r="B19" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D19" t="n">
-        <v>72.68255040000001</v>
+        <v>37.81129706054122</v>
       </c>
       <c r="E19" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>2015005209</v>
+        <v>2016006566</v>
       </c>
       <c r="B20" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D20" t="n">
-        <v>65.73020158327789</v>
+        <v>20.03297689824408</v>
       </c>
       <c r="E20" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>2016003834</v>
+        <v>2015001190</v>
       </c>
       <c r="B21" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C21" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D21" t="n">
-        <v>57.7791108</v>
+        <v>38.79621314054121</v>
       </c>
       <c r="E21" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>2016003834</v>
+        <v>2012007340</v>
       </c>
       <c r="B22" t="n">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="C22" t="n">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
-        <v>57.7791108</v>
+        <v>33.7621976205412</v>
       </c>
       <c r="E22" t="n">
-        <v>60</v>
+        <v>38.28759126256953</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>2014006328</v>
+        <v>2012007340</v>
       </c>
       <c r="B23" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" t="n">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D23" t="n">
-        <v>55.5582215956624</v>
+        <v>32.0659538</v>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>39.99345589697226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>2014006328</v>
+        <v>2016003715</v>
       </c>
       <c r="B24" t="n">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="C24" t="n">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="D24" t="n">
-        <v>58.7044813</v>
+        <v>17.5706867</v>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
+        <v>23.99999999824406</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>2013000010</v>
+        <v>2015002125</v>
       </c>
       <c r="B25" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D25" t="n">
-        <v>28.33916111446736</v>
+        <v>35.5678771005412</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
-        <v>2012002876</v>
+        <v>2012007558</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C26" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D26" t="n">
-        <v>54.8179251956624</v>
+        <v>6.763968598244062</v>
       </c>
       <c r="E26" t="n">
-        <v>60</v>
+        <v>22.68091311275418</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
-        <v>2012002876</v>
+        <v>2012007558</v>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C27" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" t="n">
-        <v>52.597036</v>
+        <v>22.35847319824408</v>
       </c>
       <c r="E27" t="n">
-        <v>60</v>
+        <v>23.83965731085511</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="n">
-        <v>2016002506</v>
+        <v>2014005760</v>
       </c>
       <c r="B28" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>20.65295327446736</v>
+        <v>23.4528244</v>
       </c>
       <c r="E28" t="n">
-        <v>29.7829333278007</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="n"/>
+      <c r="A29" s="7" t="n">
+        <v>2014005760</v>
+      </c>
+      <c r="B29" t="n">
+        <v>34</v>
+      </c>
+      <c r="C29" t="n">
+        <v>121</v>
+      </c>
+      <c r="D29" t="n">
+        <v>22.0848854</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -3050,8 +3056,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="11.7109375" customWidth="1" min="2" max="2"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col customWidth="1" max="2" min="2" width="11.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5952,7 +5958,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6027,7 +6033,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6113,7 +6119,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6224,7 +6230,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6270,7 +6276,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6589,7 +6595,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6607,10 +6613,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6631,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>10.63212806895766</v>
+        <v>10.10052166550978</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6640,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>9.392610301686613</v>
+        <v>8.922979786602282</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6649,7 +6655,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>9.392610301686613</v>
+        <v>8.922979786602282</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6658,7 +6664,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>9.392610301686613</v>
+        <v>8.922979786602282</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6667,7 +6673,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>8.09382079811007</v>
+        <v>7.689129758204566</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6676,7 +6682,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>8.09382079811007</v>
+        <v>7.689129758204566</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6685,7 +6691,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>8.09382079811007</v>
+        <v>7.689129758204566</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6694,7 +6700,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>8.891657803120207</v>
+        <v>8.447074912964196</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6703,7 +6709,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>8.891657803120207</v>
+        <v>8.447074912964196</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6712,7 +6718,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>8.891657803120207</v>
+        <v>8.447074912964196</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6721,7 +6727,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>10.01519042939449</v>
+        <v>9.514430907924766</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6730,7 +6736,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>10.01519042939449</v>
+        <v>9.514430907924766</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6739,7 +6745,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>10.01519042939449</v>
+        <v>9.514430907924766</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6748,7 +6754,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>8.31488392785938</v>
+        <v>7.899139731466411</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6757,7 +6763,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>8.31488392785938</v>
+        <v>7.899139731466411</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6766,7 +6772,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>8.31488392785938</v>
+        <v>7.899139731466411</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6775,7 +6781,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>9.856320286741136</v>
+        <v>9.363504272404079</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6784,7 +6790,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>9.856320286741136</v>
+        <v>9.363504272404079</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6793,7 +6799,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>9.856320286741136</v>
+        <v>9.363504272404079</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6802,7 +6808,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>9.018237821286069</v>
+        <v>8.567325930221765</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6811,7 +6817,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>9.018237821286069</v>
+        <v>8.567325930221765</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6820,7 +6826,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>9.018237821286069</v>
+        <v>8.567325930221765</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6829,7 +6835,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>7.122247900155165</v>
+        <v>6.766135505147407</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6838,7 +6844,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>7.122247900155165</v>
+        <v>6.766135505147407</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6847,7 +6853,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>7.122247900155165</v>
+        <v>6.766135505147407</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6856,7 +6862,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2.679621129559724</v>
+        <v>2.545640073081738</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6865,7 +6871,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2.679621129559724</v>
+        <v>2.545640073081738</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6874,7 +6880,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.679621129559724</v>
+        <v>2.545640073081738</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6883,7 +6889,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.3047288806743002</v>
+        <v>0.2894924366405852</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6892,7 +6898,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.3047288806743002</v>
+        <v>0.2894924366405852</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6901,7 +6907,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.3047288806743002</v>
+        <v>0.2894924366405852</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -7045,7 +7051,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0.8128061360928286</v>
+        <v>0.7721658292881871</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -7054,7 +7060,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0.8128061360928286</v>
+        <v>0.7721658292881871</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -7063,7 +7069,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0.8128061360928286</v>
+        <v>0.7721658292881871</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -7072,7 +7078,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.647820387936415</v>
+        <v>1.565429368539594</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -7081,7 +7087,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1.647820387936415</v>
+        <v>1.565429368539594</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -7090,7 +7096,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1.647820387936415</v>
+        <v>1.565429368539594</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -7099,7 +7105,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.5397261730326982</v>
+        <v>0.5127398643810632</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -7108,7 +7114,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0.5397261730326982</v>
+        <v>0.5127398643810632</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -7117,7 +7123,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0.5397261730326982</v>
+        <v>0.5127398643810632</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -7126,7 +7132,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>2.271180696589693</v>
+        <v>2.157621661760208</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -7135,7 +7141,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>2.271180696589693</v>
+        <v>2.157621661760208</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -7144,7 +7150,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>2.271180696589693</v>
+        <v>2.157621661760208</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -7153,7 +7159,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>3.887339230348635</v>
+        <v>3.692972268831203</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -7162,7 +7168,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>3.887339230348635</v>
+        <v>3.692972268831203</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -7171,7 +7177,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>3.887339230348635</v>
+        <v>3.692972268831203</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -7180,7 +7186,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>6.994422552347952</v>
+        <v>6.644701424730554</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -7189,7 +7195,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>6.994422552347952</v>
+        <v>6.644701424730554</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -7198,7 +7204,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>6.994422552347952</v>
+        <v>6.644701424730554</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -7207,7 +7213,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>10.06908302463281</v>
+        <v>9.565628873401172</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7216,7 +7222,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>10.06908302463281</v>
+        <v>9.565628873401172</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7225,7 +7231,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>10.06908302463281</v>
+        <v>9.565628873401172</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7234,7 +7240,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>10.32331173702768</v>
+        <v>9.807146150176296</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7243,7 +7249,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>10.32331173702768</v>
+        <v>9.807146150176296</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7252,7 +7258,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>10.32331173702768</v>
+        <v>9.807146150176296</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7261,7 +7267,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>14.43442574132795</v>
+        <v>13.71270445426155</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7270,7 +7276,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>14.43442574132795</v>
+        <v>13.71270445426155</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7279,7 +7285,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>14.43442574132795</v>
+        <v>13.71270445426155</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7288,7 +7294,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>19.42652420368946</v>
+        <v>18.45519799350499</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7297,7 +7303,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>19.42652420368946</v>
+        <v>18.45519799350499</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7306,7 +7312,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>19.42652420368946</v>
+        <v>18.45519799350499</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7315,7 +7321,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>21.38201296877658</v>
+        <v>20.31291232033775</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7324,7 +7330,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>21.38201296877658</v>
+        <v>20.31291232033775</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7333,7 +7339,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>21.38201296877658</v>
+        <v>20.31291232033775</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7342,7 +7348,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>22.49331737646876</v>
+        <v>21.36865150764532</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7351,7 +7357,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>22.49331737646876</v>
+        <v>21.36865150764532</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7360,7 +7366,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>22.49331737646876</v>
+        <v>21.36865150764532</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7369,7 +7375,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>23.51868843655521</v>
+        <v>22.34275401472745</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7378,7 +7384,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>23.51868843655521</v>
+        <v>22.34275401472745</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7387,7 +7393,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>23.51868843655521</v>
+        <v>22.34275401472745</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7396,7 +7402,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>23.72119574695472</v>
+        <v>22.53513595960698</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7405,7 +7411,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>23.72119574695472</v>
+        <v>22.53513595960698</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7414,7 +7420,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>23.72119574695472</v>
+        <v>22.53513595960698</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7423,7 +7429,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>25.04197107477173</v>
+        <v>23.78987252103314</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7432,7 +7438,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>25.04197107477173</v>
+        <v>23.78987252103314</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7441,7 +7447,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>25.04197107477173</v>
+        <v>23.78987252103314</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7450,7 +7456,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>25.77129371032068</v>
+        <v>24.48272902480465</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7459,7 +7465,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>25.77129371032068</v>
+        <v>24.48272902480465</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7468,7 +7474,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>25.77129371032068</v>
+        <v>24.48272902480465</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7477,7 +7483,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>26.17697161667751</v>
+        <v>24.86812303584363</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7486,7 +7492,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>26.17697161667751</v>
+        <v>24.86812303584363</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7495,7 +7501,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>26.17697161667751</v>
+        <v>24.86812303584363</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7504,7 +7510,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>26.05255440307466</v>
+        <v>24.74992668292092</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7513,7 +7519,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>26.05255440307466</v>
+        <v>24.74992668292092</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7522,7 +7528,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>26.05255440307466</v>
+        <v>24.74992668292092</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7531,7 +7537,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>26.04471765969777</v>
+        <v>24.74248177671288</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7540,7 +7546,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>26.04471765969777</v>
+        <v>24.74248177671288</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7549,7 +7555,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>26.04471765969777</v>
+        <v>24.74248177671288</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7558,7 +7564,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>25.22166881496272</v>
+        <v>23.96058537421458</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7567,7 +7573,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>25.22166881496272</v>
+        <v>23.96058537421458</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7576,7 +7582,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>25.22166881496272</v>
+        <v>23.96058537421458</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7585,7 +7591,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>23.45637350649704</v>
+        <v>22.28355483117219</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7594,7 +7600,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>23.45637350649704</v>
+        <v>22.28355483117219</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7603,7 +7609,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>23.45637350649704</v>
+        <v>22.28355483117219</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7612,7 +7618,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>20.2069811738407</v>
+        <v>19.19663211514866</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7621,7 +7627,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>20.2069811738407</v>
+        <v>19.19663211514866</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7630,7 +7636,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>20.2069811738407</v>
+        <v>19.19663211514866</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7639,7 +7645,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>17.91453529631595</v>
+        <v>17.01880853150015</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7648,7 +7654,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>17.91453529631595</v>
+        <v>17.01880853150015</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7657,7 +7663,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>17.91453529631595</v>
+        <v>17.01880853150015</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7666,7 +7672,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>14.5669664697663</v>
+        <v>13.83861814627798</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7675,7 +7681,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>14.5669664697663</v>
+        <v>13.83861814627798</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7684,7 +7690,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>14.5669664697663</v>
+        <v>13.83861814627798</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7693,7 +7699,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>13.53079897187554</v>
+        <v>12.85425902328176</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7702,7 +7708,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>13.53079897187554</v>
+        <v>12.85425902328176</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7711,7 +7717,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>13.53079897187554</v>
+        <v>12.85425902328176</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7720,7 +7726,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>13.92996089684815</v>
+        <v>13.23346285200574</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7729,7 +7735,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>13.92996089684815</v>
+        <v>13.23346285200574</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7738,7 +7744,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>13.92996089684815</v>
+        <v>13.23346285200574</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7747,7 +7753,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>12.76634111922189</v>
+        <v>12.12802406326079</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7756,7 +7762,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>12.76634111922189</v>
+        <v>12.12802406326079</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7765,7 +7771,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>12.76634111922189</v>
+        <v>12.12802406326079</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7774,7 +7780,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>11.40938426487295</v>
+        <v>10.83891505162931</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7783,7 +7789,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>11.40938426487295</v>
+        <v>10.83891505162931</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7792,7 +7798,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>11.40938426487295</v>
+        <v>10.83891505162931</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7801,7 +7807,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>10.22938213123373</v>
+        <v>9.71791302467204</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7810,7 +7816,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>10.22938213123373</v>
+        <v>9.71791302467204</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7819,7 +7825,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>10.22938213123373</v>
+        <v>9.71791302467204</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7828,7 +7834,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>10.12887945640829</v>
+        <v>9.622435483587878</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7837,7 +7843,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>10.12887945640829</v>
+        <v>9.622435483587878</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7846,7 +7852,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>10.12887945640829</v>
+        <v>9.622435483587878</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7855,7 +7861,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>7.31394217769436</v>
+        <v>6.948245068809642</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7864,7 +7870,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>7.31394217769436</v>
+        <v>6.948245068809642</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7873,7 +7879,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>7.31394217769436</v>
+        <v>6.948245068809642</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7882,7 +7888,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>9.700293459084643</v>
+        <v>9.21527878613041</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7891,7 +7897,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>9.700293459084643</v>
+        <v>9.21527878613041</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7900,7 +7906,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>9.700293459084643</v>
+        <v>9.21527878613041</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7909,7 +7915,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>10.63212806895766</v>
+        <v>10.10052166550978</v>
       </c>
     </row>
     <row r="145">
@@ -7917,14 +7923,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>10.63212806895766</v>
+        <v>10.10052166550978</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -7942,8 +7948,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7964,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-50.88998624075326</v>
+        <v>-33.84184085010092</v>
       </c>
     </row>
     <row r="3">
@@ -7972,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-51.18020143575259</v>
+        <v>-34.03483395477547</v>
       </c>
     </row>
     <row r="4">
@@ -7980,7 +7986,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-51.18020143575259</v>
+        <v>-34.03483395477547</v>
       </c>
     </row>
     <row r="5">
@@ -7988,7 +7994,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-51.18020143575259</v>
+        <v>-34.03483395477547</v>
       </c>
     </row>
     <row r="6">
@@ -7996,7 +8002,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-51.09290427875229</v>
+        <v>-33.97678134537026</v>
       </c>
     </row>
     <row r="7">
@@ -8004,7 +8010,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-51.09290427875229</v>
+        <v>-33.97678134537026</v>
       </c>
     </row>
     <row r="8">
@@ -8012,7 +8018,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-51.09290427875229</v>
+        <v>-33.97678134537026</v>
       </c>
     </row>
     <row r="9">
@@ -8020,7 +8026,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-52.2186841496156</v>
+        <v>-34.72542495949437</v>
       </c>
     </row>
     <row r="10">
@@ -8028,7 +8034,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-52.2186841496156</v>
+        <v>-34.72542495949437</v>
       </c>
     </row>
     <row r="11">
@@ -8036,7 +8042,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-52.2186841496156</v>
+        <v>-34.72542495949437</v>
       </c>
     </row>
     <row r="12">
@@ -8044,7 +8050,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-52.23613429624356</v>
+        <v>-34.73702930700196</v>
       </c>
     </row>
     <row r="13">
@@ -8052,7 +8058,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-52.23613429624356</v>
+        <v>-34.73702930700196</v>
       </c>
     </row>
     <row r="14">
@@ -8060,7 +8066,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-52.23613429624356</v>
+        <v>-34.73702930700196</v>
       </c>
     </row>
     <row r="15">
@@ -8068,7 +8074,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-51.69670292838438</v>
+        <v>-34.37830744737561</v>
       </c>
     </row>
     <row r="16">
@@ -8076,7 +8082,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-51.69670292838438</v>
+        <v>-34.37830744737561</v>
       </c>
     </row>
     <row r="17">
@@ -8084,7 +8090,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-51.69670292838438</v>
+        <v>-34.37830744737561</v>
       </c>
     </row>
     <row r="18">
@@ -8092,7 +8098,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-51.93797275364668</v>
+        <v>-34.53875188117504</v>
       </c>
     </row>
     <row r="19">
@@ -8100,7 +8106,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-51.93797275364668</v>
+        <v>-34.53875188117504</v>
       </c>
     </row>
     <row r="20">
@@ -8108,7 +8114,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-51.93797275364668</v>
+        <v>-34.53875188117504</v>
       </c>
     </row>
     <row r="21">
@@ -8116,7 +8122,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-51.79247480946051</v>
+        <v>-34.44199574829123</v>
       </c>
     </row>
     <row r="22">
@@ -8124,7 +8130,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-51.79247480946051</v>
+        <v>-34.44199574829123</v>
       </c>
     </row>
     <row r="23">
@@ -8132,7 +8138,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-51.79247480946051</v>
+        <v>-34.44199574829123</v>
       </c>
     </row>
     <row r="24">
@@ -8140,7 +8146,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-54.08698037077845</v>
+        <v>-35.96784194656766</v>
       </c>
     </row>
     <row r="25">
@@ -8148,7 +8154,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-54.08698037077845</v>
+        <v>-35.96784194656766</v>
       </c>
     </row>
     <row r="26">
@@ -8156,7 +8162,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-54.08698037077845</v>
+        <v>-35.96784194656766</v>
       </c>
     </row>
     <row r="27">
@@ -8164,7 +8170,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-58.28840324421669</v>
+        <v>-38.76178815740409</v>
       </c>
     </row>
     <row r="28">
@@ -8172,7 +8178,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-58.28840324421669</v>
+        <v>-38.76178815740409</v>
       </c>
     </row>
     <row r="29">
@@ -8180,7 +8186,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-58.28840324421669</v>
+        <v>-38.76178815740409</v>
       </c>
     </row>
     <row r="30">
@@ -8188,7 +8194,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-59.77400426347586</v>
+        <v>-39.74971283521145</v>
       </c>
     </row>
     <row r="31">
@@ -8196,7 +8202,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-59.77400426347586</v>
+        <v>-39.74971283521145</v>
       </c>
     </row>
     <row r="32">
@@ -8204,7 +8210,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-59.77400426347586</v>
+        <v>-39.74971283521145</v>
       </c>
     </row>
     <row r="33">
@@ -8212,7 +8218,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-62.57631088522449</v>
+        <v>-41.61324673867428</v>
       </c>
     </row>
     <row r="34">
@@ -8220,7 +8226,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-62.57631088522449</v>
+        <v>-41.61324673867428</v>
       </c>
     </row>
     <row r="35">
@@ -8228,7 +8234,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-62.57631088522449</v>
+        <v>-41.61324673867428</v>
       </c>
     </row>
     <row r="36">
@@ -8236,7 +8242,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-64.14256395159254</v>
+        <v>-42.65480502780903</v>
       </c>
     </row>
     <row r="37">
@@ -8244,7 +8250,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-64.14256395159254</v>
+        <v>-42.65480502780903</v>
       </c>
     </row>
     <row r="38">
@@ -8252,7 +8258,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-64.14256395159254</v>
+        <v>-42.65480502780903</v>
       </c>
     </row>
     <row r="39">
@@ -8260,7 +8266,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-65.40936398147684</v>
+        <v>-43.4972270476821</v>
       </c>
     </row>
     <row r="40">
@@ -8268,7 +8274,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-65.40936398147684</v>
+        <v>-43.4972270476821</v>
       </c>
     </row>
     <row r="41">
@@ -8276,7 +8282,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-65.40936398147684</v>
+        <v>-43.4972270476821</v>
       </c>
     </row>
     <row r="42">
@@ -8284,7 +8290,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-65.60727786808964</v>
+        <v>-43.62883978227961</v>
       </c>
     </row>
     <row r="43">
@@ -8292,7 +8298,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-65.60727786808964</v>
+        <v>-43.62883978227961</v>
       </c>
     </row>
     <row r="44">
@@ -8300,7 +8306,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-65.60727786808964</v>
+        <v>-43.62883978227961</v>
       </c>
     </row>
     <row r="45">
@@ -8308,7 +8314,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-65.21806547639167</v>
+        <v>-43.37001354180046</v>
       </c>
     </row>
     <row r="46">
@@ -8316,7 +8322,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-65.21806547639167</v>
+        <v>-43.37001354180046</v>
       </c>
     </row>
     <row r="47">
@@ -8324,7 +8330,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-65.21806547639167</v>
+        <v>-43.37001354180046</v>
       </c>
     </row>
     <row r="48">
@@ -8332,7 +8338,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-64.80905243217086</v>
+        <v>-43.09801986739362</v>
       </c>
     </row>
     <row r="49">
@@ -8340,7 +8346,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-64.80905243217086</v>
+        <v>-43.09801986739362</v>
       </c>
     </row>
     <row r="50">
@@ -8348,7 +8354,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-64.80905243217086</v>
+        <v>-43.09801986739362</v>
       </c>
     </row>
     <row r="51">
@@ -8356,7 +8362,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-63.97582552072866</v>
+        <v>-42.54392397128455</v>
       </c>
     </row>
     <row r="52">
@@ -8364,7 +8370,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-63.97582552072866</v>
+        <v>-42.54392397128455</v>
       </c>
     </row>
     <row r="53">
@@ -8372,7 +8378,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-63.97582552072866</v>
+        <v>-42.54392397128455</v>
       </c>
     </row>
     <row r="54">
@@ -8380,7 +8386,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-63.39406634369166</v>
+        <v>-42.15705411855495</v>
       </c>
     </row>
     <row r="55">
@@ -8388,7 +8394,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-63.39406634369166</v>
+        <v>-42.15705411855495</v>
       </c>
     </row>
     <row r="56">
@@ -8396,7 +8402,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-63.39406634369166</v>
+        <v>-42.15705411855495</v>
       </c>
     </row>
     <row r="57">
@@ -8404,7 +8410,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-62.52641782833749</v>
+        <v>-41.58006785584443</v>
       </c>
     </row>
     <row r="58">
@@ -8412,7 +8418,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-62.52641782833749</v>
+        <v>-41.58006785584443</v>
       </c>
     </row>
     <row r="59">
@@ -8420,7 +8426,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-62.52641782833749</v>
+        <v>-41.58006785584443</v>
       </c>
     </row>
     <row r="60">
@@ -8428,7 +8434,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-61.66031752472311</v>
+        <v>-41.00411115394086</v>
       </c>
     </row>
     <row r="61">
@@ -8436,7 +8442,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-61.66031752472311</v>
+        <v>-41.00411115394086</v>
       </c>
     </row>
     <row r="62">
@@ -8444,7 +8450,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-61.66031752472311</v>
+        <v>-41.00411115394086</v>
       </c>
     </row>
     <row r="63">
@@ -8452,7 +8458,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-58.4478028432317</v>
+        <v>-38.86778889074908</v>
       </c>
     </row>
     <row r="64">
@@ -8460,7 +8466,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-58.4478028432317</v>
+        <v>-38.86778889074908</v>
       </c>
     </row>
     <row r="65">
@@ -8468,7 +8474,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-58.4478028432317</v>
+        <v>-38.86778889074908</v>
       </c>
     </row>
     <row r="66">
@@ -8476,7 +8482,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-57.08196597645496</v>
+        <v>-37.95950737434254</v>
       </c>
     </row>
     <row r="67">
@@ -8484,7 +8490,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-57.08196597645496</v>
+        <v>-37.95950737434254</v>
       </c>
     </row>
     <row r="68">
@@ -8492,7 +8498,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-57.08196597645496</v>
+        <v>-37.95950737434254</v>
       </c>
     </row>
     <row r="69">
@@ -8500,7 +8506,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-55.97083599365554</v>
+        <v>-37.22060593578093</v>
       </c>
     </row>
     <row r="70">
@@ -8508,7 +8514,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-55.97083599365554</v>
+        <v>-37.22060593578093</v>
       </c>
     </row>
     <row r="71">
@@ -8516,7 +8522,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-55.97083599365554</v>
+        <v>-37.22060593578093</v>
       </c>
     </row>
     <row r="72">
@@ -8524,7 +8530,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-52.47258034932041</v>
+        <v>-34.89426593229807</v>
       </c>
     </row>
     <row r="73">
@@ -8532,7 +8538,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-52.47258034932041</v>
+        <v>-34.89426593229807</v>
       </c>
     </row>
     <row r="74">
@@ -8540,7 +8546,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-52.47258034932041</v>
+        <v>-34.89426593229807</v>
       </c>
     </row>
     <row r="75">
@@ -8548,7 +8554,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-49.32395944181027</v>
+        <v>-32.80043302880382</v>
       </c>
     </row>
     <row r="76">
@@ -8556,7 +8562,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-49.32395944181027</v>
+        <v>-32.80043302880382</v>
       </c>
     </row>
     <row r="77">
@@ -8564,7 +8570,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-49.32395944181027</v>
+        <v>-32.80043302880382</v>
       </c>
     </row>
     <row r="78">
@@ -8572,7 +8578,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-47.93922558626052</v>
+        <v>-31.87958501486325</v>
       </c>
     </row>
     <row r="79">
@@ -8580,7 +8586,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-47.93922558626052</v>
+        <v>-31.87958501486325</v>
       </c>
     </row>
     <row r="80">
@@ -8588,7 +8594,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-47.93922558626052</v>
+        <v>-31.87958501486325</v>
       </c>
     </row>
     <row r="81">
@@ -8596,7 +8602,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-47.58884346662475</v>
+        <v>-31.64658090530546</v>
       </c>
     </row>
     <row r="82">
@@ -8604,7 +8610,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-47.58884346662475</v>
+        <v>-31.64658090530546</v>
       </c>
     </row>
     <row r="83">
@@ -8612,7 +8618,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-47.58884346662475</v>
+        <v>-31.64658090530546</v>
       </c>
     </row>
     <row r="84">
@@ -8620,7 +8626,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-47.02154806152321</v>
+        <v>-31.26932946091293</v>
       </c>
     </row>
     <row r="85">
@@ -8628,7 +8634,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-47.02154806152321</v>
+        <v>-31.26932946091293</v>
       </c>
     </row>
     <row r="86">
@@ -8636,7 +8642,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-47.02154806152321</v>
+        <v>-31.26932946091293</v>
       </c>
     </row>
     <row r="87">
@@ -8644,7 +8650,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-46.57927758700251</v>
+        <v>-30.97521959535667</v>
       </c>
     </row>
     <row r="88">
@@ -8652,7 +8658,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-46.57927758700251</v>
+        <v>-30.97521959535667</v>
       </c>
     </row>
     <row r="89">
@@ -8660,7 +8666,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-46.57927758700251</v>
+        <v>-30.97521959535667</v>
       </c>
     </row>
     <row r="90">
@@ -8668,7 +8674,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-46.31754200221309</v>
+        <v>-30.8011654314717</v>
       </c>
     </row>
     <row r="91">
@@ -8676,7 +8682,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-46.31754200221309</v>
+        <v>-30.8011654314717</v>
       </c>
     </row>
     <row r="92">
@@ -8684,7 +8690,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-46.31754200221309</v>
+        <v>-30.8011654314717</v>
       </c>
     </row>
     <row r="93">
@@ -8692,7 +8698,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-46.1696217696196</v>
+        <v>-30.70279847679703</v>
       </c>
     </row>
     <row r="94">
@@ -8700,7 +8706,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-46.1696217696196</v>
+        <v>-30.70279847679703</v>
       </c>
     </row>
     <row r="95">
@@ -8708,7 +8714,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-46.1696217696196</v>
+        <v>-30.70279847679703</v>
       </c>
     </row>
     <row r="96">
@@ -8716,7 +8722,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-45.7603465377991</v>
+        <v>-30.4306304476364</v>
       </c>
     </row>
     <row r="97">
@@ -8724,7 +8730,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-45.7603465377991</v>
+        <v>-30.4306304476364</v>
       </c>
     </row>
     <row r="98">
@@ -8732,7 +8738,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-45.7603465377991</v>
+        <v>-30.4306304476364</v>
       </c>
     </row>
     <row r="99">
@@ -8740,7 +8746,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-45.84404465367358</v>
+        <v>-30.48628969469293</v>
       </c>
     </row>
     <row r="100">
@@ -8748,7 +8754,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-45.84404465367358</v>
+        <v>-30.48628969469293</v>
       </c>
     </row>
     <row r="101">
@@ -8756,7 +8762,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-45.84404465367358</v>
+        <v>-30.48628969469293</v>
       </c>
     </row>
     <row r="102">
@@ -8764,7 +8770,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-45.95922591353748</v>
+        <v>-30.56288523250242</v>
       </c>
     </row>
     <row r="103">
@@ -8772,7 +8778,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-45.95922591353748</v>
+        <v>-30.56288523250242</v>
       </c>
     </row>
     <row r="104">
@@ -8780,7 +8786,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-45.95922591353748</v>
+        <v>-30.56288523250242</v>
       </c>
     </row>
     <row r="105">
@@ -8788,7 +8794,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-46.03814546080437</v>
+        <v>-30.6153667314349</v>
       </c>
     </row>
     <row r="106">
@@ -8796,7 +8802,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-46.03814546080437</v>
+        <v>-30.6153667314349</v>
       </c>
     </row>
     <row r="107">
@@ -8804,7 +8810,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-46.03814546080437</v>
+        <v>-30.6153667314349</v>
       </c>
     </row>
     <row r="108">
@@ -8812,7 +8818,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-46.81749618529572</v>
+        <v>-31.13363496322165</v>
       </c>
     </row>
     <row r="109">
@@ -8820,7 +8826,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-46.81749618529572</v>
+        <v>-31.13363496322165</v>
       </c>
     </row>
     <row r="110">
@@ -8828,7 +8834,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-46.81749618529572</v>
+        <v>-31.13363496322165</v>
       </c>
     </row>
     <row r="111">
@@ -8836,7 +8842,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-47.57321414421867</v>
+        <v>-31.63618740590541</v>
       </c>
     </row>
     <row r="112">
@@ -8844,7 +8850,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-47.57321414421867</v>
+        <v>-31.63618740590541</v>
       </c>
     </row>
     <row r="113">
@@ -8852,7 +8858,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-47.57321414421867</v>
+        <v>-31.63618740590541</v>
       </c>
     </row>
     <row r="114">
@@ -8860,7 +8866,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-48.53170445247343</v>
+        <v>-32.27358346089483</v>
       </c>
     </row>
     <row r="115">
@@ -8868,7 +8874,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-48.53170445247343</v>
+        <v>-32.27358346089483</v>
       </c>
     </row>
     <row r="116">
@@ -8876,7 +8882,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-48.53170445247343</v>
+        <v>-32.27358346089483</v>
       </c>
     </row>
     <row r="117">
@@ -8884,7 +8890,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-50.66189587348153</v>
+        <v>-33.69016075586521</v>
       </c>
     </row>
     <row r="118">
@@ -8892,7 +8898,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-50.66189587348153</v>
+        <v>-33.69016075586521</v>
       </c>
     </row>
     <row r="119">
@@ -8900,7 +8906,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-50.66189587348153</v>
+        <v>-33.69016075586521</v>
       </c>
     </row>
     <row r="120">
@@ -8908,7 +8914,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-51.43769422800482</v>
+        <v>-34.2060666616232</v>
       </c>
     </row>
     <row r="121">
@@ -8916,7 +8922,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-51.43769422800482</v>
+        <v>-34.2060666616232</v>
       </c>
     </row>
     <row r="122">
@@ -8924,7 +8930,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-51.43769422800482</v>
+        <v>-34.2060666616232</v>
       </c>
     </row>
     <row r="123">
@@ -8932,7 +8938,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-53.7218617316969</v>
+        <v>-35.72503805157844</v>
       </c>
     </row>
     <row r="124">
@@ -8940,7 +8946,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-53.7218617316969</v>
+        <v>-35.72503805157844</v>
       </c>
     </row>
     <row r="125">
@@ -8948,7 +8954,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-53.7218617316969</v>
+        <v>-35.72503805157844</v>
       </c>
     </row>
     <row r="126">
@@ -8956,7 +8962,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-53.14574237782722</v>
+        <v>-35.34191868125509</v>
       </c>
     </row>
     <row r="127">
@@ -8964,7 +8970,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-53.14574237782722</v>
+        <v>-35.34191868125509</v>
       </c>
     </row>
     <row r="128">
@@ -8972,7 +8978,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-53.14574237782722</v>
+        <v>-35.34191868125509</v>
       </c>
     </row>
     <row r="129">
@@ -8980,7 +8986,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-52.68549057236487</v>
+        <v>-35.03585123062263</v>
       </c>
     </row>
     <row r="130">
@@ -8988,7 +8994,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-52.68549057236487</v>
+        <v>-35.03585123062263</v>
       </c>
     </row>
     <row r="131">
@@ -8996,7 +9002,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-52.68549057236487</v>
+        <v>-35.03585123062263</v>
       </c>
     </row>
     <row r="132">
@@ -9004,7 +9010,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-54.30883072819395</v>
+        <v>-36.11537243424898</v>
       </c>
     </row>
     <row r="133">
@@ -9012,7 +9018,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-54.30883072819395</v>
+        <v>-36.11537243424898</v>
       </c>
     </row>
     <row r="134">
@@ -9020,7 +9026,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-54.30883072819395</v>
+        <v>-36.11537243424898</v>
       </c>
     </row>
     <row r="135">
@@ -9028,7 +9034,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-52.50587530144271</v>
+        <v>-34.9164070754594</v>
       </c>
     </row>
     <row r="136">
@@ -9036,7 +9042,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-52.50587530144271</v>
+        <v>-34.9164070754594</v>
       </c>
     </row>
     <row r="137">
@@ -9044,7 +9050,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-52.50587530144271</v>
+        <v>-34.9164070754594</v>
       </c>
     </row>
     <row r="138">
@@ -9052,7 +9058,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-51.41190990681683</v>
+        <v>-34.18892008803319</v>
       </c>
     </row>
     <row r="139">
@@ -9060,7 +9066,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-51.41190990681683</v>
+        <v>-34.18892008803319</v>
       </c>
     </row>
     <row r="140">
@@ -9068,7 +9074,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-51.41190990681683</v>
+        <v>-34.18892008803319</v>
       </c>
     </row>
     <row r="141">
@@ -9076,7 +9082,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-50.65731607407216</v>
+        <v>-33.68711518925798</v>
       </c>
     </row>
     <row r="142">
@@ -9084,7 +9090,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-50.65731607407216</v>
+        <v>-33.68711518925798</v>
       </c>
     </row>
     <row r="143">
@@ -9092,7 +9098,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-50.65731607407216</v>
+        <v>-33.68711518925798</v>
       </c>
     </row>
     <row r="144">
@@ -9100,7 +9106,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-50.88998624075326</v>
+        <v>-33.84184085010092</v>
       </c>
     </row>
     <row r="145">
@@ -9108,14 +9114,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-50.88998624075326</v>
+        <v>-33.84184085010092</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -9146,6 +9152,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix17.xlsx
+++ b/testcases/timeseries/EVDay01_mix17.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="0.0" numFmtId="164"/>
-    <numFmt formatCode="0.000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,101 +125,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -599,7 +531,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1782,7 +1714,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1792,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1732,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="5" width="12.85546875"/>
+    <col width="12.85546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1868,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012006939</v>
+        <v>2012005571</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1883,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1906,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2015005585</v>
+        <v>2014001970</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1921,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1944,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2012003649</v>
+        <v>2013004972</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1959,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1982,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2013004899</v>
+        <v>2016005455</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1997,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -2020,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2015002062</v>
+        <v>2013005298</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -2058,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2012000769</v>
+        <v>2012008695</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2073,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2096,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2014002887</v>
+        <v>2012005060</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2111,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2134,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2012004025</v>
+        <v>2012003768</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2149,7 +2081,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2172,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2015007423</v>
+        <v>2015007210</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2210,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2012004647</v>
+        <v>2012005238</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2225,7 +2157,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2248,7 +2180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2016006566</v>
+        <v>2014005935</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2263,7 +2195,7 @@
         <v>7.4</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G12" t="n">
         <v>250</v>
@@ -2286,7 +2218,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2015001190</v>
+        <v>2014006548</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2301,7 +2233,7 @@
         <v>7.4</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G13" t="n">
         <v>250</v>
@@ -2324,7 +2256,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2012007340</v>
+        <v>2013002416</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2339,7 +2271,7 @@
         <v>7.4</v>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G14" t="n">
         <v>250</v>
@@ -2362,7 +2294,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2016003715</v>
+        <v>2015008197</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2377,7 +2309,7 @@
         <v>7.4</v>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>250</v>
@@ -2400,7 +2332,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2015002125</v>
+        <v>2013002517</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -2415,7 +2347,7 @@
         <v>7.4</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G16" t="n">
         <v>250</v>
@@ -2438,7 +2370,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2012007558</v>
+        <v>2014004683</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -2476,7 +2408,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2014005760</v>
+        <v>2012007050</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -2491,7 +2423,7 @@
         <v>7.4</v>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
         <v>250</v>
@@ -2512,8 +2444,274 @@
         <v>150</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2014001114</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>40</v>
+      </c>
+      <c r="G19" t="n">
+        <v>250</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2014005761</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>250</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2013003418</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>40</v>
+      </c>
+      <c r="G21" t="n">
+        <v>250</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2013000555</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>24</v>
+      </c>
+      <c r="G22" t="n">
+        <v>250</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2013007791</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>60</v>
+      </c>
+      <c r="G23" t="n">
+        <v>250</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2016000635</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>60</v>
+      </c>
+      <c r="G24" t="n">
+        <v>250</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2014006194</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24</v>
+      </c>
+      <c r="G25" t="n">
+        <v>250</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2531,7 +2729,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.85546875"/>
+    <col width="15.85546875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2563,407 +2761,407 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012006939</v>
+        <v>2012005571</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>114</v>
       </c>
       <c r="D2" t="n">
-        <v>52.59703599566242</v>
+        <v>4.675</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>23.99999999824409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2015005585</v>
+        <v>2014001970</v>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>32.8867166605412</v>
+        <v>28.33916111446736</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2012003649</v>
+        <v>2014001970</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C4" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D4" t="n">
-        <v>23.45282439824406</v>
+        <v>27.50874168</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2013004899</v>
+        <v>2013004972</v>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
+        <v>140</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.183567248</v>
+      </c>
+      <c r="E5" t="n">
         <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>51.11644319566241</v>
-      </c>
-      <c r="E5" t="n">
-        <v>52.64847788568937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2013004899</v>
+        <v>2016005455</v>
       </c>
       <c r="B6" t="n">
         <v>44</v>
       </c>
       <c r="C6" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D6" t="n">
-        <v>50.79457519999999</v>
+        <v>37.5377098</v>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2013004899</v>
+        <v>2013005298</v>
       </c>
       <c r="B7" t="n">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>45.033138</v>
+        <v>23.91025743446735</v>
       </c>
       <c r="E7" t="n">
-        <v>56.30576814702941</v>
+        <v>28.29218809261357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2015002062</v>
+        <v>2013005298</v>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="D8" t="n">
-        <v>13.41929184800001</v>
+        <v>29.16958055446737</v>
       </c>
       <c r="E8" t="n">
-        <v>29.99999999446737</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2012000769</v>
+        <v>2012008695</v>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="D9" t="n">
-        <v>13.78385086054119</v>
+        <v>22.80303151446736</v>
       </c>
       <c r="E9" t="n">
-        <v>14.86918419387452</v>
+        <v>29.56586666113404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2012000769</v>
+        <v>2012005060</v>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="D10" t="n">
-        <v>13.22765739387452</v>
+        <v>53.7074806</v>
       </c>
       <c r="E10" t="n">
-        <v>39.99998776623593</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2014002887</v>
+        <v>2012003768</v>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" t="n">
-        <v>34.5282434605412</v>
+        <v>11.68854899824407</v>
       </c>
       <c r="E11" t="n">
-        <v>39.97796512350877</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2012004025</v>
+        <v>2015007210</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="D12" t="n">
-        <v>39.72641220000001</v>
+        <v>16.88671719824406</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>23.99999999824406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2012004025</v>
+        <v>2012005238</v>
       </c>
       <c r="B13" t="n">
+        <v>31</v>
+      </c>
+      <c r="C13" t="n">
+        <v>118</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20.16977079824406</v>
+      </c>
+      <c r="E13" t="n">
         <v>24</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>39.72641220000001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2012004025</v>
+        <v>2014005935</v>
       </c>
       <c r="B14" t="n">
+        <v>37</v>
+      </c>
+      <c r="C14" t="n">
+        <v>118</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.57109631446736</v>
+      </c>
+      <c r="E14" t="n">
         <v>30</v>
-      </c>
-      <c r="C14" t="n">
-        <v>34</v>
-      </c>
-      <c r="D14" t="n">
-        <v>38.0848854</v>
-      </c>
-      <c r="E14" t="n">
-        <v>39.54811967808987</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2012004025</v>
+        <v>2014006548</v>
       </c>
       <c r="B15" t="n">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
         <v>117</v>
       </c>
       <c r="D15" t="n">
-        <v>36.9905342</v>
+        <v>61.67466478327788</v>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2012004025</v>
+        <v>2013002416</v>
       </c>
       <c r="B16" t="n">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="D16" t="n">
-        <v>38.0848854</v>
+        <v>13.65838115824407</v>
       </c>
       <c r="E16" t="n">
-        <v>40</v>
+        <v>23.78293333157739</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2015007423</v>
+        <v>2015008197</v>
       </c>
       <c r="B17" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D17" t="n">
-        <v>21.59242736</v>
+        <v>29.30378258570314</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>29.99999999446736</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>2012004647</v>
+        <v>2013002517</v>
       </c>
       <c r="B18" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="D18" t="n">
-        <v>30.7302010605412</v>
+        <v>58.5194072</v>
       </c>
       <c r="E18" t="n">
-        <v>36.83285537341142</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>2012004647</v>
+        <v>2013002517</v>
       </c>
       <c r="B19" t="n">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C19" t="n">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D19" t="n">
-        <v>37.81129706054122</v>
+        <v>58.5194072</v>
       </c>
       <c r="E19" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>2016006566</v>
+        <v>2014004683</v>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D20" t="n">
-        <v>20.03297689824408</v>
+        <v>18.52824399824406</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>23.99999999824409</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>2015001190</v>
+        <v>2012007050</v>
       </c>
       <c r="B21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D21" t="n">
-        <v>38.79621314054121</v>
+        <v>25.01748335446736</v>
       </c>
       <c r="E21" t="n">
-        <v>40</v>
+        <v>29.64350629658897</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>2012007340</v>
+        <v>2012007050</v>
       </c>
       <c r="B22" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C22" t="n">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="D22" t="n">
-        <v>33.7621976205412</v>
+        <v>27.50874168</v>
       </c>
       <c r="E22" t="n">
-        <v>38.28759126256953</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>2012007340</v>
+        <v>2014001114</v>
       </c>
       <c r="B23" t="n">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
         <v>114</v>
       </c>
       <c r="D23" t="n">
-        <v>32.0659538</v>
+        <v>38.08488486054121</v>
       </c>
       <c r="E23" t="n">
-        <v>39.99345589697226</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>2016003715</v>
+        <v>2014005761</v>
       </c>
       <c r="B24" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D24" t="n">
-        <v>17.5706867</v>
+        <v>66.42543646327789</v>
       </c>
       <c r="E24" t="n">
-        <v>23.99999999824406</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>2015002125</v>
+        <v>2013003418</v>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C25" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D25" t="n">
-        <v>35.5678771005412</v>
+        <v>35.6225946605412</v>
       </c>
       <c r="E25" t="n">
         <v>40</v>
@@ -2971,74 +3169,74 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
-        <v>2012007558</v>
+        <v>2013000555</v>
       </c>
       <c r="B26" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C26" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D26" t="n">
-        <v>6.763968598244062</v>
+        <v>17.43389279824406</v>
       </c>
       <c r="E26" t="n">
-        <v>22.68091311275418</v>
+        <v>23.99999999824407</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
-        <v>2012007558</v>
+        <v>2013007791</v>
       </c>
       <c r="B27" t="n">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C27" t="n">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D27" t="n">
-        <v>22.35847319824408</v>
+        <v>53.07822866</v>
       </c>
       <c r="E27" t="n">
-        <v>23.83965731085511</v>
+        <v>56.31302900170168</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="n">
-        <v>2014005760</v>
+        <v>2016000635</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="D28" t="n">
-        <v>23.4528244</v>
+        <v>55.5582215956624</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="n">
-        <v>2014005760</v>
+        <v>2014006194</v>
       </c>
       <c r="B29" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C29" t="n">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D29" t="n">
-        <v>22.0848854</v>
+        <v>16.10972784624406</v>
       </c>
       <c r="E29" t="n">
-        <v>24</v>
+        <v>23.99999999824407</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3056,8 +3254,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
+    <col width="11.7109375" customWidth="1" min="2" max="2"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3614,7 +3812,7 @@
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
@@ -3631,7 +3829,7 @@
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -3648,7 +3846,7 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -3665,7 +3863,7 @@
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="4" t="n"/>
@@ -3682,7 +3880,7 @@
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D37" s="4" t="n"/>
       <c r="E37" s="4" t="n"/>
@@ -3699,7 +3897,7 @@
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="4" t="n"/>
@@ -3716,7 +3914,7 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
@@ -3733,7 +3931,7 @@
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
@@ -3750,7 +3948,7 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -3767,7 +3965,7 @@
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D42" s="4" t="n"/>
       <c r="E42" s="4" t="n"/>
@@ -3784,7 +3982,7 @@
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n"/>
@@ -3801,7 +3999,7 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
@@ -3818,7 +4016,7 @@
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D45" s="4" t="n"/>
       <c r="E45" s="4" t="n"/>
@@ -3835,7 +4033,7 @@
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D46" s="4" t="n"/>
       <c r="E46" s="4" t="n"/>
@@ -3852,7 +4050,7 @@
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="4" t="n"/>
@@ -5958,7 +6156,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6033,7 +6231,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6119,7 +6317,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6230,7 +6428,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6276,7 +6474,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6595,7 +6793,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6613,10 +6811,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6637,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>10.10052166550978</v>
+        <v>9.997055035787813</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6646,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>8.922979786602282</v>
+        <v>10.3902260250397</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6655,7 +6853,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>8.922979786602282</v>
+        <v>10.3902260250397</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6664,7 +6862,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>8.922979786602282</v>
+        <v>10.3902260250397</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6673,7 +6871,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>7.689129758204566</v>
+        <v>8.263075453748538</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6682,7 +6880,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>7.689129758204566</v>
+        <v>8.263075453748538</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6691,7 +6889,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>7.689129758204566</v>
+        <v>8.263075453748538</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6700,7 +6898,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>8.447074912964196</v>
+        <v>6.16374289314227</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6709,7 +6907,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>8.447074912964196</v>
+        <v>6.16374289314227</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6718,7 +6916,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>8.447074912964196</v>
+        <v>6.16374289314227</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6727,7 +6925,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>9.514430907924766</v>
+        <v>5.14566600497996</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6736,7 +6934,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>9.514430907924766</v>
+        <v>5.14566600497996</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6745,7 +6943,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>9.514430907924766</v>
+        <v>5.14566600497996</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6754,7 +6952,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>7.899139731466411</v>
+        <v>5.801641028309096</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6763,7 +6961,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>7.899139731466411</v>
+        <v>5.801641028309096</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6772,7 +6970,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>7.899139731466411</v>
+        <v>5.801641028309096</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6781,7 +6979,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>9.363504272404079</v>
+        <v>6.016267974051075</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6790,7 +6988,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>9.363504272404079</v>
+        <v>6.016267974051075</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6799,7 +6997,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>9.363504272404079</v>
+        <v>6.016267974051075</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6808,7 +7006,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>8.567325930221765</v>
+        <v>8.12219342681721</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6817,7 +7015,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>8.567325930221765</v>
+        <v>8.12219342681721</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6826,7 +7024,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>8.567325930221765</v>
+        <v>8.12219342681721</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6835,7 +7033,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>6.766135505147407</v>
+        <v>8.639931598871543</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6844,7 +7042,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>6.766135505147407</v>
+        <v>8.639931598871543</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6853,7 +7051,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>6.766135505147407</v>
+        <v>8.639931598871543</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6862,7 +7060,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2.545640073081738</v>
+        <v>7.073787829178872</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6871,7 +7069,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2.545640073081738</v>
+        <v>7.073787829178872</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6880,7 +7078,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.545640073081738</v>
+        <v>7.073787829178872</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6889,7 +7087,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.2894924366405852</v>
+        <v>1.786435230799982</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6898,7 +7096,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.2894924366405852</v>
+        <v>1.786435230799982</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6907,7 +7105,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.2894924366405852</v>
+        <v>1.786435230799982</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6916,7 +7114,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0</v>
+        <v>0.9119183962661729</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6925,7 +7123,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0</v>
+        <v>0.9119183962661729</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6934,7 +7132,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0</v>
+        <v>0.9119183962661729</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6943,7 +7141,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0</v>
+        <v>1.84515737419386</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6952,7 +7150,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0</v>
+        <v>1.84515737419386</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6961,7 +7159,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0</v>
+        <v>1.84515737419386</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6970,7 +7168,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0</v>
+        <v>2.741119337773225</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6979,7 +7177,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0</v>
+        <v>2.741119337773225</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6988,7 +7186,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0</v>
+        <v>2.741119337773225</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6997,7 +7195,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0</v>
+        <v>2.119993299485673</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -7006,7 +7204,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0</v>
+        <v>2.119993299485673</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -7015,7 +7213,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0</v>
+        <v>2.119993299485673</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -7024,7 +7222,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0</v>
+        <v>3.105058523274611</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -7033,7 +7231,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0</v>
+        <v>3.105058523274611</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -7042,7 +7240,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0</v>
+        <v>3.105058523274611</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -7051,7 +7249,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0.7721658292881871</v>
+        <v>4.049162705828839</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -7060,7 +7258,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0.7721658292881871</v>
+        <v>4.049162705828839</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -7069,7 +7267,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0.7721658292881871</v>
+        <v>4.049162705828839</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -7078,7 +7276,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.565429368539594</v>
+        <v>7.106493798959669</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -7087,7 +7285,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1.565429368539594</v>
+        <v>7.106493798959669</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -7096,7 +7294,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1.565429368539594</v>
+        <v>7.106493798959669</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -7105,7 +7303,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.5127398643810632</v>
+        <v>9.079892650584304</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -7114,7 +7312,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0.5127398643810632</v>
+        <v>9.079892650584304</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -7123,7 +7321,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0.5127398643810632</v>
+        <v>9.079892650584304</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -7132,7 +7330,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>2.157621661760208</v>
+        <v>11.3673449653868</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -7141,7 +7339,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>2.157621661760208</v>
+        <v>11.3673449653868</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -7150,7 +7348,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>2.157621661760208</v>
+        <v>11.3673449653868</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -7159,7 +7357,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>3.692972268831203</v>
+        <v>13.59621584080983</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -7168,7 +7366,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>3.692972268831203</v>
+        <v>13.59621584080983</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -7177,7 +7375,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>3.692972268831203</v>
+        <v>13.59621584080983</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -7186,7 +7384,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>6.644701424730554</v>
+        <v>14.10794483975368</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -7195,7 +7393,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>6.644701424730554</v>
+        <v>14.10794483975368</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -7204,7 +7402,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>6.644701424730554</v>
+        <v>14.10794483975368</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -7213,7 +7411,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>9.565628873401172</v>
+        <v>17.70844929065727</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7222,7 +7420,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>9.565628873401172</v>
+        <v>17.70844929065727</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7231,7 +7429,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>9.565628873401172</v>
+        <v>17.70844929065727</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7240,7 +7438,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>9.807146150176296</v>
+        <v>18.83828582451089</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7249,7 +7447,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>9.807146150176296</v>
+        <v>18.83828582451089</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7258,7 +7456,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>9.807146150176296</v>
+        <v>18.83828582451089</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7267,7 +7465,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>13.71270445426155</v>
+        <v>18.63083451104682</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7276,7 +7474,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>13.71270445426155</v>
+        <v>18.63083451104682</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7285,7 +7483,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>13.71270445426155</v>
+        <v>18.63083451104682</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7294,7 +7492,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>18.45519799350499</v>
+        <v>19.31428428972912</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7303,7 +7501,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>18.45519799350499</v>
+        <v>19.31428428972912</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7312,7 +7510,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>18.45519799350499</v>
+        <v>19.31428428972912</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7321,7 +7519,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>20.31291232033775</v>
+        <v>22.75296718573052</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7330,7 +7528,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>20.31291232033775</v>
+        <v>22.75296718573052</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7339,7 +7537,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>20.31291232033775</v>
+        <v>22.75296718573052</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7348,7 +7546,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>21.36865150764532</v>
+        <v>25.81544075958378</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7357,7 +7555,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>21.36865150764532</v>
+        <v>25.81544075958378</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7366,7 +7564,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>21.36865150764532</v>
+        <v>25.81544075958378</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7375,7 +7573,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>22.34275401472745</v>
+        <v>27.21592085464885</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7384,7 +7582,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>22.34275401472745</v>
+        <v>27.21592085464885</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7393,7 +7591,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>22.34275401472745</v>
+        <v>27.21592085464885</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7402,7 +7600,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>22.53513595960698</v>
+        <v>27.52632740929535</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7411,7 +7609,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>22.53513595960698</v>
+        <v>27.52632740929535</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7420,7 +7618,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>22.53513595960698</v>
+        <v>27.52632740929535</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7429,7 +7627,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>23.78987252103314</v>
+        <v>29.36014885392687</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7438,7 +7636,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>23.78987252103314</v>
+        <v>29.36014885392687</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7447,7 +7645,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>23.78987252103314</v>
+        <v>29.36014885392687</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7456,7 +7654,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>24.48272902480465</v>
+        <v>29.08793323147034</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7465,7 +7663,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>24.48272902480465</v>
+        <v>29.08793323147034</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7474,7 +7672,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>24.48272902480465</v>
+        <v>29.08793323147034</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7483,7 +7681,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>24.86812303584363</v>
+        <v>29.32910837691295</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7492,7 +7690,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>24.86812303584363</v>
+        <v>29.32910837691295</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7501,7 +7699,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>24.86812303584363</v>
+        <v>29.32910837691295</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7510,7 +7708,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>24.74992668292092</v>
+        <v>28.31663547386363</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7519,7 +7717,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>24.74992668292092</v>
+        <v>28.31663547386363</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7528,7 +7726,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>24.74992668292092</v>
+        <v>28.31663547386363</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7537,7 +7735,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>24.74248177671288</v>
+        <v>29.51922997865579</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7546,7 +7744,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>24.74248177671288</v>
+        <v>29.51922997865579</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7555,7 +7753,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>24.74248177671288</v>
+        <v>29.51922997865579</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7564,7 +7762,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>23.96058537421458</v>
+        <v>28.92117189995416</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7573,7 +7771,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>23.96058537421458</v>
+        <v>28.92117189995416</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7582,7 +7780,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>23.96058537421458</v>
+        <v>28.92117189995416</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7591,7 +7789,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>22.28355483117219</v>
+        <v>28.42010190959159</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7600,7 +7798,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>22.28355483117219</v>
+        <v>28.42010190959159</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7609,7 +7807,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>22.28355483117219</v>
+        <v>28.42010190959159</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7618,7 +7816,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>19.19663211514866</v>
+        <v>24.84101318885524</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7627,7 +7825,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>19.19663211514866</v>
+        <v>24.84101318885524</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7636,7 +7834,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>19.19663211514866</v>
+        <v>24.84101318885524</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7645,7 +7843,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>17.01880853150015</v>
+        <v>20.31500019908718</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7654,7 +7852,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>17.01880853150015</v>
+        <v>20.31500019908718</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7663,7 +7861,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>17.01880853150015</v>
+        <v>20.31500019908718</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7672,7 +7870,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>13.83861814627798</v>
+        <v>17.4777679997963</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7681,7 +7879,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>13.83861814627798</v>
+        <v>17.4777679997963</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7690,7 +7888,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>13.83861814627798</v>
+        <v>17.4777679997963</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7699,7 +7897,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>12.85425902328176</v>
+        <v>15.38363698190641</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7708,7 +7906,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>12.85425902328176</v>
+        <v>15.38363698190641</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7717,7 +7915,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>12.85425902328176</v>
+        <v>15.38363698190641</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7726,7 +7924,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>13.23346285200574</v>
+        <v>15.80057183117429</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7735,7 +7933,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>13.23346285200574</v>
+        <v>15.80057183117429</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7744,7 +7942,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>13.23346285200574</v>
+        <v>15.80057183117429</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7753,7 +7951,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>12.12802406326079</v>
+        <v>14.63527247585724</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7762,7 +7960,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>12.12802406326079</v>
+        <v>14.63527247585724</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7771,7 +7969,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>12.12802406326079</v>
+        <v>14.63527247585724</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7780,7 +7978,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>10.83891505162931</v>
+        <v>12.91357463191421</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7789,7 +7987,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>10.83891505162931</v>
+        <v>12.91357463191421</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7798,7 +7996,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>10.83891505162931</v>
+        <v>12.91357463191421</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7807,7 +8005,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>9.71791302467204</v>
+        <v>11.47231823848742</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7816,7 +8014,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>9.71791302467204</v>
+        <v>11.47231823848742</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7825,7 +8023,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>9.71791302467204</v>
+        <v>11.47231823848742</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7834,7 +8032,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>9.622435483587878</v>
+        <v>11.01640527474325</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7843,7 +8041,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>9.622435483587878</v>
+        <v>11.01640527474325</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7852,7 +8050,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>9.622435483587878</v>
+        <v>11.01640527474325</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7861,7 +8059,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>6.948245068809642</v>
+        <v>8.609216251026606</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7870,7 +8068,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>6.948245068809642</v>
+        <v>8.609216251026606</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7879,7 +8077,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>6.948245068809642</v>
+        <v>8.609216251026606</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7888,7 +8086,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>9.21527878613041</v>
+        <v>8.913132199353949</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7897,7 +8095,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>9.21527878613041</v>
+        <v>8.913132199353949</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7906,7 +8104,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>9.21527878613041</v>
+        <v>8.913132199353949</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7915,7 +8113,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>10.10052166550978</v>
+        <v>9.997055035787813</v>
       </c>
     </row>
     <row r="145">
@@ -7923,14 +8121,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>10.10052166550978</v>
+        <v>9.997055035787813</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7948,8 +8146,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7970,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-33.84184085010092</v>
+        <v>-41.16436017868236</v>
       </c>
     </row>
     <row r="3">
@@ -7978,7 +8176,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-34.03483395477547</v>
+        <v>-40.98263144294669</v>
       </c>
     </row>
     <row r="4">
@@ -7986,7 +8184,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-34.03483395477547</v>
+        <v>-40.98263144294669</v>
       </c>
     </row>
     <row r="5">
@@ -7994,7 +8192,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-34.03483395477547</v>
+        <v>-40.98263144294669</v>
       </c>
     </row>
     <row r="6">
@@ -8002,7 +8200,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-33.97678134537026</v>
+        <v>-41.03249409317296</v>
       </c>
     </row>
     <row r="7">
@@ -8010,7 +8208,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-33.97678134537026</v>
+        <v>-41.03249409317296</v>
       </c>
     </row>
     <row r="8">
@@ -8018,7 +8216,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-33.97678134537026</v>
+        <v>-41.03249409317296</v>
       </c>
     </row>
     <row r="9">
@@ -8026,7 +8224,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-34.72542495949437</v>
+        <v>-40.40375871551455</v>
       </c>
     </row>
     <row r="10">
@@ -8034,7 +8232,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-34.72542495949437</v>
+        <v>-40.40375871551455</v>
       </c>
     </row>
     <row r="11">
@@ -8042,7 +8240,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-34.72542495949437</v>
+        <v>-40.40375871551455</v>
       </c>
     </row>
     <row r="12">
@@ -8050,7 +8248,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-34.73702930700196</v>
+        <v>-41.02533462084703</v>
       </c>
     </row>
     <row r="13">
@@ -8058,7 +8256,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-34.73702930700196</v>
+        <v>-41.02533462084703</v>
       </c>
     </row>
     <row r="14">
@@ -8066,7 +8264,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-34.73702930700196</v>
+        <v>-41.02533462084703</v>
       </c>
     </row>
     <row r="15">
@@ -8074,7 +8272,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-34.37830744737561</v>
+        <v>-41.05747069362658</v>
       </c>
     </row>
     <row r="16">
@@ -8082,7 +8280,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-34.37830744737561</v>
+        <v>-41.05747069362658</v>
       </c>
     </row>
     <row r="17">
@@ -8090,7 +8288,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-34.37830744737561</v>
+        <v>-41.05747069362658</v>
       </c>
     </row>
     <row r="18">
@@ -8098,7 +8296,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-34.53875188117504</v>
+        <v>-41.76975236715521</v>
       </c>
     </row>
     <row r="19">
@@ -8106,7 +8304,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-34.53875188117504</v>
+        <v>-41.76975236715521</v>
       </c>
     </row>
     <row r="20">
@@ -8114,7 +8312,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-34.53875188117504</v>
+        <v>-41.76975236715521</v>
       </c>
     </row>
     <row r="21">
@@ -8122,7 +8320,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-34.44199574829123</v>
+        <v>-41.74119325532612</v>
       </c>
     </row>
     <row r="22">
@@ -8130,7 +8328,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-34.44199574829123</v>
+        <v>-41.74119325532612</v>
       </c>
     </row>
     <row r="23">
@@ -8138,7 +8336,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-34.44199574829123</v>
+        <v>-41.74119325532612</v>
       </c>
     </row>
     <row r="24">
@@ -8146,7 +8344,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-35.96784194656766</v>
+        <v>-40.88111339021916</v>
       </c>
     </row>
     <row r="25">
@@ -8154,7 +8352,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-35.96784194656766</v>
+        <v>-40.88111339021916</v>
       </c>
     </row>
     <row r="26">
@@ -8162,7 +8360,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-35.96784194656766</v>
+        <v>-40.88111339021916</v>
       </c>
     </row>
     <row r="27">
@@ -8170,7 +8368,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-38.76178815740409</v>
+        <v>-41.70329562560993</v>
       </c>
     </row>
     <row r="28">
@@ -8178,7 +8376,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-38.76178815740409</v>
+        <v>-41.70329562560993</v>
       </c>
     </row>
     <row r="29">
@@ -8186,7 +8384,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-38.76178815740409</v>
+        <v>-41.70329562560993</v>
       </c>
     </row>
     <row r="30">
@@ -8194,7 +8392,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-39.74971283521145</v>
+        <v>-44.40461990635367</v>
       </c>
     </row>
     <row r="31">
@@ -8202,7 +8400,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-39.74971283521145</v>
+        <v>-44.40461990635367</v>
       </c>
     </row>
     <row r="32">
@@ -8210,7 +8408,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-39.74971283521145</v>
+        <v>-44.40461990635367</v>
       </c>
     </row>
     <row r="33">
@@ -8218,7 +8416,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-41.61324673867428</v>
+        <v>-46.85657902853627</v>
       </c>
     </row>
     <row r="34">
@@ -8226,7 +8424,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-41.61324673867428</v>
+        <v>-46.85657902853627</v>
       </c>
     </row>
     <row r="35">
@@ -8234,7 +8432,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-41.61324673867428</v>
+        <v>-46.85657902853627</v>
       </c>
     </row>
     <row r="36">
@@ -8242,7 +8440,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-42.65480502780903</v>
+        <v>-49.11413490909153</v>
       </c>
     </row>
     <row r="37">
@@ -8250,7 +8448,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-42.65480502780903</v>
+        <v>-49.11413490909153</v>
       </c>
     </row>
     <row r="38">
@@ -8258,7 +8456,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-42.65480502780903</v>
+        <v>-49.11413490909153</v>
       </c>
     </row>
     <row r="39">
@@ -8266,7 +8464,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-43.4972270476821</v>
+        <v>-49.32375388429393</v>
       </c>
     </row>
     <row r="40">
@@ -8274,7 +8472,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-43.4972270476821</v>
+        <v>-49.32375388429393</v>
       </c>
     </row>
     <row r="41">
@@ -8282,7 +8480,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-43.4972270476821</v>
+        <v>-49.32375388429393</v>
       </c>
     </row>
     <row r="42">
@@ -8290,7 +8488,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-43.62883978227961</v>
+        <v>-48.38483300538916</v>
       </c>
     </row>
     <row r="43">
@@ -8298,7 +8496,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-43.62883978227961</v>
+        <v>-48.38483300538916</v>
       </c>
     </row>
     <row r="44">
@@ -8306,7 +8504,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-43.62883978227961</v>
+        <v>-48.38483300538916</v>
       </c>
     </row>
     <row r="45">
@@ -8314,7 +8512,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-43.37001354180046</v>
+        <v>-49.31291288835316</v>
       </c>
     </row>
     <row r="46">
@@ -8322,7 +8520,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-43.37001354180046</v>
+        <v>-49.31291288835316</v>
       </c>
     </row>
     <row r="47">
@@ -8330,7 +8528,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-43.37001354180046</v>
+        <v>-49.31291288835316</v>
       </c>
     </row>
     <row r="48">
@@ -8338,7 +8536,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-43.09801986739362</v>
+        <v>-48.22433783913385</v>
       </c>
     </row>
     <row r="49">
@@ -8346,7 +8544,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-43.09801986739362</v>
+        <v>-48.22433783913385</v>
       </c>
     </row>
     <row r="50">
@@ -8354,7 +8552,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-43.09801986739362</v>
+        <v>-48.22433783913385</v>
       </c>
     </row>
     <row r="51">
@@ -8362,7 +8560,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-42.54392397128455</v>
+        <v>-48.09742611309165</v>
       </c>
     </row>
     <row r="52">
@@ -8370,7 +8568,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-42.54392397128455</v>
+        <v>-48.09742611309165</v>
       </c>
     </row>
     <row r="53">
@@ -8378,7 +8576,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-42.54392397128455</v>
+        <v>-48.09742611309165</v>
       </c>
     </row>
     <row r="54">
@@ -8386,7 +8584,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-42.15705411855495</v>
+        <v>-47.19813827750412</v>
       </c>
     </row>
     <row r="55">
@@ -8394,7 +8592,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-42.15705411855495</v>
+        <v>-47.19813827750412</v>
       </c>
     </row>
     <row r="56">
@@ -8402,7 +8600,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-42.15705411855495</v>
+        <v>-47.19813827750412</v>
       </c>
     </row>
     <row r="57">
@@ -8410,7 +8608,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-41.58006785584443</v>
+        <v>-47.20901774967533</v>
       </c>
     </row>
     <row r="58">
@@ -8418,7 +8616,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-41.58006785584443</v>
+        <v>-47.20901774967533</v>
       </c>
     </row>
     <row r="59">
@@ -8426,7 +8624,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-41.58006785584443</v>
+        <v>-47.20901774967533</v>
       </c>
     </row>
     <row r="60">
@@ -8434,7 +8632,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-41.00411115394086</v>
+        <v>-46.05186195589846</v>
       </c>
     </row>
     <row r="61">
@@ -8442,7 +8640,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-41.00411115394086</v>
+        <v>-46.05186195589846</v>
       </c>
     </row>
     <row r="62">
@@ -8450,7 +8648,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-41.00411115394086</v>
+        <v>-46.05186195589846</v>
       </c>
     </row>
     <row r="63">
@@ -8458,7 +8656,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-38.86778889074908</v>
+        <v>-44.62518909530142</v>
       </c>
     </row>
     <row r="64">
@@ -8466,7 +8664,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-38.86778889074908</v>
+        <v>-44.62518909530142</v>
       </c>
     </row>
     <row r="65">
@@ -8474,7 +8672,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-38.86778889074908</v>
+        <v>-44.62518909530142</v>
       </c>
     </row>
     <row r="66">
@@ -8482,7 +8680,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-37.95950737434254</v>
+        <v>-41.53327099950671</v>
       </c>
     </row>
     <row r="67">
@@ -8490,7 +8688,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-37.95950737434254</v>
+        <v>-41.53327099950671</v>
       </c>
     </row>
     <row r="68">
@@ -8498,7 +8696,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-37.95950737434254</v>
+        <v>-41.53327099950671</v>
       </c>
     </row>
     <row r="69">
@@ -8506,7 +8704,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-37.22060593578093</v>
+        <v>-39.77872296545689</v>
       </c>
     </row>
     <row r="70">
@@ -8514,7 +8712,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-37.22060593578093</v>
+        <v>-39.77872296545689</v>
       </c>
     </row>
     <row r="71">
@@ -8522,7 +8720,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-37.22060593578093</v>
+        <v>-39.77872296545689</v>
       </c>
     </row>
     <row r="72">
@@ -8530,7 +8728,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-34.89426593229807</v>
+        <v>-40.16352249730966</v>
       </c>
     </row>
     <row r="73">
@@ -8538,7 +8736,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-34.89426593229807</v>
+        <v>-40.16352249730966</v>
       </c>
     </row>
     <row r="74">
@@ -8546,7 +8744,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-34.89426593229807</v>
+        <v>-40.16352249730966</v>
       </c>
     </row>
     <row r="75">
@@ -8554,7 +8752,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-32.80043302880382</v>
+        <v>-40.82718521231482</v>
       </c>
     </row>
     <row r="76">
@@ -8562,7 +8760,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-32.80043302880382</v>
+        <v>-40.82718521231482</v>
       </c>
     </row>
     <row r="77">
@@ -8570,7 +8768,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-32.80043302880382</v>
+        <v>-40.82718521231482</v>
       </c>
     </row>
     <row r="78">
@@ -8578,7 +8776,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-31.87958501486325</v>
+        <v>-39.60777070184004</v>
       </c>
     </row>
     <row r="79">
@@ -8586,7 +8784,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-31.87958501486325</v>
+        <v>-39.60777070184004</v>
       </c>
     </row>
     <row r="80">
@@ -8594,7 +8792,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-31.87958501486325</v>
+        <v>-39.60777070184004</v>
       </c>
     </row>
     <row r="81">
@@ -8602,7 +8800,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-31.64658090530546</v>
+        <v>-38.07152860976547</v>
       </c>
     </row>
     <row r="82">
@@ -8610,7 +8808,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-31.64658090530546</v>
+        <v>-38.07152860976547</v>
       </c>
     </row>
     <row r="83">
@@ -8618,7 +8816,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-31.64658090530546</v>
+        <v>-38.07152860976547</v>
       </c>
     </row>
     <row r="84">
@@ -8626,7 +8824,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-31.26932946091293</v>
+        <v>-36.84749886391563</v>
       </c>
     </row>
     <row r="85">
@@ -8634,7 +8832,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-31.26932946091293</v>
+        <v>-36.84749886391563</v>
       </c>
     </row>
     <row r="86">
@@ -8642,7 +8840,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-31.26932946091293</v>
+        <v>-36.84749886391563</v>
       </c>
     </row>
     <row r="87">
@@ -8650,7 +8848,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-30.97521959535667</v>
+        <v>-36.91846932446747</v>
       </c>
     </row>
     <row r="88">
@@ -8658,7 +8856,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-30.97521959535667</v>
+        <v>-36.91846932446747</v>
       </c>
     </row>
     <row r="89">
@@ -8666,7 +8864,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-30.97521959535667</v>
+        <v>-36.91846932446747</v>
       </c>
     </row>
     <row r="90">
@@ -8674,7 +8872,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-30.8011654314717</v>
+        <v>-36.35561732991281</v>
       </c>
     </row>
     <row r="91">
@@ -8682,7 +8880,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-30.8011654314717</v>
+        <v>-36.35561732991281</v>
       </c>
     </row>
     <row r="92">
@@ -8690,7 +8888,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-30.8011654314717</v>
+        <v>-36.35561732991281</v>
       </c>
     </row>
     <row r="93">
@@ -8698,7 +8896,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-30.70279847679703</v>
+        <v>-36.07251948725758</v>
       </c>
     </row>
     <row r="94">
@@ -8706,7 +8904,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-30.70279847679703</v>
+        <v>-36.07251948725758</v>
       </c>
     </row>
     <row r="95">
@@ -8714,7 +8912,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-30.70279847679703</v>
+        <v>-36.07251948725758</v>
       </c>
     </row>
     <row r="96">
@@ -8722,7 +8920,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-30.4306304476364</v>
+        <v>-36.06936194567901</v>
       </c>
     </row>
     <row r="97">
@@ -8730,7 +8928,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-30.4306304476364</v>
+        <v>-36.06936194567901</v>
       </c>
     </row>
     <row r="98">
@@ -8738,7 +8936,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-30.4306304476364</v>
+        <v>-36.06936194567901</v>
       </c>
     </row>
     <row r="99">
@@ -8746,7 +8944,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-30.48628969469293</v>
+        <v>-36.49053667426366</v>
       </c>
     </row>
     <row r="100">
@@ -8754,7 +8952,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-30.48628969469293</v>
+        <v>-36.49053667426366</v>
       </c>
     </row>
     <row r="101">
@@ -8762,7 +8960,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-30.48628969469293</v>
+        <v>-36.49053667426366</v>
       </c>
     </row>
     <row r="102">
@@ -8770,7 +8968,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-30.56288523250242</v>
+        <v>-36.46444642520243</v>
       </c>
     </row>
     <row r="103">
@@ -8778,7 +8976,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-30.56288523250242</v>
+        <v>-36.46444642520243</v>
       </c>
     </row>
     <row r="104">
@@ -8786,7 +8984,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-30.56288523250242</v>
+        <v>-36.46444642520243</v>
       </c>
     </row>
     <row r="105">
@@ -8794,7 +8992,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-30.6153667314349</v>
+        <v>-36.50355258426734</v>
       </c>
     </row>
     <row r="106">
@@ -8802,7 +9000,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-30.6153667314349</v>
+        <v>-36.50355258426734</v>
       </c>
     </row>
     <row r="107">
@@ -8810,7 +9008,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-30.6153667314349</v>
+        <v>-36.50355258426734</v>
       </c>
     </row>
     <row r="108">
@@ -8818,7 +9016,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-31.13363496322165</v>
+        <v>-36.81630222930866</v>
       </c>
     </row>
     <row r="109">
@@ -8826,7 +9024,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-31.13363496322165</v>
+        <v>-36.81630222930866</v>
       </c>
     </row>
     <row r="110">
@@ -8834,7 +9032,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-31.13363496322165</v>
+        <v>-36.81630222930866</v>
       </c>
     </row>
     <row r="111">
@@ -8842,7 +9040,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-31.63618740590541</v>
+        <v>-38.05665304422877</v>
       </c>
     </row>
     <row r="112">
@@ -8850,7 +9048,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-31.63618740590541</v>
+        <v>-38.05665304422877</v>
       </c>
     </row>
     <row r="113">
@@ -8858,7 +9056,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-31.63618740590541</v>
+        <v>-38.05665304422877</v>
       </c>
     </row>
     <row r="114">
@@ -8866,7 +9064,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-32.27358346089483</v>
+        <v>-38.03283735357506</v>
       </c>
     </row>
     <row r="115">
@@ -8874,7 +9072,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-32.27358346089483</v>
+        <v>-38.03283735357506</v>
       </c>
     </row>
     <row r="116">
@@ -8882,7 +9080,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-32.27358346089483</v>
+        <v>-38.03283735357506</v>
       </c>
     </row>
     <row r="117">
@@ -8890,7 +9088,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-33.69016075586521</v>
+        <v>-39.37989988343858</v>
       </c>
     </row>
     <row r="118">
@@ -8898,7 +9096,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-33.69016075586521</v>
+        <v>-39.37989988343858</v>
       </c>
     </row>
     <row r="119">
@@ -8906,7 +9104,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-33.69016075586521</v>
+        <v>-39.37989988343858</v>
       </c>
     </row>
     <row r="120">
@@ -8914,7 +9112,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-34.2060666616232</v>
+        <v>-39.41904387648284</v>
       </c>
     </row>
     <row r="121">
@@ -8922,7 +9120,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-34.2060666616232</v>
+        <v>-39.41904387648284</v>
       </c>
     </row>
     <row r="122">
@@ -8930,7 +9128,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-34.2060666616232</v>
+        <v>-39.41904387648284</v>
       </c>
     </row>
     <row r="123">
@@ -8938,7 +9136,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-35.72503805157844</v>
+        <v>-41.88872146839087</v>
       </c>
     </row>
     <row r="124">
@@ -8946,7 +9144,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-35.72503805157844</v>
+        <v>-41.88872146839087</v>
       </c>
     </row>
     <row r="125">
@@ -8954,7 +9152,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-35.72503805157844</v>
+        <v>-41.88872146839087</v>
       </c>
     </row>
     <row r="126">
@@ -8962,7 +9160,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-35.34191868125509</v>
+        <v>-43.10832795780218</v>
       </c>
     </row>
     <row r="127">
@@ -8970,7 +9168,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-35.34191868125509</v>
+        <v>-43.10832795780218</v>
       </c>
     </row>
     <row r="128">
@@ -8978,7 +9176,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-35.34191868125509</v>
+        <v>-43.10832795780218</v>
       </c>
     </row>
     <row r="129">
@@ -8986,7 +9184,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-35.03585123062263</v>
+        <v>-43.23742308383697</v>
       </c>
     </row>
     <row r="130">
@@ -8994,7 +9192,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-35.03585123062263</v>
+        <v>-43.23742308383697</v>
       </c>
     </row>
     <row r="131">
@@ -9002,7 +9200,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-35.03585123062263</v>
+        <v>-43.23742308383697</v>
       </c>
     </row>
     <row r="132">
@@ -9010,7 +9208,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-36.11537243424898</v>
+        <v>-42.99791174171454</v>
       </c>
     </row>
     <row r="133">
@@ -9018,7 +9216,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-36.11537243424898</v>
+        <v>-42.99791174171454</v>
       </c>
     </row>
     <row r="134">
@@ -9026,7 +9224,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-36.11537243424898</v>
+        <v>-42.99791174171454</v>
       </c>
     </row>
     <row r="135">
@@ -9034,7 +9232,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-34.9164070754594</v>
+        <v>-41.34421258301807</v>
       </c>
     </row>
     <row r="136">
@@ -9042,7 +9240,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-34.9164070754594</v>
+        <v>-41.34421258301807</v>
       </c>
     </row>
     <row r="137">
@@ -9050,7 +9248,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-34.9164070754594</v>
+        <v>-41.34421258301807</v>
       </c>
     </row>
     <row r="138">
@@ -9058,7 +9256,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-34.18892008803319</v>
+        <v>-41.8333215106978</v>
       </c>
     </row>
     <row r="139">
@@ -9066,7 +9264,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-34.18892008803319</v>
+        <v>-41.8333215106978</v>
       </c>
     </row>
     <row r="140">
@@ -9074,7 +9272,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-34.18892008803319</v>
+        <v>-41.8333215106978</v>
       </c>
     </row>
     <row r="141">
@@ -9082,7 +9280,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-33.68711518925798</v>
+        <v>-41.82958808574517</v>
       </c>
     </row>
     <row r="142">
@@ -9090,7 +9288,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-33.68711518925798</v>
+        <v>-41.82958808574517</v>
       </c>
     </row>
     <row r="143">
@@ -9098,7 +9296,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-33.68711518925798</v>
+        <v>-41.82958808574517</v>
       </c>
     </row>
     <row r="144">
@@ -9106,7 +9304,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-33.84184085010092</v>
+        <v>-41.16436017868236</v>
       </c>
     </row>
     <row r="145">
@@ -9114,14 +9312,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-33.84184085010092</v>
+        <v>-41.16436017868236</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9152,6 +9350,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix17.xlsx
+++ b/testcases/timeseries/EVDay01_mix17.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012005571</v>
+        <v>2016002692</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2014001970</v>
+        <v>2013006776</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2013004972</v>
+        <v>2016003551</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2016005455</v>
+        <v>2012001823</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2013005298</v>
+        <v>2016000892</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2012008695</v>
+        <v>2012004714</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2012005060</v>
+        <v>2013006093</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2012003768</v>
+        <v>2014008065</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2015007210</v>
+        <v>2012010288</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2012005238</v>
+        <v>2014007890</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2014005935</v>
+        <v>2012008399</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>7.4</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
         <v>250</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2014006548</v>
+        <v>2016002515</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>7.4</v>
       </c>
       <c r="F13" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G13" t="n">
         <v>250</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2013002416</v>
+        <v>2012003868</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2271,7 +2271,7 @@
         <v>7.4</v>
       </c>
       <c r="F14" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G14" t="n">
         <v>250</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2015008197</v>
+        <v>2015007678</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>7.4</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G15" t="n">
         <v>250</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2013002517</v>
+        <v>2012007130</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -2347,7 +2347,7 @@
         <v>7.4</v>
       </c>
       <c r="F16" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G16" t="n">
         <v>250</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2014004683</v>
+        <v>2016006829</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -2385,7 +2385,7 @@
         <v>7.4</v>
       </c>
       <c r="F17" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G17" t="n">
         <v>250</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2012007050</v>
+        <v>2015008959</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -2423,7 +2423,7 @@
         <v>7.4</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G18" t="n">
         <v>250</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2014001114</v>
+        <v>2014001986</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -2461,7 +2461,7 @@
         <v>7.4</v>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
         <v>250</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2014005761</v>
+        <v>2012009252</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -2499,7 +2499,7 @@
         <v>7.4</v>
       </c>
       <c r="F20" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G20" t="n">
         <v>250</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2013003418</v>
+        <v>2015008972</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -2537,7 +2537,7 @@
         <v>7.4</v>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G21" t="n">
         <v>250</v>
@@ -2555,158 +2555,6 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2013000555</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>24</v>
-      </c>
-      <c r="G22" t="n">
-        <v>250</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2013007791</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>60</v>
-      </c>
-      <c r="G23" t="n">
-        <v>250</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2016000635</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>60</v>
-      </c>
-      <c r="G24" t="n">
-        <v>250</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2014006194</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
-      <c r="G25" t="n">
-        <v>250</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2721,7 +2569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="A2:E29"/>
@@ -2761,478 +2609,529 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012005571</v>
+        <v>2016002692</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D2" t="n">
-        <v>4.675</v>
+        <v>23.17923660000001</v>
       </c>
       <c r="E2" t="n">
-        <v>23.99999999824409</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2014001970</v>
+        <v>2013006776</v>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>28.33916111446736</v>
+        <v>55.18807339999999</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>59.23576970323821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2014001970</v>
+        <v>2013006776</v>
       </c>
       <c r="B4" t="n">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>27.50874168</v>
+        <v>58.5194072</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2013004972</v>
+        <v>2013006776</v>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
-        <v>25.183567248</v>
+        <v>59.25970359999999</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2016005455</v>
+        <v>2013006776</v>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C6" t="n">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D6" t="n">
-        <v>37.5377098</v>
+        <v>57.7791108</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2013005298</v>
+        <v>2016003551</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="D7" t="n">
-        <v>23.91025743446735</v>
+        <v>38.08488486054121</v>
       </c>
       <c r="E7" t="n">
-        <v>28.29218809261357</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2013005298</v>
+        <v>2012001823</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C8" t="n">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D8" t="n">
-        <v>29.16958055446737</v>
+        <v>30.42442646054121</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>39.9990755842614</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2012008695</v>
+        <v>2016000892</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D9" t="n">
-        <v>22.80303151446736</v>
+        <v>35.34900686054122</v>
       </c>
       <c r="E9" t="n">
-        <v>29.56586666113404</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2012005060</v>
+        <v>2012004714</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>53.7074806</v>
+        <v>70.75134240000001</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2012003768</v>
+        <v>2012004714</v>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D11" t="n">
-        <v>11.68854899824407</v>
+        <v>71.9100672</v>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2015007210</v>
+        <v>2012004714</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C12" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D12" t="n">
-        <v>16.88671719824406</v>
+        <v>72.68255040000001</v>
       </c>
       <c r="E12" t="n">
-        <v>23.99999999824406</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2012005238</v>
+        <v>2013006093</v>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D13" t="n">
-        <v>20.16977079824406</v>
+        <v>31.24518986054118</v>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>39.45732769069519</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2014005935</v>
+        <v>2014008065</v>
       </c>
       <c r="B14" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D14" t="n">
-        <v>25.57109631446736</v>
+        <v>58.8895554</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2014006548</v>
+        <v>2012010288</v>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
-        <v>61.67466478327788</v>
+        <v>16.33954159824406</v>
       </c>
       <c r="E15" t="n">
-        <v>75</v>
+        <v>20.4744113567106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2013002416</v>
+        <v>2012010288</v>
       </c>
       <c r="B16" t="n">
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D16" t="n">
-        <v>13.65838115824407</v>
+        <v>21.81129759824405</v>
       </c>
       <c r="E16" t="n">
-        <v>23.78293333157739</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2015008197</v>
+        <v>2014007890</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D17" t="n">
-        <v>29.30378258570314</v>
+        <v>9.554564158244073</v>
       </c>
       <c r="E17" t="n">
-        <v>29.99999999446736</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>2013002517</v>
+        <v>2012008399</v>
       </c>
       <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>39.8358467805412</v>
+      </c>
+      <c r="E18" t="n">
         <v>40</v>
-      </c>
-      <c r="C18" t="n">
-        <v>110</v>
-      </c>
-      <c r="D18" t="n">
-        <v>58.5194072</v>
-      </c>
-      <c r="E18" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>2013002517</v>
+        <v>2012008399</v>
       </c>
       <c r="B19" t="n">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="C19" t="n">
         <v>143</v>
       </c>
       <c r="D19" t="n">
-        <v>58.5194072</v>
+        <v>37.5377098</v>
       </c>
       <c r="E19" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>2014004683</v>
+        <v>2016002515</v>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="D20" t="n">
-        <v>18.52824399824406</v>
+        <v>5.5</v>
       </c>
       <c r="E20" t="n">
-        <v>23.99999999824409</v>
+        <v>59.98586043265208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>2012007050</v>
+        <v>2012003868</v>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C21" t="n">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D21" t="n">
-        <v>25.01748335446736</v>
+        <v>42.29725999566241</v>
       </c>
       <c r="E21" t="n">
-        <v>29.64350629658897</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>2012007050</v>
+        <v>2015007678</v>
       </c>
       <c r="B22" t="n">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="D22" t="n">
-        <v>27.50874168</v>
+        <v>57.77911079566238</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>59.39324577716329</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>2014001114</v>
+        <v>2015007678</v>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C23" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D23" t="n">
-        <v>38.08488486054121</v>
+        <v>59.8149259</v>
       </c>
       <c r="E23" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>2014005761</v>
+        <v>2012007130</v>
       </c>
       <c r="B24" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C24" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D24" t="n">
-        <v>66.42543646327789</v>
+        <v>49.08962598327788</v>
       </c>
       <c r="E24" t="n">
-        <v>75</v>
+        <v>74.91218634606045</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>2013003418</v>
+        <v>2016006829</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>35.6225946605412</v>
+        <v>67.27516800000001</v>
       </c>
       <c r="E25" t="n">
-        <v>40</v>
+        <v>69.07826729455034</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
-        <v>2013000555</v>
+        <v>2016006829</v>
       </c>
       <c r="B26" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C26" t="n">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D26" t="n">
-        <v>17.43389279824406</v>
+        <v>72.68255040000001</v>
       </c>
       <c r="E26" t="n">
-        <v>23.99999999824407</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
-        <v>2013007791</v>
+        <v>2015008959</v>
       </c>
       <c r="B27" t="n">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="C27" t="n">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D27" t="n">
-        <v>53.07822866</v>
+        <v>69.90161086327791</v>
       </c>
       <c r="E27" t="n">
-        <v>56.31302900170168</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="n">
-        <v>2016000635</v>
+        <v>2014001986</v>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D28" t="n">
-        <v>55.5582215956624</v>
+        <v>28.6993998001537</v>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="n">
-        <v>2014006194</v>
+        <v>2012009252</v>
       </c>
       <c r="B29" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C29" t="n">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
-        <v>16.10972784624406</v>
+        <v>55.5582216</v>
       </c>
       <c r="E29" t="n">
-        <v>23.99999999824407</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2012009252</v>
+      </c>
+      <c r="B30" t="n">
+        <v>35</v>
+      </c>
+      <c r="C30" t="n">
+        <v>60</v>
+      </c>
+      <c r="D30" t="n">
+        <v>56.6686662</v>
+      </c>
+      <c r="E30" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2012009252</v>
+      </c>
+      <c r="B31" t="n">
+        <v>61</v>
+      </c>
+      <c r="C31" t="n">
+        <v>105</v>
+      </c>
+      <c r="D31" t="n">
+        <v>59.2597036</v>
+      </c>
+      <c r="E31" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2015008972</v>
+      </c>
+      <c r="B32" t="n">
+        <v>36</v>
+      </c>
+      <c r="C32" t="n">
+        <v>120</v>
+      </c>
+      <c r="D32" t="n">
+        <v>70.36510078327787</v>
+      </c>
+      <c r="E32" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6835,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>9.997055035787813</v>
+        <v>8.330879196489844</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6844,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>10.3902260250397</v>
+        <v>8.658521687533083</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6853,7 +6752,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>10.3902260250397</v>
+        <v>8.658521687533083</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6862,7 +6761,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>10.3902260250397</v>
+        <v>8.658521687533083</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6871,7 +6770,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>8.263075453748538</v>
+        <v>6.885896211457115</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6880,7 +6779,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>8.263075453748538</v>
+        <v>6.885896211457115</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6889,7 +6788,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>8.263075453748538</v>
+        <v>6.885896211457115</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6898,7 +6797,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>6.16374289314227</v>
+        <v>5.136452410951891</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6907,7 +6806,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>6.16374289314227</v>
+        <v>5.136452410951891</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6916,7 +6815,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>6.16374289314227</v>
+        <v>5.136452410951891</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6925,7 +6824,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>5.14566600497996</v>
+        <v>4.288055004149967</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6934,7 +6833,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>5.14566600497996</v>
+        <v>4.288055004149967</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6943,7 +6842,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>5.14566600497996</v>
+        <v>4.288055004149967</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6952,7 +6851,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>5.801641028309096</v>
+        <v>4.834700856924247</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6961,7 +6860,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>5.801641028309096</v>
+        <v>4.834700856924247</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6970,7 +6869,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>5.801641028309096</v>
+        <v>4.834700856924247</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6979,7 +6878,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>6.016267974051075</v>
+        <v>5.013556645042563</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6988,7 +6887,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>6.016267974051075</v>
+        <v>5.013556645042563</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6997,7 +6896,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>6.016267974051075</v>
+        <v>5.013556645042563</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -7006,7 +6905,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>8.12219342681721</v>
+        <v>6.768494522347676</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -7015,7 +6914,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>8.12219342681721</v>
+        <v>6.768494522347676</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -7024,7 +6923,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>8.12219342681721</v>
+        <v>6.768494522347676</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -7033,7 +6932,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>8.639931598871543</v>
+        <v>7.199942999059619</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -7042,7 +6941,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>8.639931598871543</v>
+        <v>7.199942999059619</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -7051,7 +6950,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>8.639931598871543</v>
+        <v>7.199942999059619</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -7060,7 +6959,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>7.073787829178872</v>
+        <v>5.894823190982393</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -7069,7 +6968,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>7.073787829178872</v>
+        <v>5.894823190982393</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -7078,7 +6977,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>7.073787829178872</v>
+        <v>5.894823190982393</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -7087,7 +6986,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>1.786435230799982</v>
+        <v>1.488696025666652</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -7096,7 +6995,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.786435230799982</v>
+        <v>1.488696025666652</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -7105,7 +7004,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.786435230799982</v>
+        <v>1.488696025666652</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -7114,7 +7013,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.9119183962661729</v>
+        <v>0.7599319968884775</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -7123,7 +7022,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0.9119183962661729</v>
+        <v>0.7599319968884775</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -7132,7 +7031,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.9119183962661729</v>
+        <v>0.7599319968884775</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -7141,7 +7040,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.84515737419386</v>
+        <v>1.53763114516155</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -7150,7 +7049,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>1.84515737419386</v>
+        <v>1.53763114516155</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -7159,7 +7058,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1.84515737419386</v>
+        <v>1.53763114516155</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -7168,7 +7067,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>2.741119337773225</v>
+        <v>2.284266114811021</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -7177,7 +7076,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.741119337773225</v>
+        <v>2.284266114811021</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -7186,7 +7085,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>2.741119337773225</v>
+        <v>2.284266114811021</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -7195,7 +7094,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.119993299485673</v>
+        <v>1.766661082904728</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -7204,7 +7103,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>2.119993299485673</v>
+        <v>1.766661082904728</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -7213,7 +7112,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>2.119993299485673</v>
+        <v>1.766661082904728</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -7222,7 +7121,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>3.105058523274611</v>
+        <v>2.587548769395509</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -7231,7 +7130,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.105058523274611</v>
+        <v>2.587548769395509</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -7240,7 +7139,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>3.105058523274611</v>
+        <v>2.587548769395509</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -7249,7 +7148,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>4.049162705828839</v>
+        <v>3.374302254857366</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -7258,7 +7157,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>4.049162705828839</v>
+        <v>3.374302254857366</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -7267,7 +7166,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>4.049162705828839</v>
+        <v>3.374302254857366</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -7276,7 +7175,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>7.106493798959669</v>
+        <v>5.922078165799724</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -7285,7 +7184,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>7.106493798959669</v>
+        <v>5.922078165799724</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -7294,7 +7193,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>7.106493798959669</v>
+        <v>5.922078165799724</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -7303,7 +7202,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>9.079892650584304</v>
+        <v>7.566577208820254</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -7312,7 +7211,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>9.079892650584304</v>
+        <v>7.566577208820254</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -7321,7 +7220,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>9.079892650584304</v>
+        <v>7.566577208820254</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -7330,7 +7229,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>11.3673449653868</v>
+        <v>9.472787471155669</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -7339,7 +7238,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>11.3673449653868</v>
+        <v>9.472787471155669</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -7348,7 +7247,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>11.3673449653868</v>
+        <v>9.472787471155669</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -7357,7 +7256,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>13.59621584080983</v>
+        <v>11.33017986734152</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -7366,7 +7265,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>13.59621584080983</v>
+        <v>11.33017986734152</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -7375,7 +7274,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>13.59621584080983</v>
+        <v>11.33017986734152</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -7384,7 +7283,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>14.10794483975368</v>
+        <v>11.75662069979473</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -7393,7 +7292,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>14.10794483975368</v>
+        <v>11.75662069979473</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -7402,7 +7301,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>14.10794483975368</v>
+        <v>11.75662069979473</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -7411,7 +7310,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>17.70844929065727</v>
+        <v>14.75704107554772</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7420,7 +7319,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>17.70844929065727</v>
+        <v>14.75704107554772</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7429,7 +7328,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>17.70844929065727</v>
+        <v>14.75704107554772</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7438,7 +7337,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>18.83828582451089</v>
+        <v>15.69857152042574</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7447,7 +7346,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>18.83828582451089</v>
+        <v>15.69857152042574</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7456,7 +7355,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>18.83828582451089</v>
+        <v>15.69857152042574</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7465,7 +7364,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>18.63083451104682</v>
+        <v>15.52569542587235</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7474,7 +7373,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>18.63083451104682</v>
+        <v>15.52569542587235</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7483,7 +7382,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>18.63083451104682</v>
+        <v>15.52569542587235</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7492,7 +7391,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>19.31428428972912</v>
+        <v>16.0952369081076</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7501,7 +7400,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>19.31428428972912</v>
+        <v>16.0952369081076</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7510,7 +7409,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>19.31428428972912</v>
+        <v>16.0952369081076</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7519,7 +7418,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>22.75296718573052</v>
+        <v>18.96080598810876</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7528,7 +7427,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>22.75296718573052</v>
+        <v>18.96080598810876</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7537,7 +7436,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>22.75296718573052</v>
+        <v>18.96080598810876</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7546,7 +7445,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>25.81544075958378</v>
+        <v>21.51286729965315</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7555,7 +7454,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>25.81544075958378</v>
+        <v>21.51286729965315</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7564,7 +7463,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>25.81544075958378</v>
+        <v>21.51286729965315</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7573,7 +7472,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>27.21592085464885</v>
+        <v>22.67993404554071</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7582,7 +7481,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>27.21592085464885</v>
+        <v>22.67993404554071</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7591,7 +7490,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>27.21592085464885</v>
+        <v>22.67993404554071</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7600,7 +7499,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>27.52632740929535</v>
+        <v>22.93860617441279</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7609,7 +7508,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>27.52632740929535</v>
+        <v>22.93860617441279</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7618,7 +7517,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>27.52632740929535</v>
+        <v>22.93860617441279</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7627,7 +7526,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>29.36014885392687</v>
+        <v>24.46679071160573</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7636,7 +7535,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>29.36014885392687</v>
+        <v>24.46679071160573</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7645,7 +7544,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>29.36014885392687</v>
+        <v>24.46679071160573</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7654,7 +7553,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>29.08793323147034</v>
+        <v>24.23994435955862</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7663,7 +7562,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>29.08793323147034</v>
+        <v>24.23994435955862</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7672,7 +7571,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>29.08793323147034</v>
+        <v>24.23994435955862</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7681,7 +7580,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>29.32910837691295</v>
+        <v>24.44092364742746</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7690,7 +7589,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>29.32910837691295</v>
+        <v>24.44092364742746</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7699,7 +7598,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>29.32910837691295</v>
+        <v>24.44092364742746</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7708,7 +7607,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>28.31663547386363</v>
+        <v>23.59719622821969</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7717,7 +7616,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>28.31663547386363</v>
+        <v>23.59719622821969</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7726,7 +7625,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>28.31663547386363</v>
+        <v>23.59719622821969</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7735,7 +7634,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>29.51922997865579</v>
+        <v>24.5993583155465</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7744,7 +7643,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>29.51922997865579</v>
+        <v>24.5993583155465</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7753,7 +7652,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>29.51922997865579</v>
+        <v>24.5993583155465</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7762,7 +7661,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>28.92117189995416</v>
+        <v>24.10097658329514</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7771,7 +7670,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>28.92117189995416</v>
+        <v>24.10097658329514</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7780,7 +7679,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>28.92117189995416</v>
+        <v>24.10097658329514</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7789,7 +7688,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>28.42010190959159</v>
+        <v>23.68341825799299</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7798,7 +7697,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>28.42010190959159</v>
+        <v>23.68341825799299</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7807,7 +7706,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>28.42010190959159</v>
+        <v>23.68341825799299</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7816,7 +7715,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>24.84101318885524</v>
+        <v>20.70084432404603</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7825,7 +7724,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>24.84101318885524</v>
+        <v>20.70084432404603</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7834,7 +7733,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>24.84101318885524</v>
+        <v>20.70084432404603</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7843,7 +7742,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>20.31500019908718</v>
+        <v>16.92916683257265</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7852,7 +7751,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>20.31500019908718</v>
+        <v>16.92916683257265</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7861,7 +7760,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>20.31500019908718</v>
+        <v>16.92916683257265</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7870,7 +7769,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>17.4777679997963</v>
+        <v>14.56480666649692</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7879,7 +7778,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>17.4777679997963</v>
+        <v>14.56480666649692</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7888,7 +7787,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>17.4777679997963</v>
+        <v>14.56480666649692</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7897,7 +7796,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>15.38363698190641</v>
+        <v>12.81969748492201</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7906,7 +7805,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>15.38363698190641</v>
+        <v>12.81969748492201</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7915,7 +7814,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>15.38363698190641</v>
+        <v>12.81969748492201</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7924,7 +7823,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>15.80057183117429</v>
+        <v>13.16714319264524</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7933,7 +7832,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>15.80057183117429</v>
+        <v>13.16714319264524</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7942,7 +7841,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>15.80057183117429</v>
+        <v>13.16714319264524</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7951,7 +7850,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>14.63527247585724</v>
+        <v>12.1960603965477</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7960,7 +7859,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>14.63527247585724</v>
+        <v>12.1960603965477</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7969,7 +7868,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>14.63527247585724</v>
+        <v>12.1960603965477</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7978,7 +7877,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>12.91357463191421</v>
+        <v>10.76131219326184</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7987,7 +7886,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>12.91357463191421</v>
+        <v>10.76131219326184</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7996,7 +7895,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>12.91357463191421</v>
+        <v>10.76131219326184</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -8005,7 +7904,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>11.47231823848742</v>
+        <v>9.560265198739515</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -8014,7 +7913,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>11.47231823848742</v>
+        <v>9.560265198739515</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -8023,7 +7922,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>11.47231823848742</v>
+        <v>9.560265198739515</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -8032,7 +7931,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>11.01640527474325</v>
+        <v>9.180337728952706</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -8041,7 +7940,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>11.01640527474325</v>
+        <v>9.180337728952706</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -8050,7 +7949,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>11.01640527474325</v>
+        <v>9.180337728952706</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -8059,7 +7958,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>8.609216251026606</v>
+        <v>7.174346875855504</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -8068,7 +7967,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>8.609216251026606</v>
+        <v>7.174346875855504</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -8077,7 +7976,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>8.609216251026606</v>
+        <v>7.174346875855504</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -8086,7 +7985,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>8.913132199353949</v>
+        <v>7.427610166128292</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -8095,7 +7994,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>8.913132199353949</v>
+        <v>7.427610166128292</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -8104,7 +8003,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>8.913132199353949</v>
+        <v>7.427610166128292</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -8113,7 +8012,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>9.997055035787813</v>
+        <v>8.330879196489844</v>
       </c>
     </row>
     <row r="145">
@@ -8121,7 +8020,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>9.997055035787813</v>
+        <v>8.330879196489844</v>
       </c>
     </row>
     <row r="146">
@@ -8168,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-41.16436017868236</v>
+        <v>-34.3036334822353</v>
       </c>
     </row>
     <row r="3">
@@ -8176,7 +8075,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-40.98263144294669</v>
+        <v>-34.15219286912225</v>
       </c>
     </row>
     <row r="4">
@@ -8184,7 +8083,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-40.98263144294669</v>
+        <v>-34.15219286912225</v>
       </c>
     </row>
     <row r="5">
@@ -8192,7 +8091,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-40.98263144294669</v>
+        <v>-34.15219286912225</v>
       </c>
     </row>
     <row r="6">
@@ -8200,7 +8099,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-41.03249409317296</v>
+        <v>-34.19374507764413</v>
       </c>
     </row>
     <row r="7">
@@ -8208,7 +8107,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-41.03249409317296</v>
+        <v>-34.19374507764413</v>
       </c>
     </row>
     <row r="8">
@@ -8216,7 +8115,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-41.03249409317296</v>
+        <v>-34.19374507764413</v>
       </c>
     </row>
     <row r="9">
@@ -8224,7 +8123,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-40.40375871551455</v>
+        <v>-33.66979892959546</v>
       </c>
     </row>
     <row r="10">
@@ -8232,7 +8131,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-40.40375871551455</v>
+        <v>-33.66979892959546</v>
       </c>
     </row>
     <row r="11">
@@ -8240,7 +8139,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-40.40375871551455</v>
+        <v>-33.66979892959546</v>
       </c>
     </row>
     <row r="12">
@@ -8248,7 +8147,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-41.02533462084703</v>
+        <v>-34.18777885070585</v>
       </c>
     </row>
     <row r="13">
@@ -8256,7 +8155,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-41.02533462084703</v>
+        <v>-34.18777885070585</v>
       </c>
     </row>
     <row r="14">
@@ -8264,7 +8163,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-41.02533462084703</v>
+        <v>-34.18777885070585</v>
       </c>
     </row>
     <row r="15">
@@ -8272,7 +8171,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-41.05747069362658</v>
+        <v>-34.21455891135549</v>
       </c>
     </row>
     <row r="16">
@@ -8280,7 +8179,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-41.05747069362658</v>
+        <v>-34.21455891135549</v>
       </c>
     </row>
     <row r="17">
@@ -8288,7 +8187,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-41.05747069362658</v>
+        <v>-34.21455891135549</v>
       </c>
     </row>
     <row r="18">
@@ -8296,7 +8195,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-41.76975236715521</v>
+        <v>-34.80812697262934</v>
       </c>
     </row>
     <row r="19">
@@ -8304,7 +8203,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-41.76975236715521</v>
+        <v>-34.80812697262934</v>
       </c>
     </row>
     <row r="20">
@@ -8312,7 +8211,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-41.76975236715521</v>
+        <v>-34.80812697262934</v>
       </c>
     </row>
     <row r="21">
@@ -8320,7 +8219,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-41.74119325532612</v>
+        <v>-34.78432771277176</v>
       </c>
     </row>
     <row r="22">
@@ -8328,7 +8227,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-41.74119325532612</v>
+        <v>-34.78432771277176</v>
       </c>
     </row>
     <row r="23">
@@ -8336,7 +8235,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-41.74119325532612</v>
+        <v>-34.78432771277176</v>
       </c>
     </row>
     <row r="24">
@@ -8344,7 +8243,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-40.88111339021916</v>
+        <v>-34.06759449184931</v>
       </c>
     </row>
     <row r="25">
@@ -8352,7 +8251,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-40.88111339021916</v>
+        <v>-34.06759449184931</v>
       </c>
     </row>
     <row r="26">
@@ -8360,7 +8259,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-40.88111339021916</v>
+        <v>-34.06759449184931</v>
       </c>
     </row>
     <row r="27">
@@ -8368,7 +8267,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-41.70329562560993</v>
+        <v>-34.75274635467495</v>
       </c>
     </row>
     <row r="28">
@@ -8376,7 +8275,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-41.70329562560993</v>
+        <v>-34.75274635467495</v>
       </c>
     </row>
     <row r="29">
@@ -8384,7 +8283,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-41.70329562560993</v>
+        <v>-34.75274635467495</v>
       </c>
     </row>
     <row r="30">
@@ -8392,7 +8291,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-44.40461990635367</v>
+        <v>-37.0038499219614</v>
       </c>
     </row>
     <row r="31">
@@ -8400,7 +8299,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-44.40461990635367</v>
+        <v>-37.0038499219614</v>
       </c>
     </row>
     <row r="32">
@@ -8408,7 +8307,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-44.40461990635367</v>
+        <v>-37.0038499219614</v>
       </c>
     </row>
     <row r="33">
@@ -8416,7 +8315,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-46.85657902853627</v>
+        <v>-39.04714919044689</v>
       </c>
     </row>
     <row r="34">
@@ -8424,7 +8323,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-46.85657902853627</v>
+        <v>-39.04714919044689</v>
       </c>
     </row>
     <row r="35">
@@ -8432,7 +8331,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-46.85657902853627</v>
+        <v>-39.04714919044689</v>
       </c>
     </row>
     <row r="36">
@@ -8440,7 +8339,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-49.11413490909153</v>
+        <v>-40.92844575757628</v>
       </c>
     </row>
     <row r="37">
@@ -8448,7 +8347,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-49.11413490909153</v>
+        <v>-40.92844575757628</v>
       </c>
     </row>
     <row r="38">
@@ -8456,7 +8355,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-49.11413490909153</v>
+        <v>-40.92844575757628</v>
       </c>
     </row>
     <row r="39">
@@ -8464,7 +8363,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-49.32375388429393</v>
+        <v>-41.10312823691161</v>
       </c>
     </row>
     <row r="40">
@@ -8472,7 +8371,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-49.32375388429393</v>
+        <v>-41.10312823691161</v>
       </c>
     </row>
     <row r="41">
@@ -8480,7 +8379,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-49.32375388429393</v>
+        <v>-41.10312823691161</v>
       </c>
     </row>
     <row r="42">
@@ -8488,7 +8387,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-48.38483300538916</v>
+        <v>-40.32069417115763</v>
       </c>
     </row>
     <row r="43">
@@ -8496,7 +8395,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-48.38483300538916</v>
+        <v>-40.32069417115763</v>
       </c>
     </row>
     <row r="44">
@@ -8504,7 +8403,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-48.38483300538916</v>
+        <v>-40.32069417115763</v>
       </c>
     </row>
     <row r="45">
@@ -8512,7 +8411,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-49.31291288835316</v>
+        <v>-41.09409407362764</v>
       </c>
     </row>
     <row r="46">
@@ -8520,7 +8419,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-49.31291288835316</v>
+        <v>-41.09409407362764</v>
       </c>
     </row>
     <row r="47">
@@ -8528,7 +8427,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-49.31291288835316</v>
+        <v>-41.09409407362764</v>
       </c>
     </row>
     <row r="48">
@@ -8536,7 +8435,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-48.22433783913385</v>
+        <v>-40.18694819927821</v>
       </c>
     </row>
     <row r="49">
@@ -8544,7 +8443,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-48.22433783913385</v>
+        <v>-40.18694819927821</v>
       </c>
     </row>
     <row r="50">
@@ -8552,7 +8451,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-48.22433783913385</v>
+        <v>-40.18694819927821</v>
       </c>
     </row>
     <row r="51">
@@ -8560,7 +8459,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-48.09742611309165</v>
+        <v>-40.08118842757638</v>
       </c>
     </row>
     <row r="52">
@@ -8568,7 +8467,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-48.09742611309165</v>
+        <v>-40.08118842757638</v>
       </c>
     </row>
     <row r="53">
@@ -8576,7 +8475,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-48.09742611309165</v>
+        <v>-40.08118842757638</v>
       </c>
     </row>
     <row r="54">
@@ -8584,7 +8483,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-47.19813827750412</v>
+        <v>-39.3317818979201</v>
       </c>
     </row>
     <row r="55">
@@ -8592,7 +8491,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-47.19813827750412</v>
+        <v>-39.3317818979201</v>
       </c>
     </row>
     <row r="56">
@@ -8600,7 +8499,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-47.19813827750412</v>
+        <v>-39.3317818979201</v>
       </c>
     </row>
     <row r="57">
@@ -8608,7 +8507,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-47.20901774967533</v>
+        <v>-39.34084812472945</v>
       </c>
     </row>
     <row r="58">
@@ -8616,7 +8515,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-47.20901774967533</v>
+        <v>-39.34084812472945</v>
       </c>
     </row>
     <row r="59">
@@ -8624,7 +8523,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-47.20901774967533</v>
+        <v>-39.34084812472945</v>
       </c>
     </row>
     <row r="60">
@@ -8632,7 +8531,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-46.05186195589846</v>
+        <v>-38.37655162991538</v>
       </c>
     </row>
     <row r="61">
@@ -8640,7 +8539,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-46.05186195589846</v>
+        <v>-38.37655162991538</v>
       </c>
     </row>
     <row r="62">
@@ -8648,7 +8547,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-46.05186195589846</v>
+        <v>-38.37655162991538</v>
       </c>
     </row>
     <row r="63">
@@ -8656,7 +8555,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-44.62518909530142</v>
+        <v>-37.18765757941785</v>
       </c>
     </row>
     <row r="64">
@@ -8664,7 +8563,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-44.62518909530142</v>
+        <v>-37.18765757941785</v>
       </c>
     </row>
     <row r="65">
@@ -8672,7 +8571,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-44.62518909530142</v>
+        <v>-37.18765757941785</v>
       </c>
     </row>
     <row r="66">
@@ -8680,7 +8579,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-41.53327099950671</v>
+        <v>-34.61105916625559</v>
       </c>
     </row>
     <row r="67">
@@ -8688,7 +8587,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-41.53327099950671</v>
+        <v>-34.61105916625559</v>
       </c>
     </row>
     <row r="68">
@@ -8696,7 +8595,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-41.53327099950671</v>
+        <v>-34.61105916625559</v>
       </c>
     </row>
     <row r="69">
@@ -8704,7 +8603,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-39.77872296545689</v>
+        <v>-33.14893580454741</v>
       </c>
     </row>
     <row r="70">
@@ -8712,7 +8611,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-39.77872296545689</v>
+        <v>-33.14893580454741</v>
       </c>
     </row>
     <row r="71">
@@ -8720,7 +8619,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-39.77872296545689</v>
+        <v>-33.14893580454741</v>
       </c>
     </row>
     <row r="72">
@@ -8728,7 +8627,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-40.16352249730966</v>
+        <v>-33.46960208109138</v>
       </c>
     </row>
     <row r="73">
@@ -8736,7 +8635,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-40.16352249730966</v>
+        <v>-33.46960208109138</v>
       </c>
     </row>
     <row r="74">
@@ -8744,7 +8643,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-40.16352249730966</v>
+        <v>-33.46960208109138</v>
       </c>
     </row>
     <row r="75">
@@ -8752,7 +8651,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-40.82718521231482</v>
+        <v>-34.02265434359569</v>
       </c>
     </row>
     <row r="76">
@@ -8760,7 +8659,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-40.82718521231482</v>
+        <v>-34.02265434359569</v>
       </c>
     </row>
     <row r="77">
@@ -8768,7 +8667,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-40.82718521231482</v>
+        <v>-34.02265434359569</v>
       </c>
     </row>
     <row r="78">
@@ -8776,7 +8675,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-39.60777070184004</v>
+        <v>-33.0064755848667</v>
       </c>
     </row>
     <row r="79">
@@ -8784,7 +8683,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-39.60777070184004</v>
+        <v>-33.0064755848667</v>
       </c>
     </row>
     <row r="80">
@@ -8792,7 +8691,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-39.60777070184004</v>
+        <v>-33.0064755848667</v>
       </c>
     </row>
     <row r="81">
@@ -8800,7 +8699,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-38.07152860976547</v>
+        <v>-31.72627384147122</v>
       </c>
     </row>
     <row r="82">
@@ -8808,7 +8707,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-38.07152860976547</v>
+        <v>-31.72627384147122</v>
       </c>
     </row>
     <row r="83">
@@ -8816,7 +8715,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-38.07152860976547</v>
+        <v>-31.72627384147122</v>
       </c>
     </row>
     <row r="84">
@@ -8824,7 +8723,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-36.84749886391563</v>
+        <v>-30.70624905326303</v>
       </c>
     </row>
     <row r="85">
@@ -8832,7 +8731,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-36.84749886391563</v>
+        <v>-30.70624905326303</v>
       </c>
     </row>
     <row r="86">
@@ -8840,7 +8739,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-36.84749886391563</v>
+        <v>-30.70624905326303</v>
       </c>
     </row>
     <row r="87">
@@ -8848,7 +8747,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-36.91846932446747</v>
+        <v>-30.76539110372289</v>
       </c>
     </row>
     <row r="88">
@@ -8856,7 +8755,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-36.91846932446747</v>
+        <v>-30.76539110372289</v>
       </c>
     </row>
     <row r="89">
@@ -8864,7 +8763,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-36.91846932446747</v>
+        <v>-30.76539110372289</v>
       </c>
     </row>
     <row r="90">
@@ -8872,7 +8771,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-36.35561732991281</v>
+        <v>-30.29634777492734</v>
       </c>
     </row>
     <row r="91">
@@ -8880,7 +8779,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-36.35561732991281</v>
+        <v>-30.29634777492734</v>
       </c>
     </row>
     <row r="92">
@@ -8888,7 +8787,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-36.35561732991281</v>
+        <v>-30.29634777492734</v>
       </c>
     </row>
     <row r="93">
@@ -8896,7 +8795,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-36.07251948725758</v>
+        <v>-30.06043290604798</v>
       </c>
     </row>
     <row r="94">
@@ -8904,7 +8803,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-36.07251948725758</v>
+        <v>-30.06043290604798</v>
       </c>
     </row>
     <row r="95">
@@ -8912,7 +8811,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-36.07251948725758</v>
+        <v>-30.06043290604798</v>
       </c>
     </row>
     <row r="96">
@@ -8920,7 +8819,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-36.06936194567901</v>
+        <v>-30.05780162139918</v>
       </c>
     </row>
     <row r="97">
@@ -8928,7 +8827,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-36.06936194567901</v>
+        <v>-30.05780162139918</v>
       </c>
     </row>
     <row r="98">
@@ -8936,7 +8835,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-36.06936194567901</v>
+        <v>-30.05780162139918</v>
       </c>
     </row>
     <row r="99">
@@ -8944,7 +8843,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-36.49053667426366</v>
+        <v>-30.40878056188638</v>
       </c>
     </row>
     <row r="100">
@@ -8952,7 +8851,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-36.49053667426366</v>
+        <v>-30.40878056188638</v>
       </c>
     </row>
     <row r="101">
@@ -8960,7 +8859,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-36.49053667426366</v>
+        <v>-30.40878056188638</v>
       </c>
     </row>
     <row r="102">
@@ -8968,7 +8867,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-36.46444642520243</v>
+        <v>-30.38703868766869</v>
       </c>
     </row>
     <row r="103">
@@ -8976,7 +8875,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-36.46444642520243</v>
+        <v>-30.38703868766869</v>
       </c>
     </row>
     <row r="104">
@@ -8984,7 +8883,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-36.46444642520243</v>
+        <v>-30.38703868766869</v>
       </c>
     </row>
     <row r="105">
@@ -8992,7 +8891,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-36.50355258426734</v>
+        <v>-30.41962715355612</v>
       </c>
     </row>
     <row r="106">
@@ -9000,7 +8899,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-36.50355258426734</v>
+        <v>-30.41962715355612</v>
       </c>
     </row>
     <row r="107">
@@ -9008,7 +8907,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-36.50355258426734</v>
+        <v>-30.41962715355612</v>
       </c>
     </row>
     <row r="108">
@@ -9016,7 +8915,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-36.81630222930866</v>
+        <v>-30.68025185775722</v>
       </c>
     </row>
     <row r="109">
@@ -9024,7 +8923,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-36.81630222930866</v>
+        <v>-30.68025185775722</v>
       </c>
     </row>
     <row r="110">
@@ -9032,7 +8931,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-36.81630222930866</v>
+        <v>-30.68025185775722</v>
       </c>
     </row>
     <row r="111">
@@ -9040,7 +8939,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-38.05665304422877</v>
+        <v>-31.71387753685731</v>
       </c>
     </row>
     <row r="112">
@@ -9048,7 +8947,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-38.05665304422877</v>
+        <v>-31.71387753685731</v>
       </c>
     </row>
     <row r="113">
@@ -9056,7 +8955,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-38.05665304422877</v>
+        <v>-31.71387753685731</v>
       </c>
     </row>
     <row r="114">
@@ -9064,7 +8963,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-38.03283735357506</v>
+        <v>-31.69403112797922</v>
       </c>
     </row>
     <row r="115">
@@ -9072,7 +8971,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-38.03283735357506</v>
+        <v>-31.69403112797922</v>
       </c>
     </row>
     <row r="116">
@@ -9080,7 +8979,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-38.03283735357506</v>
+        <v>-31.69403112797922</v>
       </c>
     </row>
     <row r="117">
@@ -9088,7 +8987,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-39.37989988343858</v>
+        <v>-32.81658323619882</v>
       </c>
     </row>
     <row r="118">
@@ -9096,7 +8995,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-39.37989988343858</v>
+        <v>-32.81658323619882</v>
       </c>
     </row>
     <row r="119">
@@ -9104,7 +9003,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-39.37989988343858</v>
+        <v>-32.81658323619882</v>
       </c>
     </row>
     <row r="120">
@@ -9112,7 +9011,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-39.41904387648284</v>
+        <v>-32.84920323040237</v>
       </c>
     </row>
     <row r="121">
@@ -9120,7 +9019,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-39.41904387648284</v>
+        <v>-32.84920323040237</v>
       </c>
     </row>
     <row r="122">
@@ -9128,7 +9027,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-39.41904387648284</v>
+        <v>-32.84920323040237</v>
       </c>
     </row>
     <row r="123">
@@ -9136,7 +9035,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-41.88872146839087</v>
+        <v>-34.90726789032573</v>
       </c>
     </row>
     <row r="124">
@@ -9144,7 +9043,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-41.88872146839087</v>
+        <v>-34.90726789032573</v>
       </c>
     </row>
     <row r="125">
@@ -9152,7 +9051,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-41.88872146839087</v>
+        <v>-34.90726789032573</v>
       </c>
     </row>
     <row r="126">
@@ -9160,7 +9059,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-43.10832795780218</v>
+        <v>-35.92360663150182</v>
       </c>
     </row>
     <row r="127">
@@ -9168,7 +9067,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-43.10832795780218</v>
+        <v>-35.92360663150182</v>
       </c>
     </row>
     <row r="128">
@@ -9176,7 +9075,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-43.10832795780218</v>
+        <v>-35.92360663150182</v>
       </c>
     </row>
     <row r="129">
@@ -9184,7 +9083,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-43.23742308383697</v>
+        <v>-36.03118590319747</v>
       </c>
     </row>
     <row r="130">
@@ -9192,7 +9091,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-43.23742308383697</v>
+        <v>-36.03118590319747</v>
       </c>
     </row>
     <row r="131">
@@ -9200,7 +9099,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-43.23742308383697</v>
+        <v>-36.03118590319747</v>
       </c>
     </row>
     <row r="132">
@@ -9208,7 +9107,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-42.99791174171454</v>
+        <v>-35.83159311809545</v>
       </c>
     </row>
     <row r="133">
@@ -9216,7 +9115,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-42.99791174171454</v>
+        <v>-35.83159311809545</v>
       </c>
     </row>
     <row r="134">
@@ -9224,7 +9123,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-42.99791174171454</v>
+        <v>-35.83159311809545</v>
       </c>
     </row>
     <row r="135">
@@ -9232,7 +9131,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-41.34421258301807</v>
+        <v>-34.45351048584839</v>
       </c>
     </row>
     <row r="136">
@@ -9240,7 +9139,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-41.34421258301807</v>
+        <v>-34.45351048584839</v>
       </c>
     </row>
     <row r="137">
@@ -9248,7 +9147,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-41.34421258301807</v>
+        <v>-34.45351048584839</v>
       </c>
     </row>
     <row r="138">
@@ -9256,7 +9155,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-41.8333215106978</v>
+        <v>-34.86110125891484</v>
       </c>
     </row>
     <row r="139">
@@ -9264,7 +9163,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-41.8333215106978</v>
+        <v>-34.86110125891484</v>
       </c>
     </row>
     <row r="140">
@@ -9272,7 +9171,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-41.8333215106978</v>
+        <v>-34.86110125891484</v>
       </c>
     </row>
     <row r="141">
@@ -9280,7 +9179,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-41.82958808574517</v>
+        <v>-34.85799007145431</v>
       </c>
     </row>
     <row r="142">
@@ -9288,7 +9187,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-41.82958808574517</v>
+        <v>-34.85799007145431</v>
       </c>
     </row>
     <row r="143">
@@ -9296,7 +9195,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-41.82958808574517</v>
+        <v>-34.85799007145431</v>
       </c>
     </row>
     <row r="144">
@@ -9304,7 +9203,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-41.16436017868236</v>
+        <v>-34.3036334822353</v>
       </c>
     </row>
     <row r="145">
@@ -9312,7 +9211,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-41.16436017868236</v>
+        <v>-34.3036334822353</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix17.xlsx
+++ b/testcases/timeseries/EVDay01_mix17.xlsx
@@ -1,3 +1,159 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -1568,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1644,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014006339</v>
+        <v>2016007249</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1659,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1682,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012000989</v>
+        <v>2013001132</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1697,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1715,6 +1871,348 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2016000044</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G4" t="n">
+        <v>250</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2016002878</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" t="n">
+        <v>250</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2014001450</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>250</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2015005555</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>40</v>
+      </c>
+      <c r="G7" t="n">
+        <v>250</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2016000378</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>40</v>
+      </c>
+      <c r="G8" t="n">
+        <v>250</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2014008433</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>250</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2012007172</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" t="n">
+        <v>250</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2014006415</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30</v>
+      </c>
+      <c r="G11" t="n">
+        <v>250</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2015001934</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>40</v>
+      </c>
+      <c r="G12" t="n">
+        <v>250</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1769,70 +2267,224 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2014006339</v>
+        <v>2016007249</v>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>5.5</v>
+        <v>16.3105146605412</v>
       </c>
       <c r="E2" t="n">
-        <v>56.84573274686121</v>
+        <v>39.99998672683792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2012000989</v>
+        <v>2013001132</v>
       </c>
       <c r="B3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="n">
+        <v>124</v>
+      </c>
+      <c r="D3" t="n">
+        <v>57.7791108</v>
+      </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>2013001132</v>
+      </c>
+      <c r="B4" t="n">
+        <v>126</v>
+      </c>
+      <c r="C4" t="n">
+        <v>134</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59.25970359999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>2016000044</v>
+      </c>
+      <c r="B5" t="n">
+        <v>48</v>
+      </c>
+      <c r="C5" t="n">
+        <v>143</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.881401733333332</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23.45733333157738</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>2016002878</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>120</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.35847266054119</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>2014001450</v>
+      </c>
+      <c r="B7" t="n">
+        <v>34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>143</v>
+      </c>
+      <c r="D7" t="n">
+        <v>64.88047006327788</v>
+      </c>
+      <c r="E7" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>2015005555</v>
+      </c>
+      <c r="B8" t="n">
+        <v>39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>104</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30.1508386605412</v>
+      </c>
+      <c r="E8" t="n">
+        <v>39.9985433729744</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
+        <v>2016000378</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>109</v>
+      </c>
+      <c r="D9" t="n">
+        <v>39.04244216054121</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>2014008433</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>103</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.65295327446735</v>
+      </c>
+      <c r="E10" t="n">
+        <v>29.45733332780069</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>2012007172</v>
+      </c>
+      <c r="B11" t="n">
+        <v>40</v>
+      </c>
+      <c r="C11" t="n">
+        <v>143</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.47510663446736</v>
+      </c>
+      <c r="E11" t="n">
+        <v>29.99999999446737</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
+        <v>2014006415</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27.37033843446735</v>
+      </c>
+      <c r="E12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>2014006415</v>
+      </c>
+      <c r="B13" t="n">
         <v>24</v>
       </c>
-      <c r="C3" t="n">
-        <v>143</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.79236546054119</v>
-      </c>
-      <c r="E3" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="n"/>
+      <c r="C13" t="n">
+        <v>119</v>
+      </c>
+      <c r="D13" t="n">
+        <v>28.6159676</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
+      <c r="A14" s="7" t="n">
+        <v>2015001934</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>126</v>
+      </c>
+      <c r="D14" t="n">
+        <v>38.90564879999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n"/>
@@ -1878,6 +2530,2926 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G289"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.7109375" customWidth="1" min="2" max="2"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>timeperiod</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>cost(pounds/kwh)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="4" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="4" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="4" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="4" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="4" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="4" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="4" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="4" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="4" t="n"/>
+      <c r="F18" s="4" t="n"/>
+      <c r="G18" s="4" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
+      <c r="F19" s="4" t="n"/>
+      <c r="G19" s="4" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="4" t="n"/>
+      <c r="F20" s="4" t="n"/>
+      <c r="G20" s="4" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="4" t="n"/>
+      <c r="F21" s="4" t="n"/>
+      <c r="G21" s="4" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="4" t="n"/>
+      <c r="F22" s="4" t="n"/>
+      <c r="G22" s="4" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D23" s="4" t="n"/>
+      <c r="E23" s="4" t="n"/>
+      <c r="F23" s="4" t="n"/>
+      <c r="G23" s="4" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D24" s="4" t="n"/>
+      <c r="E24" s="4" t="n"/>
+      <c r="F24" s="4" t="n"/>
+      <c r="G24" s="4" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="4" t="n"/>
+      <c r="F25" s="4" t="n"/>
+      <c r="G25" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D26" s="4" t="n"/>
+      <c r="E26" s="4" t="n"/>
+      <c r="F26" s="4" t="n"/>
+      <c r="G26" s="4" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="4" t="n"/>
+      <c r="G27" s="4" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="4" t="n"/>
+      <c r="G28" s="4" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D29" s="4" t="n"/>
+      <c r="E29" s="4" t="n"/>
+      <c r="F29" s="4" t="n"/>
+      <c r="G29" s="4" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D30" s="4" t="n"/>
+      <c r="E30" s="4" t="n"/>
+      <c r="F30" s="4" t="n"/>
+      <c r="G30" s="4" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D31" s="4" t="n"/>
+      <c r="E31" s="4" t="n"/>
+      <c r="F31" s="4" t="n"/>
+      <c r="G31" s="4" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D32" s="4" t="n"/>
+      <c r="E32" s="4" t="n"/>
+      <c r="F32" s="4" t="n"/>
+      <c r="G32" s="4" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="4" t="n"/>
+      <c r="F33" s="4" t="n"/>
+      <c r="G33" s="4" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="4" t="n"/>
+      <c r="F34" s="4" t="n"/>
+      <c r="G34" s="4" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D35" s="4" t="n"/>
+      <c r="E35" s="4" t="n"/>
+      <c r="F35" s="4" t="n"/>
+      <c r="G35" s="4" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D36" s="4" t="n"/>
+      <c r="E36" s="4" t="n"/>
+      <c r="F36" s="4" t="n"/>
+      <c r="G36" s="4" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D37" s="4" t="n"/>
+      <c r="E37" s="4" t="n"/>
+      <c r="F37" s="4" t="n"/>
+      <c r="G37" s="4" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D38" s="4" t="n"/>
+      <c r="E38" s="4" t="n"/>
+      <c r="F38" s="4" t="n"/>
+      <c r="G38" s="4" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="4" t="n"/>
+      <c r="G39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="4" t="n"/>
+      <c r="G41" s="4" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="4" t="n"/>
+      <c r="F42" s="4" t="n"/>
+      <c r="G42" s="4" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D43" s="4" t="n"/>
+      <c r="E43" s="4" t="n"/>
+      <c r="F43" s="4" t="n"/>
+      <c r="G43" s="4" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="4" t="n"/>
+      <c r="F44" s="4" t="n"/>
+      <c r="G44" s="4" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="D45" s="4" t="n"/>
+      <c r="E45" s="4" t="n"/>
+      <c r="F45" s="4" t="n"/>
+      <c r="G45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="D46" s="4" t="n"/>
+      <c r="E46" s="4" t="n"/>
+      <c r="F46" s="4" t="n"/>
+      <c r="G46" s="4" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="D47" s="4" t="n"/>
+      <c r="E47" s="4" t="n"/>
+      <c r="F47" s="4" t="n"/>
+      <c r="G47" s="4" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="4" t="n"/>
+      <c r="F48" s="4" t="n"/>
+      <c r="G48" s="4" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="D49" s="4" t="n"/>
+      <c r="E49" s="4" t="n"/>
+      <c r="F49" s="4" t="n"/>
+      <c r="G49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="D50" s="4" t="n"/>
+      <c r="E50" s="4" t="n"/>
+      <c r="F50" s="4" t="n"/>
+      <c r="G50" s="4" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="D51" s="4" t="n"/>
+      <c r="E51" s="4" t="n"/>
+      <c r="F51" s="4" t="n"/>
+      <c r="G51" s="4" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="D52" s="4" t="n"/>
+      <c r="E52" s="4" t="n"/>
+      <c r="F52" s="4" t="n"/>
+      <c r="G52" s="4" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="4" t="n"/>
+      <c r="F53" s="4" t="n"/>
+      <c r="G53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="D54" s="4" t="n"/>
+      <c r="E54" s="4" t="n"/>
+      <c r="F54" s="4" t="n"/>
+      <c r="G54" s="4" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="D55" s="4" t="n"/>
+      <c r="E55" s="4" t="n"/>
+      <c r="F55" s="4" t="n"/>
+      <c r="G55" s="4" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="D56" s="4" t="n"/>
+      <c r="E56" s="4" t="n"/>
+      <c r="F56" s="4" t="n"/>
+      <c r="G56" s="4" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D57" s="4" t="n"/>
+      <c r="E57" s="4" t="n"/>
+      <c r="F57" s="4" t="n"/>
+      <c r="G57" s="4" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="4" t="n"/>
+      <c r="F58" s="4" t="n"/>
+      <c r="G58" s="4" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="4" t="n"/>
+      <c r="F59" s="4" t="n"/>
+      <c r="G59" s="4" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D60" s="4" t="n"/>
+      <c r="E60" s="4" t="n"/>
+      <c r="F60" s="4" t="n"/>
+      <c r="G60" s="4" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D61" s="4" t="n"/>
+      <c r="E61" s="4" t="n"/>
+      <c r="F61" s="4" t="n"/>
+      <c r="G61" s="4" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D62" s="4" t="n"/>
+      <c r="E62" s="4" t="n"/>
+      <c r="F62" s="4" t="n"/>
+      <c r="G62" s="4" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D63" s="4" t="n"/>
+      <c r="E63" s="4" t="n"/>
+      <c r="F63" s="4" t="n"/>
+      <c r="G63" s="4" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D64" s="4" t="n"/>
+      <c r="E64" s="4" t="n"/>
+      <c r="F64" s="4" t="n"/>
+      <c r="G64" s="4" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D65" s="4" t="n"/>
+      <c r="E65" s="4" t="n"/>
+      <c r="F65" s="4" t="n"/>
+      <c r="G65" s="4" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D66" s="4" t="n"/>
+      <c r="E66" s="4" t="n"/>
+      <c r="F66" s="4" t="n"/>
+      <c r="G66" s="4" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D67" s="4" t="n"/>
+      <c r="E67" s="4" t="n"/>
+      <c r="F67" s="4" t="n"/>
+      <c r="G67" s="4" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D68" s="4" t="n"/>
+      <c r="E68" s="4" t="n"/>
+      <c r="F68" s="4" t="n"/>
+      <c r="G68" s="4" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D69" s="4" t="n"/>
+      <c r="E69" s="4" t="n"/>
+      <c r="F69" s="4" t="n"/>
+      <c r="G69" s="4" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D70" s="4" t="n"/>
+      <c r="E70" s="4" t="n"/>
+      <c r="F70" s="4" t="n"/>
+      <c r="G70" s="4" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D71" s="4" t="n"/>
+      <c r="E71" s="4" t="n"/>
+      <c r="F71" s="4" t="n"/>
+      <c r="G71" s="4" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D72" s="4" t="n"/>
+      <c r="E72" s="4" t="n"/>
+      <c r="F72" s="4" t="n"/>
+      <c r="G72" s="4" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D73" s="4" t="n"/>
+      <c r="E73" s="4" t="n"/>
+      <c r="F73" s="4" t="n"/>
+      <c r="G73" s="4" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D74" s="4" t="n"/>
+      <c r="E74" s="4" t="n"/>
+      <c r="F74" s="4" t="n"/>
+      <c r="G74" s="4" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D75" s="4" t="n"/>
+      <c r="E75" s="4" t="n"/>
+      <c r="F75" s="4" t="n"/>
+      <c r="G75" s="4" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D76" s="4" t="n"/>
+      <c r="E76" s="4" t="n"/>
+      <c r="F76" s="4" t="n"/>
+      <c r="G76" s="4" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D77" s="4" t="n"/>
+      <c r="E77" s="4" t="n"/>
+      <c r="F77" s="4" t="n"/>
+      <c r="G77" s="4" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D78" s="4" t="n"/>
+      <c r="E78" s="4" t="n"/>
+      <c r="F78" s="4" t="n"/>
+      <c r="G78" s="4" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D79" s="4" t="n"/>
+      <c r="E79" s="4" t="n"/>
+      <c r="F79" s="4" t="n"/>
+      <c r="G79" s="4" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D80" s="4" t="n"/>
+      <c r="E80" s="4" t="n"/>
+      <c r="F80" s="4" t="n"/>
+      <c r="G80" s="4" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D81" s="4" t="n"/>
+      <c r="E81" s="4" t="n"/>
+      <c r="F81" s="4" t="n"/>
+      <c r="G81" s="4" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D82" s="4" t="n"/>
+      <c r="E82" s="4" t="n"/>
+      <c r="F82" s="4" t="n"/>
+      <c r="G82" s="4" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D83" s="4" t="n"/>
+      <c r="E83" s="4" t="n"/>
+      <c r="F83" s="4" t="n"/>
+      <c r="G83" s="4" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D84" s="4" t="n"/>
+      <c r="E84" s="4" t="n"/>
+      <c r="F84" s="4" t="n"/>
+      <c r="G84" s="4" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D85" s="4" t="n"/>
+      <c r="E85" s="4" t="n"/>
+      <c r="F85" s="4" t="n"/>
+      <c r="G85" s="4" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D86" s="4" t="n"/>
+      <c r="E86" s="4" t="n"/>
+      <c r="F86" s="4" t="n"/>
+      <c r="G86" s="4" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D87" s="4" t="n"/>
+      <c r="E87" s="4" t="n"/>
+      <c r="F87" s="4" t="n"/>
+      <c r="G87" s="4" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D88" s="4" t="n"/>
+      <c r="E88" s="4" t="n"/>
+      <c r="F88" s="4" t="n"/>
+      <c r="G88" s="4" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D89" s="4" t="n"/>
+      <c r="E89" s="4" t="n"/>
+      <c r="F89" s="4" t="n"/>
+      <c r="G89" s="4" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C90" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D90" s="4" t="n"/>
+      <c r="E90" s="4" t="n"/>
+      <c r="F90" s="4" t="n"/>
+      <c r="G90" s="4" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D91" s="4" t="n"/>
+      <c r="E91" s="4" t="n"/>
+      <c r="F91" s="4" t="n"/>
+      <c r="G91" s="4" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C92" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D92" s="4" t="n"/>
+      <c r="E92" s="4" t="n"/>
+      <c r="F92" s="4" t="n"/>
+      <c r="G92" s="4" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C93" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D93" s="4" t="n"/>
+      <c r="E93" s="4" t="n"/>
+      <c r="F93" s="4" t="n"/>
+      <c r="G93" s="4" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C94" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D94" s="4" t="n"/>
+      <c r="E94" s="4" t="n"/>
+      <c r="F94" s="4" t="n"/>
+      <c r="G94" s="4" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C95" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D95" s="4" t="n"/>
+      <c r="E95" s="4" t="n"/>
+      <c r="F95" s="4" t="n"/>
+      <c r="G95" s="4" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C96" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D96" s="4" t="n"/>
+      <c r="E96" s="4" t="n"/>
+      <c r="F96" s="4" t="n"/>
+      <c r="G96" s="4" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C97" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D97" s="4" t="n"/>
+      <c r="E97" s="4" t="n"/>
+      <c r="F97" s="4" t="n"/>
+      <c r="G97" s="4" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C98" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D98" s="4" t="n"/>
+      <c r="E98" s="4" t="n"/>
+      <c r="F98" s="4" t="n"/>
+      <c r="G98" s="4" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C99" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D99" s="4" t="n"/>
+      <c r="E99" s="4" t="n"/>
+      <c r="F99" s="4" t="n"/>
+      <c r="G99" s="4" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D100" s="4" t="n"/>
+      <c r="E100" s="4" t="n"/>
+      <c r="F100" s="4" t="n"/>
+      <c r="G100" s="4" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D101" s="4" t="n"/>
+      <c r="E101" s="4" t="n"/>
+      <c r="F101" s="4" t="n"/>
+      <c r="G101" s="4" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C102" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D102" s="4" t="n"/>
+      <c r="E102" s="4" t="n"/>
+      <c r="F102" s="4" t="n"/>
+      <c r="G102" s="4" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C103" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D103" s="4" t="n"/>
+      <c r="E103" s="4" t="n"/>
+      <c r="F103" s="4" t="n"/>
+      <c r="G103" s="4" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C104" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D104" s="4" t="n"/>
+      <c r="E104" s="4" t="n"/>
+      <c r="F104" s="4" t="n"/>
+      <c r="G104" s="4" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C105" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D105" s="4" t="n"/>
+      <c r="E105" s="4" t="n"/>
+      <c r="F105" s="4" t="n"/>
+      <c r="G105" s="4" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C106" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D106" s="4" t="n"/>
+      <c r="E106" s="4" t="n"/>
+      <c r="F106" s="4" t="n"/>
+      <c r="G106" s="4" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C107" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D107" s="4" t="n"/>
+      <c r="E107" s="4" t="n"/>
+      <c r="F107" s="4" t="n"/>
+      <c r="G107" s="4" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C108" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D108" s="4" t="n"/>
+      <c r="E108" s="4" t="n"/>
+      <c r="F108" s="4" t="n"/>
+      <c r="G108" s="4" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C109" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D109" s="4" t="n"/>
+      <c r="E109" s="4" t="n"/>
+      <c r="F109" s="4" t="n"/>
+      <c r="G109" s="4" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D110" s="4" t="n"/>
+      <c r="E110" s="4" t="n"/>
+      <c r="F110" s="4" t="n"/>
+      <c r="G110" s="4" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D111" s="4" t="n"/>
+      <c r="E111" s="4" t="n"/>
+      <c r="F111" s="4" t="n"/>
+      <c r="G111" s="4" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D112" s="4" t="n"/>
+      <c r="E112" s="4" t="n"/>
+      <c r="F112" s="4" t="n"/>
+      <c r="G112" s="4" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C113" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D113" s="4" t="n"/>
+      <c r="E113" s="4" t="n"/>
+      <c r="F113" s="4" t="n"/>
+      <c r="G113" s="4" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D114" s="4" t="n"/>
+      <c r="E114" s="4" t="n"/>
+      <c r="F114" s="4" t="n"/>
+      <c r="G114" s="4" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D115" s="4" t="n"/>
+      <c r="E115" s="4" t="n"/>
+      <c r="F115" s="4" t="n"/>
+      <c r="G115" s="4" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D116" s="4" t="n"/>
+      <c r="E116" s="4" t="n"/>
+      <c r="F116" s="4" t="n"/>
+      <c r="G116" s="4" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D117" s="4" t="n"/>
+      <c r="E117" s="4" t="n"/>
+      <c r="F117" s="4" t="n"/>
+      <c r="G117" s="4" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D118" s="4" t="n"/>
+      <c r="E118" s="4" t="n"/>
+      <c r="F118" s="4" t="n"/>
+      <c r="G118" s="4" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D119" s="4" t="n"/>
+      <c r="E119" s="4" t="n"/>
+      <c r="F119" s="4" t="n"/>
+      <c r="G119" s="4" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D120" s="4" t="n"/>
+      <c r="E120" s="4" t="n"/>
+      <c r="F120" s="4" t="n"/>
+      <c r="G120" s="4" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C121" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D121" s="4" t="n"/>
+      <c r="E121" s="4" t="n"/>
+      <c r="F121" s="4" t="n"/>
+      <c r="G121" s="4" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D122" s="4" t="n"/>
+      <c r="E122" s="4" t="n"/>
+      <c r="F122" s="4" t="n"/>
+      <c r="G122" s="4" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D123" s="4" t="n"/>
+      <c r="E123" s="4" t="n"/>
+      <c r="F123" s="4" t="n"/>
+      <c r="G123" s="4" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D124" s="4" t="n"/>
+      <c r="E124" s="4" t="n"/>
+      <c r="F124" s="4" t="n"/>
+      <c r="G124" s="4" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C125" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D125" s="4" t="n"/>
+      <c r="E125" s="4" t="n"/>
+      <c r="F125" s="4" t="n"/>
+      <c r="G125" s="4" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D126" s="4" t="n"/>
+      <c r="E126" s="4" t="n"/>
+      <c r="F126" s="4" t="n"/>
+      <c r="G126" s="4" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D127" s="4" t="n"/>
+      <c r="E127" s="4" t="n"/>
+      <c r="F127" s="4" t="n"/>
+      <c r="G127" s="4" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C128" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D128" s="4" t="n"/>
+      <c r="E128" s="4" t="n"/>
+      <c r="F128" s="4" t="n"/>
+      <c r="G128" s="4" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D129" s="4" t="n"/>
+      <c r="E129" s="4" t="n"/>
+      <c r="F129" s="4" t="n"/>
+      <c r="G129" s="4" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D130" s="4" t="n"/>
+      <c r="E130" s="4" t="n"/>
+      <c r="F130" s="4" t="n"/>
+      <c r="G130" s="4" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C131" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D131" s="4" t="n"/>
+      <c r="E131" s="4" t="n"/>
+      <c r="F131" s="4" t="n"/>
+      <c r="G131" s="4" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C132" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D132" s="4" t="n"/>
+      <c r="E132" s="4" t="n"/>
+      <c r="F132" s="4" t="n"/>
+      <c r="G132" s="4" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D133" s="4" t="n"/>
+      <c r="E133" s="4" t="n"/>
+      <c r="F133" s="4" t="n"/>
+      <c r="G133" s="4" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D134" s="4" t="n"/>
+      <c r="E134" s="4" t="n"/>
+      <c r="F134" s="4" t="n"/>
+      <c r="G134" s="4" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D135" s="4" t="n"/>
+      <c r="E135" s="4" t="n"/>
+      <c r="F135" s="4" t="n"/>
+      <c r="G135" s="4" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D136" s="4" t="n"/>
+      <c r="E136" s="4" t="n"/>
+      <c r="F136" s="4" t="n"/>
+      <c r="G136" s="4" t="n"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D137" s="4" t="n"/>
+      <c r="E137" s="4" t="n"/>
+      <c r="F137" s="4" t="n"/>
+      <c r="G137" s="4" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D138" s="4" t="n"/>
+      <c r="E138" s="4" t="n"/>
+      <c r="F138" s="4" t="n"/>
+      <c r="G138" s="4" t="n"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D139" s="4" t="n"/>
+      <c r="E139" s="4" t="n"/>
+      <c r="F139" s="4" t="n"/>
+      <c r="G139" s="4" t="n"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D140" s="4" t="n"/>
+      <c r="E140" s="4" t="n"/>
+      <c r="F140" s="4" t="n"/>
+      <c r="G140" s="4" t="n"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D141" s="4" t="n"/>
+      <c r="E141" s="4" t="n"/>
+      <c r="F141" s="4" t="n"/>
+      <c r="G141" s="4" t="n"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C142" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D142" s="4" t="n"/>
+      <c r="E142" s="4" t="n"/>
+      <c r="F142" s="4" t="n"/>
+      <c r="G142" s="4" t="n"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D143" s="4" t="n"/>
+      <c r="E143" s="4" t="n"/>
+      <c r="F143" s="4" t="n"/>
+      <c r="G143" s="4" t="n"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D144" s="4" t="n"/>
+      <c r="E144" s="4" t="n"/>
+      <c r="F144" s="4" t="n"/>
+      <c r="G144" s="4" t="n"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="C145" s="4" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="D145" s="4" t="n"/>
+      <c r="E145" s="4" t="n"/>
+      <c r="F145" s="4" t="n"/>
+      <c r="G145" s="4" t="n"/>
+    </row>
+    <row r="146">
+      <c r="D146" s="4" t="n"/>
+    </row>
+    <row r="147">
+      <c r="D147" s="4" t="n"/>
+    </row>
+    <row r="148">
+      <c r="D148" s="4" t="n"/>
+    </row>
+    <row r="149">
+      <c r="D149" s="4" t="n"/>
+    </row>
+    <row r="150">
+      <c r="D150" s="4" t="n"/>
+    </row>
+    <row r="151">
+      <c r="D151" s="4" t="n"/>
+    </row>
+    <row r="152">
+      <c r="D152" s="4" t="n"/>
+    </row>
+    <row r="153">
+      <c r="D153" s="4" t="n"/>
+    </row>
+    <row r="154">
+      <c r="D154" s="4" t="n"/>
+    </row>
+    <row r="155">
+      <c r="D155" s="4" t="n"/>
+    </row>
+    <row r="156">
+      <c r="D156" s="4" t="n"/>
+    </row>
+    <row r="157">
+      <c r="D157" s="4" t="n"/>
+    </row>
+    <row r="158">
+      <c r="D158" s="4" t="n"/>
+    </row>
+    <row r="159">
+      <c r="D159" s="4" t="n"/>
+    </row>
+    <row r="160">
+      <c r="D160" s="4" t="n"/>
+    </row>
+    <row r="161">
+      <c r="D161" s="4" t="n"/>
+    </row>
+    <row r="162">
+      <c r="D162" s="4" t="n"/>
+    </row>
+    <row r="163">
+      <c r="D163" s="4" t="n"/>
+    </row>
+    <row r="164">
+      <c r="D164" s="4" t="n"/>
+    </row>
+    <row r="165">
+      <c r="D165" s="4" t="n"/>
+    </row>
+    <row r="166">
+      <c r="D166" s="4" t="n"/>
+    </row>
+    <row r="167">
+      <c r="D167" s="4" t="n"/>
+    </row>
+    <row r="168">
+      <c r="D168" s="4" t="n"/>
+    </row>
+    <row r="169">
+      <c r="D169" s="4" t="n"/>
+    </row>
+    <row r="170">
+      <c r="D170" s="4" t="n"/>
+    </row>
+    <row r="171">
+      <c r="D171" s="4" t="n"/>
+    </row>
+    <row r="172">
+      <c r="D172" s="4" t="n"/>
+    </row>
+    <row r="173">
+      <c r="D173" s="4" t="n"/>
+    </row>
+    <row r="174">
+      <c r="D174" s="4" t="n"/>
+    </row>
+    <row r="175">
+      <c r="D175" s="4" t="n"/>
+    </row>
+    <row r="176">
+      <c r="D176" s="4" t="n"/>
+    </row>
+    <row r="177">
+      <c r="D177" s="4" t="n"/>
+    </row>
+    <row r="178">
+      <c r="D178" s="4" t="n"/>
+    </row>
+    <row r="179">
+      <c r="D179" s="4" t="n"/>
+    </row>
+    <row r="180">
+      <c r="D180" s="4" t="n"/>
+    </row>
+    <row r="181">
+      <c r="D181" s="4" t="n"/>
+    </row>
+    <row r="182">
+      <c r="D182" s="4" t="n"/>
+    </row>
+    <row r="183">
+      <c r="D183" s="4" t="n"/>
+    </row>
+    <row r="184">
+      <c r="D184" s="4" t="n"/>
+    </row>
+    <row r="185">
+      <c r="D185" s="4" t="n"/>
+    </row>
+    <row r="186">
+      <c r="D186" s="4" t="n"/>
+    </row>
+    <row r="187">
+      <c r="D187" s="4" t="n"/>
+    </row>
+    <row r="188">
+      <c r="D188" s="4" t="n"/>
+    </row>
+    <row r="189">
+      <c r="D189" s="4" t="n"/>
+    </row>
+    <row r="190">
+      <c r="D190" s="4" t="n"/>
+    </row>
+    <row r="191">
+      <c r="D191" s="4" t="n"/>
+    </row>
+    <row r="192">
+      <c r="D192" s="4" t="n"/>
+    </row>
+    <row r="193">
+      <c r="D193" s="4" t="n"/>
+    </row>
+    <row r="194">
+      <c r="D194" s="4" t="n"/>
+    </row>
+    <row r="195">
+      <c r="D195" s="4" t="n"/>
+    </row>
+    <row r="196">
+      <c r="D196" s="4" t="n"/>
+    </row>
+    <row r="197">
+      <c r="D197" s="4" t="n"/>
+    </row>
+    <row r="198">
+      <c r="D198" s="4" t="n"/>
+    </row>
+    <row r="199">
+      <c r="D199" s="4" t="n"/>
+    </row>
+    <row r="200">
+      <c r="D200" s="4" t="n"/>
+    </row>
+    <row r="201">
+      <c r="D201" s="4" t="n"/>
+    </row>
+    <row r="202">
+      <c r="D202" s="4" t="n"/>
+    </row>
+    <row r="203">
+      <c r="D203" s="4" t="n"/>
+    </row>
+    <row r="204">
+      <c r="D204" s="4" t="n"/>
+    </row>
+    <row r="205">
+      <c r="D205" s="4" t="n"/>
+    </row>
+    <row r="206">
+      <c r="D206" s="4" t="n"/>
+    </row>
+    <row r="207">
+      <c r="D207" s="4" t="n"/>
+    </row>
+    <row r="208">
+      <c r="D208" s="4" t="n"/>
+    </row>
+    <row r="209">
+      <c r="D209" s="4" t="n"/>
+    </row>
+    <row r="210">
+      <c r="D210" s="4" t="n"/>
+    </row>
+    <row r="211">
+      <c r="D211" s="4" t="n"/>
+    </row>
+    <row r="212">
+      <c r="D212" s="4" t="n"/>
+    </row>
+    <row r="213">
+      <c r="D213" s="4" t="n"/>
+    </row>
+    <row r="214">
+      <c r="D214" s="4" t="n"/>
+    </row>
+    <row r="215">
+      <c r="D215" s="4" t="n"/>
+    </row>
+    <row r="216">
+      <c r="D216" s="4" t="n"/>
+    </row>
+    <row r="217">
+      <c r="D217" s="4" t="n"/>
+    </row>
+    <row r="218">
+      <c r="D218" s="4" t="n"/>
+    </row>
+    <row r="219">
+      <c r="D219" s="4" t="n"/>
+    </row>
+    <row r="220">
+      <c r="D220" s="4" t="n"/>
+    </row>
+    <row r="221">
+      <c r="D221" s="4" t="n"/>
+    </row>
+    <row r="222">
+      <c r="D222" s="4" t="n"/>
+    </row>
+    <row r="223">
+      <c r="D223" s="4" t="n"/>
+    </row>
+    <row r="224">
+      <c r="D224" s="4" t="n"/>
+    </row>
+    <row r="225">
+      <c r="D225" s="4" t="n"/>
+    </row>
+    <row r="226">
+      <c r="D226" s="4" t="n"/>
+    </row>
+    <row r="227">
+      <c r="D227" s="4" t="n"/>
+    </row>
+    <row r="228">
+      <c r="D228" s="4" t="n"/>
+    </row>
+    <row r="229">
+      <c r="D229" s="4" t="n"/>
+    </row>
+    <row r="230">
+      <c r="D230" s="4" t="n"/>
+    </row>
+    <row r="231">
+      <c r="D231" s="4" t="n"/>
+    </row>
+    <row r="232">
+      <c r="D232" s="4" t="n"/>
+    </row>
+    <row r="233">
+      <c r="D233" s="4" t="n"/>
+    </row>
+    <row r="234">
+      <c r="D234" s="4" t="n"/>
+    </row>
+    <row r="235">
+      <c r="D235" s="4" t="n"/>
+    </row>
+    <row r="236">
+      <c r="D236" s="4" t="n"/>
+    </row>
+    <row r="237">
+      <c r="D237" s="4" t="n"/>
+    </row>
+    <row r="238">
+      <c r="D238" s="4" t="n"/>
+    </row>
+    <row r="239">
+      <c r="D239" s="4" t="n"/>
+    </row>
+    <row r="240">
+      <c r="D240" s="4" t="n"/>
+    </row>
+    <row r="241">
+      <c r="D241" s="4" t="n"/>
+    </row>
+    <row r="242">
+      <c r="D242" s="4" t="n"/>
+    </row>
+    <row r="243">
+      <c r="D243" s="4" t="n"/>
+    </row>
+    <row r="244">
+      <c r="D244" s="4" t="n"/>
+    </row>
+    <row r="245">
+      <c r="D245" s="4" t="n"/>
+    </row>
+    <row r="246">
+      <c r="D246" s="4" t="n"/>
+    </row>
+    <row r="247">
+      <c r="D247" s="4" t="n"/>
+    </row>
+    <row r="248">
+      <c r="D248" s="4" t="n"/>
+    </row>
+    <row r="249">
+      <c r="D249" s="4" t="n"/>
+    </row>
+    <row r="250">
+      <c r="D250" s="4" t="n"/>
+    </row>
+    <row r="251">
+      <c r="D251" s="4" t="n"/>
+    </row>
+    <row r="252">
+      <c r="D252" s="4" t="n"/>
+    </row>
+    <row r="253">
+      <c r="D253" s="4" t="n"/>
+    </row>
+    <row r="254">
+      <c r="D254" s="4" t="n"/>
+    </row>
+    <row r="255">
+      <c r="D255" s="4" t="n"/>
+    </row>
+    <row r="256">
+      <c r="D256" s="4" t="n"/>
+    </row>
+    <row r="257">
+      <c r="D257" s="4" t="n"/>
+    </row>
+    <row r="258">
+      <c r="D258" s="4" t="n"/>
+    </row>
+    <row r="259">
+      <c r="D259" s="4" t="n"/>
+    </row>
+    <row r="260">
+      <c r="D260" s="4" t="n"/>
+    </row>
+    <row r="261">
+      <c r="D261" s="4" t="n"/>
+    </row>
+    <row r="262">
+      <c r="D262" s="4" t="n"/>
+    </row>
+    <row r="263">
+      <c r="D263" s="4" t="n"/>
+    </row>
+    <row r="264">
+      <c r="D264" s="4" t="n"/>
+    </row>
+    <row r="265">
+      <c r="D265" s="4" t="n"/>
+    </row>
+    <row r="266">
+      <c r="D266" s="4" t="n"/>
+    </row>
+    <row r="267">
+      <c r="D267" s="4" t="n"/>
+    </row>
+    <row r="268">
+      <c r="D268" s="4" t="n"/>
+    </row>
+    <row r="269">
+      <c r="D269" s="4" t="n"/>
+    </row>
+    <row r="270">
+      <c r="D270" s="4" t="n"/>
+    </row>
+    <row r="271">
+      <c r="D271" s="4" t="n"/>
+    </row>
+    <row r="272">
+      <c r="D272" s="4" t="n"/>
+    </row>
+    <row r="273">
+      <c r="D273" s="4" t="n"/>
+    </row>
+    <row r="274">
+      <c r="D274" s="4" t="n"/>
+    </row>
+    <row r="275">
+      <c r="D275" s="4" t="n"/>
+    </row>
+    <row r="276">
+      <c r="D276" s="4" t="n"/>
+    </row>
+    <row r="277">
+      <c r="D277" s="4" t="n"/>
+    </row>
+    <row r="278">
+      <c r="D278" s="4" t="n"/>
+    </row>
+    <row r="279">
+      <c r="D279" s="4" t="n"/>
+    </row>
+    <row r="280">
+      <c r="D280" s="4" t="n"/>
+    </row>
+    <row r="281">
+      <c r="D281" s="4" t="n"/>
+    </row>
+    <row r="282">
+      <c r="D282" s="4" t="n"/>
+    </row>
+    <row r="283">
+      <c r="D283" s="4" t="n"/>
+    </row>
+    <row r="284">
+      <c r="D284" s="4" t="n"/>
+    </row>
+    <row r="285">
+      <c r="D285" s="4" t="n"/>
+    </row>
+    <row r="286">
+      <c r="D286" s="4" t="n"/>
+    </row>
+    <row r="287">
+      <c r="D287" s="4" t="n"/>
+    </row>
+    <row r="288">
+      <c r="D288" s="4" t="n"/>
+    </row>
+    <row r="289">
+      <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2559,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>1.655718442301747</v>
+        <v>10.26486808491079</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -2568,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2.035751940881659</v>
+        <v>9.870336864724921</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -2577,7 +6149,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>1.696077531230795</v>
+        <v>9.594005266350777</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -2586,7 +6158,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>1.02304338294985</v>
+        <v>8.603455477547262</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -2595,7 +6167,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>1.756720306017312</v>
+        <v>9.018275096811641</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -2604,7 +6176,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>1.794064570868315</v>
+        <v>8.399960679650977</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -2613,7 +6185,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>1.232640884568869</v>
+        <v>7.971836749703403</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -2622,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.7206994791909392</v>
+        <v>9.629451879688858</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -2631,7 +6203,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>2.547453132286586</v>
+        <v>9.342787752301291</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -2640,7 +6212,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>1.462617707850727</v>
+        <v>9.172191554867808</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -2649,7 +6221,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.6429576463797785</v>
+        <v>9.806472685884236</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -2658,7 +6230,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-0.4667200651528814</v>
+        <v>9.282163001572188</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -2667,7 +6239,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-0.1141861337240389</v>
+        <v>9.173524236351547</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -2676,7 +6248,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>3.413667376390616</v>
+        <v>9.204890545620168</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -2685,7 +6257,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>3.10695840887922</v>
+        <v>7.042952936455691</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -2694,7 +6266,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>3.796623015912091</v>
+        <v>7.56981967100788</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -2703,7 +6275,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2.903790469902039</v>
+        <v>8.14801562920335</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -2712,7 +6284,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2.117512802563926</v>
+        <v>9.452858445819105</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -2721,7 +6293,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2.258711176634141</v>
+        <v>8.704808311983388</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -2730,7 +6302,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0.9971875034616843</v>
+        <v>8.734080605169993</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -2739,7 +6311,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-0.1333751679378767</v>
+        <v>7.398214963813901</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -2748,7 +6320,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-0.3136599775258095</v>
+        <v>8.486951469242587</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -2757,7 +6329,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1.330735753348683</v>
+        <v>7.091188689506949</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -2766,7 +6338,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.6332284809333346</v>
+        <v>7.521166094491758</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -2775,7 +6347,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-0.1397968768957201</v>
+        <v>5.928248578092306</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -2784,7 +6356,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-0.02730680887452016</v>
+        <v>4.590615842747316</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -2793,7 +6365,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-1.409340754819903</v>
+        <v>2.234720185734415</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -2802,7 +6374,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0.3321349705915216</v>
+        <v>0.5954606219947853</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -2811,7 +6383,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.1505972260143501</v>
+        <v>0</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -2820,7 +6392,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.5608919457121899</v>
+        <v>0</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -2829,7 +6401,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.264376466255048</v>
+        <v>0</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -2838,7 +6410,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>1.016790941879904</v>
+        <v>0</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -2847,7 +6419,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.225972775144135</v>
+        <v>0</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -2856,7 +6428,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.3865288826400413</v>
+        <v>0</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -2865,7 +6437,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-2.617110739886312</v>
+        <v>0</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -2874,7 +6446,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-2.541949242130606</v>
+        <v>0</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -2883,7 +6455,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.4988825209449264</v>
+        <v>0</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -2892,7 +6464,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-6.25278622563761</v>
+        <v>0</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -2901,7 +6473,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-5.705209722291288</v>
+        <v>0</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -2910,7 +6482,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-5.451301544969487</v>
+        <v>0</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -2919,7 +6491,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.6070067557305766</v>
+        <v>0</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -2928,7 +6500,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0.4785630399768486</v>
+        <v>0</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -2937,7 +6509,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-1.88009237679091</v>
+        <v>0</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -2946,7 +6518,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.644998021007489</v>
+        <v>0</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -2955,7 +6527,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.271306846231385</v>
+        <v>0</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -2964,7 +6536,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.332094357263484</v>
+        <v>0</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -2973,7 +6545,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-0.4398875920293221</v>
+        <v>0</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -2982,7 +6554,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-0.3114839776290748</v>
+        <v>0</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -2991,7 +6563,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-1.265383598738129</v>
+        <v>0</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -3000,7 +6572,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-5.263024142383474</v>
+        <v>0</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -3009,7 +6581,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-3.560331430788271</v>
+        <v>0</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -3018,7 +6590,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-4.238692429585721</v>
+        <v>0</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -3027,7 +6599,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.2547655052942442</v>
+        <v>0</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -3036,7 +6608,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-0.008391447099457215</v>
+        <v>0</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -3045,7 +6617,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-0.6444360148182682</v>
+        <v>0</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -3054,7 +6626,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0.9519363546080054</v>
+        <v>7.119192755677647</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -3063,7 +6635,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0.4238021475590821</v>
+        <v>6.861057346010875</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -3072,7 +6644,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1.038313046687897</v>
+        <v>7.484295712138691</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -3081,7 +6653,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1.083721695375105</v>
+        <v>8.220214806715758</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -3090,7 +6662,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1.074877084303626</v>
+        <v>9.06096042099543</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -3099,7 +6671,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1.141082362240794</v>
+        <v>8.762063958492888</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -3108,7 +6680,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>3.462068508791353</v>
+        <v>9.366117072827651</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -3117,7 +6689,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1.749666248469716</v>
+        <v>10.29912858030077</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -3126,7 +6698,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>3.290066929108579</v>
+        <v>9.690136036159968</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -3135,7 +6707,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>4.614647803722455</v>
+        <v>11.92697906442601</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -3144,7 +6716,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>4.459579857399151</v>
+        <v>11.80366055867152</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -3153,7 +6725,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>4.240253033058377</v>
+        <v>11.79187398493582</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -3162,7 +6734,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>4.982107308445924</v>
+        <v>12.71786461779777</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -3171,7 +6743,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>4.968806208067996</v>
+        <v>12.48601020944315</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -3180,7 +6752,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>4.662114518883733</v>
+        <v>12.22568229185133</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -3189,7 +6761,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>4.028226607389893</v>
+        <v>13.10712684635101</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -3198,7 +6770,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>3.825868294342112</v>
+        <v>13.29946376061096</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -3207,7 +6779,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>4.317287283564236</v>
+        <v>13.3991819996243</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -3216,7 +6788,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>5.432217498063782</v>
+        <v>12.72092610098411</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -3225,7 +6797,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>5.818274805994553</v>
+        <v>13.63467474421595</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -3234,7 +6806,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>5.152623863188215</v>
+        <v>14.5093647020952</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -3243,7 +6815,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>6.342336465843846</v>
+        <v>16.72577432249714</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -3252,7 +6824,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>4.742599166625498</v>
+        <v>15.86866940149544</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -3261,7 +6833,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>6.189857382760885</v>
+        <v>15.9104164237371</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -3270,7 +6842,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>5.925408096855313</v>
+        <v>16.8436777627795</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -3279,7 +6851,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>6.981493938354633</v>
+        <v>16.67722502396203</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -3288,7 +6860,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>6.495592725984156</v>
+        <v>16.26218077720221</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -3297,7 +6869,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>6.760802072685882</v>
+        <v>16.94387502072896</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -3306,7 +6878,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>6.853117214962622</v>
+        <v>16.56796109002093</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -3315,7 +6887,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>7.195186300638202</v>
+        <v>16.53447356160669</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -3324,7 +6896,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>7.086426691238346</v>
+        <v>16.74794941203636</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -3333,7 +6905,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>7.360201590050353</v>
+        <v>17.22298524613307</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -3342,7 +6914,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>8.043441991115596</v>
+        <v>16.7469021832908</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -3351,7 +6923,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>7.271438517335936</v>
+        <v>16.62759106661681</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -3360,7 +6932,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>7.153941933092926</v>
+        <v>14.50397446288157</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -3369,7 +6941,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>6.877546299080763</v>
+        <v>14.68376773510271</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -3378,7 +6950,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>7.84438985763109</v>
+        <v>15.98035155633691</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -3387,7 +6959,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>7.286455851743561</v>
+        <v>16.54461750151459</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -3396,7 +6968,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>7.875884960549966</v>
+        <v>16.78478635178815</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -3405,7 +6977,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>8.078904931457684</v>
+        <v>16.40724601227004</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -3414,7 +6986,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>8.008455677748151</v>
+        <v>15.93910300315077</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -3423,7 +6995,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>7.922143825841227</v>
+        <v>16.43409752516922</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -3432,7 +7004,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>7.98264300331108</v>
+        <v>16.75418409002822</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -3441,7 +7013,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>7.040103436316819</v>
+        <v>16.6975604370952</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -3450,7 +7022,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>5.804838444160587</v>
+        <v>16.34219241469895</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -3459,7 +7031,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>6.321717600233969</v>
+        <v>15.86790439408837</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -3468,7 +7040,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>7.481729208490814</v>
+        <v>14.2952111609784</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -3477,7 +7049,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>6.34025560788739</v>
+        <v>14.96947036346313</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -3486,7 +7058,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>7.478553143794547</v>
+        <v>15.3206398934998</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -3495,7 +7067,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>6.895504027917839</v>
+        <v>15.81135568483846</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -3504,7 +7076,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>7.972302650749803</v>
+        <v>15.41747207925045</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -3513,7 +7085,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>5.594024993982821</v>
+        <v>15.16368836486626</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -3522,7 +7094,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>6.968117656456567</v>
+        <v>12.49330697974148</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -3531,7 +7103,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>7.153952072271561</v>
+        <v>12.95452115822082</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -3540,7 +7112,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>6.657478102693092</v>
+        <v>12.49847133471628</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -3549,7 +7121,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>6.283274358414531</v>
+        <v>12.2875817791736</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -3558,7 +7130,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>6.12802407649539</v>
+        <v>11.85149129544288</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -3567,7 +7139,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>5.442220882717956</v>
+        <v>11.515138827</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -3576,7 +7148,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>5.422918604992804</v>
+        <v>9.881593443025304</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -3585,7 +7157,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>5.548755219618803</v>
+        <v>11.0217675556645</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -3594,7 +7166,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>4.365156969313784</v>
+        <v>9.654218707530935</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -3603,7 +7175,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>4.467885040302437</v>
+        <v>8.821318761920159</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -3612,7 +7184,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>4.762127943957373</v>
+        <v>8.465980482481839</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -3621,7 +7193,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>1.667092785629551</v>
+        <v>7.99178372458737</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -3630,7 +7202,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>2.797144739820266</v>
+        <v>7.390954350760942</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -3639,7 +7211,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>4.008104463700596</v>
+        <v>8.125693342005084</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -3648,7 +7220,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>3.739394157981701</v>
+        <v>7.18375450860669</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -3657,7 +7229,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>3.38295803512401</v>
+        <v>7.54765157850645</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -3666,7 +7238,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>4.101070966785442</v>
+        <v>8.533668672732192</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -3675,7 +7247,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>3.432180850753097</v>
+        <v>8.9685307504687</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -3684,7 +7256,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>3.130581069886587</v>
+        <v>8.985070488081421</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -3693,7 +7265,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>4.088040222341331</v>
+        <v>8.692118296526731</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -3702,7 +7274,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>4.443709318145483</v>
+        <v>7.497263665218138</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -3711,7 +7283,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>2.888799589055046</v>
+        <v>7.789845480808296</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -3720,7 +7292,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>3.015566527983594</v>
+        <v>7.502330921446398</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -3729,7 +7301,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>2.93112283772875</v>
+        <v>7.037393493421281</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -3738,7 +7310,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>2.876142666575164</v>
+        <v>7.25004633271283</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -3747,7 +7319,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>2.898764221272287</v>
+        <v>7.94064249997747</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -3756,7 +7328,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>3.491509677362121</v>
+        <v>8.044709672914108</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -3765,7 +7337,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>3.182399307430857</v>
+        <v>7.73779855685797</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -3774,7 +7346,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>2.026217925597329</v>
+        <v>7.847433611387138</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -3783,7 +7355,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>2.651371930505903</v>
+        <v>8.977522619483221</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -3792,7 +7364,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>2.625228049184277</v>
+        <v>7.984021922434962</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -3801,7 +7373,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>1.514860279591664</v>
+        <v>8.556649025559588</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -3810,7 +7382,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>2.201561949855755</v>
+        <v>8.646601724626318</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -3819,7 +7391,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>0.7948220787705382</v>
+        <v>8.410141604653447</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -3828,7 +7400,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>1.633918152444487</v>
+        <v>9.817512514461219</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -3837,7 +7409,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>2.716971428092882</v>
+        <v>9.954379861663908</v>
       </c>
     </row>
     <row r="145">
@@ -3845,7 +7417,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>2.781412033144425</v>
+        <v>10.88467443037831</v>
       </c>
     </row>
     <row r="146">
@@ -3892,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-16.14128985439729</v>
+        <v>-22.03375557043207</v>
       </c>
     </row>
     <row r="3">
@@ -3900,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-15.03864088010309</v>
+        <v>-22.4229232288815</v>
       </c>
     </row>
     <row r="4">
@@ -3908,7 +7480,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-15.84927631324478</v>
+        <v>-22.04205090377474</v>
       </c>
     </row>
     <row r="5">
@@ -3916,7 +7488,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-15.89551002652399</v>
+        <v>-22.03753927178938</v>
       </c>
     </row>
     <row r="6">
@@ -3924,7 +7496,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-15.97786070657127</v>
+        <v>-22.3510317303869</v>
       </c>
     </row>
     <row r="7">
@@ -3932,7 +7504,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-15.247662662329</v>
+        <v>-22.0814889968004</v>
       </c>
     </row>
     <row r="8">
@@ -3940,7 +7512,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-15.27671495782232</v>
+        <v>-22.63971193683079</v>
       </c>
     </row>
     <row r="9">
@@ -3948,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-15.50864329211899</v>
+        <v>-22.33861523130604</v>
       </c>
     </row>
     <row r="10">
@@ -3956,7 +7528,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-15.55287716870277</v>
+        <v>-22.05206154053679</v>
       </c>
     </row>
     <row r="11">
@@ -3964,7 +7536,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-15.97613597153081</v>
+        <v>-22.48234320536234</v>
       </c>
     </row>
     <row r="12">
@@ -3972,7 +7544,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-15.92645166022329</v>
+        <v>-22.9963862786106</v>
       </c>
     </row>
     <row r="13">
@@ -3980,7 +7552,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-15.74444107953082</v>
+        <v>-22.51324712026558</v>
       </c>
     </row>
     <row r="14">
@@ -3988,7 +7560,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-16.08577668493853</v>
+        <v>-22.24180588110751</v>
       </c>
     </row>
     <row r="15">
@@ -3996,7 +7568,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-16.02521233378474</v>
+        <v>-22.45828954705187</v>
       </c>
     </row>
     <row r="16">
@@ -4004,7 +7576,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-15.87871290351505</v>
+        <v>-22.68298849706131</v>
       </c>
     </row>
     <row r="17">
@@ -4012,7 +7584,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-16.27154682687297</v>
+        <v>-22.34599928086965</v>
       </c>
     </row>
     <row r="18">
@@ -4020,7 +7592,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-16.17151812898548</v>
+        <v>-22.30658391328051</v>
       </c>
     </row>
     <row r="19">
@@ -4028,7 +7600,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-16.22601876826812</v>
+        <v>-22.72745408655747</v>
       </c>
     </row>
     <row r="20">
@@ -4036,7 +7608,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-16.11690728860524</v>
+        <v>-23.32247191041367</v>
       </c>
     </row>
     <row r="21">
@@ -4044,7 +7616,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-16.35736643018939</v>
+        <v>-22.69002954254216</v>
       </c>
     </row>
     <row r="22">
@@ -4052,7 +7624,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-15.77534144408246</v>
+        <v>-22.87294306312277</v>
       </c>
     </row>
     <row r="23">
@@ -4060,7 +7632,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-15.76637312627721</v>
+        <v>-22.58805355530733</v>
       </c>
     </row>
     <row r="24">
@@ -4068,7 +7640,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-16.31221025844645</v>
+        <v>-23.18880273047973</v>
       </c>
     </row>
     <row r="25">
@@ -4076,7 +7648,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-16.1918801027239</v>
+        <v>-23.7124511383596</v>
       </c>
     </row>
     <row r="26">
@@ -4084,7 +7656,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-16.17371841482836</v>
+        <v>-23.69718794851453</v>
       </c>
     </row>
     <row r="27">
@@ -4092,7 +7664,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-17.00553156624223</v>
+        <v>-24.28215843804828</v>
       </c>
     </row>
     <row r="28">
@@ -4100,7 +7672,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-17.0481327966965</v>
+        <v>-24.70191503023877</v>
       </c>
     </row>
     <row r="29">
@@ -4108,7 +7680,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-16.54495484877207</v>
+        <v>-24.5368687636635</v>
       </c>
     </row>
     <row r="30">
@@ -4116,7 +7688,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-17.37646142363011</v>
+        <v>-25.12830533335477</v>
       </c>
     </row>
     <row r="31">
@@ -4124,7 +7696,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-17.26117290278151</v>
+        <v>-24.5915125609838</v>
       </c>
     </row>
     <row r="32">
@@ -4132,7 +7704,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-17.26594637300517</v>
+        <v>-25.28076977429601</v>
       </c>
     </row>
     <row r="33">
@@ -4140,7 +7712,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-17.62831532961159</v>
+        <v>-25.87609213220876</v>
       </c>
     </row>
     <row r="34">
@@ -4148,7 +7720,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-17.76468401741363</v>
+        <v>-25.70152628710454</v>
       </c>
     </row>
     <row r="35">
@@ -4156,7 +7728,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-17.67346768211449</v>
+        <v>-25.69104048615697</v>
       </c>
     </row>
     <row r="36">
@@ -4164,7 +7736,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-17.4992103043599</v>
+        <v>-26.05037883845726</v>
       </c>
     </row>
     <row r="37">
@@ -4172,7 +7744,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-17.67315253330957</v>
+        <v>-26.05251505231518</v>
       </c>
     </row>
     <row r="38">
@@ -4180,7 +7752,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-17.62766412852627</v>
+        <v>-25.18692818448261</v>
       </c>
     </row>
     <row r="39">
@@ -4188,7 +7760,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-18.05961865369015</v>
+        <v>-25.52409614241249</v>
       </c>
     </row>
     <row r="40">
@@ -4196,7 +7768,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-18.38505568167033</v>
+        <v>-25.5822244765054</v>
       </c>
     </row>
     <row r="41">
@@ -4204,7 +7776,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-17.88386855922782</v>
+        <v>-25.71907127551038</v>
       </c>
     </row>
     <row r="42">
@@ -4212,7 +7784,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-17.71386539842837</v>
+        <v>-25.04489739510528</v>
       </c>
     </row>
     <row r="43">
@@ -4220,7 +7792,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-17.54526595576911</v>
+        <v>-25.41167268311551</v>
       </c>
     </row>
     <row r="44">
@@ -4228,7 +7800,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-17.70483494969333</v>
+        <v>-25.50912452797175</v>
       </c>
     </row>
     <row r="45">
@@ -4236,7 +7808,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-17.90831365805134</v>
+        <v>-25.68714933742057</v>
       </c>
     </row>
     <row r="46">
@@ -4244,7 +7816,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-17.93649752432514</v>
+        <v>-25.66677472378066</v>
       </c>
     </row>
     <row r="47">
@@ -4252,7 +7824,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-18.5248540195263</v>
+        <v>-25.07481666796757</v>
       </c>
     </row>
     <row r="48">
@@ -4260,7 +7832,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-18.22446299250156</v>
+        <v>-25.38723782912704</v>
       </c>
     </row>
     <row r="49">
@@ -4268,7 +7840,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-17.97735066302902</v>
+        <v>-25.38872503688893</v>
       </c>
     </row>
     <row r="50">
@@ -4276,7 +7848,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-17.78268540947421</v>
+        <v>-25.53691088847686</v>
       </c>
     </row>
     <row r="51">
@@ -4284,7 +7856,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-17.48438891906498</v>
+        <v>-25.50566358306088</v>
       </c>
     </row>
     <row r="52">
@@ -4292,7 +7864,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-17.52562367863837</v>
+        <v>-25.65538646968989</v>
       </c>
     </row>
     <row r="53">
@@ -4300,7 +7872,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-17.5449260390296</v>
+        <v>-25.49768214070917</v>
       </c>
     </row>
     <row r="54">
@@ -4308,7 +7880,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-17.55887314696131</v>
+        <v>-24.60003782624585</v>
       </c>
     </row>
     <row r="55">
@@ -4316,7 +7888,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-17.62712039959895</v>
+        <v>-24.85384298927111</v>
       </c>
     </row>
     <row r="56">
@@ -4324,7 +7896,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-17.64561360311804</v>
+        <v>-24.69450009917809</v>
       </c>
     </row>
     <row r="57">
@@ -4332,7 +7904,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-16.62816014419197</v>
+        <v>-24.73482448044958</v>
       </c>
     </row>
     <row r="58">
@@ -4340,7 +7912,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-16.64266764141496</v>
+        <v>-24.44244566140366</v>
       </c>
     </row>
     <row r="59">
@@ -4348,7 +7920,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-16.65661340403707</v>
+        <v>-25.02453992639562</v>
       </c>
     </row>
     <row r="60">
@@ -4356,7 +7928,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-16.90820461311674</v>
+        <v>-23.85042963616137</v>
       </c>
     </row>
     <row r="61">
@@ -4364,7 +7936,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-16.97874822087977</v>
+        <v>-23.61318733013944</v>
       </c>
     </row>
     <row r="62">
@@ -4372,7 +7944,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-17.09241754876701</v>
+        <v>-23.7622701241798</v>
       </c>
     </row>
     <row r="63">
@@ -4380,7 +7952,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-16.53839495482909</v>
+        <v>-23.5897953712509</v>
       </c>
     </row>
     <row r="64">
@@ -4388,7 +7960,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-16.63863215547078</v>
+        <v>-23.56766060482244</v>
       </c>
     </row>
     <row r="65">
@@ -4396,7 +7968,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-16.67590664080988</v>
+        <v>-23.63989843451965</v>
       </c>
     </row>
     <row r="66">
@@ -4404,7 +7976,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-16.03500027160562</v>
+        <v>-22.79387463513764</v>
       </c>
     </row>
     <row r="67">
@@ -4412,7 +7984,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-15.84571144173878</v>
+        <v>-22.75094675539132</v>
       </c>
     </row>
     <row r="68">
@@ -4420,7 +7992,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-15.70107317873009</v>
+        <v>-22.96147378030178</v>
       </c>
     </row>
     <row r="69">
@@ -4428,7 +8000,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-15.6199751214925</v>
+        <v>-21.91047385474271</v>
       </c>
     </row>
     <row r="70">
@@ -4436,7 +8008,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-15.65626768078215</v>
+        <v>-21.97504896776948</v>
       </c>
     </row>
     <row r="71">
@@ -4444,7 +8016,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-15.92722210856996</v>
+        <v>-21.82857743297986</v>
       </c>
     </row>
     <row r="72">
@@ -4452,7 +8024,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-16.2865377087601</v>
+        <v>-21.68034961538364</v>
       </c>
     </row>
     <row r="73">
@@ -4460,7 +8032,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-16.47044142852974</v>
+        <v>-21.64943938432751</v>
       </c>
     </row>
     <row r="74">
@@ -4468,7 +8040,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-16.8959224222688</v>
+        <v>-21.1382413825195</v>
       </c>
     </row>
     <row r="75">
@@ -4476,7 +8048,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-15.54029806902086</v>
+        <v>-20.98454442684124</v>
       </c>
     </row>
     <row r="76">
@@ -4484,7 +8056,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-15.30379521805916</v>
+        <v>-21.11813858735766</v>
       </c>
     </row>
     <row r="77">
@@ -4492,7 +8064,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-15.59368480420568</v>
+        <v>-21.09510850241261</v>
       </c>
     </row>
     <row r="78">
@@ -4500,7 +8072,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-14.83167035312343</v>
+        <v>-20.81060427308525</v>
       </c>
     </row>
     <row r="79">
@@ -4508,7 +8080,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-15.03003671858717</v>
+        <v>-20.54670355635929</v>
       </c>
     </row>
     <row r="80">
@@ -4516,7 +8088,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-14.78349048196834</v>
+        <v>-20.31879132280655</v>
       </c>
     </row>
     <row r="81">
@@ -4524,7 +8096,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-14.74798804436428</v>
+        <v>-20.46467688772699</v>
       </c>
     </row>
     <row r="82">
@@ -4532,7 +8104,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-14.76957856446969</v>
+        <v>-20.7362922531238</v>
       </c>
     </row>
     <row r="83">
@@ -4540,7 +8112,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-14.58768374910261</v>
+        <v>-20.15526697987542</v>
       </c>
     </row>
     <row r="84">
@@ -4548,7 +8120,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-14.46675586046955</v>
+        <v>-20.41542200404637</v>
       </c>
     </row>
     <row r="85">
@@ -4556,7 +8128,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-14.41653808782769</v>
+        <v>-20.35297847691152</v>
       </c>
     </row>
     <row r="86">
@@ -4564,7 +8136,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-14.39106161970031</v>
+        <v>-19.96463267413516</v>
       </c>
     </row>
     <row r="87">
@@ -4572,7 +8144,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-14.66325086985946</v>
+        <v>-20.54478844243659</v>
       </c>
     </row>
     <row r="88">
@@ -4580,7 +8152,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-14.6914877873605</v>
+        <v>-20.3914696798405</v>
       </c>
     </row>
     <row r="89">
@@ -4588,7 +8160,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-14.744772909127</v>
+        <v>-20.16630918858938</v>
       </c>
     </row>
     <row r="90">
@@ -4596,7 +8168,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-14.32099662202412</v>
+        <v>-19.96096483764649</v>
       </c>
     </row>
     <row r="91">
@@ -4604,7 +8176,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-14.46629939821653</v>
+        <v>-21.39239022798072</v>
       </c>
     </row>
     <row r="92">
@@ -4612,7 +8184,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-14.51181102173094</v>
+        <v>-20.86895060413648</v>
       </c>
     </row>
     <row r="93">
@@ -4620,7 +8192,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-14.57661091584326</v>
+        <v>-20.41358848582286</v>
       </c>
     </row>
     <row r="94">
@@ -4628,7 +8200,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-14.35858198520849</v>
+        <v>-20.15644267805192</v>
       </c>
     </row>
     <row r="95">
@@ -4636,7 +8208,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-14.22411899177829</v>
+        <v>-20.02332042103755</v>
       </c>
     </row>
     <row r="96">
@@ -4644,7 +8216,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-14.48661360255235</v>
+        <v>-19.85365802741276</v>
       </c>
     </row>
     <row r="97">
@@ -4652,7 +8224,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-14.11254057798533</v>
+        <v>-20.36841432130666</v>
       </c>
     </row>
     <row r="98">
@@ -4660,7 +8232,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-14.65571415327954</v>
+        <v>-20.18024156089914</v>
       </c>
     </row>
     <row r="99">
@@ -4668,7 +8240,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-14.51834581470283</v>
+        <v>-20.45422207409193</v>
       </c>
     </row>
     <row r="100">
@@ -4676,7 +8248,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-14.61961742691375</v>
+        <v>-20.41897209714831</v>
       </c>
     </row>
     <row r="101">
@@ -4684,7 +8256,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-14.54110013390465</v>
+        <v>-20.18344433266719</v>
       </c>
     </row>
     <row r="102">
@@ -4692,7 +8264,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-14.34938298196233</v>
+        <v>-20.53428416755962</v>
       </c>
     </row>
     <row r="103">
@@ -4700,7 +8272,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-14.5768349878961</v>
+        <v>-21.70742498858114</v>
       </c>
     </row>
     <row r="104">
@@ -4708,7 +8280,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-14.93334368252908</v>
+        <v>-21.15148822053568</v>
       </c>
     </row>
     <row r="105">
@@ -4716,7 +8288,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-15.01647818011416</v>
+        <v>-20.79951169646219</v>
       </c>
     </row>
     <row r="106">
@@ -4724,7 +8296,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-15.27349809679567</v>
+        <v>-20.40417983488968</v>
       </c>
     </row>
     <row r="107">
@@ -4732,7 +8304,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-14.69656149439168</v>
+        <v>-20.38332025502462</v>
       </c>
     </row>
     <row r="108">
@@ -4740,7 +8312,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-14.75285145649729</v>
+        <v>-20.28715969850755</v>
       </c>
     </row>
     <row r="109">
@@ -4748,7 +8320,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-14.71319603443638</v>
+        <v>-22.50850961475037</v>
       </c>
     </row>
     <row r="110">
@@ -4756,7 +8328,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-14.7882768460372</v>
+        <v>-22.01323293667848</v>
       </c>
     </row>
     <row r="111">
@@ -4764,7 +8336,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-15.64412285103461</v>
+        <v>-22.49266038187752</v>
       </c>
     </row>
     <row r="112">
@@ -4772,7 +8344,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-15.77304655701382</v>
+        <v>-23.15050570222103</v>
       </c>
     </row>
     <row r="113">
@@ -4780,7 +8352,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-15.80733096316849</v>
+        <v>-22.56741759282385</v>
       </c>
     </row>
     <row r="114">
@@ -4788,7 +8360,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-15.64177917928865</v>
+        <v>-23.09453806616366</v>
       </c>
     </row>
     <row r="115">
@@ -4796,7 +8368,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-15.47880674536265</v>
+        <v>-24.0077080555736</v>
       </c>
     </row>
     <row r="116">
@@ -4804,7 +8376,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-15.7982967304059</v>
+        <v>-23.07400974653812</v>
       </c>
     </row>
     <row r="117">
@@ -4812,7 +8384,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-16.16727146334683</v>
+        <v>-23.19557112071148</v>
       </c>
     </row>
     <row r="118">
@@ -4820,7 +8392,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-15.85622066900957</v>
+        <v>-23.51736791907071</v>
       </c>
     </row>
     <row r="119">
@@ -4828,7 +8400,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-15.98976693641611</v>
+        <v>-23.32517697950829</v>
       </c>
     </row>
     <row r="120">
@@ -4836,7 +8408,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-16.57167241677782</v>
+        <v>-22.89956841476846</v>
       </c>
     </row>
     <row r="121">
@@ -4844,7 +8416,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-16.35514387004782</v>
+        <v>-24.05037632069448</v>
       </c>
     </row>
     <row r="122">
@@ -4852,7 +8424,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-15.61140115762586</v>
+        <v>-23.40613441711299</v>
       </c>
     </row>
     <row r="123">
@@ -4860,7 +8432,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-15.80856152277767</v>
+        <v>-24.02759380910843</v>
       </c>
     </row>
     <row r="124">
@@ -4868,7 +8440,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-15.79485367918018</v>
+        <v>-24.02461365655429</v>
       </c>
     </row>
     <row r="125">
@@ -4876,7 +8448,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-16.22860550276089</v>
+        <v>-24.03917789659889</v>
       </c>
     </row>
     <row r="126">
@@ -4884,7 +8456,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-15.78112168494895</v>
+        <v>-23.30195460526541</v>
       </c>
     </row>
     <row r="127">
@@ -4892,7 +8464,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-15.83595560607327</v>
+        <v>-23.93170424349078</v>
       </c>
     </row>
     <row r="128">
@@ -4900,7 +8472,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-16.52184714078352</v>
+        <v>-23.91636458932208</v>
       </c>
     </row>
     <row r="129">
@@ -4908,7 +8480,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-16.27541564635552</v>
+        <v>-23.88307648654366</v>
       </c>
     </row>
     <row r="130">
@@ -4916,7 +8488,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-16.27994245455591</v>
+        <v>-23.99904946991769</v>
       </c>
     </row>
     <row r="131">
@@ -4924,7 +8496,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-16.25406228703972</v>
+        <v>-23.59157911650547</v>
       </c>
     </row>
     <row r="132">
@@ -4932,7 +8504,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-16.34072473393736</v>
+        <v>-23.59486466723517</v>
       </c>
     </row>
     <row r="133">
@@ -4940,7 +8512,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-16.37345662904002</v>
+        <v>-23.91827145550704</v>
       </c>
     </row>
     <row r="134">
@@ -4948,7 +8520,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-16.12217304437722</v>
+        <v>-23.46288790304018</v>
       </c>
     </row>
     <row r="135">
@@ -4956,7 +8528,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-16.42821076213291</v>
+        <v>-23.34602021576006</v>
       </c>
     </row>
     <row r="136">
@@ -4964,7 +8536,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-16.30294264586827</v>
+        <v>-22.82222763981111</v>
       </c>
     </row>
     <row r="137">
@@ -4972,7 +8544,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-16.27306146058822</v>
+        <v>-22.84207774783958</v>
       </c>
     </row>
     <row r="138">
@@ -4980,7 +8552,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-16.82990271922128</v>
+        <v>-23.41830375545694</v>
       </c>
     </row>
     <row r="139">
@@ -4988,7 +8560,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-16.95027401923966</v>
+        <v>-23.21928919679591</v>
       </c>
     </row>
     <row r="140">
@@ -4996,7 +8568,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-16.38039561420773</v>
+        <v>-23.04648279190121</v>
       </c>
     </row>
     <row r="141">
@@ -5004,7 +8576,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-16.35112900367448</v>
+        <v>-22.65924708696605</v>
       </c>
     </row>
     <row r="142">
@@ -5012,7 +8584,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-15.99282434286299</v>
+        <v>-22.29551467912674</v>
       </c>
     </row>
     <row r="143">
@@ -5020,7 +8592,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-16.15919719016298</v>
+        <v>-23.2677634173459</v>
       </c>
     </row>
     <row r="144">
@@ -5028,7 +8600,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-16.05398764968874</v>
+        <v>-22.26786645236588</v>
       </c>
     </row>
     <row r="145">
@@ -5036,7 +8608,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-16.33395983136616</v>
+        <v>-22.07629105810725</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix17.xlsx
+++ b/testcases/timeseries/EVDay01_mix17.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016007249</v>
+        <v>2016005828</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2013001132</v>
+        <v>2012000780</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2016000044</v>
+        <v>2014008164</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2016002878</v>
+        <v>2016005976</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2014001450</v>
+        <v>2013004510</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2015005555</v>
+        <v>2016003649</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2016000378</v>
+        <v>2014006375</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2014008433</v>
+        <v>2013006005</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2012007172</v>
+        <v>2012002526</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2014006415</v>
+        <v>2012007475</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2157,7 +2157,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2015001934</v>
+        <v>2014006938</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2213,6 +2213,310 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2013003248</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G13" t="n">
+        <v>250</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2014001895</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>30</v>
+      </c>
+      <c r="G14" t="n">
+        <v>250</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2015007327</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>250</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2013009022</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24</v>
+      </c>
+      <c r="G16" t="n">
+        <v>250</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2012001406</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>250</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2012010198</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" t="n">
+        <v>250</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2012009662</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>75</v>
+      </c>
+      <c r="G19" t="n">
+        <v>250</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2015000574</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>60</v>
+      </c>
+      <c r="G20" t="n">
+        <v>250</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2227,7 +2531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="A2:E29"/>
@@ -2267,269 +2571,513 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2016007249</v>
+        <v>2016005828</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>16.3105146605412</v>
+        <v>16.81744897957741</v>
       </c>
       <c r="E2" t="n">
-        <v>39.99998672683792</v>
+        <v>19.99865813392349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2013001132</v>
+        <v>2016005828</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>57.7791108</v>
+        <v>23.17923659824407</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2013001132</v>
+        <v>2016005828</v>
       </c>
       <c r="B4" t="n">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D4" t="n">
-        <v>59.25970359999999</v>
+        <v>23.17923660000001</v>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2016000044</v>
+        <v>2012000780</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D5" t="n">
-        <v>7.881401733333332</v>
+        <v>23.0424427</v>
       </c>
       <c r="E5" t="n">
-        <v>23.45733333157738</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2016002878</v>
+        <v>2012000780</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="C6" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D6" t="n">
-        <v>38.35847266054119</v>
+        <v>22.83725185</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2014001450</v>
+        <v>2014008164</v>
       </c>
       <c r="B7" t="n">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="C7" t="n">
         <v>143</v>
       </c>
       <c r="D7" t="n">
-        <v>64.88047006327788</v>
+        <v>20.58857967446736</v>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>21.6739130078007</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2015005555</v>
+        <v>2016005976</v>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D8" t="n">
-        <v>30.1508386605412</v>
+        <v>28.33916112</v>
       </c>
       <c r="E8" t="n">
-        <v>39.9985433729744</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2016000378</v>
+        <v>2016005976</v>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C9" t="n">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="D9" t="n">
-        <v>39.04244216054121</v>
+        <v>25.57109632</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>26.33547335748688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2014008433</v>
+        <v>2016005976</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C10" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D10" t="n">
-        <v>20.65295327446735</v>
+        <v>28.33916112</v>
       </c>
       <c r="E10" t="n">
-        <v>29.45733332780069</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2012007172</v>
+        <v>2013004510</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="C11" t="n">
         <v>143</v>
       </c>
       <c r="D11" t="n">
-        <v>16.47510663446736</v>
+        <v>21.264122</v>
       </c>
       <c r="E11" t="n">
-        <v>29.99999999446737</v>
+        <v>23.96270921854361</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2014006415</v>
+        <v>2016003649</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D12" t="n">
-        <v>27.37033843446735</v>
+        <v>19.62259519824406</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2014006415</v>
+        <v>2014006375</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>28.6159676</v>
+        <v>55.6547819956624</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2015001934</v>
+        <v>2013006005</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
+        <v>143</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20.86538616</v>
+      </c>
+      <c r="E14" t="n">
+        <v>29.99999999446734</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>2012002526</v>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>24</v>
+      </c>
+      <c r="D15" t="n">
+        <v>66.11644319999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>70.89459753049745</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
+        <v>2012002526</v>
+      </c>
+      <c r="B16" t="n">
+        <v>38</v>
+      </c>
+      <c r="C16" t="n">
+        <v>45</v>
+      </c>
+      <c r="D16" t="n">
+        <v>74.22751679999998</v>
+      </c>
+      <c r="E16" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v>2012002526</v>
+      </c>
+      <c r="B17" t="n">
+        <v>60</v>
+      </c>
+      <c r="C17" t="n">
+        <v>108</v>
+      </c>
+      <c r="D17" t="n">
+        <v>74.22751679999998</v>
+      </c>
+      <c r="E17" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n">
+        <v>2012007475</v>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C18" t="n">
+        <v>116</v>
+      </c>
+      <c r="D18" t="n">
+        <v>54.81792519566239</v>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n">
+        <v>2014006938</v>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" t="n">
+        <v>117</v>
+      </c>
+      <c r="D19" t="n">
+        <v>28.8553199605412</v>
+      </c>
+      <c r="E19" t="n">
+        <v>39.99999946054122</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
+        <v>2013003248</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12</v>
+      </c>
+      <c r="D20" t="n">
+        <v>23.45282439824406</v>
+      </c>
+      <c r="E20" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n">
+        <v>2013003248</v>
+      </c>
+      <c r="B21" t="n">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>39</v>
+      </c>
+      <c r="D21" t="n">
+        <v>23.4528244</v>
+      </c>
+      <c r="E21" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="n">
+        <v>2013003248</v>
+      </c>
+      <c r="B22" t="n">
+        <v>57</v>
+      </c>
+      <c r="C22" t="n">
+        <v>119</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17.4338928</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23.99999999824405</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="n">
+        <v>2014001895</v>
+      </c>
+      <c r="B23" t="n">
+        <v>39</v>
+      </c>
+      <c r="C23" t="n">
+        <v>110</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.775</v>
+      </c>
+      <c r="E23" t="n">
+        <v>29.56586666113403</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n">
+        <v>2015007327</v>
+      </c>
+      <c r="B24" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" t="n">
+        <v>143</v>
+      </c>
+      <c r="D24" t="n">
+        <v>71.11344388327787</v>
+      </c>
+      <c r="E24" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="n">
+        <v>2013009022</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>143</v>
+      </c>
+      <c r="D25" t="n">
+        <v>21.264122</v>
+      </c>
+      <c r="E25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="n">
+        <v>2012001406</v>
+      </c>
+      <c r="B26" t="n">
+        <v>29</v>
+      </c>
+      <c r="C26" t="n">
+        <v>111</v>
+      </c>
+      <c r="D26" t="n">
+        <v>64.8418459032779</v>
+      </c>
+      <c r="E26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="n">
+        <v>2012010198</v>
+      </c>
+      <c r="B27" t="n">
+        <v>38</v>
+      </c>
+      <c r="C27" t="n">
+        <v>118</v>
+      </c>
+      <c r="D27" t="n">
+        <v>16.15967599446736</v>
+      </c>
+      <c r="E27" t="n">
+        <v>29.99999999446736</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="n">
+        <v>2012009662</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+      <c r="C28" t="n">
+        <v>42</v>
+      </c>
+      <c r="D28" t="n">
+        <v>70.44234911999997</v>
+      </c>
+      <c r="E28" t="n">
+        <v>74.16014298073266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="n">
+        <v>2012009662</v>
+      </c>
+      <c r="B29" t="n">
+        <v>44</v>
+      </c>
+      <c r="C29" t="n">
+        <v>114</v>
+      </c>
+      <c r="D29" t="n">
+        <v>74.38201343999999</v>
+      </c>
+      <c r="E29" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2012009662</v>
+      </c>
+      <c r="B30" t="n">
+        <v>119</v>
+      </c>
+      <c r="C30" t="n">
         <v>126</v>
       </c>
-      <c r="D14" t="n">
-        <v>38.90564879999999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="n"/>
+      <c r="D30" t="n">
+        <v>73.22328864000001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2015000574</v>
+      </c>
+      <c r="B31" t="n">
+        <v>33</v>
+      </c>
+      <c r="C31" t="n">
+        <v>111</v>
+      </c>
+      <c r="D31" t="n">
+        <v>52.59703599566242</v>
+      </c>
+      <c r="E31" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3057,7 +3605,7 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -3074,7 +3622,7 @@
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -3091,7 +3639,7 @@
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -3363,7 +3911,7 @@
         </is>
       </c>
       <c r="C48" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D48" s="4" t="n"/>
       <c r="E48" s="4" t="n"/>
@@ -3380,7 +3928,7 @@
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D49" s="4" t="n"/>
       <c r="E49" s="4" t="n"/>
@@ -3397,7 +3945,7 @@
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D50" s="4" t="n"/>
       <c r="E50" s="4" t="n"/>
@@ -3414,7 +3962,7 @@
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D51" s="4" t="n"/>
       <c r="E51" s="4" t="n"/>
@@ -3431,7 +3979,7 @@
         </is>
       </c>
       <c r="C52" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D52" s="4" t="n"/>
       <c r="E52" s="4" t="n"/>
@@ -3448,7 +3996,7 @@
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D53" s="4" t="n"/>
       <c r="E53" s="4" t="n"/>
@@ -3465,7 +4013,7 @@
         </is>
       </c>
       <c r="C54" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D54" s="4" t="n"/>
       <c r="E54" s="4" t="n"/>
@@ -3482,7 +4030,7 @@
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D55" s="4" t="n"/>
       <c r="E55" s="4" t="n"/>
@@ -3499,7 +4047,7 @@
         </is>
       </c>
       <c r="C56" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D56" s="4" t="n"/>
       <c r="E56" s="4" t="n"/>
@@ -6131,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>10.26486808491079</v>
+        <v>9.409393152449752</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6140,7 +6688,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>9.870336864724921</v>
+        <v>10.57743757779125</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6149,7 +6697,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>9.594005266350777</v>
+        <v>10.57743757779125</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6158,7 +6706,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>8.603455477547262</v>
+        <v>10.57743757779125</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6167,7 +6715,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>9.018275096811641</v>
+        <v>8.74294668954294</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6176,7 +6724,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>8.399960679650977</v>
+        <v>8.74294668954294</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6185,7 +6733,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>7.971836749703403</v>
+        <v>8.74294668954294</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6194,7 +6742,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>9.629451879688858</v>
+        <v>8.120700698435733</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6203,7 +6751,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>9.342787752301291</v>
+        <v>8.120700698435733</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6212,7 +6760,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>9.172191554867808</v>
+        <v>8.120700698435733</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6221,7 +6769,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>9.806472685884236</v>
+        <v>10.98527159257812</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6230,7 +6778,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>9.282163001572188</v>
+        <v>10.98527159257812</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6239,7 +6787,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>9.173524236351547</v>
+        <v>10.98527159257812</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6248,7 +6796,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>9.204890545620168</v>
+        <v>8.665407037822256</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6257,7 +6805,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>7.042952936455691</v>
+        <v>8.665407037822256</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6266,7 +6814,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>7.56981967100788</v>
+        <v>8.665407037822256</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6275,7 +6823,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>8.14801562920335</v>
+        <v>9.598912053482547</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6284,7 +6832,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>9.452858445819105</v>
+        <v>9.598912053482547</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6293,7 +6841,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>8.704808311983388</v>
+        <v>9.598912053482547</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6302,7 +6850,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>8.734080605169993</v>
+        <v>10.04337816236504</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6311,7 +6859,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>7.398214963813901</v>
+        <v>10.04337816236504</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6320,7 +6868,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>8.486951469242587</v>
+        <v>10.04337816236504</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6329,7 +6877,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>7.091188689506949</v>
+        <v>8.724786686749317</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6338,7 +6886,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>7.521166094491758</v>
+        <v>8.724786686749317</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6347,7 +6895,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>5.928248578092306</v>
+        <v>8.724786686749317</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6356,7 +6904,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>4.590615842747316</v>
+        <v>2.369632383072647</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6365,7 +6913,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2.234720185734415</v>
+        <v>2.369632383072647</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6374,7 +6922,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0.5954606219947853</v>
+        <v>2.369632383072647</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6383,7 +6931,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0</v>
+        <v>0.9080025665694434</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6392,7 +6940,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0</v>
+        <v>0.9080025665694434</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6401,7 +6949,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0</v>
+        <v>0.9080025665694434</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6545,7 +7093,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0</v>
+        <v>2.809210607282325</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6554,7 +7102,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0</v>
+        <v>2.809210607282325</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6563,7 +7111,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0</v>
+        <v>2.809210607282325</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6572,7 +7120,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0</v>
+        <v>2.57769812378289</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6581,7 +7129,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0</v>
+        <v>2.57769812378289</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6590,7 +7138,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0</v>
+        <v>2.57769812378289</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6599,7 +7147,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0</v>
+        <v>2.579927307836407</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6608,7 +7156,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0</v>
+        <v>2.579927307836407</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6617,7 +7165,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0</v>
+        <v>2.579927307836407</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6626,7 +7174,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>7.119192755677647</v>
+        <v>3.321809855174027</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6635,7 +7183,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>6.861057346010875</v>
+        <v>3.321809855174027</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6644,7 +7192,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>7.484295712138691</v>
+        <v>3.321809855174027</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6653,7 +7201,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>8.220214806715758</v>
+        <v>6.017916803819404</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6662,7 +7210,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>9.06096042099543</v>
+        <v>6.017916803819404</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6671,7 +7219,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>8.762063958492888</v>
+        <v>6.017916803819404</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6680,7 +7228,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>9.366117072827651</v>
+        <v>7.802545635438406</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6689,7 +7237,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>10.29912858030077</v>
+        <v>7.802545635438406</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6698,7 +7246,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>9.690136036159968</v>
+        <v>7.802545635438406</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6707,7 +7255,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>11.92697906442601</v>
+        <v>10.9321386141337</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6716,7 +7264,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>11.80366055867152</v>
+        <v>10.9321386141337</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6725,7 +7273,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>11.79187398493582</v>
+        <v>10.9321386141337</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6734,7 +7282,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>12.71786461779777</v>
+        <v>11.62655593991444</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6743,7 +7291,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>12.48601020944315</v>
+        <v>11.62655593991444</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6752,7 +7300,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>12.22568229185133</v>
+        <v>11.62655593991444</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6761,7 +7309,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>13.10712684635101</v>
+        <v>15.65423524187683</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6770,7 +7318,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>13.29946376061096</v>
+        <v>15.65423524187683</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6779,7 +7327,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>13.3991819996243</v>
+        <v>15.65423524187683</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6788,7 +7336,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>12.72092610098411</v>
+        <v>21.05405366258792</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6797,7 +7345,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>13.63467474421595</v>
+        <v>21.05405366258792</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6806,7 +7354,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>14.5093647020952</v>
+        <v>21.05405366258792</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6815,7 +7363,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>16.72577432249714</v>
+        <v>22.74505060749882</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6824,7 +7372,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>15.86866940149544</v>
+        <v>22.74505060749882</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6833,7 +7381,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>15.9104164237371</v>
+        <v>22.74505060749882</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6842,7 +7390,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>16.8436777627795</v>
+        <v>23.20115679414409</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6851,7 +7399,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>16.67722502396203</v>
+        <v>23.20115679414409</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6860,7 +7408,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>16.26218077720221</v>
+        <v>23.20115679414409</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6869,7 +7417,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>16.94387502072896</v>
+        <v>25.40810428707413</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6878,7 +7426,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>16.56796109002093</v>
+        <v>25.40810428707413</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6887,7 +7435,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>16.53447356160669</v>
+        <v>25.40810428707413</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6896,7 +7444,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>16.74794941203636</v>
+        <v>25.30422768472442</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6905,7 +7453,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>17.22298524613307</v>
+        <v>25.30422768472442</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6914,7 +7462,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>16.7469021832908</v>
+        <v>25.30422768472442</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6923,7 +7471,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>16.62759106661681</v>
+        <v>27.14855932906384</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6932,7 +7480,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>14.50397446288157</v>
+        <v>27.14855932906384</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6941,7 +7489,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>14.68376773510271</v>
+        <v>27.14855932906384</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6950,7 +7498,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>15.98035155633691</v>
+        <v>27.67430603695745</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6959,7 +7507,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>16.54461750151459</v>
+        <v>27.67430603695745</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6968,7 +7516,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>16.78478635178815</v>
+        <v>27.67430603695745</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6977,7 +7525,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>16.40724601227004</v>
+        <v>27.97934610523305</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6986,7 +7534,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>15.93910300315077</v>
+        <v>27.97934610523305</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6995,7 +7543,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>16.43409752516922</v>
+        <v>27.97934610523305</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7004,7 +7552,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>16.75418409002822</v>
+        <v>27.65435368499809</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7013,7 +7561,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>16.6975604370952</v>
+        <v>27.65435368499809</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7022,7 +7570,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>16.34219241469895</v>
+        <v>27.65435368499809</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7031,7 +7579,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>15.86790439408837</v>
+        <v>27.56203320720608</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7040,7 +7588,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>14.2952111609784</v>
+        <v>27.56203320720608</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7049,7 +7597,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>14.96947036346313</v>
+        <v>27.56203320720608</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7058,7 +7606,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>15.3206398934998</v>
+        <v>27.26440619519542</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7067,7 +7615,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>15.81135568483846</v>
+        <v>27.26440619519542</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7076,7 +7624,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>15.41747207925045</v>
+        <v>27.26440619519542</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7085,7 +7633,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>15.16368836486626</v>
+        <v>24.84643258567246</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7094,7 +7642,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>12.49330697974148</v>
+        <v>24.84643258567246</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7103,7 +7651,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>12.95452115822082</v>
+        <v>24.84643258567246</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7112,7 +7660,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>12.49847133471628</v>
+        <v>21.77701353348105</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7121,7 +7669,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>12.2875817791736</v>
+        <v>21.77701353348105</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7130,7 +7678,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>11.85149129544288</v>
+        <v>21.77701353348105</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7139,7 +7687,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>11.515138827</v>
+        <v>19.46201593457533</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7148,7 +7696,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>9.881593443025304</v>
+        <v>19.46201593457533</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7157,7 +7705,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>11.0217675556645</v>
+        <v>19.46201593457533</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7166,7 +7714,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>9.654218707530935</v>
+        <v>12.94521732350342</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7175,7 +7723,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>8.821318761920159</v>
+        <v>12.94521732350342</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7184,7 +7732,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>8.465980482481839</v>
+        <v>12.94521732350342</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7193,7 +7741,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>7.99178372458737</v>
+        <v>15.43260710294001</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7202,7 +7750,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>7.390954350760942</v>
+        <v>15.43260710294001</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7211,7 +7759,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>8.125693342005084</v>
+        <v>15.43260710294001</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7220,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>7.18375450860669</v>
+        <v>14.65702911152816</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7229,7 +7777,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>7.54765157850645</v>
+        <v>14.65702911152816</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7238,7 +7786,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>8.533668672732192</v>
+        <v>14.65702911152816</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7247,7 +7795,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>8.9685307504687</v>
+        <v>13.68101037150005</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7256,7 +7804,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>8.985070488081421</v>
+        <v>13.68101037150005</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7265,7 +7813,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>8.692118296526731</v>
+        <v>13.68101037150005</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7274,7 +7822,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>7.497263665218138</v>
+        <v>13.64648940834579</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7283,7 +7831,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>7.789845480808296</v>
+        <v>13.64648940834579</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7292,7 +7840,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>7.502330921446398</v>
+        <v>13.64648940834579</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7301,7 +7849,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>7.037393493421281</v>
+        <v>11.52753944406926</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7310,7 +7858,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>7.25004633271283</v>
+        <v>11.52753944406926</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7319,7 +7867,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>7.94064249997747</v>
+        <v>11.52753944406926</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7328,7 +7876,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>8.044709672914108</v>
+        <v>11.14612320905379</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7337,7 +7885,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>7.73779855685797</v>
+        <v>11.14612320905379</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7346,7 +7894,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>7.847433611387138</v>
+        <v>11.14612320905379</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7355,7 +7903,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>8.977522619483221</v>
+        <v>9.493789510717985</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7364,7 +7912,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>7.984021922434962</v>
+        <v>9.493789510717985</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7373,7 +7921,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>8.556649025559588</v>
+        <v>9.493789510717985</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7382,7 +7930,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>8.646601724626318</v>
+        <v>11.08575949643879</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7391,7 +7939,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>8.410141604653447</v>
+        <v>11.08575949643879</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7400,7 +7948,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>9.817512514461219</v>
+        <v>11.08575949643879</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7409,7 +7957,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>9.954379861663908</v>
+        <v>9.409393152449752</v>
       </c>
     </row>
     <row r="145">
@@ -7417,7 +7965,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>10.88467443037831</v>
+        <v>9.409393152449752</v>
       </c>
     </row>
     <row r="146">
@@ -7464,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-22.03375557043207</v>
+        <v>-37.30980694619689</v>
       </c>
     </row>
     <row r="3">
@@ -7472,7 +8020,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-22.4229232288815</v>
+        <v>-37.27128971127001</v>
       </c>
     </row>
     <row r="4">
@@ -7480,7 +8028,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-22.04205090377474</v>
+        <v>-37.27128971127001</v>
       </c>
     </row>
     <row r="5">
@@ -7488,7 +8036,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-22.03753927178938</v>
+        <v>-37.27128971127001</v>
       </c>
     </row>
     <row r="6">
@@ -7496,7 +8044,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-22.3510317303869</v>
+        <v>-37.21411119690217</v>
       </c>
     </row>
     <row r="7">
@@ -7504,7 +8052,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-22.0814889968004</v>
+        <v>-37.21411119690217</v>
       </c>
     </row>
     <row r="8">
@@ -7512,7 +8060,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-22.63971193683079</v>
+        <v>-37.21411119690217</v>
       </c>
     </row>
     <row r="9">
@@ -7520,7 +8068,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-22.33861523130604</v>
+        <v>-37.65155168675199</v>
       </c>
     </row>
     <row r="10">
@@ -7528,7 +8076,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-22.05206154053679</v>
+        <v>-37.65155168675199</v>
       </c>
     </row>
     <row r="11">
@@ -7536,7 +8084,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-22.48234320536234</v>
+        <v>-37.65155168675199</v>
       </c>
     </row>
     <row r="12">
@@ -7544,7 +8092,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-22.9963862786106</v>
+        <v>-37.79447580064397</v>
       </c>
     </row>
     <row r="13">
@@ -7552,7 +8100,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-22.51324712026558</v>
+        <v>-37.79447580064397</v>
       </c>
     </row>
     <row r="14">
@@ -7560,7 +8108,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-22.24180588110751</v>
+        <v>-37.79447580064397</v>
       </c>
     </row>
     <row r="15">
@@ -7568,7 +8116,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-22.45828954705187</v>
+        <v>-37.72936628261028</v>
       </c>
     </row>
     <row r="16">
@@ -7576,7 +8124,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-22.68298849706131</v>
+        <v>-37.72936628261028</v>
       </c>
     </row>
     <row r="17">
@@ -7584,7 +8132,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-22.34599928086965</v>
+        <v>-37.72936628261028</v>
       </c>
     </row>
     <row r="18">
@@ -7592,7 +8140,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-22.30658391328051</v>
+        <v>-38.06472525431609</v>
       </c>
     </row>
     <row r="19">
@@ -7600,7 +8148,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-22.72745408655747</v>
+        <v>-38.06472525431609</v>
       </c>
     </row>
     <row r="20">
@@ -7608,7 +8156,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-23.32247191041367</v>
+        <v>-38.06472525431609</v>
       </c>
     </row>
     <row r="21">
@@ -7616,7 +8164,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-22.69002954254216</v>
+        <v>-37.77371237207807</v>
       </c>
     </row>
     <row r="22">
@@ -7624,7 +8172,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-22.87294306312277</v>
+        <v>-37.77371237207807</v>
       </c>
     </row>
     <row r="23">
@@ -7632,7 +8180,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-22.58805355530733</v>
+        <v>-37.77371237207807</v>
       </c>
     </row>
     <row r="24">
@@ -7640,7 +8188,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-23.18880273047973</v>
+        <v>-39.2704074503981</v>
       </c>
     </row>
     <row r="25">
@@ -7648,7 +8196,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-23.7124511383596</v>
+        <v>-39.2704074503981</v>
       </c>
     </row>
     <row r="26">
@@ -7656,7 +8204,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-23.69718794851453</v>
+        <v>-39.2704074503981</v>
       </c>
     </row>
     <row r="27">
@@ -7664,7 +8212,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-24.28215843804828</v>
+        <v>-41.64312913716112</v>
       </c>
     </row>
     <row r="28">
@@ -7672,7 +8220,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-24.70191503023877</v>
+        <v>-41.64312913716112</v>
       </c>
     </row>
     <row r="29">
@@ -7680,7 +8228,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-24.5368687636635</v>
+        <v>-41.64312913716112</v>
       </c>
     </row>
     <row r="30">
@@ -7688,7 +8236,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-25.12830533335477</v>
+        <v>-42.77925037130283</v>
       </c>
     </row>
     <row r="31">
@@ -7696,7 +8244,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-24.5915125609838</v>
+        <v>-42.77925037130283</v>
       </c>
     </row>
     <row r="32">
@@ -7704,7 +8252,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-25.28076977429601</v>
+        <v>-42.77925037130283</v>
       </c>
     </row>
     <row r="33">
@@ -7712,7 +8260,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-25.87609213220876</v>
+        <v>-44.84944611738273</v>
       </c>
     </row>
     <row r="34">
@@ -7720,7 +8268,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-25.70152628710454</v>
+        <v>-44.84944611738273</v>
       </c>
     </row>
     <row r="35">
@@ -7728,7 +8276,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-25.69104048615697</v>
+        <v>-44.84944611738273</v>
       </c>
     </row>
     <row r="36">
@@ -7736,7 +8284,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-26.05037883845726</v>
+        <v>-45.26346857547021</v>
       </c>
     </row>
     <row r="37">
@@ -7744,7 +8292,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-26.05251505231518</v>
+        <v>-45.26346857547021</v>
       </c>
     </row>
     <row r="38">
@@ -7752,7 +8300,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-25.18692818448261</v>
+        <v>-45.26346857547021</v>
       </c>
     </row>
     <row r="39">
@@ -7760,7 +8308,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-25.52409614241249</v>
+        <v>-47.30254361829549</v>
       </c>
     </row>
     <row r="40">
@@ -7768,7 +8316,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-25.5822244765054</v>
+        <v>-47.30254361829549</v>
       </c>
     </row>
     <row r="41">
@@ -7776,7 +8324,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-25.71907127551038</v>
+        <v>-47.30254361829549</v>
       </c>
     </row>
     <row r="42">
@@ -7784,7 +8332,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-25.04489739510528</v>
+        <v>-47.27614139972131</v>
       </c>
     </row>
     <row r="43">
@@ -7792,7 +8340,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-25.41167268311551</v>
+        <v>-47.27614139972131</v>
       </c>
     </row>
     <row r="44">
@@ -7800,7 +8348,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-25.50912452797175</v>
+        <v>-47.27614139972131</v>
       </c>
     </row>
     <row r="45">
@@ -7808,7 +8356,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-25.68714933742057</v>
+        <v>-46.30381142330157</v>
       </c>
     </row>
     <row r="46">
@@ -7816,7 +8364,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-25.66677472378066</v>
+        <v>-46.30381142330157</v>
       </c>
     </row>
     <row r="47">
@@ -7824,7 +8372,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-25.07481666796757</v>
+        <v>-46.30381142330157</v>
       </c>
     </row>
     <row r="48">
@@ -7832,7 +8380,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-25.38723782912704</v>
+        <v>-46.94246009040064</v>
       </c>
     </row>
     <row r="49">
@@ -7840,7 +8388,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-25.38872503688893</v>
+        <v>-46.94246009040064</v>
       </c>
     </row>
     <row r="50">
@@ -7848,7 +8396,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-25.53691088847686</v>
+        <v>-46.94246009040064</v>
       </c>
     </row>
     <row r="51">
@@ -7856,7 +8404,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-25.50566358306088</v>
+        <v>-46.49509735696358</v>
       </c>
     </row>
     <row r="52">
@@ -7864,7 +8412,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-25.65538646968989</v>
+        <v>-46.49509735696358</v>
       </c>
     </row>
     <row r="53">
@@ -7872,7 +8420,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-25.49768214070917</v>
+        <v>-46.49509735696358</v>
       </c>
     </row>
     <row r="54">
@@ -7880,7 +8428,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-24.60003782624585</v>
+        <v>-45.99351592685304</v>
       </c>
     </row>
     <row r="55">
@@ -7888,7 +8436,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-24.85384298927111</v>
+        <v>-45.99351592685304</v>
       </c>
     </row>
     <row r="56">
@@ -7896,7 +8444,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-24.69450009917809</v>
+        <v>-45.99351592685304</v>
       </c>
     </row>
     <row r="57">
@@ -7904,7 +8452,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-24.73482448044958</v>
+        <v>-45.22367157920822</v>
       </c>
     </row>
     <row r="58">
@@ -7912,7 +8460,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-24.44244566140366</v>
+        <v>-45.22367157920822</v>
       </c>
     </row>
     <row r="59">
@@ -7920,7 +8468,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-25.02453992639562</v>
+        <v>-45.22367157920822</v>
       </c>
     </row>
     <row r="60">
@@ -7928,7 +8476,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-23.85042963616137</v>
+        <v>-44.75939743138623</v>
       </c>
     </row>
     <row r="61">
@@ -7936,7 +8484,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-23.61318733013944</v>
+        <v>-44.75939743138623</v>
       </c>
     </row>
     <row r="62">
@@ -7944,7 +8492,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-23.7622701241798</v>
+        <v>-44.75939743138623</v>
       </c>
     </row>
     <row r="63">
@@ -7952,7 +8500,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-23.5897953712509</v>
+        <v>-42.53905736294053</v>
       </c>
     </row>
     <row r="64">
@@ -7960,7 +8508,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-23.56766060482244</v>
+        <v>-42.53905736294053</v>
       </c>
     </row>
     <row r="65">
@@ -7968,7 +8516,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-23.63989843451965</v>
+        <v>-42.53905736294053</v>
       </c>
     </row>
     <row r="66">
@@ -7976,7 +8524,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-22.79387463513764</v>
+        <v>-41.69136890169295</v>
       </c>
     </row>
     <row r="67">
@@ -7984,7 +8532,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-22.75094675539132</v>
+        <v>-41.69136890169295</v>
       </c>
     </row>
     <row r="68">
@@ -7992,7 +8540,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-22.96147378030178</v>
+        <v>-41.69136890169295</v>
       </c>
     </row>
     <row r="69">
@@ -8000,7 +8548,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-21.91047385474271</v>
+        <v>-40.55843982557285</v>
       </c>
     </row>
     <row r="70">
@@ -8008,7 +8556,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-21.97504896776948</v>
+        <v>-40.55843982557285</v>
       </c>
     </row>
     <row r="71">
@@ -8016,7 +8564,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-21.82857743297986</v>
+        <v>-40.55843982557285</v>
       </c>
     </row>
     <row r="72">
@@ -8024,7 +8572,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-21.68034961538364</v>
+        <v>-38.50719631898861</v>
       </c>
     </row>
     <row r="73">
@@ -8032,7 +8580,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-21.64943938432751</v>
+        <v>-38.50719631898861</v>
       </c>
     </row>
     <row r="74">
@@ -8040,7 +8588,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-21.1382413825195</v>
+        <v>-38.50719631898861</v>
       </c>
     </row>
     <row r="75">
@@ -8048,7 +8596,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-20.98454442684124</v>
+        <v>-36.33646396419106</v>
       </c>
     </row>
     <row r="76">
@@ -8056,7 +8604,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-21.11813858735766</v>
+        <v>-36.33646396419106</v>
       </c>
     </row>
     <row r="77">
@@ -8064,7 +8612,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-21.09510850241261</v>
+        <v>-36.33646396419106</v>
       </c>
     </row>
     <row r="78">
@@ -8072,7 +8620,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-20.81060427308525</v>
+        <v>-35.23647823412157</v>
       </c>
     </row>
     <row r="79">
@@ -8080,7 +8628,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-20.54670355635929</v>
+        <v>-35.23647823412157</v>
       </c>
     </row>
     <row r="80">
@@ -8088,7 +8636,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-20.31879132280655</v>
+        <v>-35.23647823412157</v>
       </c>
     </row>
     <row r="81">
@@ -8096,7 +8644,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-20.46467688772699</v>
+        <v>-35.12744685290871</v>
       </c>
     </row>
     <row r="82">
@@ -8104,7 +8652,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-20.7362922531238</v>
+        <v>-35.12744685290871</v>
       </c>
     </row>
     <row r="83">
@@ -8112,7 +8660,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-20.15526697987542</v>
+        <v>-35.12744685290871</v>
       </c>
     </row>
     <row r="84">
@@ -8120,7 +8668,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-20.41542200404637</v>
+        <v>-34.72601628675205</v>
       </c>
     </row>
     <row r="85">
@@ -8128,7 +8676,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-20.35297847691152</v>
+        <v>-34.72601628675205</v>
       </c>
     </row>
     <row r="86">
@@ -8136,7 +8684,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-19.96463267413516</v>
+        <v>-34.72601628675205</v>
       </c>
     </row>
     <row r="87">
@@ -8144,7 +8692,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-20.54478844243659</v>
+        <v>-34.40714108293188</v>
       </c>
     </row>
     <row r="88">
@@ -8152,7 +8700,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-20.3914696798405</v>
+        <v>-34.40714108293188</v>
       </c>
     </row>
     <row r="89">
@@ -8160,7 +8708,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-20.16630918858938</v>
+        <v>-34.40714108293188</v>
       </c>
     </row>
     <row r="90">
@@ -8168,7 +8716,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-19.96096483764649</v>
+        <v>-34.25326297996312</v>
       </c>
     </row>
     <row r="91">
@@ -8176,7 +8724,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-21.39239022798072</v>
+        <v>-34.25326297996312</v>
       </c>
     </row>
     <row r="92">
@@ -8184,7 +8732,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-20.86895060413648</v>
+        <v>-34.25326297996312</v>
       </c>
     </row>
     <row r="93">
@@ -8192,7 +8740,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-20.41358848582286</v>
+        <v>-34.14084636287022</v>
       </c>
     </row>
     <row r="94">
@@ -8200,7 +8748,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-20.15644267805192</v>
+        <v>-34.14084636287022</v>
       </c>
     </row>
     <row r="95">
@@ -8208,7 +8756,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-20.02332042103755</v>
+        <v>-34.14084636287022</v>
       </c>
     </row>
     <row r="96">
@@ -8216,7 +8764,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-19.85365802741276</v>
+        <v>-33.93687069113555</v>
       </c>
     </row>
     <row r="97">
@@ -8224,7 +8772,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-20.36841432130666</v>
+        <v>-33.93687069113555</v>
       </c>
     </row>
     <row r="98">
@@ -8232,7 +8780,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-20.18024156089914</v>
+        <v>-33.93687069113555</v>
       </c>
     </row>
     <row r="99">
@@ -8240,7 +8788,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-20.45422207409193</v>
+        <v>-34.00410279581511</v>
       </c>
     </row>
     <row r="100">
@@ -8248,7 +8796,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-20.41897209714831</v>
+        <v>-34.00410279581511</v>
       </c>
     </row>
     <row r="101">
@@ -8256,7 +8804,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-20.18344433266719</v>
+        <v>-34.00410279581511</v>
       </c>
     </row>
     <row r="102">
@@ -8264,7 +8812,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-20.53428416755962</v>
+        <v>-34.06688503323829</v>
       </c>
     </row>
     <row r="103">
@@ -8272,7 +8820,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-21.70742498858114</v>
+        <v>-34.06688503323829</v>
       </c>
     </row>
     <row r="104">
@@ -8280,7 +8828,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-21.15148822053568</v>
+        <v>-34.06688503323829</v>
       </c>
     </row>
     <row r="105">
@@ -8288,7 +8836,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-20.79951169646219</v>
+        <v>-34.02949581534075</v>
       </c>
     </row>
     <row r="106">
@@ -8296,7 +8844,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-20.40417983488968</v>
+        <v>-34.02949581534075</v>
       </c>
     </row>
     <row r="107">
@@ -8304,7 +8852,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-20.38332025502462</v>
+        <v>-34.02949581534075</v>
       </c>
     </row>
     <row r="108">
@@ -8312,7 +8860,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-20.28715969850755</v>
+        <v>-34.50491436936466</v>
       </c>
     </row>
     <row r="109">
@@ -8320,7 +8868,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-22.50850961475037</v>
+        <v>-34.50491436936466</v>
       </c>
     </row>
     <row r="110">
@@ -8328,7 +8876,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-22.01323293667848</v>
+        <v>-34.50491436936466</v>
       </c>
     </row>
     <row r="111">
@@ -8336,7 +8884,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-22.49266038187752</v>
+        <v>-35.13115010832234</v>
       </c>
     </row>
     <row r="112">
@@ -8344,7 +8892,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-23.15050570222103</v>
+        <v>-35.13115010832234</v>
       </c>
     </row>
     <row r="113">
@@ -8352,7 +8900,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-22.56741759282385</v>
+        <v>-35.13115010832234</v>
       </c>
     </row>
     <row r="114">
@@ -8360,7 +8908,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-23.09453806616366</v>
+        <v>-35.54138930168973</v>
       </c>
     </row>
     <row r="115">
@@ -8368,7 +8916,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-24.0077080555736</v>
+        <v>-35.54138930168973</v>
       </c>
     </row>
     <row r="116">
@@ -8376,7 +8924,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-23.07400974653812</v>
+        <v>-35.54138930168973</v>
       </c>
     </row>
     <row r="117">
@@ -8384,7 +8932,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-23.19557112071148</v>
+        <v>-37.24718517509718</v>
       </c>
     </row>
     <row r="118">
@@ -8392,7 +8940,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-23.51736791907071</v>
+        <v>-37.24718517509718</v>
       </c>
     </row>
     <row r="119">
@@ -8400,7 +8948,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-23.32517697950829</v>
+        <v>-37.24718517509718</v>
       </c>
     </row>
     <row r="120">
@@ -8408,7 +8956,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-22.89956841476846</v>
+        <v>-37.36271433049014</v>
       </c>
     </row>
     <row r="121">
@@ -8416,7 +8964,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-24.05037632069448</v>
+        <v>-37.36271433049014</v>
       </c>
     </row>
     <row r="122">
@@ -8424,7 +8972,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-23.40613441711299</v>
+        <v>-37.36271433049014</v>
       </c>
     </row>
     <row r="123">
@@ -8432,7 +8980,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-24.02759380910843</v>
+        <v>-39.41474070917288</v>
       </c>
     </row>
     <row r="124">
@@ -8440,7 +8988,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-24.02461365655429</v>
+        <v>-39.41474070917288</v>
       </c>
     </row>
     <row r="125">
@@ -8448,7 +8996,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-24.03917789659889</v>
+        <v>-39.41474070917288</v>
       </c>
     </row>
     <row r="126">
@@ -8456,7 +9004,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-23.30195460526541</v>
+        <v>-39.02794212227184</v>
       </c>
     </row>
     <row r="127">
@@ -8464,7 +9012,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-23.93170424349078</v>
+        <v>-39.02794212227184</v>
       </c>
     </row>
     <row r="128">
@@ -8472,7 +9020,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-23.91636458932208</v>
+        <v>-39.02794212227184</v>
       </c>
     </row>
     <row r="129">
@@ -8480,7 +9028,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-23.88307648654366</v>
+        <v>-38.58455825859594</v>
       </c>
     </row>
     <row r="130">
@@ -8488,7 +9036,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-23.99904946991769</v>
+        <v>-38.58455825859594</v>
       </c>
     </row>
     <row r="131">
@@ -8496,7 +9044,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-23.59157911650547</v>
+        <v>-38.58455825859594</v>
       </c>
     </row>
     <row r="132">
@@ -8504,7 +9052,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-23.59486466723517</v>
+        <v>-39.57880438910085</v>
       </c>
     </row>
     <row r="133">
@@ -8512,7 +9060,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-23.91827145550704</v>
+        <v>-39.57880438910085</v>
       </c>
     </row>
     <row r="134">
@@ -8520,7 +9068,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-23.46288790304018</v>
+        <v>-39.57880438910085</v>
       </c>
     </row>
     <row r="135">
@@ -8528,7 +9076,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-23.34602021576006</v>
+        <v>-38.03040634978991</v>
       </c>
     </row>
     <row r="136">
@@ -8536,7 +9084,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-22.82222763981111</v>
+        <v>-38.03040634978991</v>
       </c>
     </row>
     <row r="137">
@@ -8544,7 +9092,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-22.84207774783958</v>
+        <v>-38.03040634978991</v>
       </c>
     </row>
     <row r="138">
@@ -8552,7 +9100,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-23.41830375545694</v>
+        <v>-37.25013158778873</v>
       </c>
     </row>
     <row r="139">
@@ -8560,7 +9108,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-23.21928919679591</v>
+        <v>-37.25013158778873</v>
       </c>
     </row>
     <row r="140">
@@ -8568,7 +9116,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-23.04648279190121</v>
+        <v>-37.25013158778873</v>
       </c>
     </row>
     <row r="141">
@@ -8576,7 +9124,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-22.65924708696605</v>
+        <v>-36.48014472562313</v>
       </c>
     </row>
     <row r="142">
@@ -8584,7 +9132,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-22.29551467912674</v>
+        <v>-36.48014472562313</v>
       </c>
     </row>
     <row r="143">
@@ -8592,7 +9140,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-23.2677634173459</v>
+        <v>-36.48014472562313</v>
       </c>
     </row>
     <row r="144">
@@ -8600,7 +9148,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-22.26786645236588</v>
+        <v>-37.30980694619689</v>
       </c>
     </row>
     <row r="145">
@@ -8608,7 +9156,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-22.07629105810725</v>
+        <v>-37.30980694619689</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix17.xlsx
+++ b/testcases/timeseries/EVDay01_mix17.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016005828</v>
+        <v>2014006586</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012000780</v>
+        <v>2013006148</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2014008164</v>
+        <v>2013008010</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2016005976</v>
+        <v>2014008357</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2013004510</v>
+        <v>2014001771</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2016003649</v>
+        <v>2015007308</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2014006375</v>
+        <v>2014002754</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2013006005</v>
+        <v>2013005335</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2012002526</v>
+        <v>2015008172</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2012007475</v>
+        <v>2016008096</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2157,7 +2157,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2175,348 +2175,6 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2014006938</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>40</v>
-      </c>
-      <c r="G12" t="n">
-        <v>250</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2013003248</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>24</v>
-      </c>
-      <c r="G13" t="n">
-        <v>250</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2014001895</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>30</v>
-      </c>
-      <c r="G14" t="n">
-        <v>250</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2015007327</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>75</v>
-      </c>
-      <c r="G15" t="n">
-        <v>250</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2013009022</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>24</v>
-      </c>
-      <c r="G16" t="n">
-        <v>250</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2012001406</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>75</v>
-      </c>
-      <c r="G17" t="n">
-        <v>250</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2012010198</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>30</v>
-      </c>
-      <c r="G18" t="n">
-        <v>250</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2012009662</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>75</v>
-      </c>
-      <c r="G19" t="n">
-        <v>250</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2015000574</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>60</v>
-      </c>
-      <c r="G20" t="n">
-        <v>250</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2531,7 +2189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="A2:E29"/>
@@ -2571,33 +2229,33 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2016005828</v>
+        <v>2014006586</v>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D2" t="n">
-        <v>16.81744897957741</v>
+        <v>25.01704406054121</v>
       </c>
       <c r="E2" t="n">
-        <v>19.99865813392349</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2016005828</v>
+        <v>2013006148</v>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="D3" t="n">
-        <v>23.17923659824407</v>
+        <v>20.44335859824408</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -2605,118 +2263,118 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2016005828</v>
+        <v>2013008010</v>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D4" t="n">
-        <v>23.17923660000001</v>
+        <v>56.298518</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2012000780</v>
+        <v>2014008357</v>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D5" t="n">
-        <v>23.0424427</v>
+        <v>52.75796999566239</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2012000780</v>
+        <v>2014001771</v>
       </c>
       <c r="B6" t="n">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D6" t="n">
-        <v>22.83725185</v>
+        <v>71.83281886327788</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2014008164</v>
+        <v>2015007308</v>
       </c>
       <c r="B7" t="n">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D7" t="n">
-        <v>20.58857967446736</v>
+        <v>33.9810678605412</v>
       </c>
       <c r="E7" t="n">
-        <v>21.6739130078007</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2016005976</v>
+        <v>2014002754</v>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D8" t="n">
-        <v>28.33916112</v>
+        <v>20.52543494</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2016005976</v>
+        <v>2013005335</v>
       </c>
       <c r="B9" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D9" t="n">
-        <v>25.57109632</v>
+        <v>4.775</v>
       </c>
       <c r="E9" t="n">
-        <v>26.33547335748688</v>
+        <v>29.45733332780069</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2016005976</v>
+        <v>2015008172</v>
       </c>
       <c r="B10" t="n">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="C10" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D10" t="n">
-        <v>28.33916112</v>
+        <v>29.44638703446735</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
@@ -2724,360 +2382,74 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2013004510</v>
+        <v>2016008096</v>
       </c>
       <c r="B11" t="n">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D11" t="n">
-        <v>21.264122</v>
+        <v>50.57021878327788</v>
       </c>
       <c r="E11" t="n">
-        <v>23.96270921854361</v>
+        <v>74.40504685861815</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n">
-        <v>2016003649</v>
-      </c>
-      <c r="B12" t="n">
-        <v>32</v>
-      </c>
-      <c r="C12" t="n">
-        <v>118</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19.62259519824406</v>
-      </c>
-      <c r="E12" t="n">
-        <v>24</v>
-      </c>
+      <c r="A12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n">
-        <v>2014006375</v>
-      </c>
-      <c r="B13" t="n">
-        <v>25</v>
-      </c>
-      <c r="C13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" t="n">
-        <v>55.6547819956624</v>
-      </c>
-      <c r="E13" t="n">
-        <v>60</v>
-      </c>
+      <c r="A13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
-        <v>2013006005</v>
-      </c>
-      <c r="B14" t="n">
-        <v>26</v>
-      </c>
-      <c r="C14" t="n">
-        <v>143</v>
-      </c>
-      <c r="D14" t="n">
-        <v>20.86538616</v>
-      </c>
-      <c r="E14" t="n">
-        <v>29.99999999446734</v>
-      </c>
+      <c r="A14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n">
-        <v>2012002526</v>
-      </c>
-      <c r="B15" t="n">
-        <v>15</v>
-      </c>
-      <c r="C15" t="n">
-        <v>24</v>
-      </c>
-      <c r="D15" t="n">
-        <v>66.11644319999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>70.89459753049745</v>
-      </c>
+      <c r="A15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n">
-        <v>2012002526</v>
-      </c>
-      <c r="B16" t="n">
-        <v>38</v>
-      </c>
-      <c r="C16" t="n">
-        <v>45</v>
-      </c>
-      <c r="D16" t="n">
-        <v>74.22751679999998</v>
-      </c>
-      <c r="E16" t="n">
-        <v>75</v>
-      </c>
+      <c r="A16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n">
-        <v>2012002526</v>
-      </c>
-      <c r="B17" t="n">
-        <v>60</v>
-      </c>
-      <c r="C17" t="n">
-        <v>108</v>
-      </c>
-      <c r="D17" t="n">
-        <v>74.22751679999998</v>
-      </c>
-      <c r="E17" t="n">
-        <v>75</v>
-      </c>
+      <c r="A17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n">
-        <v>2012007475</v>
-      </c>
-      <c r="B18" t="n">
-        <v>22</v>
-      </c>
-      <c r="C18" t="n">
-        <v>116</v>
-      </c>
-      <c r="D18" t="n">
-        <v>54.81792519566239</v>
-      </c>
-      <c r="E18" t="n">
-        <v>60</v>
-      </c>
+      <c r="A18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n">
-        <v>2014006938</v>
-      </c>
-      <c r="B19" t="n">
-        <v>15</v>
-      </c>
-      <c r="C19" t="n">
-        <v>117</v>
-      </c>
-      <c r="D19" t="n">
-        <v>28.8553199605412</v>
-      </c>
-      <c r="E19" t="n">
-        <v>39.99999946054122</v>
-      </c>
+      <c r="A19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n">
-        <v>2013003248</v>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" t="n">
-        <v>23.45282439824406</v>
-      </c>
-      <c r="E20" t="n">
-        <v>24</v>
-      </c>
+      <c r="A20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n">
-        <v>2013003248</v>
-      </c>
-      <c r="B21" t="n">
-        <v>30</v>
-      </c>
-      <c r="C21" t="n">
-        <v>39</v>
-      </c>
-      <c r="D21" t="n">
-        <v>23.4528244</v>
-      </c>
-      <c r="E21" t="n">
-        <v>24</v>
-      </c>
+      <c r="A21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n">
-        <v>2013003248</v>
-      </c>
-      <c r="B22" t="n">
-        <v>57</v>
-      </c>
-      <c r="C22" t="n">
-        <v>119</v>
-      </c>
-      <c r="D22" t="n">
-        <v>17.4338928</v>
-      </c>
-      <c r="E22" t="n">
-        <v>23.99999999824405</v>
-      </c>
+      <c r="A22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="n">
-        <v>2014001895</v>
-      </c>
-      <c r="B23" t="n">
-        <v>39</v>
-      </c>
-      <c r="C23" t="n">
-        <v>110</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.775</v>
-      </c>
-      <c r="E23" t="n">
-        <v>29.56586666113403</v>
-      </c>
+      <c r="A23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n">
-        <v>2015007327</v>
-      </c>
-      <c r="B24" t="n">
-        <v>60</v>
-      </c>
-      <c r="C24" t="n">
-        <v>143</v>
-      </c>
-      <c r="D24" t="n">
-        <v>71.11344388327787</v>
-      </c>
-      <c r="E24" t="n">
-        <v>75</v>
-      </c>
+      <c r="A24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="n">
-        <v>2013009022</v>
-      </c>
-      <c r="B25" t="n">
-        <v>9</v>
-      </c>
-      <c r="C25" t="n">
-        <v>143</v>
-      </c>
-      <c r="D25" t="n">
-        <v>21.264122</v>
-      </c>
-      <c r="E25" t="n">
-        <v>24</v>
-      </c>
+      <c r="A25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n">
-        <v>2012001406</v>
-      </c>
-      <c r="B26" t="n">
-        <v>29</v>
-      </c>
-      <c r="C26" t="n">
-        <v>111</v>
-      </c>
-      <c r="D26" t="n">
-        <v>64.8418459032779</v>
-      </c>
-      <c r="E26" t="n">
-        <v>75</v>
-      </c>
+      <c r="A26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="n">
-        <v>2012010198</v>
-      </c>
-      <c r="B27" t="n">
-        <v>38</v>
-      </c>
-      <c r="C27" t="n">
-        <v>118</v>
-      </c>
-      <c r="D27" t="n">
-        <v>16.15967599446736</v>
-      </c>
-      <c r="E27" t="n">
-        <v>29.99999999446736</v>
-      </c>
+      <c r="A27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="n">
-        <v>2012009662</v>
-      </c>
-      <c r="B28" t="n">
-        <v>32</v>
-      </c>
-      <c r="C28" t="n">
-        <v>42</v>
-      </c>
-      <c r="D28" t="n">
-        <v>70.44234911999997</v>
-      </c>
-      <c r="E28" t="n">
-        <v>74.16014298073266</v>
-      </c>
+      <c r="A28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="n">
-        <v>2012009662</v>
-      </c>
-      <c r="B29" t="n">
-        <v>44</v>
-      </c>
-      <c r="C29" t="n">
-        <v>114</v>
-      </c>
-      <c r="D29" t="n">
-        <v>74.38201343999999</v>
-      </c>
-      <c r="E29" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2012009662</v>
-      </c>
-      <c r="B30" t="n">
-        <v>119</v>
-      </c>
-      <c r="C30" t="n">
-        <v>126</v>
-      </c>
-      <c r="D30" t="n">
-        <v>73.22328864000001</v>
-      </c>
-      <c r="E30" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2015000574</v>
-      </c>
-      <c r="B31" t="n">
-        <v>33</v>
-      </c>
-      <c r="C31" t="n">
-        <v>111</v>
-      </c>
-      <c r="D31" t="n">
-        <v>52.59703599566242</v>
-      </c>
-      <c r="E31" t="n">
-        <v>60</v>
-      </c>
+      <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3605,7 +2977,7 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -3622,7 +2994,7 @@
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -3639,7 +3011,7 @@
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -6679,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>9.409393152449752</v>
+        <v>5.580171554903844</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6688,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>10.57743757779125</v>
+        <v>5.912001263035268</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6697,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>10.57743757779125</v>
+        <v>5.912001263035268</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6706,7 +6078,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>10.57743757779125</v>
+        <v>5.912001263035268</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6715,7 +6087,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>8.74294668954294</v>
+        <v>4.090122178373615</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6724,7 +6096,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>8.74294668954294</v>
+        <v>4.090122178373615</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6733,7 +6105,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>8.74294668954294</v>
+        <v>4.090122178373615</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6742,7 +6114,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>8.120700698435733</v>
+        <v>2.279101029817278</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6751,7 +6123,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>8.120700698435733</v>
+        <v>2.279101029817278</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6760,7 +6132,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>8.120700698435733</v>
+        <v>2.279101029817278</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6769,7 +6141,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>10.98527159257812</v>
+        <v>1.414255545134607</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6778,7 +6150,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>10.98527159257812</v>
+        <v>1.414255545134607</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6787,7 +6159,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>10.98527159257812</v>
+        <v>1.414255545134607</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6796,7 +6168,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>8.665407037822256</v>
+        <v>1.98097307081945</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6805,7 +6177,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>8.665407037822256</v>
+        <v>1.98097307081945</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6814,7 +6186,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>8.665407037822256</v>
+        <v>1.98097307081945</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6823,7 +6195,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>9.598912053482547</v>
+        <v>2.153001706570424</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6832,7 +6204,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>9.598912053482547</v>
+        <v>2.153001706570424</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6841,7 +6213,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>9.598912053482547</v>
+        <v>2.153001706570424</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6850,7 +6222,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>10.04337816236504</v>
+        <v>3.962942427797981</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6859,7 +6231,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>10.04337816236504</v>
+        <v>3.962942427797981</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6868,7 +6240,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>10.04337816236504</v>
+        <v>3.962942427797981</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6877,7 +6249,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>8.724786686749317</v>
+        <v>4.408806310274318</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6886,7 +6258,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>8.724786686749317</v>
+        <v>4.408806310274318</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6895,7 +6267,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>8.724786686749317</v>
+        <v>4.408806310274318</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6904,7 +6276,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2.369632383072647</v>
+        <v>3.063297284712893</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6913,7 +6285,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2.369632383072647</v>
+        <v>3.063297284712893</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6922,7 +6294,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.369632383072647</v>
+        <v>3.063297284712893</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6931,7 +6303,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.9080025665694434</v>
+        <v>0</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6940,7 +6312,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.9080025665694434</v>
+        <v>0</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6949,7 +6321,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.9080025665694434</v>
+        <v>0</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -7093,7 +6465,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>2.809210607282325</v>
+        <v>0.4595248674238667</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -7102,7 +6474,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>2.809210607282325</v>
+        <v>0.4595248674238667</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -7111,7 +6483,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>2.809210607282325</v>
+        <v>0.4595248674238667</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -7120,7 +6492,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>2.57769812378289</v>
+        <v>3.102394757973878</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -7129,7 +6501,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>2.57769812378289</v>
+        <v>3.102394757973878</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -7138,7 +6510,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2.57769812378289</v>
+        <v>3.102394757973878</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -7147,7 +6519,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>2.579927307836407</v>
+        <v>4.781956903567682</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -7156,7 +6528,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>2.579927307836407</v>
+        <v>4.781956903567682</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -7165,7 +6537,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>2.579927307836407</v>
+        <v>4.781956903567682</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -7174,7 +6546,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>3.321809855174027</v>
+        <v>6.741583159525963</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -7183,7 +6555,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>3.321809855174027</v>
+        <v>6.741583159525963</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -7192,7 +6564,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.321809855174027</v>
+        <v>6.741583159525963</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -7201,7 +6573,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>6.017916803819404</v>
+        <v>8.665638472108245</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -7210,7 +6582,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>6.017916803819404</v>
+        <v>8.665638472108245</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -7219,7 +6591,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>6.017916803819404</v>
+        <v>8.665638472108245</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -7228,7 +6600,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>7.802545635438406</v>
+        <v>9.107746353216662</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -7237,7 +6609,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>7.802545635438406</v>
+        <v>9.107746353216662</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -7246,7 +6618,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>7.802545635438406</v>
+        <v>9.107746353216662</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -7255,7 +6627,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>10.9321386141337</v>
+        <v>12.20012717279565</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7264,7 +6636,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>10.9321386141337</v>
+        <v>12.20012717279565</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7273,7 +6645,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>10.9321386141337</v>
+        <v>12.20012717279565</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7282,7 +6654,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>11.62655593991444</v>
+        <v>13.17976500627012</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7291,7 +6663,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>11.62655593991444</v>
+        <v>13.17976500627012</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7300,7 +6672,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>11.62655593991444</v>
+        <v>13.17976500627012</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7309,7 +6681,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>15.65423524187683</v>
+        <v>12.97679542937055</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7318,7 +6690,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>15.65423524187683</v>
+        <v>12.97679542937055</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7327,7 +6699,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>15.65423524187683</v>
+        <v>12.97679542937055</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7336,7 +6708,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>21.05405366258792</v>
+        <v>13.56363230987857</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7345,7 +6717,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>21.05405366258792</v>
+        <v>13.56363230987857</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7354,7 +6726,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>21.05405366258792</v>
+        <v>13.56363230987857</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7363,7 +6735,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>22.74505060749882</v>
+        <v>16.51301010669774</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7372,7 +6744,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>22.74505060749882</v>
+        <v>16.51301010669774</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7381,7 +6753,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>22.74505060749882</v>
+        <v>16.51301010669774</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7390,7 +6762,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>23.20115679414409</v>
+        <v>19.1431955733067</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7399,7 +6771,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>23.20115679414409</v>
+        <v>19.1431955733067</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7408,7 +6780,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>23.20115679414409</v>
+        <v>19.1431955733067</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7417,7 +6789,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>25.40810428707413</v>
+        <v>20.35116039278453</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7426,7 +6798,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>25.40810428707413</v>
+        <v>20.35116039278453</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7435,7 +6807,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>25.40810428707413</v>
+        <v>20.35116039278453</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7444,7 +6816,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>25.30422768472442</v>
+        <v>20.61061350613982</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7453,7 +6825,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>25.30422768472442</v>
+        <v>20.61061350613982</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7462,7 +6834,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>25.30422768472442</v>
+        <v>20.61061350613982</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7471,7 +6843,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>27.14855932906384</v>
+        <v>22.18076578632646</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7480,7 +6852,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>27.14855932906384</v>
+        <v>22.18076578632646</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7489,7 +6861,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>27.14855932906384</v>
+        <v>22.18076578632646</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7498,7 +6870,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>27.67430603695745</v>
+        <v>21.941795501357</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7507,7 +6879,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>27.67430603695745</v>
+        <v>21.941795501357</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7516,7 +6888,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>27.67430603695745</v>
+        <v>21.941795501357</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7525,7 +6897,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>27.97934610523305</v>
+        <v>22.15326261208355</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7534,7 +6906,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>27.97934610523305</v>
+        <v>22.15326261208355</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7543,7 +6915,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>27.97934610523305</v>
+        <v>22.15326261208355</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7552,7 +6924,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>27.65435368499809</v>
+        <v>21.28677359339371</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7561,7 +6933,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>27.65435368499809</v>
+        <v>21.28677359339371</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7570,7 +6942,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>27.65435368499809</v>
+        <v>21.28677359339371</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7579,7 +6951,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>27.56203320720608</v>
+        <v>22.31913064859003</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7588,7 +6960,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>27.56203320720608</v>
+        <v>22.31913064859003</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7597,7 +6969,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>27.56203320720608</v>
+        <v>22.31913064859003</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7606,7 +6978,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>27.26440619519542</v>
+        <v>21.80643930255313</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7615,7 +6987,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>27.26440619519542</v>
+        <v>21.80643930255313</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7624,7 +6996,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>27.26440619519542</v>
+        <v>21.80643930255313</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7633,7 +7005,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>24.84643258567246</v>
+        <v>21.3826618271809</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7642,7 +7014,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>24.84643258567246</v>
+        <v>21.3826618271809</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7651,7 +7023,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>24.84643258567246</v>
+        <v>21.3826618271809</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7660,7 +7032,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>21.77701353348105</v>
+        <v>18.30887171027828</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7669,7 +7041,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>21.77701353348105</v>
+        <v>18.30887171027828</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7678,7 +7050,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>21.77701353348105</v>
+        <v>18.30887171027828</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7687,7 +7059,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>19.46201593457533</v>
+        <v>14.43063197419788</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7696,7 +7068,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>19.46201593457533</v>
+        <v>14.43063197419788</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7705,7 +7077,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>19.46201593457533</v>
+        <v>14.43063197419788</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7714,7 +7086,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>12.94521732350342</v>
+        <v>11.99536697997505</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7723,7 +7095,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>12.94521732350342</v>
+        <v>11.99536697997505</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7732,7 +7104,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>12.94521732350342</v>
+        <v>11.99536697997505</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7741,7 +7113,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>15.43260710294001</v>
+        <v>10.1954766613262</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7750,7 +7122,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>15.43260710294001</v>
+        <v>10.1954766613262</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7759,7 +7131,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>15.43260710294001</v>
+        <v>10.1954766613262</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7768,7 +7140,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>14.65702911152816</v>
+        <v>10.55572666574964</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7777,7 +7149,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>14.65702911152816</v>
+        <v>10.55572666574964</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7786,7 +7158,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>14.65702911152816</v>
+        <v>10.55572666574964</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7795,7 +7167,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>13.68101037150005</v>
+        <v>9.551605723963199</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7804,7 +7176,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>13.68101037150005</v>
+        <v>9.551605723963199</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7813,7 +7185,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>13.68101037150005</v>
+        <v>9.551605723963199</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7822,7 +7194,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>13.64648940834579</v>
+        <v>8.074188639855809</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7831,7 +7203,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>13.64648940834579</v>
+        <v>8.074188639855809</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7840,7 +7212,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>13.64648940834579</v>
+        <v>8.074188639855809</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7849,7 +7221,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>11.52753944406926</v>
+        <v>6.845345025147458</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7858,7 +7230,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>11.52753944406926</v>
+        <v>6.845345025147458</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7867,7 +7239,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>11.52753944406926</v>
+        <v>6.845345025147458</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7876,7 +7248,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>11.14612320905379</v>
+        <v>6.447759269642854</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7885,7 +7257,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>11.14612320905379</v>
+        <v>6.447759269642854</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7894,7 +7266,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>11.14612320905379</v>
+        <v>6.447759269642854</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7903,7 +7275,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>9.493789510717985</v>
+        <v>4.380755012730531</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7912,7 +7284,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>9.493789510717985</v>
+        <v>4.380755012730531</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7921,7 +7293,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>9.493789510717985</v>
+        <v>4.380755012730531</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7930,7 +7302,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>11.08575949643879</v>
+        <v>4.645561566825098</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7939,7 +7311,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>11.08575949643879</v>
+        <v>4.645561566825098</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7948,7 +7320,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>11.08575949643879</v>
+        <v>4.645561566825098</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7957,7 +7329,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>9.409393152449752</v>
+        <v>5.580171554903844</v>
       </c>
     </row>
     <row r="145">
@@ -7965,7 +7337,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>9.409393152449752</v>
+        <v>5.580171554903844</v>
       </c>
     </row>
     <row r="146">
@@ -8012,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-37.30980694619689</v>
+        <v>-33.90908588363717</v>
       </c>
     </row>
     <row r="3">
@@ -8020,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-37.27128971127001</v>
+        <v>-33.7576501403771</v>
       </c>
     </row>
     <row r="4">
@@ -8028,7 +7400,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-37.27128971127001</v>
+        <v>-33.7576501403771</v>
       </c>
     </row>
     <row r="5">
@@ -8036,7 +7408,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-37.27128971127001</v>
+        <v>-33.7576501403771</v>
       </c>
     </row>
     <row r="6">
@@ -8044,7 +7416,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-37.21411119690217</v>
+        <v>-33.79921492927999</v>
       </c>
     </row>
     <row r="7">
@@ -8052,7 +7424,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-37.21411119690217</v>
+        <v>-33.79921492927999</v>
       </c>
     </row>
     <row r="8">
@@ -8060,7 +7432,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-37.21411119690217</v>
+        <v>-33.79921492927999</v>
       </c>
     </row>
     <row r="9">
@@ -8068,7 +7440,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-37.65155168675199</v>
+        <v>-33.27527578566244</v>
       </c>
     </row>
     <row r="10">
@@ -8076,7 +7448,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-37.65155168675199</v>
+        <v>-33.27527578566244</v>
       </c>
     </row>
     <row r="11">
@@ -8084,7 +7456,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-37.65155168675199</v>
+        <v>-33.27527578566244</v>
       </c>
     </row>
     <row r="12">
@@ -8092,7 +7464,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-37.79447580064397</v>
+        <v>-33.79324354741119</v>
       </c>
     </row>
     <row r="13">
@@ -8100,7 +7472,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-37.79447580064397</v>
+        <v>-33.79324354741119</v>
       </c>
     </row>
     <row r="14">
@@ -8108,7 +7480,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-37.79447580064397</v>
+        <v>-33.79324354741119</v>
       </c>
     </row>
     <row r="15">
@@ -8116,7 +7488,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-37.72936628261028</v>
+        <v>-33.82001606018427</v>
       </c>
     </row>
     <row r="16">
@@ -8124,7 +7496,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-37.72936628261028</v>
+        <v>-33.82001606018427</v>
       </c>
     </row>
     <row r="17">
@@ -8132,7 +7504,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-37.72936628261028</v>
+        <v>-33.82001606018427</v>
       </c>
     </row>
     <row r="18">
@@ -8140,7 +7512,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-38.06472525431609</v>
+        <v>-34.41354802916437</v>
       </c>
     </row>
     <row r="19">
@@ -8148,7 +7520,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-38.06472525431609</v>
+        <v>-34.41354802916437</v>
       </c>
     </row>
     <row r="20">
@@ -8156,7 +7528,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-38.06472525431609</v>
+        <v>-34.41354802916437</v>
       </c>
     </row>
     <row r="21">
@@ -8164,7 +7536,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-37.77371237207807</v>
+        <v>-34.38977788996059</v>
       </c>
     </row>
     <row r="22">
@@ -8172,7 +7544,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-37.77371237207807</v>
+        <v>-34.38977788996059</v>
       </c>
     </row>
     <row r="23">
@@ -8180,7 +7552,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-37.77371237207807</v>
+        <v>-34.38977788996059</v>
       </c>
     </row>
     <row r="24">
@@ -8188,7 +7560,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-39.2704074503981</v>
+        <v>-33.67306656384281</v>
       </c>
     </row>
     <row r="25">
@@ -8196,7 +7568,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-39.2704074503981</v>
+        <v>-33.67306656384281</v>
       </c>
     </row>
     <row r="26">
@@ -8204,7 +7576,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-39.2704074503981</v>
+        <v>-33.67306656384281</v>
       </c>
     </row>
     <row r="27">
@@ -8212,7 +7584,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-41.64312913716112</v>
+        <v>-34.35817121868426</v>
       </c>
     </row>
     <row r="28">
@@ -8220,7 +7592,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-41.64312913716112</v>
+        <v>-34.35817121868426</v>
       </c>
     </row>
     <row r="29">
@@ -8228,7 +7600,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-41.64312913716112</v>
+        <v>-34.35817121868426</v>
       </c>
     </row>
     <row r="30">
@@ -8236,7 +7608,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-42.77925037130283</v>
+        <v>-36.60917957052283</v>
       </c>
     </row>
     <row r="31">
@@ -8244,7 +7616,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-42.77925037130283</v>
+        <v>-36.60917957052283</v>
       </c>
     </row>
     <row r="32">
@@ -8252,7 +7624,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-42.77925037130283</v>
+        <v>-36.60917957052283</v>
       </c>
     </row>
     <row r="33">
@@ -8260,7 +7632,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-44.84944611738273</v>
+        <v>-38.65231833923064</v>
       </c>
     </row>
     <row r="34">
@@ -8268,7 +7640,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-44.84944611738273</v>
+        <v>-38.65231833923064</v>
       </c>
     </row>
     <row r="35">
@@ -8276,7 +7648,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-44.84944611738273</v>
+        <v>-38.65231833923064</v>
       </c>
     </row>
     <row r="36">
@@ -8284,7 +7656,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-45.26346857547021</v>
+        <v>-40.53348379354535</v>
       </c>
     </row>
     <row r="37">
@@ -8292,7 +7664,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-45.26346857547021</v>
+        <v>-40.53348379354535</v>
       </c>
     </row>
     <row r="38">
@@ -8300,7 +7672,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-45.26346857547021</v>
+        <v>-40.53348379354535</v>
       </c>
     </row>
     <row r="39">
@@ -8308,7 +7680,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-47.30254361829549</v>
+        <v>-40.70820477523109</v>
       </c>
     </row>
     <row r="40">
@@ -8316,7 +7688,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-47.30254361829549</v>
+        <v>-40.70820477523109</v>
       </c>
     </row>
     <row r="41">
@@ -8324,7 +7696,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-47.30254361829549</v>
+        <v>-40.70820477523109</v>
       </c>
     </row>
     <row r="42">
@@ -8332,7 +7704,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-47.27614139972131</v>
+        <v>-39.925818472071</v>
       </c>
     </row>
     <row r="43">
@@ -8340,7 +7712,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-47.27614139972131</v>
+        <v>-39.925818472071</v>
       </c>
     </row>
     <row r="44">
@@ -8348,7 +7720,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-47.27614139972131</v>
+        <v>-39.925818472071</v>
       </c>
     </row>
     <row r="45">
@@ -8356,7 +7728,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-46.30381142330157</v>
+        <v>-40.69913996919318</v>
       </c>
     </row>
     <row r="46">
@@ -8364,7 +7736,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-46.30381142330157</v>
+        <v>-40.69913996919318</v>
       </c>
     </row>
     <row r="47">
@@ -8372,7 +7744,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-46.30381142330157</v>
+        <v>-40.69913996919318</v>
       </c>
     </row>
     <row r="48">
@@ -8380,7 +7752,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-46.94246009040064</v>
+        <v>-39.79205385608015</v>
       </c>
     </row>
     <row r="49">
@@ -8388,7 +7760,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-46.94246009040064</v>
+        <v>-39.79205385608015</v>
       </c>
     </row>
     <row r="50">
@@ -8396,7 +7768,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-46.94246009040064</v>
+        <v>-39.79205385608015</v>
       </c>
     </row>
     <row r="51">
@@ -8404,7 +7776,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-46.49509735696358</v>
+        <v>-39.68632990805184</v>
       </c>
     </row>
     <row r="52">
@@ -8412,7 +7784,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-46.49509735696358</v>
+        <v>-39.68632990805184</v>
       </c>
     </row>
     <row r="53">
@@ -8420,7 +7792,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-46.49509735696358</v>
+        <v>-39.68632990805184</v>
       </c>
     </row>
     <row r="54">
@@ -8428,7 +7800,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-45.99351592685304</v>
+        <v>-38.93699005613119</v>
       </c>
     </row>
     <row r="55">
@@ -8436,7 +7808,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-45.99351592685304</v>
+        <v>-38.93699005613119</v>
       </c>
     </row>
     <row r="56">
@@ -8444,7 +7816,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-45.99351592685304</v>
+        <v>-38.93699005613119</v>
       </c>
     </row>
     <row r="57">
@@ -8452,7 +7824,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-45.22367157920822</v>
+        <v>-38.94599922199192</v>
       </c>
     </row>
     <row r="58">
@@ -8460,7 +7832,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-45.22367157920822</v>
+        <v>-38.94599922199192</v>
       </c>
     </row>
     <row r="59">
@@ -8468,7 +7840,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-45.22367157920822</v>
+        <v>-38.94599922199192</v>
       </c>
     </row>
     <row r="60">
@@ -8476,7 +7848,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-44.75939743138623</v>
+        <v>-37.98180079000671</v>
       </c>
     </row>
     <row r="61">
@@ -8484,7 +7856,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-44.75939743138623</v>
+        <v>-37.98180079000671</v>
       </c>
     </row>
     <row r="62">
@@ -8492,7 +7864,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-44.75939743138623</v>
+        <v>-37.98180079000671</v>
       </c>
     </row>
     <row r="63">
@@ -8500,7 +7872,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-42.53905736294053</v>
+        <v>-36.79296849528959</v>
       </c>
     </row>
     <row r="64">
@@ -8508,7 +7880,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-42.53905736294053</v>
+        <v>-36.79296849528959</v>
       </c>
     </row>
     <row r="65">
@@ -8516,7 +7888,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-42.53905736294053</v>
+        <v>-36.79296849528959</v>
       </c>
     </row>
     <row r="66">
@@ -8524,7 +7896,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-41.69136890169295</v>
+        <v>-34.2165370188927</v>
       </c>
     </row>
     <row r="67">
@@ -8532,7 +7904,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-41.69136890169295</v>
+        <v>-34.2165370188927</v>
       </c>
     </row>
     <row r="68">
@@ -8540,7 +7912,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-41.69136890169295</v>
+        <v>-34.2165370188927</v>
       </c>
     </row>
     <row r="69">
@@ -8548,7 +7920,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-40.55843982557285</v>
+        <v>-32.75442973957465</v>
       </c>
     </row>
     <row r="70">
@@ -8556,7 +7928,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-40.55843982557285</v>
+        <v>-32.75442973957465</v>
       </c>
     </row>
     <row r="71">
@@ -8564,7 +7936,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-40.55843982557285</v>
+        <v>-32.75442973957465</v>
       </c>
     </row>
     <row r="72">
@@ -8572,7 +7944,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-38.50719631898861</v>
+        <v>-33.0750797436465</v>
       </c>
     </row>
     <row r="73">
@@ -8580,7 +7952,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-38.50719631898861</v>
+        <v>-33.0750797436465</v>
       </c>
     </row>
     <row r="74">
@@ -8588,7 +7960,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-38.50719631898861</v>
+        <v>-33.0750797436465</v>
       </c>
     </row>
     <row r="75">
@@ -8596,7 +7968,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-36.33646396419106</v>
+        <v>-33.62809226847431</v>
       </c>
     </row>
     <row r="76">
@@ -8604,7 +7976,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-36.33646396419106</v>
+        <v>-33.62809226847431</v>
       </c>
     </row>
     <row r="77">
@@ -8612,7 +7984,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-36.33646396419106</v>
+        <v>-33.62809226847431</v>
       </c>
     </row>
     <row r="78">
@@ -8620,7 +7992,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-35.23647823412157</v>
+        <v>-32.61195428648134</v>
       </c>
     </row>
     <row r="79">
@@ -8628,7 +8000,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-35.23647823412157</v>
+        <v>-32.61195428648134</v>
       </c>
     </row>
     <row r="80">
@@ -8636,7 +8008,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-35.23647823412157</v>
+        <v>-32.61195428648134</v>
       </c>
     </row>
     <row r="81">
@@ -8644,7 +8016,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-35.12744685290871</v>
+        <v>-31.33178774191258</v>
       </c>
     </row>
     <row r="82">
@@ -8652,7 +8024,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-35.12744685290871</v>
+        <v>-31.33178774191258</v>
       </c>
     </row>
     <row r="83">
@@ -8660,7 +8032,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-35.12744685290871</v>
+        <v>-31.33178774191258</v>
       </c>
     </row>
     <row r="84">
@@ -8668,7 +8040,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-34.72601628675205</v>
+        <v>-30.31179060444894</v>
       </c>
     </row>
     <row r="85">
@@ -8676,7 +8048,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-34.72601628675205</v>
+        <v>-30.31179060444894</v>
       </c>
     </row>
     <row r="86">
@@ -8684,7 +8056,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-34.72601628675205</v>
+        <v>-30.31179060444894</v>
       </c>
     </row>
     <row r="87">
@@ -8692,7 +8064,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-34.40714108293188</v>
+        <v>-30.37093167767584</v>
       </c>
     </row>
     <row r="88">
@@ -8700,7 +8072,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-34.40714108293188</v>
+        <v>-30.37093167767584</v>
       </c>
     </row>
     <row r="89">
@@ -8708,7 +8080,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-34.40714108293188</v>
+        <v>-30.37093167767584</v>
       </c>
     </row>
     <row r="90">
@@ -8716,7 +8088,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-34.25326297996312</v>
+        <v>-29.90189163203742</v>
       </c>
     </row>
     <row r="91">
@@ -8724,7 +8096,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-34.25326297996312</v>
+        <v>-29.90189163203742</v>
       </c>
     </row>
     <row r="92">
@@ -8732,7 +8104,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-34.25326297996312</v>
+        <v>-29.90189163203742</v>
       </c>
     </row>
     <row r="93">
@@ -8740,7 +8112,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-34.14084636287022</v>
+        <v>-29.66597855756534</v>
       </c>
     </row>
     <row r="94">
@@ -8748,7 +8120,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-34.14084636287022</v>
+        <v>-29.66597855756534</v>
       </c>
     </row>
     <row r="95">
@@ -8756,7 +8128,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-34.14084636287022</v>
+        <v>-29.66597855756534</v>
       </c>
     </row>
     <row r="96">
@@ -8764,7 +8136,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-33.93687069113555</v>
+        <v>-29.66334783809469</v>
       </c>
     </row>
     <row r="97">
@@ -8772,7 +8144,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-33.93687069113555</v>
+        <v>-29.66334783809469</v>
       </c>
     </row>
     <row r="98">
@@ -8780,7 +8152,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-33.93687069113555</v>
+        <v>-29.66334783809469</v>
       </c>
     </row>
     <row r="99">
@@ -8788,7 +8160,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-34.00410279581511</v>
+        <v>-30.01432383317097</v>
       </c>
     </row>
     <row r="100">
@@ -8796,7 +8168,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-34.00410279581511</v>
+        <v>-30.01432383317097</v>
       </c>
     </row>
     <row r="101">
@@ -8804,7 +8176,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-34.00410279581511</v>
+        <v>-30.01432383317097</v>
       </c>
     </row>
     <row r="102">
@@ -8812,7 +8184,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-34.06688503323829</v>
+        <v>-29.99258215506034</v>
       </c>
     </row>
     <row r="103">
@@ -8820,7 +8192,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-34.06688503323829</v>
+        <v>-29.99258215506034</v>
       </c>
     </row>
     <row r="104">
@@ -8828,7 +8200,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-34.06688503323829</v>
+        <v>-29.99258215506034</v>
       </c>
     </row>
     <row r="105">
@@ -8836,7 +8208,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-34.02949581534075</v>
+        <v>-30.02516649585278</v>
       </c>
     </row>
     <row r="106">
@@ -8844,7 +8216,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-34.02949581534075</v>
+        <v>-30.02516649585278</v>
       </c>
     </row>
     <row r="107">
@@ -8852,7 +8224,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-34.02949581534075</v>
+        <v>-30.02516649585278</v>
       </c>
     </row>
     <row r="108">
@@ -8860,7 +8232,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-34.50491436936466</v>
+        <v>-30.28578695552457</v>
       </c>
     </row>
     <row r="109">
@@ -8868,7 +8240,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-34.50491436936466</v>
+        <v>-30.28578695552457</v>
       </c>
     </row>
     <row r="110">
@@ -8876,7 +8248,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-34.50491436936466</v>
+        <v>-30.28578695552457</v>
       </c>
     </row>
     <row r="111">
@@ -8884,7 +8256,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-35.13115010832234</v>
+        <v>-31.3194010268973</v>
       </c>
     </row>
     <row r="112">
@@ -8892,7 +8264,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-35.13115010832234</v>
+        <v>-31.3194010268973</v>
       </c>
     </row>
     <row r="113">
@@ -8900,7 +8272,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-35.13115010832234</v>
+        <v>-31.3194010268973</v>
       </c>
     </row>
     <row r="114">
@@ -8908,7 +8280,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-35.54138930168973</v>
+        <v>-31.29955372784665</v>
       </c>
     </row>
     <row r="115">
@@ -8916,7 +8288,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-35.54138930168973</v>
+        <v>-31.29955372784665</v>
       </c>
     </row>
     <row r="116">
@@ -8924,7 +8296,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-35.54138930168973</v>
+        <v>-31.29955372784665</v>
       </c>
     </row>
     <row r="117">
@@ -8932,7 +8304,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-37.24718517509718</v>
+        <v>-32.42208817635818</v>
       </c>
     </row>
     <row r="118">
@@ -8940,7 +8312,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-37.24718517509718</v>
+        <v>-32.42208817635818</v>
       </c>
     </row>
     <row r="119">
@@ -8948,7 +8320,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-37.24718517509718</v>
+        <v>-32.42208817635818</v>
       </c>
     </row>
     <row r="120">
@@ -8956,7 +8328,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-37.36271433049014</v>
+        <v>-32.45468338175984</v>
       </c>
     </row>
     <row r="121">
@@ -8964,7 +8336,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-37.36271433049014</v>
+        <v>-32.45468338175984</v>
       </c>
     </row>
     <row r="122">
@@ -8972,7 +8344,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-37.36271433049014</v>
+        <v>-32.45468338175984</v>
       </c>
     </row>
     <row r="123">
@@ -8980,7 +8352,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-39.41474070917288</v>
+        <v>-34.51271178507672</v>
       </c>
     </row>
     <row r="124">
@@ -8988,7 +8360,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-39.41474070917288</v>
+        <v>-34.51271178507672</v>
       </c>
     </row>
     <row r="125">
@@ -8996,7 +8368,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-39.41474070917288</v>
+        <v>-34.51271178507672</v>
       </c>
     </row>
     <row r="126">
@@ -9004,7 +8376,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-39.02794212227184</v>
+        <v>-35.52898817221652</v>
       </c>
     </row>
     <row r="127">
@@ -9012,7 +8384,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-39.02794212227184</v>
+        <v>-35.52898817221652</v>
       </c>
     </row>
     <row r="128">
@@ -9020,7 +8392,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-39.02794212227184</v>
+        <v>-35.52898817221652</v>
       </c>
     </row>
     <row r="129">
@@ -9028,7 +8400,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-38.58455825859594</v>
+        <v>-35.63655563282891</v>
       </c>
     </row>
     <row r="130">
@@ -9036,7 +8408,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-38.58455825859594</v>
+        <v>-35.63655563282891</v>
       </c>
     </row>
     <row r="131">
@@ -9044,7 +8416,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-38.58455825859594</v>
+        <v>-35.63655563282891</v>
       </c>
     </row>
     <row r="132">
@@ -9052,7 +8424,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-39.57880438910085</v>
+        <v>-35.436990134028</v>
       </c>
     </row>
     <row r="133">
@@ -9060,7 +8432,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-39.57880438910085</v>
+        <v>-35.436990134028</v>
       </c>
     </row>
     <row r="134">
@@ -9068,7 +8440,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-39.57880438910085</v>
+        <v>-35.436990134028</v>
       </c>
     </row>
     <row r="135">
@@ -9076,7 +8448,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-38.03040634978991</v>
+        <v>-34.05896216403718</v>
       </c>
     </row>
     <row r="136">
@@ -9084,7 +8456,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-38.03040634978991</v>
+        <v>-34.05896216403718</v>
       </c>
     </row>
     <row r="137">
@@ -9092,7 +8464,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-38.03040634978991</v>
+        <v>-34.05896216403718</v>
       </c>
     </row>
     <row r="138">
@@ -9100,7 +8472,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-37.25013158778873</v>
+        <v>-34.46651774900423</v>
       </c>
     </row>
     <row r="139">
@@ -9108,7 +8480,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-37.25013158778873</v>
+        <v>-34.46651774900423</v>
       </c>
     </row>
     <row r="140">
@@ -9116,7 +8488,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-37.25013158778873</v>
+        <v>-34.46651774900423</v>
       </c>
     </row>
     <row r="141">
@@ -9124,7 +8496,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-36.48014472562313</v>
+        <v>-34.46343505651626</v>
       </c>
     </row>
     <row r="142">
@@ -9132,7 +8504,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-36.48014472562313</v>
+        <v>-34.46343505651626</v>
       </c>
     </row>
     <row r="143">
@@ -9140,7 +8512,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-36.48014472562313</v>
+        <v>-34.46343505651626</v>
       </c>
     </row>
     <row r="144">
@@ -9148,7 +8520,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-37.30980694619689</v>
+        <v>-33.90908588363717</v>
       </c>
     </row>
     <row r="145">
@@ -9156,7 +8528,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-37.30980694619689</v>
+        <v>-33.90908588363717</v>
       </c>
     </row>
     <row r="146">
